--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40DE83EE-6E59-46CE-86E9-3F03310FA54C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3068A289-27D1-4092-B95E-D8FCC3F35DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1665" windowWidth="29895" windowHeight="19935" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -486,9 +486,6 @@
     <t>Neonatal congenital anomalies</t>
   </si>
   <si>
-    <t>Vitamin A supplementation</t>
-  </si>
-  <si>
     <t>Balanced energy-protein supplementation</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
     <t>IFA fortification of wheat flour</t>
   </si>
   <si>
-    <t>IFA fortification of maize</t>
-  </si>
-  <si>
     <t>IFA fortification of rice</t>
   </si>
   <si>
@@ -1222,6 +1216,12 @@
   </si>
   <si>
     <t>12-23 mois</t>
+  </si>
+  <si>
+    <t>Supplémentation en vitamine A</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
   </si>
 </sst>
 </file>
@@ -4766,18 +4766,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4785,7 +4785,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4794,7 +4794,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4807,12 +4807,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4871,14 +4871,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4922,12 +4922,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4963,14 +4963,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5012,19 +5012,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="17"/>
     </row>
@@ -5127,13 +5127,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5174,12 +5174,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5213,7 +5213,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mY3OXEhDbwovwpiHYqvxmRqZuPTkK/1ttau2iybNMS4MTCvNsguUtC7AfK9GWUXjx6MBjOykv1I4HJiH/AMCEA==" saltValue="a09IpT8Wq3Ml30mGAuUDMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s+VhUDaplvHhEKiLpE2zV4Gen4uVTmwnY8v7bhmoRtXkZRvCrn5G2QxX4akx1YbZE3Pevzr4Q1/aCjbI03ph3w==" saltValue="shRPODXTlLc+LzaZ9ksaLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5240,48 +5240,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5361,7 +5361,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JFd4EPnLx+NH6r7+zKCc0CTJbhKKVwbdBSahr4mJvqfzN3/LZotLLIDENLi+JSaUPW/X8Knorra/60+dlBjJNA==" saltValue="s7xcgAOSDnOKxO+M4wTvdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FX2h+d0KflhH1ZGlms1Zz5twvxh0x0Ao71wsJZUifE4Cm/uieXLhft94cvD1d/spiEW3CJjYJADC/hCsF+rUpA==" saltValue="fYq6TzfsTPl+Z71ze1ghIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5387,47 +5387,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5461,7 +5461,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O0YEmAw5MoU9GGz2rguPdXk46xCqWOPgRB/VV8aQV18MAeuCDJr0LekYr4MaFdyvwV9p6SuFmSUyUIx2zCN6kw==" saltValue="QyEu5NT6naRnEVC/pK2/Ag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Aldo1XI9/6n/9l2WqXe8c/biQU+iLWIHUi14Mdp1GD6Dx/2VFWpKYh/El+lUf/JVPBvtmAKtDOTmPREDr5GhRw==" saltValue="KIv12TA6dENNCZ/7+9s4iA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5576,7 +5576,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Xp6LvAoyUDfIaXFBX2XJ9coTEAtaLNkLB2jKzKAZosfzNWz1aFGqDMk8+eDVLpIXYVSkuuwNeN6f8p/JxkyTMQ==" saltValue="97D7fpXrXtW2VPxbscXTEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OyMLoYaxUUMv5xV0vkGHhNpnfSVgHzT3RxqS8LnCiQbdPt2bE3qvk4Vwmadd2jYmIuCmSSvFq6zdN4mpzmn7vA==" saltValue="zU1oOuCJqvEq7k4WkKXpLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5607,10 +5607,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -5622,42 +5622,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6169,10 +6169,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6221,7 +6221,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6266,7 +6266,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6315,7 +6315,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6550,10 +6550,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6800,10 +6800,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7114,7 +7114,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7292,7 +7292,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UG+cNIze8IzHVmNsyAbqnJDnzyDpA3fE21aWOj5EbkiGRwiAZresO7V/JsPzzyiSnz1TZtKZR+lShxvEL0KC4A==" saltValue="Ej6Ov24RD+kawFctm7VQ8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z0Y6imRVXi1z+dv9x3b0hebAXgIhzhH8HABTfaYVmwg3nmzqt0BCa0ShxiUd64mPhvnn0ZhnHC0VPMHuCN5niw==" saltValue="A2jllUd1gfk6eSb552SBdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7311,26 +7311,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ySmH+gJU38m0RJ6T27W8PJXvCu0WGQZR02Duc+zz2CGtrna8KFsUAZ9+8ZNBDFonKGKND7wElH8npC/9TGJQKQ==" saltValue="wQlMT/OHEiL6d2du0zfBuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JX3cHBys+4RuxnLdS5fUJoXIzbB43EHoLGjgXT/j/PP2PbNlRQS5ZbqPl/wD0ID67kYkl72Fe11TmeWQUK1FgQ==" saltValue="gkGuI71k620ibV6uAKySTg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7357,24 +7357,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7500,7 +7500,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7538,7 +7538,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T1V1e/BHXYvfgpHCMAS2KdLWLi1KVVDlfl66mM5XYkyj9FC75143ojvMaS9mti1q5SKSQ1VIgslB8piRFk5KOQ==" saltValue="r1GT17OziLuqP0qoePvTjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YWetsxzbsleUFLiJhnL+cgvKCdzQs88VDeS4xWShH6eCXqIfQfD4Rx+niAt6Vv0WA783Jc9e8NgN+qxM/i46xg==" saltValue="xolYzmynTFHyIJ8DB0hDLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7571,10 +7571,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>1</v>
@@ -7586,42 +7586,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="56" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="90">
         <v>0</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="90">
         <v>1</v>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="90">
         <v>1</v>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="90">
         <v>1</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="90">
         <v>1</v>
@@ -7885,7 +7885,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="90">
         <v>0</v>
@@ -7929,7 +7929,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="90">
         <v>0</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="90">
         <v>1</v>
@@ -8017,7 +8017,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="90">
         <v>0</v>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C13" s="90">
         <v>0</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="90">
         <v>1</v>
@@ -8193,7 +8193,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="90">
         <v>0</v>
@@ -8253,10 +8253,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="90">
         <v>0</v>
@@ -8301,7 +8301,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="90">
         <v>0</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="90">
         <v>0</v>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" s="90">
         <v>0</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="90">
         <v>0</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="90">
         <v>0</v>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="90">
         <v>0</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="90">
         <v>0</v>
@@ -8625,10 +8625,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="90">
         <v>0</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27" s="90">
         <v>0</v>
@@ -8718,7 +8718,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="90">
         <v>0</v>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C29" s="90">
         <v>0</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="90">
         <v>0</v>
@@ -8866,10 +8866,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C32" s="90">
         <v>1</v>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="90">
         <v>1</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="90">
         <v>1</v>
@@ -9001,7 +9001,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="90">
         <v>1</v>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="90">
         <v>1</v>
@@ -9090,7 +9090,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="90">
         <v>1</v>
@@ -9134,7 +9134,7 @@
     </row>
     <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="90">
         <v>1</v>
@@ -9178,7 +9178,7 @@
     </row>
     <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="90">
         <v>1</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="90">
         <v>1</v>
@@ -9266,7 +9266,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="90">
         <v>1</v>
@@ -9309,7 +9309,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hFfGFaI3vRwq0YIHaEvo9+hrt3e6YpwScgie3+z1jqQBsRC/DguLc6P0sn0faVT2RC94AI88jmkoTmJ35mw0sQ==" saltValue="DBNZPS4YdRlbV1wG2nURJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vihXVpJFxmO6Ah/c+mTnNM17KRWV/Q8GjI1fOOh9hJ7aUYLfote1c+oVV4fCpboOnG95Mz5t0FIGOkM47KAyZw==" saltValue="X2fKT8HPqfjf1oRGMgo45g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9342,42 +9342,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -9387,14 +9387,14 @@
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -9403,7 +9403,7 @@
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
       <c r="H3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -9411,12 +9411,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -9428,11 +9428,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
@@ -9456,26 +9456,26 @@
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
       <c r="J6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -9483,18 +9483,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
@@ -9502,18 +9502,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -9521,11 +9521,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
@@ -9538,11 +9538,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -9555,11 +9555,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -9572,11 +9572,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -9589,11 +9589,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -9601,18 +9601,18 @@
       <c r="G14" s="90"/>
       <c r="H14" s="90"/>
       <c r="I14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="90"/>
       <c r="E15" s="90"/>
@@ -9620,39 +9620,39 @@
       <c r="G15" s="90"/>
       <c r="H15" s="90"/>
       <c r="I15" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
       <c r="H16" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
@@ -9665,16 +9665,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" s="90"/>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G18" s="90"/>
       <c r="H18" s="90"/>
@@ -9684,16 +9684,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -9703,16 +9703,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="90"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G20" s="90"/>
       <c r="H20" s="90"/>
@@ -9722,7 +9722,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -9731,26 +9731,26 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
       <c r="H21" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
@@ -9762,11 +9762,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -9774,14 +9774,14 @@
       <c r="G23" s="90"/>
       <c r="H23" s="90"/>
       <c r="I23" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -9790,7 +9790,7 @@
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
       <c r="H24" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I24" s="90"/>
       <c r="J24" s="90"/>
@@ -9798,7 +9798,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -9807,7 +9807,7 @@
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
       <c r="H25" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I25" s="90"/>
       <c r="J25" s="90"/>
@@ -9815,11 +9815,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
@@ -9832,11 +9832,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
@@ -9844,14 +9844,14 @@
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
       <c r="I27" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -9860,7 +9860,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
       <c r="H28" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
@@ -9868,14 +9868,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
@@ -9887,13 +9887,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
@@ -9912,10 +9912,10 @@
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
       <c r="G31" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -9931,10 +9931,10 @@
       <c r="E32" s="90"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
@@ -9942,7 +9942,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -9950,10 +9950,10 @@
       <c r="E33" s="90"/>
       <c r="F33" s="90"/>
       <c r="G33" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -9969,10 +9969,10 @@
       <c r="E34" s="90"/>
       <c r="F34" s="90"/>
       <c r="G34" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -9988,10 +9988,10 @@
       <c r="E35" s="90"/>
       <c r="F35" s="90"/>
       <c r="G35" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -10007,10 +10007,10 @@
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
       <c r="G36" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -10018,7 +10018,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -10027,7 +10027,7 @@
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
@@ -10035,27 +10035,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38" s="90"/>
       <c r="D38" s="90"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
       <c r="G38" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H38" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38" s="90"/>
       <c r="J38" s="90"/>
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HGBvh5am0tp/LGeYbfs+xWbA1ut2dG4IsCGd+O8FiL4w1o4vCFcAeke8f6BXz7vvN5no4rnHT0d2sZi5NjNOnQ==" saltValue="nX7iiaH42L/PzVHDyuD8Ww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ux5okmoaLLXfOXCzCrwB9xuYHpcBnxmkd9c0ius1oQqSzk+Igm7TQrNIas7ebBEioOkJdGD/skEcGHNZK6svcw==" saltValue="yg6WnSlxHFc53bGk9LQP1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10088,37 +10088,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -10126,25 +10126,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -10155,25 +10155,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -10184,25 +10184,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90"/>
@@ -10210,28 +10210,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
@@ -10242,25 +10242,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="90"/>
@@ -10268,95 +10268,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -10365,19 +10365,19 @@
       <c r="H11" s="90"/>
       <c r="I11" s="90"/>
       <c r="J11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -10387,16 +10387,16 @@
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
       <c r="K12" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -10406,16 +10406,16 @@
       <c r="I13" s="90"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -10425,11 +10425,11 @@
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t53hPna771ukML4k2TpfQdKCYUfGVVKFK5I5n0xQ+gCpL/kxn921g8XsxNXgOD4wYM203Pbrg0EzAd0HAHYmLg==" saltValue="0jH4EHfulORvw9C4ARehQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mGEVG/qrpedM19THd03U3yMa1TPOuTQC24vaW45/QUld2sZ3dHs8VdUeNkhhEf8wyi/vbGSwkzT0XewSLy7Jjg==" saltValue="OgNbRyiksSUMb2eV07zqLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10455,13 +10455,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -10473,7 +10473,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="98" t="s">
         <v>4</v>
@@ -10481,13 +10481,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="99">
         <v>1</v>
@@ -10508,7 +10508,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="139"/>
       <c r="C3" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="99">
         <v>1</v>
@@ -10530,7 +10530,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="139"/>
       <c r="C4" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="99">
         <v>1</v>
@@ -10554,7 +10554,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" s="99">
         <f>5.16</f>
@@ -10576,7 +10576,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="139"/>
       <c r="C6" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="99">
         <v>5.16</v>
@@ -10597,7 +10597,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="139"/>
       <c r="C7" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="99">
         <v>1</v>
@@ -10620,7 +10620,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8" s="99">
         <v>1</v>
@@ -10641,7 +10641,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="139"/>
       <c r="C9" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="99">
         <v>1</v>
@@ -10662,7 +10662,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="139"/>
       <c r="C10" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="99">
         <v>1</v>
@@ -10685,7 +10685,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="99">
         <v>1</v>
@@ -10706,7 +10706,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="139"/>
       <c r="C12" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12" s="99">
         <v>1</v>
@@ -10727,7 +10727,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="139"/>
       <c r="C13" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13" s="99">
         <v>1</v>
@@ -10747,10 +10747,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="99">
         <v>1</v>
@@ -10771,7 +10771,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="139"/>
       <c r="C15" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" s="99">
         <v>1</v>
@@ -10792,7 +10792,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="139"/>
       <c r="C16" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="99">
         <v>1</v>
@@ -10812,10 +10812,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D17" s="99">
         <v>1.05</v>
@@ -10842,13 +10842,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="99">
         <v>1</v>
@@ -10869,7 +10869,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="139"/>
       <c r="C20" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D20" s="99">
         <v>1</v>
@@ -10890,7 +10890,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="139"/>
       <c r="C21" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" s="99">
         <v>1</v>
@@ -10913,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22" s="99">
         <v>1</v>
@@ -10934,7 +10934,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="139"/>
       <c r="C23" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D23" s="99">
         <v>1</v>
@@ -10955,7 +10955,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="139"/>
       <c r="C24" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="99">
         <v>1</v>
@@ -10978,7 +10978,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25" s="99">
         <v>1</v>
@@ -10999,7 +10999,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="139"/>
       <c r="C26" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D26" s="99">
         <v>1</v>
@@ -11020,7 +11020,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="139"/>
       <c r="C27" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27" s="99">
         <v>1</v>
@@ -11043,7 +11043,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" s="99">
         <v>1</v>
@@ -11064,7 +11064,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="139"/>
       <c r="C29" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" s="99">
         <v>1</v>
@@ -11085,7 +11085,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="139"/>
       <c r="C30" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="99">
         <v>1</v>
@@ -11105,10 +11105,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31" s="99">
         <v>1</v>
@@ -11129,7 +11129,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="139"/>
       <c r="C32" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" s="99">
         <v>1</v>
@@ -11150,7 +11150,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="139"/>
       <c r="C33" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D33" s="99">
         <v>1</v>
@@ -11170,10 +11170,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D34" s="99">
         <v>1</v>
@@ -11200,13 +11200,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" s="139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="99">
         <v>1</v>
@@ -11227,7 +11227,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="139"/>
       <c r="C37" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="99">
         <v>1</v>
@@ -11248,7 +11248,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="139"/>
       <c r="C38" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38" s="99">
         <v>1</v>
@@ -11271,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D39" s="99">
         <v>1</v>
@@ -11292,7 +11292,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="139"/>
       <c r="C40" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="99">
         <v>1</v>
@@ -11313,7 +11313,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="139"/>
       <c r="C41" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D41" s="99">
         <v>1</v>
@@ -11336,7 +11336,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D42" s="99">
         <v>1</v>
@@ -11357,7 +11357,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="139"/>
       <c r="C43" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D43" s="99">
         <v>1</v>
@@ -11378,7 +11378,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="139"/>
       <c r="C44" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D44" s="99">
         <v>1</v>
@@ -11401,7 +11401,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D45" s="99">
         <v>1</v>
@@ -11422,7 +11422,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="139"/>
       <c r="C46" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" s="99">
         <v>1</v>
@@ -11443,7 +11443,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="139"/>
       <c r="C47" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D47" s="99">
         <v>1</v>
@@ -11463,10 +11463,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" s="99">
         <v>1</v>
@@ -11487,7 +11487,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="139"/>
       <c r="C49" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="99">
         <v>1</v>
@@ -11508,7 +11508,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="139"/>
       <c r="C50" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D50" s="99">
         <v>1</v>
@@ -11528,10 +11528,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D51" s="99">
         <v>1.05</v>
@@ -11550,7 +11550,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QkTzz1Jy34FqPCZB4czQClHDzJlrNyzKH5qt69mGhv0ZzRfMct1vQJJo3S1CVeHasOLPHvqITH8CiOj+GexzCQ==" saltValue="pIoVphykNSp6gFpHWyxTrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kddGELti4TGmLP/x1d4EKNns0AyJ1XEVoLblYt2wxCaxmTsJEm9COUqfvz1zqFq17wkUcWx+fZzjQm6s33NkFg==" saltValue="MJRmT/OirPlm7U9x0CubCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -11596,28 +11596,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12658,7 +12658,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kY/fIgnJH+hc11VzQsMgI4v1fOjCTZmQr2lxQG9WEu2l6c1RafMrqtY8KmAblCvfkdYmPbtjZuI0rkKLJG0NiQ==" saltValue="/dFms57SMItOBIAy4LlObw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J/HT+Iwcbu5LZDe1BN9u91/7tFH4qIf1HZG9lyyj76GKPliMbTNnkLJ0+kyMLGYhlFx2WzGxMlGcEJlgvcaHvw==" saltValue="ClENxKSvKAlnNdzBeFNqxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12692,7 +12692,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12712,7 +12712,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -12722,7 +12722,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12739,7 +12739,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12756,7 +12756,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12796,7 +12796,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -12821,7 +12821,7 @@
     </row>
     <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="119"/>
@@ -12831,7 +12831,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="100"/>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -12859,7 +12859,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -12877,7 +12877,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -12904,7 +12904,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" s="110"/>
       <c r="C17" s="123"/>
@@ -12915,7 +12915,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13060,7 +13060,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KcCadJZwwZeVHhf93veGqexnnKea9L979qDHeSDrd/Wg/KSg2MOXaaT3syjlPgz+bj2OYsDPU3Ac3CBb8KhBYQ==" saltValue="ahLWTsAG9oSk7K75MQheqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UVUx14JtdCf7B/UglNyOXgGqFvv4Z5Y4m5jYgEQOSFvgGeWUoMZr/1kVvJvJWV0/0gAjSmngpszr+jfoU5Wl8g==" saltValue="rR6RQ/9SwNaNV65fVlgJ2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13090,18 +13090,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D2" s="109" t="s">
         <v>1</v>
@@ -13113,7 +13113,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H2" s="109" t="s">
         <v>4</v>
@@ -13130,10 +13130,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="114">
         <v>1</v>
@@ -13161,7 +13161,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -13248,7 +13248,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="114">
         <v>1</v>
@@ -13276,7 +13276,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
@@ -13304,7 +13304,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="115">
         <v>1</v>
@@ -13332,7 +13332,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="115">
         <v>1</v>
@@ -13363,7 +13363,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D11" s="114">
         <v>1</v>
@@ -13391,7 +13391,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
@@ -13419,7 +13419,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="115">
         <v>1</v>
@@ -13447,7 +13447,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="115">
         <v>1</v>
@@ -13478,7 +13478,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D15" s="114">
         <v>1</v>
@@ -13506,7 +13506,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
@@ -13534,7 +13534,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
@@ -13562,7 +13562,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="115">
         <v>1</v>
@@ -13593,7 +13593,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D19" s="114">
         <v>1</v>
@@ -13621,7 +13621,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" s="115">
         <v>1</v>
@@ -13649,7 +13649,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" s="115">
         <v>1</v>
@@ -13677,7 +13677,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D22" s="115">
         <v>1</v>
@@ -13708,7 +13708,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D23" s="114">
         <v>1</v>
@@ -13736,7 +13736,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -13764,7 +13764,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -13792,7 +13792,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -13820,18 +13820,18 @@
     </row>
     <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D29" s="109" t="s">
         <v>1</v>
@@ -13843,7 +13843,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H29" s="109" t="s">
         <v>4</v>
@@ -13860,10 +13860,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D30" s="114">
         <v>1</v>
@@ -13891,7 +13891,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D31" s="115">
         <v>1</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -13947,7 +13947,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="115">
         <v>1</v>
@@ -13978,7 +13978,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D34" s="114">
         <v>1</v>
@@ -14006,7 +14006,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -14034,7 +14034,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="115">
         <v>1</v>
@@ -14062,7 +14062,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="115">
         <v>1</v>
@@ -14093,7 +14093,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D38" s="114">
         <v>1</v>
@@ -14121,7 +14121,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="115">
         <v>1</v>
@@ -14149,7 +14149,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="115">
         <v>1</v>
@@ -14177,7 +14177,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41" s="115">
         <v>1</v>
@@ -14208,7 +14208,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D42" s="114">
         <v>1</v>
@@ -14236,7 +14236,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" s="115">
         <v>1</v>
@@ -14264,7 +14264,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="115">
         <v>1</v>
@@ -14292,7 +14292,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" s="115">
         <v>1</v>
@@ -14323,7 +14323,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="114">
         <v>1</v>
@@ -14351,7 +14351,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D47" s="115">
         <v>1</v>
@@ -14379,7 +14379,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="115">
         <v>1</v>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49" s="115">
         <v>1</v>
@@ -14438,7 +14438,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D50" s="114">
         <v>1</v>
@@ -14466,7 +14466,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D51" s="115">
         <v>1</v>
@@ -14494,7 +14494,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="115">
         <v>1</v>
@@ -14522,7 +14522,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="115">
         <v>1</v>
@@ -14554,30 +14554,30 @@
     </row>
     <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D56" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="109" t="s">
+      <c r="F56" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="109" t="s">
+      <c r="G56" s="109" t="s">
         <v>53</v>
-      </c>
-      <c r="G56" s="109" t="s">
-        <v>54</v>
       </c>
       <c r="H56" s="128"/>
       <c r="M56" s="128"/>
@@ -14588,10 +14588,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D57" s="114">
         <v>1</v>
@@ -14613,7 +14613,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="115">
         <v>10.675000000000001</v>
@@ -14635,10 +14635,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D59" s="114">
         <v>1</v>
@@ -14660,7 +14660,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D60" s="115">
         <v>10.675000000000001</v>
@@ -14682,10 +14682,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D61" s="114">
         <v>1</v>
@@ -14707,7 +14707,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D62" s="115">
         <v>10.675000000000001</v>
@@ -14733,7 +14733,7 @@
     </row>
     <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -14741,10 +14741,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D65" s="109" t="s">
         <v>1</v>
@@ -14756,7 +14756,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H65" s="132" t="s">
         <v>4</v>
@@ -14773,10 +14773,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D66" s="114">
         <v>1</v>
@@ -14804,7 +14804,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D67" s="115">
         <v>1.35</v>
@@ -14832,7 +14832,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" s="115">
         <v>1.35</v>
@@ -14860,7 +14860,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D69" s="115">
         <v>5.4</v>
@@ -14891,7 +14891,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D70" s="114">
         <v>1</v>
@@ -14919,7 +14919,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" s="115">
         <v>1.35</v>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" s="115">
         <v>1.35</v>
@@ -14975,7 +14975,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D73" s="115">
         <v>5.4</v>
@@ -15006,7 +15006,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D74" s="114">
         <v>1</v>
@@ -15034,7 +15034,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D75" s="115">
         <v>1.35</v>
@@ -15062,7 +15062,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D76" s="115">
         <v>1.35</v>
@@ -15090,7 +15090,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D77" s="115">
         <v>5.4</v>
@@ -15121,7 +15121,7 @@
         <v>12</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D78" s="114">
         <v>1</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" s="115">
         <v>1</v>
@@ -15177,7 +15177,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D80" s="115">
         <v>1</v>
@@ -15205,7 +15205,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D81" s="115">
         <v>1</v>
@@ -15233,10 +15233,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D82" s="114">
         <v>1</v>
@@ -15264,7 +15264,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D83" s="115">
         <v>1</v>
@@ -15292,7 +15292,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D84" s="115">
         <v>1</v>
@@ -15320,7 +15320,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D85" s="115">
         <v>1</v>
@@ -15351,7 +15351,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D86" s="114">
         <v>1</v>
@@ -15379,7 +15379,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D87" s="115">
         <v>1</v>
@@ -15407,7 +15407,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D88" s="115">
         <v>1</v>
@@ -15435,7 +15435,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D89" s="115">
         <v>1</v>
@@ -15466,7 +15466,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D90" s="114">
         <v>1</v>
@@ -15494,7 +15494,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D91" s="115">
         <v>1</v>
@@ -15522,7 +15522,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D92" s="115">
         <v>1</v>
@@ -15550,7 +15550,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D93" s="115">
         <v>1</v>
@@ -15581,7 +15581,7 @@
         <v>15</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D94" s="114">
         <v>1</v>
@@ -15609,7 +15609,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D95" s="115">
         <v>1</v>
@@ -15637,7 +15637,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D96" s="115">
         <v>1</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D97" s="115">
         <v>1</v>
@@ -15696,7 +15696,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D98" s="114">
         <v>1</v>
@@ -15724,7 +15724,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D99" s="115">
         <v>1</v>
@@ -15752,7 +15752,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D100" s="115">
         <v>1</v>
@@ -15780,7 +15780,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D101" s="115">
         <v>1</v>
@@ -15808,18 +15808,18 @@
     </row>
     <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B104" s="134" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D104" s="109" t="s">
         <v>1</v>
@@ -15831,7 +15831,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H104" s="132" t="s">
         <v>4</v>
@@ -15849,7 +15849,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D105" s="114">
         <v>1</v>
@@ -15877,7 +15877,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D106" s="115">
         <v>1.26</v>
@@ -15905,7 +15905,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D107" s="115">
         <v>1.68</v>
@@ -15933,7 +15933,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D108" s="115">
         <v>2.65</v>
@@ -15963,7 +15963,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="I3O6fVq3cYsou+kU5f9vbGiR7yDewit00ieFbKSoPe2HEUe48uJAttWrShgh6nfGhQx9oGOXjlUN7HP9z1pAvg==" saltValue="ZP0ks6cSO5WBL4gyLr6EPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SVs68hjZoyf5dcObzM4AluNV4RZAGEx7fjWWB+5k0GHED3uNEr8yPislkL2CZVsI3/oLjf5VYCJxF5sQ3VP17g==" saltValue="vTRLdT0yPq6a1IZ5IsTgQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15994,7 +15994,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16012,7 +16012,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>4</v>
@@ -16020,10 +16020,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16041,7 +16041,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="115">
         <v>1.0249999999999999</v>
@@ -16061,12 +16061,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16086,7 +16086,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16106,7 +16106,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16134,13 +16134,13 @@
     </row>
     <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="115">
         <v>1.5</v>
@@ -16164,15 +16164,15 @@
     </row>
     <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="115">
         <v>1.0249999999999999</v>
@@ -16193,7 +16193,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15" s="115">
         <v>1.0249999999999999</v>
@@ -16213,10 +16213,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="115">
         <v>1</v>
@@ -16237,26 +16237,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="115">
         <v>1.52</v>
@@ -16272,7 +16272,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bTuoRw2fD4z7u0LK29LbVNQetyGB1LaJ/dqnwzgqsvxLLZiQvZHD0N9Fpnny9DRyMfwLIM9Njez0wGddlglZ7g==" saltValue="USpIHrftJ9wpij0nR3Fj+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z0/CaudNfyTZTP/LzudGfJm+HuxW2z0n00XOYF6huxOlnE9tm5fsdsz6hX1IVb2VQ1HcPQbUpmoPkpesddaaEA==" saltValue="7lQFuuAL0saNElePQnC+cA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16301,7 +16301,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
@@ -16319,10 +16319,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" s="115">
         <v>0.21</v>
@@ -16340,7 +16340,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -16357,10 +16357,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" s="115">
         <v>0</v>
@@ -16378,7 +16378,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16395,10 +16395,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="115">
         <v>0</v>
@@ -16416,7 +16416,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16433,10 +16433,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="115">
         <v>0.35</v>
@@ -16454,7 +16454,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16471,10 +16471,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" s="115">
         <v>0.35</v>
@@ -16492,7 +16492,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -16509,10 +16509,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="115">
         <v>0.08</v>
@@ -16530,7 +16530,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -16552,7 +16552,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lOxYeENoTznyDUzYVHqiGjrmNoQhS2xQ4SzvjMMAMA+3IThI0ygl0N9VBvRClZYvmdM94hi3fD7ozI+F9sTpyA==" saltValue="X/KsC7x3yDvx1sAvT/G1tA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Bs0e4vPegGXqLp1o9IZ3kyjTqZXINsKIw2yhOT4pCzNpe7BF6YeGM+47PNnEh30cZOfuu4WpegCte9v/rjMAZw==" saltValue="YTCf6I3Vvm3lZPVuu+o1Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16590,44 +16590,44 @@
         <v>3</v>
       </c>
       <c r="F1" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="109" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="J1" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="K1" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="L1" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="M1" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="N1" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="O1" s="109" t="s">
         <v>53</v>
-      </c>
-      <c r="O1" s="109" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="115">
         <v>0.53</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="115">
         <v>1</v>
@@ -16715,7 +16715,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16803,7 +16803,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16847,7 +16847,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16891,7 +16891,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="115">
         <v>1</v>
@@ -16979,7 +16979,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -17023,7 +17023,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="115">
         <v>0.83</v>
@@ -17067,7 +17067,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -17111,7 +17111,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="115">
         <v>1</v>
@@ -17155,13 +17155,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C17" s="115">
         <v>1</v>
@@ -17205,7 +17205,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="115">
         <v>1</v>
@@ -17249,7 +17249,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="115">
         <v>1</v>
@@ -17293,7 +17293,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="115">
         <v>1</v>
@@ -17348,7 +17348,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vPh6kmmLlWtGi7MitYV4dcT8XyPNrtEHE2edqQVa2c+hJKz+hgeiRMs6JRIKZ38nPczqvHTHyQYK/6kQwBGleg==" saltValue="xyoXlfNhVuHECf3sz6dJBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RScJ1e9zFbwTbR93SBJ6kfGG5wfW5Bbb9kP1jhmJ5unxKDo8g6+5XQk2ylErdGPUwYYEytr3qyQUBhuV3vhNOw==" saltValue="loOrKQSEBfiyIbnsKMiQZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17386,7 +17386,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
@@ -17394,12 +17394,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -17419,7 +17419,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="135"/>
@@ -17430,7 +17430,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -17449,7 +17449,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="elqUys53xm718MIXhVJm//3xomnwaaymINuNn8U5dfzM/5Hdl0J7XpxGdbdutJ4V590EWgMAWDkWvMN/WXUroA==" saltValue="tKK6xKt5nsnWkcvywh3+eA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ewX9lusoc1epvldDvypfBuls/lrUxKp9PKDm3iBe19U2ovdT55+amK6s5FJGUEc48Fs/kP4+rFVi+YA4X3J5OQ==" saltValue="9CDvLBNEzdvPZa6WSEKjpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17481,13 +17481,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -17499,7 +17499,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>4</v>
@@ -17507,13 +17507,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="115">
         <v>0</v>
@@ -17533,7 +17533,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="115">
         <v>0</v>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D4" s="115">
         <v>0</v>
@@ -17573,13 +17573,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D5" s="115">
         <v>0</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D6" s="115">
         <v>0</v>
@@ -17619,10 +17619,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" s="115">
         <v>0</v>
@@ -17642,7 +17642,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D8" s="115">
         <v>0</v>
@@ -17662,13 +17662,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D9" s="115">
         <v>0</v>
@@ -17688,7 +17688,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="115">
         <v>0</v>
@@ -17708,10 +17708,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D11" s="115">
         <v>0</v>
@@ -17731,7 +17731,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" s="115">
         <v>0</v>
@@ -17751,13 +17751,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13" s="115">
         <v>0</v>
@@ -17777,7 +17777,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D14" s="115">
         <v>0</v>
@@ -17798,10 +17798,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D15" s="115">
         <v>0</v>
@@ -17822,7 +17822,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" s="115">
         <v>0</v>
@@ -17843,13 +17843,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D17" s="115">
         <v>0.7</v>
@@ -17870,7 +17870,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D18" s="115">
         <v>0.19</v>
@@ -17891,13 +17891,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D19" s="115">
         <v>0.7</v>
@@ -17917,7 +17917,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D20" s="115">
         <v>0.19</v>
@@ -17937,13 +17937,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D21" s="115">
         <v>0.7</v>
@@ -17963,7 +17963,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D22" s="115">
         <v>0.19</v>
@@ -17983,13 +17983,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D23" s="115">
         <v>1</v>
@@ -18009,7 +18009,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" s="115">
         <v>0</v>
@@ -18029,7 +18029,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" s="115">
         <v>0</v>
@@ -18049,13 +18049,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -18075,7 +18075,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D27" s="115">
         <v>0</v>
@@ -18095,7 +18095,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D28" s="115">
         <v>0</v>
@@ -18115,13 +18115,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29" s="115">
         <v>1</v>
@@ -18141,7 +18141,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D30" s="115">
         <v>0</v>
@@ -18161,7 +18161,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -18181,13 +18181,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -18207,7 +18207,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D33" s="115">
         <v>0</v>
@@ -18227,7 +18227,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D34" s="115">
         <v>0</v>
@@ -18247,13 +18247,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -18273,7 +18273,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -18293,7 +18293,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="115">
         <v>0</v>
@@ -18313,13 +18313,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D38" s="115">
         <v>0.3</v>
@@ -18339,7 +18339,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D39" s="115">
         <v>0.5</v>
@@ -18359,7 +18359,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D40" s="115">
         <v>0.65</v>
@@ -18382,7 +18382,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D41" s="115">
         <v>0.3</v>
@@ -18402,7 +18402,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D42" s="115">
         <v>0.5</v>
@@ -18422,7 +18422,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D43" s="115">
         <v>0.63</v>
@@ -18442,13 +18442,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D44" s="115">
         <v>0.88</v>
@@ -18468,7 +18468,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="115">
         <v>0.8</v>
@@ -18488,13 +18488,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D46" s="115">
         <v>1</v>
@@ -18514,7 +18514,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D47" s="115">
         <v>0.76</v>
@@ -18534,13 +18534,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D48" s="115">
         <v>0.57999999999999996</v>
@@ -18560,7 +18560,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D49" s="115">
         <v>0.88</v>
@@ -18579,7 +18579,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V9j+InN7JgEzwJtsOEBWKFSdZ9ddPtd71u/WsCrKSGGJpLYFjglKh4P1/cBMwVtHLiA1Mill1DASAYb1fT9FNQ==" saltValue="+SaCTmEnoAw4GGyJQVICkA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L5IRIiUrCOOpIHccB1DYbI10GRy4pxmftTYsM5vaAq/+rvUSlL9kqUFua2umP0JpfEFnEKZDQrqeDS/DrRWb2A==" saltValue="CKla7MYnYBoX8BXhhRsDvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18607,35 +18607,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>54</v>
       </c>
       <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="115">
         <v>1</v>
@@ -18653,7 +18653,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="115">
         <v>0.2</v>
@@ -18671,13 +18671,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -18696,7 +18696,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D5" s="115">
         <v>0.59</v>
@@ -18714,13 +18714,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -18739,7 +18739,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D7" s="115">
         <v>0.59</v>
@@ -18756,7 +18756,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UbOAJLvxb25CMkuc7m+ZunpwLvpbFC1NOszS/3PV1yDNeJuur4WdCjMyKhjuZC/O7wfBWarDe+3y7sFZN5nEHg==" saltValue="HccA9SFBRP1RaE/7aAL+WA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ckbbwSWiNLTPDAb8Rj3u9Op9gDC/NAcsMIxgp1t0LvKHkXWoEaKjdJAtctzB9FuDkZoH1rsjwAz6AXU8jyq1aA==" saltValue="/YILvdn0AgN2M0XejR5BKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18792,10 +18792,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18891,10 +18891,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -18903,7 +18903,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>4</v>
@@ -18912,7 +18912,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -19065,7 +19065,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19097,13 +19097,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19113,7 +19113,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19121,7 +19121,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19129,7 +19129,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19145,7 +19145,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="75">
         <v>0.12434007</v>
@@ -19153,7 +19153,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19169,7 +19169,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19177,7 +19177,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19185,7 +19185,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19193,7 +19193,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vx0Gb5R6p7fveL23Cz2WGXyd8Qe6anlsQC0k7u341wvMluT0QVhBkQzUrniHpBRqO/Aw4+yuFNubp4Lgb8sxJA==" saltValue="fPUrNDpoenyOkR9HaklFqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ckTfJaELxHyIitdOGvTJ1ap2IlBtAcLTQR7MdFNnld+G55TFA7PUXrRLk0eDlQMH9HcFGWINrqkPFNIprlXnvA==" saltValue="E1LRIzhkGlOJNI9dyy6Nyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19235,7 +19235,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>4</v>
@@ -19243,10 +19243,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19272,7 +19272,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19298,7 +19298,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="77">
         <v>0.1</v>
@@ -19319,7 +19319,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="77">
         <v>0.05</v>
@@ -19356,10 +19356,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19384,7 +19384,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19429,7 +19429,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19463,7 +19463,7 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>1</v>
@@ -19475,39 +19475,39 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>54</v>
-      </c>
       <c r="L13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19621,7 +19621,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="37FPpv1E9o/RFcqUNuZdxbHQFws+JiMHtcqwSf3YT0/CoXjo7xmc+myPxKHfag776hIT7P1uK19SntpHxF1rgQ==" saltValue="LxVAG6IePTHHK6jEN1lDDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9H01Xp3zy+0yMyEyb3F1iyn1NVJlRNpwj98dWYO45qVJBQf6YWpFmWcaGqTXQz/6G7ZdxtR2zG0/03VxdpxRNw==" saltValue="lbFTQj1wzFxbXDmMSmxn2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19663,7 +19663,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>4</v>
@@ -19674,7 +19674,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19694,7 +19694,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19714,7 +19714,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19734,7 +19734,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19758,7 +19758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tP+u3v1XRHCjD3mJ5Fkdd2FLguJ+rXEr2cD7iHGbqVM5YmivnxOwVhQl2AV2O37NeIkapWP6tLt5tFfMpKXNmg==" saltValue="MFF4WlA6Eoz3dvlKM2ibeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S6DdD9BKARI+5pRU1AXD0oRIZXITvqN5CPfATI0jrrESJh/AKFEmj3Hl/4Rh0NBWVAlrRKc3+Mlf9fMaLRgGGg==" saltValue="zRycY29BkSOc6ATAppalqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19783,10 +19783,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -19833,10 +19833,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="28">
         <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
@@ -19863,10 +19863,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="28">
         <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
@@ -19893,10 +19893,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="C6" s="28">
         <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
@@ -19920,7 +19920,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="28">
         <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
@@ -19944,7 +19944,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28">
         <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
@@ -19968,10 +19968,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="28">
         <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
@@ -19997,7 +19997,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="28">
         <f>(('Breastfeeding distribution'!E2+'Breastfeeding distribution'!E3+'Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F2+'Breastfeeding distribution'!F3+'Breastfeeding distribution'!F4)*(12/18))</f>
@@ -20021,10 +20021,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28">
         <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
@@ -20050,7 +20050,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20071,7 +20071,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gDHAZq2r00RQrLDOZ9jNQk1iRgpiF2wMCg+SrVqlBV8pGeK8OZN9231AO50bMx2+3OalvwjvQjoke+AEAfPyfQ==" saltValue="PB4LXMcW9KhuPZD0jgawww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fiQyAJq8S3Pw+zm37FSo4585V80DIcG50jIPbQC37kUsXkVi1dCZbY/v8YzbqqpE9hINj+dc46v5HswfYnlCYA==" saltValue="wqdSCR6ocZQeRQM0bYa8Zw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20098,27 +20098,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20133,7 +20133,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="57" t="str">
@@ -20147,7 +20147,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="57" t="str">
@@ -20161,7 +20161,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="57" t="str">
@@ -20172,10 +20172,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="57" t="str">
@@ -20186,7 +20186,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20194,10 +20194,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
@@ -20245,7 +20245,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20257,24 +20257,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20288,7 +20288,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20302,7 +20302,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20316,7 +20316,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20326,11 +20326,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20340,14 +20340,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZFdwYTPMjWaMZ5WP68FFiMOsTTXODo+0ivOJf/umoWxdAG4rEOVsFXAUHT9gIDFss2EcJQDjiXI9yTmmQhq0QA==" saltValue="+T5WST+t1Cls8Hin5s2gTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JyGfqf2axkr+352VxKRYIIAkEhHD72oUsE4COztVcs9ZvlHw/NEuB8XtlD6I3JwtsmJe0aPdq6JhOUt/9LdhWQ==" saltValue="4Aq9SdzPxh/Y4Miqadpp/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20374,44 +20374,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="flxKCca2Ivp7AVM3HAgdXSYhvi8l24dA3x53CMzOCmi+ZK5KpmSoSJrkm/+3pvbHknpBu4g5E6O/7Fffv2c12Q==" saltValue="b9wFNzbpKmVkMjAulFU33w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UBvBK46OEkMN2apPwGoWx/G2IMpfcAJLE2cMN+4xlxL4cIJ3cFuoOOFNzZibnZiv4iacxgeo87E1Cfn0fLhvNg==" saltValue="2R7S8i05dxaP4LNXT+EUJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20439,25 +20439,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20469,12 +20469,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20486,12 +20486,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20503,12 +20503,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20520,12 +20520,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20537,12 +20537,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20554,12 +20554,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20571,12 +20571,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20588,12 +20588,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20605,12 +20605,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20622,12 +20622,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20639,12 +20639,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20656,12 +20656,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20673,12 +20673,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20690,12 +20690,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="81">
         <v>0.34599999999999997</v>
@@ -20707,12 +20707,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20724,12 +20724,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20741,12 +20741,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20758,12 +20758,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20775,12 +20775,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20792,12 +20792,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20809,12 +20809,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20826,12 +20826,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20843,12 +20843,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20860,12 +20860,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20877,12 +20877,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20894,12 +20894,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20911,12 +20911,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20928,12 +20928,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20945,12 +20945,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20962,12 +20962,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20979,12 +20979,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20996,12 +20996,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -21013,12 +21013,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21030,12 +21030,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21047,13 +21047,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21065,12 +21065,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21082,14 +21082,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4EAiQwaXrbWvgk29cZkz07h31YbKSCrfXTRfkyurauPOtBWwQR1teyFudOklYKD/IJlIktYvzwiGHc0PYAtY1g==" saltValue="VSO8CSiXQyY2aRNt6zgbhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k6DGTaf5eFy3Bw2Vled7gRxxrJIHyp7J6lwE1mw4Ub5OJeF+3Q/syuSGgJ93YdpHtkQt/3xl0N9N2cc+xQDU8Q==" saltValue="LWhyIKD2vpJS7Yzy+Zkfkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3068A289-27D1-4092-B95E-D8FCC3F35DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E18C47E4-C468-4756-815B-0D9EED88E894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
-    <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
-    <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
-    <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
-    <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
-    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
-    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId11"/>
+    <sheet name="Projections démographiques" sheetId="2" r:id="rId2"/>
+    <sheet name="Causes de décès" sheetId="4" r:id="rId3"/>
+    <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
+    <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
+    <sheet name="Tendances temporelles" sheetId="51" state="hidden" r:id="rId6"/>
+    <sheet name="Paquets IYCF" sheetId="55" r:id="rId7"/>
+    <sheet name="Traitement de la MAS" sheetId="60" r:id="rId8"/>
+    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
+    <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
+    <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Birth outcome risks'!$A$1:$F$7</definedName>
     <definedName name="abortion" localSheetId="6">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="abortion">'Donnees pop de l''annee de ref'!$C$41</definedName>
-    <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
+    <definedName name="comm_deliv">'Traitement de la MAS'!$D$3</definedName>
     <definedName name="diarrhoea_1_5mo">'Donnees pop de l''annee de ref'!$C$52</definedName>
     <definedName name="diarrhoea_12_23mo">'Donnees pop de l''annee de ref'!$C$54</definedName>
     <definedName name="diarrhoea_1mo">'Donnees pop de l''annee de ref'!$C$51</definedName>
@@ -58,26 +58,26 @@
     <definedName name="frac_diarrhea_severe">'Donnees pop de l''annee de ref'!$C$58</definedName>
     <definedName name="frac_maize">'Donnees pop de l''annee de ref'!$C$19</definedName>
     <definedName name="frac_malaria_risk">'Donnees pop de l''annee de ref'!$C$9</definedName>
-    <definedName name="frac_mam_1_5months">'Nutritional status distribution'!$D$10</definedName>
-    <definedName name="frac_mam_12_23months">'Nutritional status distribution'!$F$10</definedName>
-    <definedName name="frac_mam_1month">'Nutritional status distribution'!$C$10</definedName>
-    <definedName name="frac_mam_24_59months">'Nutritional status distribution'!$G$10</definedName>
-    <definedName name="frac_mam_6_11months">'Nutritional status distribution'!$E$10</definedName>
+    <definedName name="frac_mam_1_5months">'Dist. de l''état nutritionnel'!$D$10</definedName>
+    <definedName name="frac_mam_12_23months">'Dist. de l''état nutritionnel'!$F$10</definedName>
+    <definedName name="frac_mam_1month">'Dist. de l''état nutritionnel'!$C$10</definedName>
+    <definedName name="frac_mam_24_59months">'Dist. de l''état nutritionnel'!$G$10</definedName>
+    <definedName name="frac_mam_6_11months">'Dist. de l''état nutritionnel'!$E$10</definedName>
     <definedName name="frac_MAMtoSAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_other_staples">'Donnees pop de l''annee de ref'!$C$20</definedName>
     <definedName name="frac_PW_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
     <definedName name="frac_rice">'Donnees pop de l''annee de ref'!$C$17</definedName>
-    <definedName name="frac_sam_1_5months">'Nutritional status distribution'!$D$11</definedName>
-    <definedName name="frac_sam_12_23months">'Nutritional status distribution'!$F$11</definedName>
-    <definedName name="frac_sam_1month">'Nutritional status distribution'!$C$11</definedName>
-    <definedName name="frac_sam_24_59months">'Nutritional status distribution'!$G$11</definedName>
-    <definedName name="frac_sam_6_11months">'Nutritional status distribution'!$E$11</definedName>
+    <definedName name="frac_sam_1_5months">'Dist. de l''état nutritionnel'!$D$11</definedName>
+    <definedName name="frac_sam_12_23months">'Dist. de l''état nutritionnel'!$F$11</definedName>
+    <definedName name="frac_sam_1month">'Dist. de l''état nutritionnel'!$C$11</definedName>
+    <definedName name="frac_sam_24_59months">'Dist. de l''état nutritionnel'!$G$11</definedName>
+    <definedName name="frac_sam_6_11months">'Dist. de l''état nutritionnel'!$E$11</definedName>
     <definedName name="frac_SAMtoMAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_subsistence_farming">'Donnees pop de l''annee de ref'!$C$16</definedName>
     <definedName name="frac_wheat">'Donnees pop de l''annee de ref'!$C$18</definedName>
     <definedName name="infant_mortality">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="iron_deficiency_anaemia">'Donnees pop de l''annee de ref'!$C$59</definedName>
-    <definedName name="manage_mam">'Treatment of SAM'!$D$2</definedName>
+    <definedName name="manage_mam">'Traitement de la MAS'!$D$2</definedName>
     <definedName name="maternal_mortality">'Donnees pop de l''annee de ref'!$C$40</definedName>
     <definedName name="neonatal_mortality">'Donnees pop de l''annee de ref'!$C$37</definedName>
     <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
@@ -406,437 +406,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="272">
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>&lt;1 month</t>
-  </si>
-  <si>
-    <t>1-5 months</t>
-  </si>
-  <si>
-    <t>6-11 months</t>
-  </si>
-  <si>
-    <t>24-59 months</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Neonatal sepsis</t>
-  </si>
-  <si>
-    <t>Neonatal pneumonia</t>
-  </si>
-  <si>
-    <t>Pre-term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal asphyxia</t>
-  </si>
-  <si>
-    <t>Pre-term AGA</t>
-  </si>
-  <si>
-    <t>Term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal prematurity</t>
-  </si>
-  <si>
-    <t>Neonatal other</t>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-  </si>
-  <si>
-    <t>Meningitis</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>Malaria</t>
-  </si>
-  <si>
-    <t>Pertussis</t>
-  </si>
-  <si>
-    <t>AIDS</t>
-  </si>
-  <si>
-    <t>Injury</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Breastfeeding</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="271">
   <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Term AGA</t>
-  </si>
-  <si>
-    <t>Neonatal congenital anomalies</t>
-  </si>
-  <si>
-    <t>Balanced energy-protein supplementation</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Pregnant women</t>
-  </si>
-  <si>
     <t>Broad population group</t>
   </si>
   <si>
-    <t>Long-lasting insecticide-treated bednets</t>
-  </si>
-  <si>
     <t>General population</t>
   </si>
   <si>
-    <t>non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Antepartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Intrapartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Postpartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Hypertensive disorders</t>
-  </si>
-  <si>
-    <t>Sepsis</t>
-  </si>
-  <si>
-    <t>Abortion</t>
-  </si>
-  <si>
-    <t>Embolism</t>
-  </si>
-  <si>
-    <t>Other direct causes</t>
-  </si>
-  <si>
-    <t>Indirect causes</t>
-  </si>
-  <si>
-    <t>Iron and iodine fortification of salt</t>
-  </si>
-  <si>
-    <t>Population data</t>
-  </si>
-  <si>
-    <t>WRA: 15-19 years</t>
-  </si>
-  <si>
-    <t>WRA: 20-29 years</t>
-  </si>
-  <si>
-    <t>WRA: 30-39 years</t>
-  </si>
-  <si>
-    <t>WRA: 40-49 years</t>
-  </si>
-  <si>
-    <t>PW: 15-19 years</t>
-  </si>
-  <si>
-    <t>PW: 20-29 years</t>
-  </si>
-  <si>
-    <t>PW: 30-39 years</t>
-  </si>
-  <si>
-    <t>PW: 40-49 years</t>
-  </si>
-  <si>
     <t>IPTp</t>
   </si>
   <si>
-    <t>Public provision of complementary foods</t>
-  </si>
-  <si>
-    <t>Multiple micronutrient supplementation</t>
-  </si>
-  <si>
-    <t>Zinc supplementation</t>
-  </si>
-  <si>
-    <t>Cash transfers</t>
-  </si>
-  <si>
-    <t>IFA fortification of wheat flour</t>
-  </si>
-  <si>
-    <t>IFA fortification of rice</t>
-  </si>
-  <si>
     <t>MAM</t>
   </si>
   <si>
     <t>SAM</t>
   </si>
   <si>
-    <t>Treatment of SAM</t>
-  </si>
-  <si>
-    <t>Prevalence of iron deficiency anaemia</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>Anaemia</t>
-  </si>
-  <si>
-    <t>Diarrhoea</t>
-  </si>
-  <si>
-    <t>Diarrhoea incidence</t>
-  </si>
-  <si>
-    <t>Neonatal diarrhoea</t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>First birth</t>
-  </si>
-  <si>
-    <t>less than 18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>24 months or greater</t>
-  </si>
-  <si>
-    <t>WASH: Improved water source</t>
-  </si>
-  <si>
-    <t>WASH: Piped water</t>
-  </si>
-  <si>
-    <t>WASH: Improved sanitation</t>
-  </si>
-  <si>
-    <t>WASH: Hygenic disposal</t>
-  </si>
-  <si>
-    <t>WASH: Handwashing</t>
-  </si>
-  <si>
-    <t>Oral rehydration salts</t>
-  </si>
-  <si>
-    <t>Zinc for treatment + ORS</t>
-  </si>
-  <si>
-    <t>Calcium supplementation</t>
-  </si>
-  <si>
-    <t>Mg for pre-eclampsia</t>
-  </si>
-  <si>
-    <t>Mg for eclampsia</t>
-  </si>
-  <si>
-    <t>Fraction of pregnancies ending in spontaneous abortion</t>
-  </si>
-  <si>
-    <t>Under 5 mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Infant mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Neonatal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Stillbirths (per 1,000 total births)</t>
-  </si>
-  <si>
-    <t>Fraction of subsistence farming</t>
-  </si>
-  <si>
-    <t>Fraction eating rice as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating wheat as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating maize as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction on other staples as main staple food</t>
-  </si>
-  <si>
-    <t>Age distribution of pregnant women</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 15-19 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 30-39 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 40-49 years</t>
-  </si>
-  <si>
-    <t>School attendance (percentage of 15-19 year women)</t>
-  </si>
-  <si>
-    <t>Percentage of population food insecure (default poor)</t>
-  </si>
-  <si>
-    <t>Percentage of population at risk of malaria</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women attending health facility</t>
-  </si>
-  <si>
-    <t>Percentage of children attending health facility</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning</t>
-  </si>
-  <si>
-    <t>Percentage of diarrhea that is severe</t>
-  </si>
-  <si>
-    <t>Number of births</t>
-  </si>
-  <si>
-    <t>Total WRA</t>
-  </si>
-  <si>
-    <t>Wasting (weight-for-height)</t>
-  </si>
-  <si>
-    <t>Stunting (height-for-age)</t>
-  </si>
-  <si>
-    <t>Moderate (HAZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>Normal (HAZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild (HAZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>High (HAZ-score between &lt; -3)</t>
-  </si>
-  <si>
-    <t>Normal  (WHZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild  (WHZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>MAM   (WHZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>SAM   (WHZ-score &lt; -3)</t>
-  </si>
-  <si>
-    <t>Average episodes per year: &lt;1 month</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 1-5 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 6-11 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 24-59 months</t>
-  </si>
-  <si>
-    <t>Total (must be 100%)</t>
-  </si>
-  <si>
-    <t>Estimated pregnant women</t>
-  </si>
-  <si>
-    <t>Prevalence of anaemia</t>
-  </si>
-  <si>
-    <t>Percentage of anaemia that is iron deficient</t>
-  </si>
-  <si>
-    <t>Birth outcome distribution</t>
-  </si>
-  <si>
-    <t>Other risks</t>
-  </si>
-  <si>
-    <t>Baseline year mortality and risk factors</t>
-  </si>
-  <si>
-    <t>Lipid-based nutrition supplements</t>
-  </si>
-  <si>
-    <t>Micronutrient powders</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Stunting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Wasting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Anaemia prevalence (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of age-appropriate breastfeeding</t>
-  </si>
-  <si>
     <t>Children 0-59 months</t>
   </si>
   <si>
-    <t>Women of reproductive age</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
-    <t>Children 6-23 months</t>
-  </si>
-  <si>
-    <t>Children 0-5 months</t>
-  </si>
-  <si>
-    <t>Under five (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Delayed cord clamping</t>
-  </si>
-  <si>
     <t>IUD</t>
   </si>
   <si>
@@ -885,54 +480,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Exclusive</t>
-  </si>
-  <si>
-    <t>Predominant</t>
-  </si>
-  <si>
-    <t>Partial</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Maternal (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Maternal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
-    <t>Mass media</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Health facility</t>
-  </si>
-  <si>
-    <t>Target population</t>
-  </si>
-  <si>
-    <t>IYCF package</t>
-  </si>
-  <si>
-    <t>Threshold dependency</t>
-  </si>
-  <si>
-    <t>Exclusion dependency</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -942,81 +489,12 @@
     <t>Community-based</t>
   </si>
   <si>
-    <t>Delivery mode</t>
-  </si>
-  <si>
-    <t>Add extension</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (community)</t>
-  </si>
-  <si>
-    <t>IFAS (community)</t>
-  </si>
-  <si>
-    <t>IFAS (retailer)</t>
-  </si>
-  <si>
-    <t>IFAS (school)</t>
-  </si>
-  <si>
-    <t>Projection years</t>
-  </si>
-  <si>
-    <t>End year</t>
-  </si>
-  <si>
-    <t>Baseline year (projection start year)</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Kangaroo mother care</t>
-  </si>
-  <si>
-    <t>Birth spacing</t>
-  </si>
-  <si>
-    <t>Family planning</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
     <t>IYCF 3</t>
   </si>
   <si>
-    <t>Saturation coverage of target population</t>
-  </si>
-  <si>
-    <t>Linear (constant marginal cost) [default]</t>
-  </si>
-  <si>
-    <t>Curved with increasing marginal cost</t>
-  </si>
-  <si>
-    <t>Curved with decreasing marginal cost</t>
-  </si>
-  <si>
-    <t>S-shaped (decreasing then increasing marginal cost)</t>
-  </si>
-  <si>
-    <t>Cost-coverage relationship</t>
-  </si>
-  <si>
-    <t>IFAS (health facility)</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (health facility)</t>
-  </si>
-  <si>
-    <t>Children under 5 population</t>
-  </si>
-  <si>
-    <t>Neonatal</t>
-  </si>
-  <si>
     <t>Causes</t>
   </si>
   <si>
@@ -1206,22 +684,541 @@
     <t>Données de l'année de référence</t>
   </si>
   <si>
+    <t>Années de projection</t>
+  </si>
+  <si>
+    <t>Année de référence (année de début de la projection)</t>
+  </si>
+  <si>
+    <t>Fin d'année</t>
+  </si>
+  <si>
+    <t>Données sur la population</t>
+  </si>
+  <si>
+    <t>Population des enfants de moins de 5 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population en situation d'insécurité alimentaire (pauvre par défaut)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population exposée au risque de paludisme</t>
+  </si>
+  <si>
+    <t>Fréquentation scolaire (pourcentage de femmes de 15 à 19 ans)</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Pourcentage d'enfants fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Besoin non satisfait de planification familiale</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Fraction de l'agriculture de subsistance</t>
+  </si>
+  <si>
+    <t>Fraction de personnes consommant du riz comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de ceux qui consomment du blé comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population consommant du maïs comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population qui consomme d'autres aliments de base comme principale denrée alimentaire</t>
+  </si>
+  <si>
+    <t>Répartition par âge des femmes enceintes</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes de 15 à 19 ans</t>
+  </si>
+  <si>
     <t>Pourcentage de femmes enceintes âgées de 20 à 29 ans</t>
   </si>
   <si>
-    <t>Average episodes per year: 12-23 mois</t>
+    <t>Pourcentage de femmes enceintes âgées de 30 à 39 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes âgées de 40 à 49 ans</t>
+  </si>
+  <si>
+    <t>Espacement des naissances</t>
+  </si>
+  <si>
+    <t>Première naissance</t>
+  </si>
+  <si>
+    <t>moins de 18 mois</t>
+  </si>
+  <si>
+    <t>18 à 23 mois</t>
+  </si>
+  <si>
+    <t>24 mois ou plus</t>
+  </si>
+  <si>
+    <t>Total (doit être 100%)</t>
+  </si>
+  <si>
+    <t>Mortalité de l'année de référence et facteurs de risque</t>
+  </si>
+  <si>
+    <t>Mortalité</t>
+  </si>
+  <si>
+    <t>Mortalité néonatale (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité infantile (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité des moins de 5 ans (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité maternelle (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Fraction des grossesses se terminant par un avortement spontané</t>
+  </si>
+  <si>
+    <t>Mortinatalité (pour 1 000 naissances totales)</t>
+  </si>
+  <si>
+    <t>Distribution des résultats des naissances</t>
+  </si>
+  <si>
+    <t>SGA avant terme</t>
+  </si>
+  <si>
+    <t>AGA avant terme</t>
+  </si>
+  <si>
+    <t>SGA à terme</t>
+  </si>
+  <si>
+    <t>AGA à terme</t>
+  </si>
+  <si>
+    <t>Incidence de la diarrhée</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Épisodes moyens par an : 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+  </si>
+  <si>
+    <t>Autres risques</t>
+  </si>
+  <si>
+    <t>Pourcentage de diarrhée grave</t>
+  </si>
+  <si>
+    <t>Pourcentage d'anémie avec carence en fer</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t>Nombre de naissances</t>
+  </si>
+  <si>
+    <t>FAP : 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP : 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP : 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Total FAP</t>
+  </si>
+  <si>
+    <t>Estimation des femmes enceintes</t>
+  </si>
+  <si>
+    <t>FAP non enceintes</t>
+  </si>
+  <si>
+    <t>Néonatal</t>
+  </si>
+  <si>
+    <t>Diarrhée néonatale</t>
+  </si>
+  <si>
+    <t>Septicémie néonatale</t>
+  </si>
+  <si>
+    <t>Pneumonie néonatale</t>
+  </si>
+  <si>
+    <t>Asphyxie néonatale</t>
+  </si>
+  <si>
+    <t>Prématurité néonatale</t>
   </si>
   <si>
     <t>Tétanos néonatal</t>
   </si>
   <si>
+    <t>Anomalies congénitales néonatales</t>
+  </si>
+  <si>
+    <t>Autres pathologies néonatales</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Pneumonie</t>
+  </si>
+  <si>
+    <t>Méningite</t>
+  </si>
+  <si>
+    <t>Rougeole</t>
+  </si>
+  <si>
+    <t>Paludisme</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>SIDA</t>
+  </si>
+  <si>
+    <t>Blessure</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>1-5 mois</t>
+  </si>
+  <si>
+    <t>6-11 mois</t>
+  </si>
+  <si>
     <t>12-23 mois</t>
   </si>
   <si>
+    <t>24-59 mois</t>
+  </si>
+  <si>
+    <t>Femmes enceintes</t>
+  </si>
+  <si>
+    <t>Hémorragie antepartum</t>
+  </si>
+  <si>
+    <t>Hémorragie intra-partum</t>
+  </si>
+  <si>
+    <t>Hémorragie du post-partum</t>
+  </si>
+  <si>
+    <t>Troubles hypertensifs</t>
+  </si>
+  <si>
+    <t>Septicémie</t>
+  </si>
+  <si>
+    <t>Avortement</t>
+  </si>
+  <si>
+    <t>Embolie</t>
+  </si>
+  <si>
+    <t>Autres causes directes</t>
+  </si>
+  <si>
+    <t>Causes indirectes</t>
+  </si>
+  <si>
+    <t>&lt;1 mois</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Retard de croissance (taille pour l'âge)</t>
+  </si>
+  <si>
+    <t>Normal (score HAZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score HAZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ entre &lt; -3)</t>
+  </si>
+  <si>
+    <t>Amaigrissement (poids par rapport à la taille)</t>
+  </si>
+  <si>
+    <t>Normal (score WHZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score WHZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>MAM (score WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>SAM (score WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Anémie</t>
+  </si>
+  <si>
+    <t>PW : 15-19 ans</t>
+  </si>
+  <si>
+    <t>PW : 20-29 ans</t>
+  </si>
+  <si>
+    <t>PW : 30-39 ans</t>
+  </si>
+  <si>
+    <t>PW : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie ferriprive</t>
+  </si>
+  <si>
+    <t>Allaitement maternel</t>
+  </si>
+  <si>
+    <t>Exclusif</t>
+  </si>
+  <si>
+    <t>Prédominant</t>
+  </si>
+  <si>
+    <t>Partiel</t>
+  </si>
+  <si>
+    <t>Aucun</t>
+  </si>
+  <si>
+    <t>Risque</t>
+  </si>
+  <si>
+    <t>Prévalence du retard de croissance (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'émaciation (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie (%)</t>
+  </si>
+  <si>
+    <t>Femmes en âge de procréer</t>
+  </si>
+  <si>
+    <t>Prévalence de l'allaitement maternel adapté à l'âge des enfants</t>
+  </si>
+  <si>
+    <t>Enfants de 0 à 5 mois</t>
+  </si>
+  <si>
+    <t>Enfants de 6 à 23 mois</t>
+  </si>
+  <si>
+    <t>Moins de cinq ans (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Maternelle (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Paquet IYCF</t>
+  </si>
+  <si>
+    <t>Population cible</t>
+  </si>
+  <si>
+    <t>Établissement de santé</t>
+  </si>
+  <si>
+    <t>Communauté</t>
+  </si>
+  <si>
+    <t>Médias de masse</t>
+  </si>
+  <si>
+    <t>Tous</t>
+  </si>
+  <si>
+    <t>AIFC 1</t>
+  </si>
+  <si>
+    <t>AIFC 2</t>
+  </si>
+  <si>
+    <t>Programme</t>
+  </si>
+  <si>
+    <t>Traitement de la MAS</t>
+  </si>
+  <si>
+    <t>Défaut</t>
+  </si>
+  <si>
+    <t>Ajouter une extension</t>
+  </si>
+  <si>
+    <t>Mode de livraison</t>
+  </si>
+  <si>
+    <t>Couverture à saturation de la population cible</t>
+  </si>
+  <si>
+    <t>Relation coût-couverture</t>
+  </si>
+  <si>
+    <t>Supplémentation équilibrée en énergie et en protéines</t>
+  </si>
+  <si>
+    <t>Supplémentation en calcium</t>
+  </si>
+  <si>
+    <t>Transferts en espèces</t>
+  </si>
+  <si>
+    <t>Retardement du clampage du cordon</t>
+  </si>
+  <si>
+    <t>Planification familiale</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement du riz en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement en ACI de la farine de blé</t>
+  </si>
+  <si>
+    <t>IFAS (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS (établissement de santé)</t>
+  </si>
+  <si>
+    <t>IFAS (détaillant)</t>
+  </si>
+  <si>
+    <t>IFAS (école)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (établissement de santé)</t>
+  </si>
+  <si>
+    <t>Enrichissement du sel en fer et en iode</t>
+  </si>
+  <si>
+    <t>Soins maternels kangourou</t>
+  </si>
+  <si>
+    <t>Suppléments nutritionnels à base de lipides</t>
+  </si>
+  <si>
+    <t>Moustiquaires imprégnées d'insecticide longue durée</t>
+  </si>
+  <si>
+    <t>Mg pour l'éclampsie</t>
+  </si>
+  <si>
+    <t>Mg pour la pré-éclampsie</t>
+  </si>
+  <si>
+    <t>Poudres de micronutriments</t>
+  </si>
+  <si>
+    <t>Supplémentation en micronutriments multiples</t>
+  </si>
+  <si>
+    <t>Sels de réhydratation orale</t>
+  </si>
+  <si>
+    <t>Fourniture publique d'aliments complémentaires</t>
+  </si>
+  <si>
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>Enrichissement du maïs en AGI</t>
+    <t>WASH : lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH : Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH : Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH : Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH : Eau courante</t>
+  </si>
+  <si>
+    <t>Zinc pour le traitement + SRO</t>
+  </si>
+  <si>
+    <t>Supplémentation en zinc</t>
+  </si>
+  <si>
+    <t>Linéaire (coût marginal constant) [par défaut].</t>
+  </si>
+  <si>
+    <t>Dépendance d'exclusion</t>
+  </si>
+  <si>
+    <t>Dépendance de seuil</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal décroissant</t>
+  </si>
+  <si>
+    <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
 </sst>
 </file>
@@ -4766,18 +4763,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4785,7 +4782,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4794,7 +4791,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4807,12 +4804,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4820,7 +4817,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4828,7 +4825,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4844,7 +4841,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4852,7 +4849,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4860,7 +4857,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4871,14 +4868,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4886,7 +4883,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4894,7 +4891,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4902,7 +4899,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4910,7 +4907,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4922,12 +4919,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4935,7 +4932,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4943,7 +4940,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4951,7 +4948,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4963,14 +4960,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4978,7 +4975,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4986,7 +4983,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4994,7 +4991,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5002,7 +4999,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5012,19 +5009,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5032,7 +5029,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5042,7 +5039,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5052,7 +5049,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5060,7 +5057,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5068,7 +5065,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5079,13 +5076,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5094,7 +5091,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5103,7 +5100,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5113,7 +5110,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5127,13 +5124,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5142,7 +5139,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5150,7 +5147,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5158,7 +5155,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5166,7 +5163,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5174,12 +5171,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5187,7 +5184,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5195,7 +5192,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5203,7 +5200,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5213,7 +5210,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s+VhUDaplvHhEKiLpE2zV4Gen4uVTmwnY8v7bhmoRtXkZRvCrn5G2QxX4akx1YbZE3Pevzr4Q1/aCjbI03ph3w==" saltValue="shRPODXTlLc+LzaZ9ksaLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ixiCVd57ZM6mvdHy1fxWXcmo3kIeDNiqHy/tamIdsnVRrr6GrnlJ3bBMk1jkpRU6QdPYSFJ+1pDJA8rnsdYfGQ==" saltValue="pluO1P1aB2MLOqFnT6DErg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5240,48 +5237,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5361,7 +5358,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FX2h+d0KflhH1ZGlms1Zz5twvxh0x0Ao71wsJZUifE4Cm/uieXLhft94cvD1d/spiEW3CJjYJADC/hCsF+rUpA==" saltValue="fYq6TzfsTPl+Z71ze1ghIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R583bdWfgly/UMYL3ZKbj3SBQ8KwbNYEi9XeyP3BdvXAgPhOiVZkHu6oxOyuobwfW1x1lJO3eP2k3Cqxnrzgxw==" saltValue="uJDTGMW8YhtyuJ8lEsS2Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5387,47 +5384,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5461,7 +5458,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Aldo1XI9/6n/9l2WqXe8c/biQU+iLWIHUi14Mdp1GD6Dx/2VFWpKYh/El+lUf/JVPBvtmAKtDOTmPREDr5GhRw==" saltValue="KIv12TA6dENNCZ/7+9s4iA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FIy+5kH3oDsDup3qE47WiKwfEAqZWAZ3C7SpVyBeMmu6P6d/2Ky6+XoYSvAFIOyRcaXOFFbN84QwsS5j53zbRg==" saltValue="ZCrKgHCxxCY+vPc+gx6uZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5482,27 +5479,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5527,7 +5524,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5552,7 +5549,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5576,7 +5573,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OyMLoYaxUUMv5xV0vkGHhNpnfSVgHzT3RxqS8LnCiQbdPt2bE3qvk4Vwmadd2jYmIuCmSSvFq6zdN4mpzmn7vA==" saltValue="zU1oOuCJqvEq7k4WkKXpLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fcDgRlFcuS9LnMIZzl42twfFzTynIvZ7zpZ6vsnIEqdapj0g4oRFZu9Nzjb7j2XTG0bKNrox4dV3R8Jjz/DFMA==" saltValue="lqIub6NeJqedneLafHGoUg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5607,57 +5604,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5705,7 +5702,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5749,7 +5746,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5793,7 +5790,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5839,7 +5836,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5886,7 +5883,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5935,7 +5932,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5981,7 +5978,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6029,7 +6026,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6073,7 +6070,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6122,7 +6119,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6169,10 +6166,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6221,7 +6218,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6266,7 +6263,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6315,7 +6312,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6363,7 +6360,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6411,7 +6408,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6455,7 +6452,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6499,7 +6496,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6550,10 +6547,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6601,7 +6598,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6649,7 +6646,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6697,7 +6694,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6745,7 +6742,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6800,10 +6797,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6858,7 +6855,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6913,7 +6910,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6968,7 +6965,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -7012,7 +7009,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7069,7 +7066,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7114,7 +7111,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7158,7 +7155,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7202,7 +7199,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7246,7 +7243,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7292,7 +7289,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z0Y6imRVXi1z+dv9x3b0hebAXgIhzhH8HABTfaYVmwg3nmzqt0BCa0ShxiUd64mPhvnn0ZhnHC0VPMHuCN5niw==" saltValue="A2jllUd1gfk6eSb552SBdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tyGjKZ4HBD51MrWlhTjgY6R1QUuohx1GHxNgrhGQL3kd9aV/wOhNv5xMFykZmLwpqY7JlxVHcHt1BiE4Jz6nEg==" saltValue="tDWr6mogx7rwzL/87XxYtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7311,26 +7308,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JX3cHBys+4RuxnLdS5fUJoXIzbB43EHoLGjgXT/j/PP2PbNlRQS5ZbqPl/wD0ID67kYkl72Fe11TmeWQUK1FgQ==" saltValue="gkGuI71k620ibV6uAKySTg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/J6zap4FgqGjCIhLDwONyilg0/ovOS4dCcZ0MbPd0+VnAoe4r8jdRQ1gdj5dcWgIVggWV17XjmLOrXrVqo3RYw==" saltValue="8o74Mqnb0SDpeyL9teeFdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7357,24 +7354,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7392,7 +7389,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7410,7 +7407,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7428,7 +7425,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7446,7 +7443,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7464,7 +7461,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7482,7 +7479,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7500,7 +7497,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7518,7 +7515,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7538,7 +7535,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YWetsxzbsleUFLiJhnL+cgvKCdzQs88VDeS4xWShH6eCXqIfQfD4Rx+niAt6Vv0WA783Jc9e8NgN+qxM/i46xg==" saltValue="xolYzmynTFHyIJ8DB0hDLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vXMTBVqyWjVSdBUSBaN84Jth3BDBwCh/fYasXTVqVCZJPhvA7L60kX7fVIiTYQPVGRR3H/bhybLjdYNit5eVPQ==" saltValue="dx9H/wR1ThktzBypxmY7ag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7571,57 +7568,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="90">
         <v>0</v>
@@ -7665,7 +7662,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="90">
         <v>1</v>
@@ -7709,7 +7706,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="C4" s="90">
         <v>1</v>
@@ -7753,7 +7750,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
@@ -7797,7 +7794,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="C6" s="90">
         <v>1</v>
@@ -7841,7 +7838,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C7" s="90">
         <v>1</v>
@@ -7885,7 +7882,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C8" s="90">
         <v>0</v>
@@ -7929,7 +7926,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C9" s="90">
         <v>0</v>
@@ -7973,7 +7970,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C10" s="90">
         <v>1</v>
@@ -8017,7 +8014,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C11" s="90">
         <v>0</v>
@@ -8061,7 +8058,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
@@ -8105,7 +8102,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C13" s="90">
         <v>0</v>
@@ -8149,7 +8146,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C14" s="90">
         <v>1</v>
@@ -8193,7 +8190,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C15" s="90">
         <v>0</v>
@@ -8253,10 +8250,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C17" s="90">
         <v>0</v>
@@ -8301,7 +8298,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C18" s="90">
         <v>0</v>
@@ -8345,7 +8342,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C19" s="90">
         <v>0</v>
@@ -8389,7 +8386,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C20" s="90">
         <v>0</v>
@@ -8433,7 +8430,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C21" s="90">
         <v>0</v>
@@ -8477,7 +8474,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C22" s="90">
         <v>0</v>
@@ -8521,7 +8518,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C23" s="90">
         <v>0</v>
@@ -8565,7 +8562,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C24" s="90">
         <v>0</v>
@@ -8625,10 +8622,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C26" s="90">
         <v>0</v>
@@ -8673,7 +8670,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C27" s="90">
         <v>0</v>
@@ -8718,7 +8715,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C28" s="90">
         <v>0</v>
@@ -8762,7 +8759,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C29" s="90">
         <v>0</v>
@@ -8806,7 +8803,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C30" s="90">
         <v>0</v>
@@ -8866,10 +8863,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C32" s="90">
         <v>1</v>
@@ -8913,7 +8910,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C33" s="90">
         <v>1</v>
@@ -8957,7 +8954,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C34" s="90">
         <v>1</v>
@@ -9001,7 +8998,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C35" s="90">
         <v>1</v>
@@ -9045,7 +9042,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C36" s="90">
         <v>1</v>
@@ -9090,7 +9087,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C37" s="90">
         <v>1</v>
@@ -9134,7 +9131,7 @@
     </row>
     <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C38" s="90">
         <v>1</v>
@@ -9178,7 +9175,7 @@
     </row>
     <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C39" s="90">
         <v>1</v>
@@ -9222,7 +9219,7 @@
     </row>
     <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C40" s="90">
         <v>1</v>
@@ -9266,7 +9263,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C41" s="90">
         <v>1</v>
@@ -9309,7 +9306,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vihXVpJFxmO6Ah/c+mTnNM17KRWV/Q8GjI1fOOh9hJ7aUYLfote1c+oVV4fCpboOnG95Mz5t0FIGOkM47KAyZw==" saltValue="X2fKT8HPqfjf1oRGMgo45g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w+/7IPMFpXgSF73n8ImpgdryaXfSx0+c9uxGY17iaijqsJCSyHp3MarB/rb6+utWOwasjLT7lKCpTyLScenDXQ==" saltValue="C9N2V6Y7JiL/dBqs8CNpew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9342,42 +9339,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -9387,14 +9384,14 @@
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -9403,7 +9400,7 @@
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
       <c r="H3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -9411,12 +9408,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -9428,11 +9425,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -9445,7 +9442,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
@@ -9456,26 +9453,26 @@
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
       <c r="J6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -9483,18 +9480,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
@@ -9502,18 +9499,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -9521,11 +9518,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
@@ -9538,11 +9535,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -9555,11 +9552,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -9572,11 +9569,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -9589,11 +9586,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -9601,18 +9598,18 @@
       <c r="G14" s="90"/>
       <c r="H14" s="90"/>
       <c r="I14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D15" s="90"/>
       <c r="E15" s="90"/>
@@ -9620,39 +9617,39 @@
       <c r="G15" s="90"/>
       <c r="H15" s="90"/>
       <c r="I15" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
       <c r="H16" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
@@ -9665,16 +9662,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C18" s="90"/>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G18" s="90"/>
       <c r="H18" s="90"/>
@@ -9684,16 +9681,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -9703,16 +9700,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C20" s="90"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G20" s="90"/>
       <c r="H20" s="90"/>
@@ -9722,7 +9719,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -9731,26 +9728,26 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
       <c r="H21" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
@@ -9762,11 +9759,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -9774,14 +9771,14 @@
       <c r="G23" s="90"/>
       <c r="H23" s="90"/>
       <c r="I23" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -9790,7 +9787,7 @@
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
       <c r="H24" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I24" s="90"/>
       <c r="J24" s="90"/>
@@ -9798,7 +9795,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -9807,7 +9804,7 @@
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
       <c r="H25" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I25" s="90"/>
       <c r="J25" s="90"/>
@@ -9815,11 +9812,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
@@ -9832,11 +9829,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
@@ -9844,14 +9841,14 @@
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
       <c r="I27" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -9860,7 +9857,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
       <c r="H28" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
@@ -9868,14 +9865,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
@@ -9887,13 +9884,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
@@ -9904,7 +9901,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
@@ -9912,10 +9909,10 @@
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
       <c r="G31" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -9923,7 +9920,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -9931,10 +9928,10 @@
       <c r="E32" s="90"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
@@ -9942,7 +9939,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -9950,10 +9947,10 @@
       <c r="E33" s="90"/>
       <c r="F33" s="90"/>
       <c r="G33" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -9961,7 +9958,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -9969,10 +9966,10 @@
       <c r="E34" s="90"/>
       <c r="F34" s="90"/>
       <c r="G34" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -9980,7 +9977,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -9988,10 +9985,10 @@
       <c r="E35" s="90"/>
       <c r="F35" s="90"/>
       <c r="G35" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -9999,7 +9996,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -10007,10 +10004,10 @@
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
       <c r="G36" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -10018,7 +10015,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -10027,7 +10024,7 @@
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
@@ -10035,27 +10032,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C38" s="90"/>
       <c r="D38" s="90"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
       <c r="G38" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H38" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I38" s="90"/>
       <c r="J38" s="90"/>
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ux5okmoaLLXfOXCzCrwB9xuYHpcBnxmkd9c0ius1oQqSzk+Igm7TQrNIas7ebBEioOkJdGD/skEcGHNZK6svcw==" saltValue="yg6WnSlxHFc53bGk9LQP1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FBlpz4laPr+5L7HFqigWZkSmTGuZ0ac0Yd8snP5J356AHIOpgdBR8FWFo8l5bSS86hRjhrXnveVhNvIKY5TZaA==" saltValue="bxqxwFWl/vEl894t9HDOnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10088,63 +10085,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -10152,28 +10149,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -10181,28 +10178,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90"/>
@@ -10210,28 +10207,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
@@ -10239,28 +10236,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="90"/>
@@ -10268,95 +10265,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -10365,19 +10362,19 @@
       <c r="H11" s="90"/>
       <c r="I11" s="90"/>
       <c r="J11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -10387,16 +10384,16 @@
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
       <c r="K12" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -10406,16 +10403,16 @@
       <c r="I13" s="90"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -10425,11 +10422,11 @@
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mGEVG/qrpedM19THd03U3yMa1TPOuTQC24vaW45/QUld2sZ3dHs8VdUeNkhhEf8wyi/vbGSwkzT0XewSLy7Jjg==" saltValue="OgNbRyiksSUMb2eV07zqLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lNt0O6jE/1ICH4L5n2sGL+M2zPFsxA/XwiCmhHcfNa+RWO0UwxTijqzGVTNalP3W390aC4/r2iK0E6+HGJaxOg==" saltValue="mgo6IzRug9i7gaZQy8XXmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10455,39 +10452,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="98" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="B2" s="139" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D2" s="99">
         <v>1</v>
@@ -10508,7 +10505,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="139"/>
       <c r="C3" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D3" s="99">
         <v>1</v>
@@ -10530,7 +10527,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="139"/>
       <c r="C4" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D4" s="99">
         <v>1</v>
@@ -10551,10 +10548,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="139" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D5" s="99">
         <f>5.16</f>
@@ -10576,7 +10573,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="139"/>
       <c r="C6" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D6" s="99">
         <v>5.16</v>
@@ -10597,7 +10594,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="139"/>
       <c r="C7" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D7" s="99">
         <v>1</v>
@@ -10617,10 +10614,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="139" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D8" s="99">
         <v>1</v>
@@ -10641,7 +10638,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="139"/>
       <c r="C9" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D9" s="99">
         <v>1</v>
@@ -10662,7 +10659,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="139"/>
       <c r="C10" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D10" s="99">
         <v>1</v>
@@ -10682,10 +10679,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="139" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D11" s="99">
         <v>1</v>
@@ -10706,7 +10703,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="139"/>
       <c r="C12" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D12" s="99">
         <v>1</v>
@@ -10727,7 +10724,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="139"/>
       <c r="C13" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D13" s="99">
         <v>1</v>
@@ -10747,10 +10744,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="139" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D14" s="99">
         <v>1</v>
@@ -10771,7 +10768,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="139"/>
       <c r="C15" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D15" s="99">
         <v>1</v>
@@ -10792,7 +10789,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="139"/>
       <c r="C16" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D16" s="99">
         <v>1</v>
@@ -10812,10 +10809,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D17" s="99">
         <v>1.05</v>
@@ -10842,13 +10839,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D19" s="99">
         <v>1</v>
@@ -10869,7 +10866,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="139"/>
       <c r="C20" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D20" s="99">
         <v>1</v>
@@ -10890,7 +10887,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="139"/>
       <c r="C21" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D21" s="99">
         <v>1</v>
@@ -10910,10 +10907,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="139" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D22" s="99">
         <v>1</v>
@@ -10934,7 +10931,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="139"/>
       <c r="C23" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D23" s="99">
         <v>1</v>
@@ -10955,7 +10952,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="139"/>
       <c r="C24" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D24" s="99">
         <v>1</v>
@@ -10975,10 +10972,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="139" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D25" s="99">
         <v>1</v>
@@ -10999,7 +10996,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="139"/>
       <c r="C26" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D26" s="99">
         <v>1</v>
@@ -11020,7 +11017,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="139"/>
       <c r="C27" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D27" s="99">
         <v>1</v>
@@ -11040,10 +11037,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="139" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D28" s="99">
         <v>1</v>
@@ -11064,7 +11061,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="139"/>
       <c r="C29" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D29" s="99">
         <v>1</v>
@@ -11085,7 +11082,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="139"/>
       <c r="C30" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D30" s="99">
         <v>1</v>
@@ -11105,10 +11102,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="139" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D31" s="99">
         <v>1</v>
@@ -11129,7 +11126,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="139"/>
       <c r="C32" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D32" s="99">
         <v>1</v>
@@ -11150,7 +11147,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="139"/>
       <c r="C33" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D33" s="99">
         <v>1</v>
@@ -11170,10 +11167,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D34" s="99">
         <v>1</v>
@@ -11200,13 +11197,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="B36" s="139" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D36" s="99">
         <v>1</v>
@@ -11227,7 +11224,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="139"/>
       <c r="C37" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D37" s="99">
         <v>1</v>
@@ -11248,7 +11245,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="139"/>
       <c r="C38" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D38" s="99">
         <v>1</v>
@@ -11268,10 +11265,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="139" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D39" s="99">
         <v>1</v>
@@ -11292,7 +11289,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="139"/>
       <c r="C40" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D40" s="99">
         <v>1</v>
@@ -11313,7 +11310,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="139"/>
       <c r="C41" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D41" s="99">
         <v>1</v>
@@ -11333,10 +11330,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="139" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D42" s="99">
         <v>1</v>
@@ -11357,7 +11354,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="139"/>
       <c r="C43" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D43" s="99">
         <v>1</v>
@@ -11378,7 +11375,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="139"/>
       <c r="C44" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D44" s="99">
         <v>1</v>
@@ -11398,10 +11395,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="139" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D45" s="99">
         <v>1</v>
@@ -11422,7 +11419,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="139"/>
       <c r="C46" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D46" s="99">
         <v>1</v>
@@ -11443,7 +11440,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="139"/>
       <c r="C47" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D47" s="99">
         <v>1</v>
@@ -11463,10 +11460,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="139" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D48" s="99">
         <v>1</v>
@@ -11487,7 +11484,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="139"/>
       <c r="C49" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D49" s="99">
         <v>1</v>
@@ -11508,7 +11505,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="139"/>
       <c r="C50" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D50" s="99">
         <v>1</v>
@@ -11528,10 +11525,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D51" s="99">
         <v>1.05</v>
@@ -11550,7 +11547,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kddGELti4TGmLP/x1d4EKNns0AyJ1XEVoLblYt2wxCaxmTsJEm9COUqfvz1zqFq17wkUcWx+fZzjQm6s33NkFg==" saltValue="MJRmT/OirPlm7U9x0CubCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TpuByBgWamAErVcP3iXg43fADJ1APGyFkDPNARElimdq1SRHC3vOaG3a+txXm1PXtMimARUOeIWUe9ubJj6ruA==" saltValue="cWOq0tqLIo6B2K95N8JuRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -11593,31 +11590,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12658,7 +12655,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J/HT+Iwcbu5LZDe1BN9u91/7tFH4qIf1HZG9lyyj76GKPliMbTNnkLJ0+kyMLGYhlFx2WzGxMlGcEJlgvcaHvw==" saltValue="ClENxKSvKAlnNdzBeFNqxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pZscQTle4u7X5ynNofkoLPMCSky2iEAWbkyMs2GriHDjufKYWN/kdKM4AAxHmCVFHD5Vt+HOixZOm8fvQGun8Q==" saltValue="EWSZMg7qdd7utlg4byExMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12692,27 +12689,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -12722,7 +12719,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12739,7 +12736,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12756,7 +12753,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12773,7 +12770,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12796,7 +12793,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -12821,7 +12818,7 @@
     </row>
     <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="119"/>
@@ -12831,7 +12828,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="100"/>
@@ -12841,7 +12838,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -12859,7 +12856,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -12877,7 +12874,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -12904,7 +12901,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="B17" s="110"/>
       <c r="C17" s="123"/>
@@ -12915,7 +12912,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -12933,7 +12930,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -12951,7 +12948,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -12969,7 +12966,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -12987,7 +12984,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -13004,7 +13001,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13021,7 +13018,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -13038,7 +13035,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -13060,7 +13057,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UVUx14JtdCf7B/UglNyOXgGqFvv4Z5Y4m5jYgEQOSFvgGeWUoMZr/1kVvJvJWV0/0gAjSmngpszr+jfoU5Wl8g==" saltValue="rR6RQ/9SwNaNV65fVlgJ2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bly8JvF2z5DuDeGBUCuio9hjmtYoc9fGgIRnxSIdLhtloVKx0YqRr93yG8hVMbmJLszpRmFTL0ZENTZg+7+H5A==" saltValue="YGqramuloGiDT6gaKGK/tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13090,33 +13087,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="B2" s="127" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G2" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H2" s="109" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I2" s="128"/>
       <c r="J2" s="128"/>
@@ -13130,10 +13127,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D3" s="114">
         <v>1</v>
@@ -13161,7 +13158,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -13189,7 +13186,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
@@ -13217,7 +13214,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -13245,10 +13242,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D7" s="114">
         <v>1</v>
@@ -13276,7 +13273,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
@@ -13304,7 +13301,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D9" s="115">
         <v>1</v>
@@ -13332,7 +13329,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D10" s="115">
         <v>1</v>
@@ -13360,10 +13357,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D11" s="114">
         <v>1</v>
@@ -13391,7 +13388,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
@@ -13419,7 +13416,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D13" s="115">
         <v>1</v>
@@ -13447,7 +13444,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D14" s="115">
         <v>1</v>
@@ -13475,10 +13472,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D15" s="114">
         <v>1</v>
@@ -13506,7 +13503,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
@@ -13534,7 +13531,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
@@ -13562,7 +13559,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D18" s="115">
         <v>1</v>
@@ -13590,10 +13587,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D19" s="114">
         <v>1</v>
@@ -13621,7 +13618,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D20" s="115">
         <v>1</v>
@@ -13649,7 +13646,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D21" s="115">
         <v>1</v>
@@ -13677,7 +13674,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D22" s="115">
         <v>1</v>
@@ -13705,10 +13702,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D23" s="114">
         <v>1</v>
@@ -13736,7 +13733,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -13764,7 +13761,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -13792,7 +13789,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -13820,33 +13817,33 @@
     </row>
     <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G29" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H29" s="109" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I29" s="128"/>
       <c r="J29" s="128"/>
@@ -13860,10 +13857,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D30" s="114">
         <v>1</v>
@@ -13891,7 +13888,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D31" s="115">
         <v>1</v>
@@ -13919,7 +13916,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -13947,7 +13944,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D33" s="115">
         <v>1</v>
@@ -13975,10 +13972,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D34" s="114">
         <v>1</v>
@@ -14006,7 +14003,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -14034,7 +14031,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D36" s="115">
         <v>1</v>
@@ -14062,7 +14059,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D37" s="115">
         <v>1</v>
@@ -14090,10 +14087,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D38" s="114">
         <v>1</v>
@@ -14121,7 +14118,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D39" s="115">
         <v>1</v>
@@ -14149,7 +14146,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D40" s="115">
         <v>1</v>
@@ -14177,7 +14174,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D41" s="115">
         <v>1</v>
@@ -14205,10 +14202,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D42" s="114">
         <v>1</v>
@@ -14236,7 +14233,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D43" s="115">
         <v>1</v>
@@ -14264,7 +14261,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D44" s="115">
         <v>1</v>
@@ -14292,7 +14289,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D45" s="115">
         <v>1</v>
@@ -14320,10 +14317,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D46" s="114">
         <v>1</v>
@@ -14351,7 +14348,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D47" s="115">
         <v>1</v>
@@ -14379,7 +14376,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D48" s="115">
         <v>1</v>
@@ -14407,7 +14404,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D49" s="115">
         <v>1</v>
@@ -14435,10 +14432,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D50" s="114">
         <v>1</v>
@@ -14466,7 +14463,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D51" s="115">
         <v>1</v>
@@ -14494,7 +14491,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D52" s="115">
         <v>1</v>
@@ -14522,7 +14519,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D53" s="115">
         <v>1</v>
@@ -14554,30 +14551,30 @@
     </row>
     <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D56" s="109" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E56" s="109" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F56" s="109" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G56" s="109" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H56" s="128"/>
       <c r="M56" s="128"/>
@@ -14588,10 +14585,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D57" s="114">
         <v>1</v>
@@ -14613,7 +14610,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D58" s="115">
         <v>10.675000000000001</v>
@@ -14635,10 +14632,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D59" s="114">
         <v>1</v>
@@ -14660,7 +14657,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D60" s="115">
         <v>10.675000000000001</v>
@@ -14682,10 +14679,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D61" s="114">
         <v>1</v>
@@ -14707,7 +14704,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D62" s="115">
         <v>10.675000000000001</v>
@@ -14733,33 +14730,33 @@
     </row>
     <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
-        <v>237</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D65" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E65" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F65" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G65" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H65" s="132" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I65" s="128"/>
       <c r="J65" s="128"/>
@@ -14773,10 +14770,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D66" s="114">
         <v>1</v>
@@ -14804,7 +14801,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D67" s="115">
         <v>1.35</v>
@@ -14832,7 +14829,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D68" s="115">
         <v>1.35</v>
@@ -14860,7 +14857,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D69" s="115">
         <v>5.4</v>
@@ -14888,10 +14885,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D70" s="114">
         <v>1</v>
@@ -14919,7 +14916,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D71" s="115">
         <v>1.35</v>
@@ -14947,7 +14944,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D72" s="115">
         <v>1.35</v>
@@ -14975,7 +14972,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D73" s="115">
         <v>5.4</v>
@@ -15003,10 +15000,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D74" s="114">
         <v>1</v>
@@ -15034,7 +15031,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D75" s="115">
         <v>1.35</v>
@@ -15062,7 +15059,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D76" s="115">
         <v>1.35</v>
@@ -15090,7 +15087,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D77" s="115">
         <v>5.4</v>
@@ -15118,10 +15115,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D78" s="114">
         <v>1</v>
@@ -15149,7 +15146,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D79" s="115">
         <v>1</v>
@@ -15177,7 +15174,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D80" s="115">
         <v>1</v>
@@ -15205,7 +15202,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D81" s="115">
         <v>1</v>
@@ -15233,10 +15230,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D82" s="114">
         <v>1</v>
@@ -15264,7 +15261,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D83" s="115">
         <v>1</v>
@@ -15292,7 +15289,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D84" s="115">
         <v>1</v>
@@ -15320,7 +15317,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D85" s="115">
         <v>1</v>
@@ -15348,10 +15345,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D86" s="114">
         <v>1</v>
@@ -15379,7 +15376,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D87" s="115">
         <v>1</v>
@@ -15407,7 +15404,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D88" s="115">
         <v>1</v>
@@ -15435,7 +15432,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D89" s="115">
         <v>1</v>
@@ -15463,10 +15460,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D90" s="114">
         <v>1</v>
@@ -15494,7 +15491,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D91" s="115">
         <v>1</v>
@@ -15522,7 +15519,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D92" s="115">
         <v>1</v>
@@ -15550,7 +15547,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D93" s="115">
         <v>1</v>
@@ -15578,10 +15575,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D94" s="114">
         <v>1</v>
@@ -15609,7 +15606,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D95" s="115">
         <v>1</v>
@@ -15637,7 +15634,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D96" s="115">
         <v>1</v>
@@ -15665,7 +15662,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D97" s="115">
         <v>1</v>
@@ -15693,10 +15690,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D98" s="114">
         <v>1</v>
@@ -15724,7 +15721,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D99" s="115">
         <v>1</v>
@@ -15752,7 +15749,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D100" s="115">
         <v>1</v>
@@ -15780,7 +15777,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D101" s="115">
         <v>1</v>
@@ -15808,33 +15805,33 @@
     </row>
     <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B104" s="134" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D104" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E104" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F104" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G104" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H104" s="132" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I104" s="128"/>
       <c r="J104" s="128"/>
@@ -15849,7 +15846,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D105" s="114">
         <v>1</v>
@@ -15877,7 +15874,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D106" s="115">
         <v>1.26</v>
@@ -15905,7 +15902,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D107" s="115">
         <v>1.68</v>
@@ -15933,7 +15930,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D108" s="115">
         <v>2.65</v>
@@ -15963,7 +15960,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SVs68hjZoyf5dcObzM4AluNV4RZAGEx7fjWWB+5k0GHED3uNEr8yPislkL2CZVsI3/oLjf5VYCJxF5sQ3VP17g==" saltValue="vTRLdT0yPq6a1IZ5IsTgQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wwjmdfSi+x//xmwd0eJqCoPb35bpEWRVv+TMi7LAmfhI/p+qpnv7pHv7zR+zyczDRQOUx4baV/DNbssEWLe/eA==" saltValue="JREs0eW5t8d/CHRSNy/1ew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15994,36 +15991,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16041,7 +16038,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="C4" s="115">
         <v>1.0249999999999999</v>
@@ -16061,12 +16058,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16086,7 +16083,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16106,7 +16103,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16134,13 +16131,13 @@
     </row>
     <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C11" s="115">
         <v>1.5</v>
@@ -16164,15 +16161,15 @@
     </row>
     <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="C14" s="115">
         <v>1.0249999999999999</v>
@@ -16193,7 +16190,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="C15" s="115">
         <v>1.0249999999999999</v>
@@ -16213,10 +16210,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="C16" s="115">
         <v>1</v>
@@ -16237,26 +16234,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C20" s="115">
         <v>1.52</v>
@@ -16272,7 +16269,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z0/CaudNfyTZTP/LzudGfJm+HuxW2z0n00XOYF6huxOlnE9tm5fsdsz6hX1IVb2VQ1HcPQbUpmoPkpesddaaEA==" saltValue="7lQFuuAL0saNElePQnC+cA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dg8KNGE7iiIN3GbLYQrlzAygBMsmGLxHpydZrR2upmV9JjbscnDjrZ2jDKirMrHjF9FWP7ST47fKD9iANgbOqg==" saltValue="RdDGWJWHbBsp8SxcxYeLug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16301,28 +16298,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F1" s="127" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C2" s="115">
         <v>0.21</v>
@@ -16340,7 +16337,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -16357,10 +16354,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C4" s="115">
         <v>0</v>
@@ -16378,7 +16375,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16395,10 +16392,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C6" s="115">
         <v>0</v>
@@ -16416,7 +16413,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16433,10 +16430,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C8" s="115">
         <v>0.35</v>
@@ -16454,7 +16451,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16471,10 +16468,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C10" s="115">
         <v>0.35</v>
@@ -16492,7 +16489,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -16509,10 +16506,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C12" s="115">
         <v>0.08</v>
@@ -16530,7 +16527,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -16552,7 +16549,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bs0e4vPegGXqLp1o9IZ3kyjTqZXINsKIw2yhOT4pCzNpe7BF6YeGM+47PNnEh30cZOfuu4WpegCte9v/rjMAZw==" saltValue="YTCf6I3Vvm3lZPVuu+o1Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7WsE8ee9cr9YOBAfFmpxqj0pC+EMrkJFg/dPjXp33pnDZ3zdWBF9RIWcPy1W/kXJw4UoG7GwnbElLW3wfjeNrA==" saltValue="32vfSPLyHQUFzRpSg2JZfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16581,53 +16578,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="109" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="109" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="I1" s="109" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="J1" s="109" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="K1" s="109" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="L1" s="109" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="M1" s="109" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="N1" s="109" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="O1" s="109" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="115">
         <v>0.53</v>
@@ -16671,7 +16668,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C4" s="115">
         <v>1</v>
@@ -16715,7 +16712,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16759,7 +16756,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16803,7 +16800,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16847,7 +16844,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16891,7 +16888,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16935,7 +16932,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C10" s="115">
         <v>1</v>
@@ -16979,7 +16976,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -17023,7 +17020,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C12" s="115">
         <v>0.83</v>
@@ -17067,7 +17064,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -17111,7 +17108,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C14" s="115">
         <v>1</v>
@@ -17155,13 +17152,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C17" s="115">
         <v>1</v>
@@ -17205,7 +17202,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C18" s="115">
         <v>1</v>
@@ -17249,7 +17246,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C19" s="115">
         <v>1</v>
@@ -17293,7 +17290,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C20" s="115">
         <v>1</v>
@@ -17348,7 +17345,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RScJ1e9zFbwTbR93SBJ6kfGG5wfW5Bbb9kP1jhmJ5unxKDo8g6+5XQk2ylErdGPUwYYEytr3qyQUBhuV3vhNOw==" saltValue="loOrKQSEBfiyIbnsKMiQZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HbxTw+XmbJHng7HLcue4d6PTn3EgRxosj+0YLu49ZumNq4va6u7at6YzSW9kNtLsEuyNTZhxShC0GhqWseYasA==" saltValue="BkKmeakVzx77WCvZb5vRhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17377,29 +17374,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -17419,7 +17416,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="135"/>
@@ -17430,7 +17427,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -17449,7 +17446,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ewX9lusoc1epvldDvypfBuls/lrUxKp9PKDm3iBe19U2ovdT55+amK6s5FJGUEc48Fs/kP4+rFVi+YA4X3J5OQ==" saltValue="9CDvLBNEzdvPZa6WSEKjpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KzEbfww8VaolZWjLFBiTbaRVjqKsIsqr/3W+fECBmQtGaiKiuqu/pOtScv1qTTrtiggIAoNrniIX0P7QZdIIdg==" saltValue="UTY090DNzChuJAs6NzXSUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17481,39 +17478,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="115">
         <v>0</v>
@@ -17533,7 +17530,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="115">
         <v>0</v>
@@ -17553,7 +17550,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D4" s="115">
         <v>0</v>
@@ -17573,13 +17570,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D5" s="115">
         <v>0</v>
@@ -17599,7 +17596,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D6" s="115">
         <v>0</v>
@@ -17619,10 +17616,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D7" s="115">
         <v>0</v>
@@ -17642,7 +17639,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D8" s="115">
         <v>0</v>
@@ -17662,13 +17659,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D9" s="115">
         <v>0</v>
@@ -17688,7 +17685,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D10" s="115">
         <v>0</v>
@@ -17708,10 +17705,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D11" s="115">
         <v>0</v>
@@ -17731,7 +17728,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D12" s="115">
         <v>0</v>
@@ -17751,13 +17748,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D13" s="115">
         <v>0</v>
@@ -17777,7 +17774,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D14" s="115">
         <v>0</v>
@@ -17798,10 +17795,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D15" s="115">
         <v>0</v>
@@ -17822,7 +17819,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D16" s="115">
         <v>0</v>
@@ -17843,13 +17840,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D17" s="115">
         <v>0.7</v>
@@ -17870,7 +17867,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D18" s="115">
         <v>0.19</v>
@@ -17891,13 +17888,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D19" s="115">
         <v>0.7</v>
@@ -17917,7 +17914,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D20" s="115">
         <v>0.19</v>
@@ -17937,13 +17934,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D21" s="115">
         <v>0.7</v>
@@ -17963,7 +17960,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D22" s="115">
         <v>0.19</v>
@@ -17983,13 +17980,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D23" s="115">
         <v>1</v>
@@ -18009,7 +18006,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D24" s="115">
         <v>0</v>
@@ -18029,7 +18026,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D25" s="115">
         <v>0</v>
@@ -18049,13 +18046,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -18075,7 +18072,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D27" s="115">
         <v>0</v>
@@ -18095,7 +18092,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D28" s="115">
         <v>0</v>
@@ -18115,13 +18112,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D29" s="115">
         <v>1</v>
@@ -18141,7 +18138,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D30" s="115">
         <v>0</v>
@@ -18161,7 +18158,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -18181,13 +18178,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -18207,7 +18204,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D33" s="115">
         <v>0</v>
@@ -18227,7 +18224,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D34" s="115">
         <v>0</v>
@@ -18247,13 +18244,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -18273,7 +18270,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -18293,7 +18290,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D37" s="115">
         <v>0</v>
@@ -18313,13 +18310,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D38" s="115">
         <v>0.3</v>
@@ -18339,7 +18336,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D39" s="115">
         <v>0.5</v>
@@ -18359,7 +18356,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D40" s="115">
         <v>0.65</v>
@@ -18379,10 +18376,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D41" s="115">
         <v>0.3</v>
@@ -18402,7 +18399,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D42" s="115">
         <v>0.5</v>
@@ -18422,7 +18419,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D43" s="115">
         <v>0.63</v>
@@ -18442,13 +18439,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D44" s="115">
         <v>0.88</v>
@@ -18468,7 +18465,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D45" s="115">
         <v>0.8</v>
@@ -18488,13 +18485,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D46" s="115">
         <v>1</v>
@@ -18514,7 +18511,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D47" s="115">
         <v>0.76</v>
@@ -18534,13 +18531,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D48" s="115">
         <v>0.57999999999999996</v>
@@ -18560,7 +18557,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D49" s="115">
         <v>0.88</v>
@@ -18579,7 +18576,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L5IRIiUrCOOpIHccB1DYbI10GRy4pxmftTYsM5vaAq/+rvUSlL9kqUFua2umP0JpfEFnEKZDQrqeDS/DrRWb2A==" saltValue="CKla7MYnYBoX8BXhhRsDvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aoT0Yh7SZNzrGaXsoYdHBUXTf+UBsUa0H7EqLAziv/CKaMtLca+5breITaEDOEpM6xLZNqyD7QShGTNSQTBnuA==" saltValue="75OC7gtfP/I2j5tbKQhyKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18607,35 +18604,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="115">
         <v>1</v>
@@ -18653,7 +18650,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="115">
         <v>0.2</v>
@@ -18671,13 +18668,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -18696,7 +18693,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D5" s="115">
         <v>0.59</v>
@@ -18714,13 +18711,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -18739,7 +18736,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D7" s="115">
         <v>0.59</v>
@@ -18756,7 +18753,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ckbbwSWiNLTPDAb8Rj3u9Op9gDC/NAcsMIxgp1t0LvKHkXWoEaKjdJAtctzB9FuDkZoH1rsjwAz6AXU8jyq1aA==" saltValue="/YILvdn0AgN2M0XejR5BKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xysOoDZ7I3edrRHmnIKqTaqVRaOGwFsJe8FUNia/4erIcMJSYjJMRbsjajHVgZRrj6rcrh5KMcyPzcOr1hcStQ==" saltValue="kbpUf5WD1gaXT5Tye3BfcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18792,13 +18789,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18807,7 +18804,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18815,7 +18812,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18823,7 +18820,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18831,7 +18828,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18839,7 +18836,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18847,7 +18844,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18855,7 +18852,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18863,7 +18860,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18871,7 +18868,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18891,28 +18888,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18929,7 +18926,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18946,7 +18943,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18963,7 +18960,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18980,7 +18977,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18997,7 +18994,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -19014,7 +19011,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19031,7 +19028,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19048,7 +19045,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19065,7 +19062,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19097,13 +19094,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>203</v>
-      </c>
       <c r="C25" s="41" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19113,7 +19110,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19121,7 +19118,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19129,7 +19126,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19137,7 +19134,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19145,7 +19142,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="C30" s="75">
         <v>0.12434007</v>
@@ -19153,7 +19150,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19161,7 +19158,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19169,7 +19166,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19177,7 +19174,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19185,7 +19182,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19193,7 +19190,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ckTfJaELxHyIitdOGvTJ1ap2IlBtAcLTQR7MdFNnld+G55TFA7PUXrRLk0eDlQMH9HcFGWINrqkPFNIprlXnvA==" saltValue="E1LRIzhkGlOJNI9dyy6Nyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Sa02GykOPQV4/RvoI2DGfD6bbQxYUmA8WQdxCrWtI9iipstopiaj1KYZhw/48yMF5sXPWPS9l50flstPTQms7A==" saltValue="ap/XuafwN5PJLIh+IMH6pg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19223,30 +19220,30 @@
         <v>Percentage of population in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19272,7 +19269,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19298,7 +19295,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="C4" s="77">
         <v>0.1</v>
@@ -19319,7 +19316,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="C5" s="77">
         <v>0.05</v>
@@ -19356,10 +19353,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19384,7 +19381,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19409,7 +19406,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19429,7 +19426,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19463,51 +19460,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19551,7 +19548,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19621,7 +19618,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9H01Xp3zy+0yMyEyb3F1iyn1NVJlRNpwj98dWYO45qVJBQf6YWpFmWcaGqTXQz/6G7ZdxtR2zG0/03VxdpxRNw==" saltValue="lbFTQj1wzFxbXDmMSmxn2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZB9bMqgjwd7rodcjf3GcywhVHnlBQNEVdHsgoHR3Ix2N8WUJlPwg7ljdzC+QWzkGym4Ci4rrLyAs1bsAQR+ebg==" saltValue="P2h4pEUy43QMgPjBcPnKMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19651,30 +19648,30 @@
         <v>Percentage of children in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19694,7 +19691,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19714,7 +19711,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19734,7 +19731,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19758,7 +19755,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S6DdD9BKARI+5pRU1AXD0oRIZXITvqN5CPfATI0jrrESJh/AKFEmj3Hl/4Rh0NBWVAlrRKc3+Mlf9fMaLRgGGg==" saltValue="zRycY29BkSOc6ATAppalqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FAhy/TAf1+FnTY6cBwnYCzqHVqWrXtDF2Qs9k3fsTtgmzy9044G8+ja1KYP/gvCXdjmylbQdcZyrj+aJPOXMLg==" saltValue="rJDCdFcpCCP8mjH0h3NAJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19783,10 +19780,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -19833,13 +19830,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C2" s="28">
-        <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
+        <f>(('Dist. de l''état nutritionnel'!C4+'Dist. de l''état nutritionnel'!C5)*(1/60)+('Dist. de l''état nutritionnel'!D4+'Dist. de l''état nutritionnel'!D5)*(5/60)+('Dist. de l''état nutritionnel'!E4+'Dist. de l''état nutritionnel'!E5)*(6/60)+('Dist. de l''état nutritionnel'!F4+'Dist. de l''état nutritionnel'!F5)*(12/60)+('Dist. de l''état nutritionnel'!G4+'Dist. de l''état nutritionnel'!G5)*(36/60))</f>
         <v>0.40499999999999997</v>
       </c>
       <c r="D2" s="28"/>
@@ -19863,13 +19860,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C4" s="28">
-        <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
+        <f>(('Dist. de l''état nutritionnel'!C10+'Dist. de l''état nutritionnel'!C11)*(1/60)+('Dist. de l''état nutritionnel'!D10+'Dist. de l''état nutritionnel'!D11)*(5/60)+('Dist. de l''état nutritionnel'!E10+'Dist. de l''état nutritionnel'!E11)*(6/60)+('Dist. de l''état nutritionnel'!F10+'Dist. de l''état nutritionnel'!F11)*(12/60)+('Dist. de l''état nutritionnel'!G10+'Dist. de l''état nutritionnel'!G11)*(36/60))</f>
         <v>4.4702487716765882E-2</v>
       </c>
       <c r="D4" s="28"/>
@@ -19893,13 +19890,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C6" s="28">
-        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
+        <f>'Dist. de l''état nutritionnel'!C15*(1/60)+'Dist. de l''état nutritionnel'!D15*(5/60)+'Dist. de l''état nutritionnel'!E15*(6/60)+'Dist. de l''état nutritionnel'!F15*(12/60)+'Dist. de l''état nutritionnel'!G15*(36/60)</f>
         <v>0.22016400000000003</v>
       </c>
       <c r="D6" s="28"/>
@@ -19920,10 +19917,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C7" s="28">
-        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D7" s="28"/>
@@ -19944,10 +19941,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="C8" s="28">
-        <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Dist. de l''état nutritionnel'!L15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!M15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!N15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!O15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D8" s="28"/>
@@ -19968,13 +19965,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C10" s="28">
-        <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
+        <f>('Dist. l''allaitement maternel'!C2*(1/6)+'Dist. l''allaitement maternel'!D2*(5/6))</f>
         <v>0.50922873745377717</v>
       </c>
       <c r="D10" s="28"/>
@@ -19997,10 +19994,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="C11" s="28">
-        <f>(('Breastfeeding distribution'!E2+'Breastfeeding distribution'!E3+'Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F2+'Breastfeeding distribution'!F3+'Breastfeeding distribution'!F4)*(12/18))</f>
+        <f>(('Dist. l''allaitement maternel'!E2+'Dist. l''allaitement maternel'!E3+'Dist. l''allaitement maternel'!E4)*(6/18)+('Dist. l''allaitement maternel'!F2+'Dist. l''allaitement maternel'!F3+'Dist. l''allaitement maternel'!F4)*(12/18))</f>
         <v>0.80834605377276669</v>
       </c>
       <c r="D11" s="28"/>
@@ -20021,10 +20018,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="28">
         <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
@@ -20050,7 +20047,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20071,7 +20068,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fiQyAJq8S3Pw+zm37FSo4585V80DIcG50jIPbQC37kUsXkVi1dCZbY/v8YzbqqpE9hINj+dc46v5HswfYnlCYA==" saltValue="wqdSCR6ocZQeRQM0bYa8Zw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vWQ7LzW7ThSupvh9wf7tA2Eo5Efp1R2qKN8uitqirRMVnS/6b1w0UgJRPCz8XrO4mCOvUatHTYfSTy8wEcNVjA==" saltValue="fmF07E8k+4MiNgAOt3YcwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20098,27 +20095,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20130,10 +20127,10 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="57" t="str">
@@ -20144,10 +20141,10 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="57" t="str">
@@ -20158,10 +20155,10 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="57" t="str">
@@ -20172,10 +20169,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="57" t="str">
@@ -20186,7 +20183,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20194,10 +20191,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
@@ -20209,7 +20206,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20221,7 +20218,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20233,7 +20230,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20245,7 +20242,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20257,24 +20254,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20284,11 +20281,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20298,11 +20295,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20312,11 +20309,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20326,11 +20323,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20340,14 +20337,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JyGfqf2axkr+352VxKRYIIAkEhHD72oUsE4COztVcs9ZvlHw/NEuB8XtlD6I3JwtsmJe0aPdq6JhOUt/9LdhWQ==" saltValue="4Aq9SdzPxh/Y4Miqadpp/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1umEIq6ZskAiOjIQgd/XPMqnTxIXnQk8je930AA1Gk9hCgutLjmiOBwd2X/S0A5LZfMx6fCjAcJuyg4ZyXomnQ==" saltValue="tlT7q9PgnaPbnJWcgqNqdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20374,44 +20371,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UBvBK46OEkMN2apPwGoWx/G2IMpfcAJLE2cMN+4xlxL4cIJ3cFuoOOFNzZibnZiv4iacxgeo87E1Cfn0fLhvNg==" saltValue="2R7S8i05dxaP4LNXT+EUJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TtfTp1Kfa1b/JS4KOnUB2sX5X+LbcxWPCQzq0A08q0RCPGshTv5v3Sw02Jco3vkFBt1fwkKhNIWN5vC17Z665A==" saltValue="hrpR6J5lIcqJ7J0izykGFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20439,25 +20436,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20469,12 +20466,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20486,12 +20483,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20503,12 +20500,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20520,12 +20517,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20537,12 +20534,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20554,12 +20551,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20571,12 +20568,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20588,12 +20585,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20605,12 +20602,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20622,12 +20619,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20639,12 +20636,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20656,12 +20653,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20673,12 +20670,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20690,12 +20687,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="81">
         <v>0.34599999999999997</v>
@@ -20707,12 +20704,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20724,12 +20721,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20741,12 +20738,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20758,12 +20755,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20775,12 +20772,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20792,12 +20789,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20809,12 +20806,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20826,12 +20823,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20843,12 +20840,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20860,12 +20857,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20877,12 +20874,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20894,12 +20891,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20911,12 +20908,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20928,12 +20925,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20945,12 +20942,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20962,12 +20959,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20979,12 +20976,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20996,12 +20993,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -21013,12 +21010,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21030,12 +21027,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21047,13 +21044,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21065,12 +21062,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21082,14 +21079,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k6DGTaf5eFy3Bw2Vled7gRxxrJIHyp7J6lwE1mw4Ub5OJeF+3Q/syuSGgJ93YdpHtkQt/3xl0N9N2cc+xQDU8Q==" saltValue="LWhyIKD2vpJS7Yzy+Zkfkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bdE3ZjmnJToJnwlwgtfNCtCF6yt8Hu7AQ7WeV/oBH8uMx8j53t+CVelEpKW5howqREWbRb2VXSPuYYI9AZVzxQ==" saltValue="I8IcM7e6S5McBPnCaC9hnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E18C47E4-C468-4756-815B-0D9EED88E894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42FC72AD-1F75-4D7D-AFED-EA7333117328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="2430" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
+    <sheet name="Population cible programmes" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
     <sheet name="Programs impacted population" sheetId="62" state="hidden" r:id="rId16"/>
@@ -5210,7 +5210,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ixiCVd57ZM6mvdHy1fxWXcmo3kIeDNiqHy/tamIdsnVRrr6GrnlJ3bBMk1jkpRU6QdPYSFJ+1pDJA8rnsdYfGQ==" saltValue="pluO1P1aB2MLOqFnT6DErg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Wwbf/83ox3yQjeaphgLq0G5eee3g8qzbAYua1iIoUJPWJUq/ZIlt1IHs0k3KfobrshfCjhgky4aY0V/RPuoj4w==" saltValue="uKIkegbXVt27Cps9uWSw6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5358,7 +5358,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R583bdWfgly/UMYL3ZKbj3SBQ8KwbNYEi9XeyP3BdvXAgPhOiVZkHu6oxOyuobwfW1x1lJO3eP2k3Cqxnrzgxw==" saltValue="uJDTGMW8YhtyuJ8lEsS2Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4+XJ6Z6Xqfae36c+4212ZKg9eXuMDQ8xUJqiCvWUdHakSaBHIOmedJKtve+aku7iKaXqHY5nzmCsXN7GRrzUZQ==" saltValue="dohjW5jxehPLkZPJgEoH5w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5458,7 +5458,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FIy+5kH3oDsDup3qE47WiKwfEAqZWAZ3C7SpVyBeMmu6P6d/2Ky6+XoYSvAFIOyRcaXOFFbN84QwsS5j53zbRg==" saltValue="ZCrKgHCxxCY+vPc+gx6uZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Vb2GxyZzDAMcGYT8BVx2WY6T2rxZ+kQR4EVO3oDcSmMDqobfvywPEwkpPtHO2ssyk2v9mHo9DliDiWEYbah7Lg==" saltValue="6JQ9jHFw54y+e3KHnfBtOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5573,7 +5573,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fcDgRlFcuS9LnMIZzl42twfFzTynIvZ7zpZ6vsnIEqdapj0g4oRFZu9Nzjb7j2XTG0bKNrox4dV3R8Jjz/DFMA==" saltValue="lqIub6NeJqedneLafHGoUg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gGI4gKr3lk5TkPOhNH6GmXT199NLPqD5aM01fbjIn1E2tIKs9ltLePJZY4VcfHJC3TBKFcElAbUZGgz35dKycg==" saltValue="yp7Re75M5z293OAdRqrw1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7289,7 +7289,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tyGjKZ4HBD51MrWlhTjgY6R1QUuohx1GHxNgrhGQL3kd9aV/wOhNv5xMFykZmLwpqY7JlxVHcHt1BiE4Jz6nEg==" saltValue="tDWr6mogx7rwzL/87XxYtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FNO6iY5EVORubA2lWyBrqMlhMdq5r/jq+FtQiS3JatTzq/qjVaBvtK9syolfxG5xQezLERKlkIzVNy8beeLvSw==" saltValue="KeLlQnnkpTKR1Ch52cq6mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7327,7 +7327,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/J6zap4FgqGjCIhLDwONyilg0/ovOS4dCcZ0MbPd0+VnAoe4r8jdRQ1gdj5dcWgIVggWV17XjmLOrXrVqo3RYw==" saltValue="8o74Mqnb0SDpeyL9teeFdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hYtKErUFwYEN/2o258dIRAMrOUi8apuYmYjSVcegCeG1fOQCkcBiGhg2MQWq5ScsynqFKHKhm6+nyEFtnPMyCA==" saltValue="//Q/I+qd80YL8HkF2zu+WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7535,7 +7535,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vXMTBVqyWjVSdBUSBaN84Jth3BDBwCh/fYasXTVqVCZJPhvA7L60kX7fVIiTYQPVGRR3H/bhybLjdYNit5eVPQ==" saltValue="dx9H/wR1ThktzBypxmY7ag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3MBsLwxkOkzu+FALImPhPw2yZBeyRls1zxTyJV6QBBzCPm8N09wHivRVxm4UlNTymILtYgSyLgJOxgcGjNtrqw==" saltValue="YAV3TS2QWtAKsD7qry6Jjg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9306,7 +9306,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="w+/7IPMFpXgSF73n8ImpgdryaXfSx0+c9uxGY17iaijqsJCSyHp3MarB/rb6+utWOwasjLT7lKCpTyLScenDXQ==" saltValue="C9N2V6Y7JiL/dBqs8CNpew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oKmedyWgBJYLfnoHflLZlKPUimsssQphLEqigRsjXY9yEcveiJN9Via72w9ZFRomhBAdoSpH1KfYnvtyV7dvfA==" saltValue="OHtmik4gJsCSudgqun7UxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10052,7 +10052,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FBlpz4laPr+5L7HFqigWZkSmTGuZ0ac0Yd8snP5J356AHIOpgdBR8FWFo8l5bSS86hRjhrXnveVhNvIKY5TZaA==" saltValue="bxqxwFWl/vEl894t9HDOnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2ub2alW/6ulWmGXj4ANlL+Y8bvdBP1UdB/9Nocs27DT8vc8VXS/WMPu88g20Pgg+hH/2ylRarj/3m05EUmneFw==" saltValue="6dnHs+kog12iqy4kF+zqWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10426,7 +10426,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lNt0O6jE/1ICH4L5n2sGL+M2zPFsxA/XwiCmhHcfNa+RWO0UwxTijqzGVTNalP3W390aC4/r2iK0E6+HGJaxOg==" saltValue="mgo6IzRug9i7gaZQy8XXmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UxH0TiyLFtB2enrshxgJo/mvha70EVHOLMqxsZVhN4rBi7nHfnaVBP1Ks8GXenkRm5pcacCKQVbeRXxYpLcqlA==" saltValue="ttP81CyyNwzuubGVHRKLgg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11547,7 +11547,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TpuByBgWamAErVcP3iXg43fADJ1APGyFkDPNARElimdq1SRHC3vOaG3a+txXm1PXtMimARUOeIWUe9ubJj6ruA==" saltValue="cWOq0tqLIo6B2K95N8JuRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l7KnsGeafE1Gt3sOBcAaNrjFuZkNCrzhyfzwDH/4qMTlmPMWp8+RgPyhd0w37DyCXwx7rTnZvEli/YnFH5un/Q==" saltValue="ymAMUZbt0ZqSBQK4kkFZ5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -12655,7 +12655,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pZscQTle4u7X5ynNofkoLPMCSky2iEAWbkyMs2GriHDjufKYWN/kdKM4AAxHmCVFHD5Vt+HOixZOm8fvQGun8Q==" saltValue="EWSZMg7qdd7utlg4byExMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J8QsaTZQOfVHxcbrUOwbwdOcZ+FXEoLKujemy2SGd/A7TVwtXDEexyZ9GCRNKWboPfsRTlyAcs9qjEQ1mlhf+Q==" saltValue="1EUGI/gAQ3ifhvD4SZkArQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13057,7 +13057,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bly8JvF2z5DuDeGBUCuio9hjmtYoc9fGgIRnxSIdLhtloVKx0YqRr93yG8hVMbmJLszpRmFTL0ZENTZg+7+H5A==" saltValue="YGqramuloGiDT6gaKGK/tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="I5QCHO0dsL8RDHcn1sjgjCIS9B7zavR3YkIvHvkSCmoUnbqqFA3rueVUdU665PATc/DEcaS1xigJfqBb0kmAyQ==" saltValue="dfYEvsDr8q88snNlzHlRmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15960,7 +15960,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wwjmdfSi+x//xmwd0eJqCoPb35bpEWRVv+TMi7LAmfhI/p+qpnv7pHv7zR+zyczDRQOUx4baV/DNbssEWLe/eA==" saltValue="JREs0eW5t8d/CHRSNy/1ew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yvFifm+AUOUzbA6nSoTKlMtMNX0lU7x8XTgA1OYQZ1SOCEuDWLGkJp+v+P5E4vW5H734IgUubQ6hMccrx2y2PA==" saltValue="g7itxBn+9KqPZr3WnSW07g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16269,7 +16269,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dg8KNGE7iiIN3GbLYQrlzAygBMsmGLxHpydZrR2upmV9JjbscnDjrZ2jDKirMrHjF9FWP7ST47fKD9iANgbOqg==" saltValue="RdDGWJWHbBsp8SxcxYeLug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e3RpeaRtXMcGaHFW9nPICEjxQL002A72jvEUEQF+oH2qdYsgCmMv6uEt0hc8HfjuHS4RUoulvttFx3VOuvd1hQ==" saltValue="uaCKCZCjaf4c8BQ9HNUbwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16549,7 +16549,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7WsE8ee9cr9YOBAfFmpxqj0pC+EMrkJFg/dPjXp33pnDZ3zdWBF9RIWcPy1W/kXJw4UoG7GwnbElLW3wfjeNrA==" saltValue="32vfSPLyHQUFzRpSg2JZfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4FHkNNjhhar2NfprQX1Tn35JuSbfEzLIKKOW7Lpd2znvWblblDgZ4AFUKUmvZX4cFwQxI94sGY6UbL0idZviXA==" saltValue="w6jEIhEPQrDmLUP7rY2RDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17345,7 +17345,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HbxTw+XmbJHng7HLcue4d6PTn3EgRxosj+0YLu49ZumNq4va6u7at6YzSW9kNtLsEuyNTZhxShC0GhqWseYasA==" saltValue="BkKmeakVzx77WCvZb5vRhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0ih9c9YHRIrhV1mjh0Jw5fF7fR7qNhJVxqQvhEUUNa1e3oxhKCawrRRMl67CWao/58OZqj9zAjWH2ck6VKJq8A==" saltValue="iaIPHFL3VXf65Q8AtDIPqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17446,7 +17446,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KzEbfww8VaolZWjLFBiTbaRVjqKsIsqr/3W+fECBmQtGaiKiuqu/pOtScv1qTTrtiggIAoNrniIX0P7QZdIIdg==" saltValue="UTY090DNzChuJAs6NzXSUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uE4ROfYonqbDwcDB+99Jrhnavkh3mrUSJ6CGkKP+L3QnB97b2oEBXVy3M0EnM88JcVE7GnQwDF5g/an8B13Q1w==" saltValue="5z6TkS9f34kKPaB4tlJ9YA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18576,7 +18576,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aoT0Yh7SZNzrGaXsoYdHBUXTf+UBsUa0H7EqLAziv/CKaMtLca+5breITaEDOEpM6xLZNqyD7QShGTNSQTBnuA==" saltValue="75OC7gtfP/I2j5tbKQhyKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OB2lPheq3IDPoayZTdav5cm6OQSVl1Okb6KPSwUbG2VPBXzh7Nj/XrvhHzpcjnlP0wvc9yucZZRGQgYB77+O9w==" saltValue="1LvEScnPGM5z4Oq6CG0qQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18753,7 +18753,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xysOoDZ7I3edrRHmnIKqTaqVRaOGwFsJe8FUNia/4erIcMJSYjJMRbsjajHVgZRrj6rcrh5KMcyPzcOr1hcStQ==" saltValue="kbpUf5WD1gaXT5Tye3BfcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8ye8fPaaJmQzIrt56AzherHs8u7k/dtD4zm9joDL8FbRsO21pWEwj/SCjNs4GSTDHOTh9aum6exW2JWi64i6Xg==" saltValue="S2V/FMe4PfGWl27QK5cpMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19190,7 +19190,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Sa02GykOPQV4/RvoI2DGfD6bbQxYUmA8WQdxCrWtI9iipstopiaj1KYZhw/48yMF5sXPWPS9l50flstPTQms7A==" saltValue="ap/XuafwN5PJLIh+IMH6pg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5e2FNyBu6UKehd8BlSgRAjwDM4EpDIP99Md0FncS+5dsl/1BgepJiwRk9ReYH5bCI/LgnFyJWzm4w5cuQ5822g==" saltValue="jNwMm6AIRQgQTfmmn5DDjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19618,7 +19618,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZB9bMqgjwd7rodcjf3GcywhVHnlBQNEVdHsgoHR3Ix2N8WUJlPwg7ljdzC+QWzkGym4Ci4rrLyAs1bsAQR+ebg==" saltValue="P2h4pEUy43QMgPjBcPnKMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CXmN3r1P1VqegSw0v7nC09YJYREJaLj+5tNlCb18BUwlXQutfFuSvMcuW27pyxZX4a1WIi1CYpBjp5z7tRLUOg==" saltValue="req0cYUuAPIWbBTnmp2oHA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19755,7 +19755,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FAhy/TAf1+FnTY6cBwnYCzqHVqWrXtDF2Qs9k3fsTtgmzy9044G8+ja1KYP/gvCXdjmylbQdcZyrj+aJPOXMLg==" saltValue="rJDCdFcpCCP8mjH0h3NAJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/0pq+9ng9ZE+VCHlQxND5oU6LGmUNkeCPIYPoDT8IorJokYrGmlD0SHJOCjTx53MVJrF2IC9E35dD9xraWqDCw==" saltValue="OayFPj85DWRzeRsM3ZC30Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20068,7 +20068,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vWQ7LzW7ThSupvh9wf7tA2Eo5Efp1R2qKN8uitqirRMVnS/6b1w0UgJRPCz8XrO4mCOvUatHTYfSTy8wEcNVjA==" saltValue="fmF07E8k+4MiNgAOt3YcwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ceyPuOUmvWDTQAqaXOGIDFjkei6yjA6RHcxz+0VlN2rRrOnM5bvG7hsmPykzJKBoLl4zKQ8m6n5gskFduBYCfw==" saltValue="ydRGuLP9yAnv35Ev5Dup5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20344,7 +20344,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1umEIq6ZskAiOjIQgd/XPMqnTxIXnQk8je930AA1Gk9hCgutLjmiOBwd2X/S0A5LZfMx6fCjAcJuyg4ZyXomnQ==" saltValue="tlT7q9PgnaPbnJWcgqNqdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/ttlAO++sAHuxCWTrOL+e0oD1TTyw1VmhlpPGOMqQeWqKBiSCT6hLAl9dDc1Tjo6X1Ok3wc+lORptpVc8t6pcg==" saltValue="LGApccty1fMhx7BOz2rfSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20408,7 +20408,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TtfTp1Kfa1b/JS4KOnUB2sX5X+LbcxWPCQzq0A08q0RCPGshTv5v3Sw02Jco3vkFBt1fwkKhNIWN5vC17Z665A==" saltValue="hrpR6J5lIcqJ7J0izykGFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J35vjm9HGCDvlc3grEGfwT7GoEI7FohQFxIETVD7O0TVuiZOi0imG2lzg20RP0QVTVzSS4ws6GugbE+loZiR1g==" saltValue="5pBVugQW9Kctavq7moeUqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21086,7 +21086,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bdE3ZjmnJToJnwlwgtfNCtCF6yt8Hu7AQ7WeV/oBH8uMx8j53t+CVelEpKW5howqREWbRb2VXSPuYYI9AZVzxQ==" saltValue="I8IcM7e6S5McBPnCaC9hnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/UE6FKch3VvLtKuKa0ilfou3yunplSlAzLbO8N7NTFrBrWzcTj+qXtL8BaAU0yJrt+zOierW6wPrVWqwxLIV5A==" saltValue="or8dW57lW5pPzOip5aTFMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB5AC21C-F477-4F79-A4BB-E3566E9D9506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6715D4D3-FFF6-49CC-8737-EA6E9B170B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
     <t>Année finale</t>
   </si>
   <si>
-    <t>Données sur la population</t>
+    <t>Données démographiques</t>
   </si>
   <si>
     <t>Population des enfants de moins de 5 ans</t>
@@ -1053,7 +1053,7 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
-    <t>Efficacité</t>
+    <t>efficacité</t>
   </si>
   <si>
     <t>Retard de croissance</t>
@@ -1143,19 +1143,19 @@
     <t>Anémique</t>
   </si>
   <si>
-    <t xml:space="preserve">Risque relatif des causes du décès par mode d'allaitement maternel </t>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Mode d'allaitement maternel</t>
   </si>
   <si>
-    <t xml:space="preserve">Risques relatifs de la diarrhée par mode d'allaitement maternel </t>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
   </si>
   <si>
-    <t>Avec retard de croissance précédent (HAZ &lt; -2 dans la tranche d'àge précédente)</t>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
   </si>
   <si>
     <t>Diarrhée (par épisode supplémentaire)</t>
@@ -5195,7 +5195,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hZybtbEKIMqrmJejOpVYEviVU6kjaM4QXzErFBPW46c/pUEwlN1ZI0knhshS8I5vUBbl0jlEizgV8/iVTPuwpQ==" saltValue="8NaydUdFqcysnplcVnIuhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GEWQIVccL3oa6y1sPqk6OivCoseTH1swyu5WejpQY7Bey+IikkYLtybp1eQzSWxVw2/EOD+iKkIXUyUjpAS5vQ==" saltValue="QIxJog5wrLreVcqmR+Fi+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5343,7 +5343,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VBvTJOxktMGFECDccu7FycYhQ15NVI/M7BWsQU5MYLmcsnYYLpNXLrgs4BZfS8IPZcBenpIGYwazfAoFv7bdng==" saltValue="EYW/y+xI2PfkK2CmTm2cGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bNUIYWygW5qm2XiGnWRiaWOASQV1GAoM7A+cVG/mMZNrIALz63l1tNZskkZYGERkuaBxjDOwmZsLsr9Fsr8VSg==" saltValue="+Zvh2bhJuwpt48/UQRFjbw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5443,7 +5443,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m2i9JRMlx5c/PwsZOrgknjmhN4keVEcumDDcwSbjVnh6r9hnQ+bGaDo7POa1klZ0bxPOLZF3B0FbbwTQdkb08A==" saltValue="7aAUogX1Dt/nxgwvqajwMA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GnxheF3fMVW6Ma1K/yL5EYnCX2xVVuTY3pAoAmpXx5y0qdtN1DMGNWCZMrR+xjOnMspWpP3LSv6Qv3UlaPaNWA==" saltValue="vzgdVPzfZwqO0nxaY+XTtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5558,7 +5558,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1UypuodmVXBed6f8W/Uu3gC2At/eZu3QDyxh1FOrhpUvmvmc6e7N3fp0EfjguMh2Egyz6pE5/9Kt93vscYTedA==" saltValue="KoyFXxsVjgvNz7aymTzYcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U3xoPgawaacXwUha0nsFTN+N9JTYaHKmludd/eesU8wYUJm5NhPSQvebrs1wUstGsrJIuDnunldYna/dexxqmg==" saltValue="i/X4WZQKBZljTcfIc5kCgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7274,7 +7274,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/RNreZzmEGs0UAwOGOi7ESo30gDRbC9HlixyddMrl5ECHebhb4WXSvUEy1xtKAX1e7oDxjpF3kV39+jbOdmLvg==" saltValue="BcoTFbNvGAoH264WeZVgbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P08aaLNWp2SOle84AwuBeuqYYrZSjiI3SZZ/AG8k4mPR/ql7LIiKCRTBA6C8JZH6yeVfd2fIynq+Ax4jeaHubw==" saltValue="CtqJtpGEIVHenLKI0QiR7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7312,7 +7312,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s22TXYMTarKsQ47th/kVg6q3Pf1SlrLI2d4XzsmVOiYSgxqQH5NA6jorOyqpVaNYIlXIvHhesnb3MWv0PDdCXQ==" saltValue="XQePCEV9naJxYxx8WbK0MA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MO74Ff8Q2cmslp0+JNt58OTY03vanFvGWX+AR6KpBOd5T4ggXj1gnAHRjG/B6MkaWEEU5+7BUTh7JGiODsSkdw==" saltValue="ZsevPI3XOCBRhWW+5Es9qw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7520,7 +7520,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YzEq/Bn7vUTMxI2lshfM5LOJ3aRwlJgDg9fO5oSUDbqURjtOxd5hCf2Emm/zKHhjQ+UoJdbL5PAurivDFNZ7Yg==" saltValue="/lzePx8+UjlTInSlIzJ8jw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="subeqDJOtvFqhGvmVZS1SJ2RxZzu53M8vW/YjHTawFB3SamXVyciJPMckfu6zegOQCO2J04/J+RmknEEXf4sTg==" saltValue="5xxVfOoZbB7EUAavnI9DSA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9291,7 +9291,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0icJS8tbW2CTLKMtla4Yso8VjvceawcE/VS/hxDTDaQPCk13+McKst0HlZKIbujeZ50aZgZD38nfz857BckPCA==" saltValue="Fp2iZcFcr78l32u2Det50A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nooXvYYgv9tAbhxZFeSvcL3aWQwGg4mwUkvy2t6fhtEucB56XXOK1jyHS+3s2jTcXut0Ak3XdZDZvSZrz/p8ug==" saltValue="XZzldb2h23co+pnAMlV9Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10037,7 +10037,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1AUnd79GSDk7HYYBQiUh9eKWwLsc20h29q4CVCRjMKUYv+Z8OHATyjtNjqjeSP81hU0h1jmcIHY7tR3lYVslLQ==" saltValue="W7/aEV0XWUJx4WOs0Bwb6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lxznM4YMJMftUPrpCio/Zfd93bcIfgZh2kO5WjQH+pRqPSTjqfLurQuMvIL7GrhPUvzzxdAWs3Go07dLKPXoSQ==" saltValue="19eX64ic9QESNfbJNzqNGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10411,7 +10411,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N/amrrmuBGBo9PDRb0rGaeXvV0iJB/eHN+ZDkqjn2wo66yK9Pdc3z25+oOPyVlFeJemKri6n9YoUSHc4NUPS4A==" saltValue="ibYj++DnSo70qK/bBLdbwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="085pgYrR9MnUHOhLV/MEWt6LNC7kwBBIa7ln35XV72t00yYw66rrlnVS4j1N2o2fT6ghs7pe7PK/yzAXXPZ5jw==" saltValue="/tvkPnHVLAmEvbTB7cKVsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11532,7 +11532,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PuAlNFNHxYjSpIT/pD8jlEFWbr19Xc3ZlLXR7EsPfiJqNuTNFlzArW92NBn1YMAsFzbHNBey34aj6rU4ZLLOgg==" saltValue="3SCiZG2vMC2RRI8mW3gZCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9CN7+0bNX2BI9mEru/GoURkBCa4p7SNibzz+6P35c76m482VB+429Cy8eheMEKqOC8QbtKd+Sl/y9rBJcPL2xg==" saltValue="HGUK2jsXlEuQs1OIaUqdGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -12640,7 +12640,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IC5bYgHIjv9UsseJOm5hR+4VPEP/kGRRr0h92lHDrjMVeO1tODs/O3LLIMIcm34tK8PLIczB/bBHaTWKsOpdSw==" saltValue="dSrpjJuj9tIKxmDqyczx7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MTJwfThQRVTK0llKK584wRjigbpBpDyoPZVMOgDNL7xZROW3FQIrulgPxUw/XFn93soBBcQn2IMumH0czw5l9Q==" saltValue="XzaEgz9HywWiaabL8ZsFQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13042,7 +13042,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ADqAJL1Y8L5ZshIAA1nxY//BFl9rm8VzII9gFHG8Q/FcdS4j0NJSLd+eOJk6EVdOcKSIj+fFQedt9JfguUVs/w==" saltValue="COCox/VNenUZfn2CyverGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X5Mc0VY2I5KtL098ADfCik7CD0Z7Bj7rabe/MS16JTmO0xLfZKHoCJs9sInghXssSn4vav98zl1p5GxYaGJJaA==" saltValue="AeY4CZAEHo5XlAv/Tug2ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15945,7 +15945,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R8sZtoDfFGIA5jqyQ7g1Loh5Ih/dm7feIsseTnU2ab0CQIBmYm79lo6NCPg//w95YLJKda2Wnwm905n86zD//Q==" saltValue="DyFlccmkDd3ZXzqLQYFxUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZTGIB3hxZdpE7om3epX/6Nd5StXsq2TFjeu9J9Bx3WkXdogzPRljy+oXWma7vSYtOe7KAQ+n1V70xviTUwwe2g==" saltValue="R6i2PgKeM2rEYJrP23/N5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16254,7 +16254,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HzD9CJ7yJ6CSXaw/LYbckPgScHiOrfyJnH6d1ZJgzdZaMLaKs2V1n/dMqpucoDcLBR0bXv6oeA4riHQZ10CyBw==" saltValue="Wy8p3JmDgPoCmoU0p9XFiw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GQg0UN3cAOjH6hsppxxVRf8mohZU60edPTGHj9nqUpJeLdhggxOrotPb/8Lv9WvQQ+CcHE71b3kDNBzqneYRpw==" saltValue="iKubGnQJCkYsRIX4dI7WVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16534,7 +16534,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vLZHpfCWIF66VYggHz9S6lJOP51gY3bNcKvtfNP9RHW5QKjYRGcCQXVhI3qfvUk5weAY66oJkeW1VN9e4giOmA==" saltValue="fVSpuNMdxZFFtzzP3HsTOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1tMKX/aA6OPATkl/++WcwEV3gH4kkvTMIHortqBHR286CzyA0yKdac8zhYD1Bco9IxW+W/QsdHsrW9O4BwZnsA==" saltValue="Zd5K5n2Vt1XRH77V1zRtqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17330,7 +17330,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JPynHa1HMf5o0cH2NdykRTnMbkT+50wze+kzq/o4VKXLL4+1LyypY38Io3FMVToqpTAcOYEy5kpepITuM4DmgQ==" saltValue="/fz6M5w63qVaG7pSHPRAsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8fSO+Lnur6BS2sDyNaL6/AoROzSfc7WYDImOVlPvEuQxC7iE69I4EoWp57pQmfutlApW7VqmdBe6B3CK7UXB0g==" saltValue="d/zMD56iUoLzRK0Wy3fpWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17431,7 +17431,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NAR6YUzmSyJ1U8KPKf49SGL0S26xiLSxaaHnXCWgE7T8vjjon8OziZ0Coys/kfo/uKpXMpraPqJwabAZUor0eg==" saltValue="9tDaR6bI98yozYXQNlfDzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GBkwgx59f7wzsU0I2xDbWu8y9yFSY6h5VKj4I6LUZzUZai/vDUX198gtyq+Ert8j4G55LreUi/cGoXLponGEiQ==" saltValue="UWwf5D6qbyR+gqjK0ldSpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18561,7 +18561,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AQQNqf0OwxkVlxIaG0Zrf3q6O6fow115mJIvySGBprP6q9msQd0guqvK36NxfKfIwRalGlYZ0chlbi3BTMDwmQ==" saltValue="QoHLvipNIbMZmS8Ycyyxpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U2DOCwUHAlLjRVudkopU/se8WSlL/2tQhy2MgCWNiYZwyyY2cziRMEvH3aOk9xcOLvg+k7QwGTGpX1yEHcH5fQ==" saltValue="prF40cczeb/Mt/uv4sqR3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18738,7 +18738,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9xzVfofwjd3xVSxuJgj3acQF32IdGdg0hUTc5q5EI6TI+Koy65uAGQ8EfXxiH4d6ER4GhE7OOY9v9qgl+CrqCg==" saltValue="+r27EvQaHzPyaR3rhmbZuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a8CgnnJ2MluuB2CsUPTqtEdQgXI/nhDETA7d1RIDZ/3kSPe2niP4tUNhTptgpOJNMu9DZI+J8TxfjL3hR7esTg==" saltValue="6AC8DVEEnPG09sElXJLWDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19175,7 +19175,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l8KOVBKBAKKPPzPhd1Fv/F+koVokFAXoU5Jv14lbB2E0qZZugtojLnv/PMFEJ+YcqiTANJAfeZaUgRDZ2daxxA==" saltValue="LgqcxzWPoSCOnmaettB53g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6IHpuS1dSAfXZie1oTR2/5ZNAEWEqyqIWdKptnH/Yd+bLO253fZsubefBNDgsDcO2NhM7J1Czuuq2zHaOpsr/w==" saltValue="NOzGFOOIbYhsxHCQJQbZNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19603,7 +19603,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iM+o1NGLfHmXx6Pgsdb9WXPYt4qxlEbukuQ04oSWloj6TMc10eZU6ru3aYvQBAGvPB6+nE5nJ2MrfD3I3HUZbw==" saltValue="p+fqX1JnW2+A8zoPQbaPQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dnGpdG8TOnGcYIeZOKZpGdjaH0p/bkXsg+7zLZl5DBCPjIA4ukBgYV5B3xAq24lwcecD9JNL9R7d1qwHpBzwVw==" saltValue="ELP9zcJ1Nw3bsUobC4CrKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19740,7 +19740,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2h6T3+ckA/EDNF7PA1lzSDmr6l/oEWyOwHbf2xPskN/SbQe0IY2HXPhW5jYxMG+OUqYfczYHfdp/9r1EBIQ3Ow==" saltValue="KKgI24y6OhEtH4wHPMRU6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hcMdBcPpq+nBKEYENGFelm+6+MQpe312DdU5UPrK11eZBuclqHfH1BHyQ6UYzMdMNUUsRiVPeAqzuV086PXyQQ==" saltValue="JwvNux9m0s3Nxs04lHHG1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20053,7 +20053,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cw+TcBMcThJA9DY4vBp+k2yepUcmP5+U7POBdfSJtOjmgwUQeEyoxg0fpCE/bE2bCaJp7C2TlXAkZtkget7iVQ==" saltValue="yyKOc+D/LMyO2eaZufzdaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BzI7eMH7zCGk+kJD2NEk627Z4euTEKGE1Rorn9HfXVJWgZP2Kp/uNZ8mjjV1YND58uYEzRCc+aSVDj2IhUsFnQ==" saltValue="HwSXAq3fFn1Y7xgYVANJew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20329,7 +20329,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="la5Lr3h1jXPDL5/wm3ZSmbmek73Rk+4WkF47DXb5RyljY14H5zs1oxG63z9B84KXj3jr6rJdAuWXgkqO23qSEQ==" saltValue="zF/kFbpBWKHOcCQJgRghWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AgcteIp0PjEv7Iq2DDluZf76Gvukr8GEycyR4+a4KHV4G+kIHNPTfUaUceplhdniBYUkoXOmPZgsywtisa8oNw==" saltValue="gxa4xPzUVRm6QEW349y61Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20393,7 +20393,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TLSRL680Pt0MuITBzWmspCfNKzjjwCzie1VF/OU9W7eAGkvWDOT7fUsDaeOIy8FuXby/pJ8iOYeZOEGWkk1XPg==" saltValue="NFB/Mn0cJiH/OSZQ9H59Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jR68Aop4YW9d8iCjYtA3it3xQyhtqLxJKP9qYw5mRBYXN8yiC/gKcn6AziO5lAfOrfe7bU6aaVnMng0py4ozmA==" saltValue="N2f9CVZ/p3omyb+Gh9U/Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21071,7 +21071,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uSRU+H6crcrONQ/iK9mkxSVrxKsRLiORcbEowT5aPkp+jIBGve8QIi7CtKHEHx+FU/EXgxtFMPwXzpm3+liUSg==" saltValue="j8poF/pKpL/M6ZLx6n1B9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JbN4yoa0GTgnnA0+cqvnaiTmLn9RaEVO5+Ab9u38QHhyTMngSrHjUv2LS0nf2hsv/GsPWASWlTP4u76eugBn0Q==" saltValue="TU0IZr7on+dxdBpoIYfCZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6715D4D3-FFF6-49CC-8737-EA6E9B170B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{672B2193-32F1-4BA3-807F-4B014666911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4739,14 +4739,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -4757,14 +4757,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>31</v>
@@ -4773,7 +4773,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
@@ -4782,17 +4782,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
@@ -4848,17 +4848,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
@@ -4899,15 +4899,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>48</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>49</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>51</v>
       </c>
@@ -4939,18 +4939,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>53</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>54</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>55</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>56</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>57</v>
       </c>
@@ -4991,20 +4991,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>60</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>61</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>62</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>63</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>64</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>65</v>
       </c>
@@ -5056,16 +5056,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>67</v>
       </c>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>68</v>
       </c>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>69</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>70</v>
       </c>
@@ -5104,16 +5104,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>72</v>
       </c>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>73</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>74</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>75</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>76</v>
       </c>
@@ -5154,12 +5154,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>78</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>79</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>80</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>81</v>
       </c>
@@ -5191,11 +5191,11 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GEWQIVccL3oa6y1sPqk6OivCoseTH1swyu5WejpQY7Bey+IikkYLtybp1eQzSWxVw2/EOD+iKkIXUyUjpAS5vQ==" saltValue="QIxJog5wrLreVcqmR+Fi+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vjig9JM+k8YEVEQthkwAPFgKyNST2UZ/ejjzalQMWc7woVRx+mf5ie98tXsZYo8375154RbDIi2k93EtyP70hg==" saltValue="2VxYnkbIdBmlOvIMYlRPuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5212,15 +5212,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>184</v>
       </c>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>185</v>
       </c>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>195</v>
       </c>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>192</v>
       </c>
@@ -5267,83 +5267,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bNUIYWygW5qm2XiGnWRiaWOASQV1GAoM7A+cVG/mMZNrIALz63l1tNZskkZYGERkuaBxjDOwmZsLsr9Fsr8VSg==" saltValue="+Zvh2bhJuwpt48/UQRFjbw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nU/arkZ+OnqAUWekBh2X7b//XUujYlgMyjdwwl4fCvEwqMJkXXBVIuXomncrpINvD+xi2mS5qA2luKshiPO+MQ==" saltValue="+tdzrTFXxjMSrfRJr26NOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5361,89 +5361,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GnxheF3fMVW6Ma1K/yL5EYnCX2xVVuTY3pAoAmpXx5y0qdtN1DMGNWCZMrR+xjOnMspWpP3LSv6Qv3UlaPaNWA==" saltValue="vzgdVPzfZwqO0nxaY+XTtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UPrmdSpr5kKYiBIAnr6TE9xL3mFzH0ntEUr7rTR0PiT8wFSVpUyw84PyfNLcKfdy29ByehMh6mjHYF/PEwLxSg==" saltValue="ARcfnfs1xHrGPB//n2f2dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5460,9 +5460,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>209</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>208</v>
       </c>
@@ -5558,7 +5558,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U3xoPgawaacXwUha0nsFTN+N9JTYaHKmludd/eesU8wYUJm5NhPSQvebrs1wUstGsrJIuDnunldYna/dexxqmg==" saltValue="i/X4WZQKBZljTcfIc5kCgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aO9LVn2rSZoWRrWDapmZDXf8hjBUtX6Qk6R/V0YUimpRo62mLdWJzmHasnDlVLbdRAkPbgHHFGrk1d10B1B2fA==" saltValue="bcSD71lfxXimQgNsMoJttw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5575,19 +5575,19 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>175</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>187</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>188</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>192</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>194</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>195</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>165</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>196</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>202</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>203</v>
       </c>
@@ -6146,10 +6146,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>173</v>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>184</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>185</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>190</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>191</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>193</v>
       </c>
@@ -6527,10 +6527,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>90</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>180</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>181</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>182</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>183</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6780,7 +6780,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>210</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>178</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>179</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>186</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>189</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>197</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>198</v>
@@ -7138,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>199</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>200</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>201</v>
       </c>
@@ -7270,11 +7270,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P08aaLNWp2SOle84AwuBeuqYYrZSjiI3SZZ/AG8k4mPR/ql7LIiKCRTBA6C8JZH6yeVfd2fIynq+Ax4jeaHubw==" saltValue="CtqJtpGEIVHenLKI0QiR7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Yb40EkxwSWGq3QHUfd6Hf/w4uN+pRkW/odG23TmifmI+nQyHglknBbLc3+D7K1vhURpCf5KJMbM7yhb3W5CefQ==" saltValue="HYv1jKi+KIOR3TOCVVRZAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7289,30 +7289,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MO74Ff8Q2cmslp0+JNt58OTY03vanFvGWX+AR6KpBOd5T4ggXj1gnAHRjG/B6MkaWEEU5+7BUTh7JGiODsSkdw==" saltValue="ZsevPI3XOCBRhWW+5Es9qw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t3mExjuYqa53cZsG9IxEmMUyg9MkfvEl8eQj0OSvQz5gdOFVMfdK3l1NuNVkaFGuHjY/pTREHgN/ekjoDZu/iQ==" saltValue="xr5HW0GFs2nJcb+npycgjg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7328,16 +7328,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>4</v>
       </c>
@@ -7516,11 +7516,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="subeqDJOtvFqhGvmVZS1SJ2RxZzu53M8vW/YjHTawFB3SamXVyciJPMckfu6zegOQCO2J04/J+RmknEEXf4sTg==" saltValue="5xxVfOoZbB7EUAavnI9DSA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="li/CJTpSlXbeiylh5A/HWIq+u3Lw6Dky7OAqL82zuJfcg3bpvptevwRSuBNS2GKhhX/Xsad5QUz7v+mh2YP15Q==" saltValue="Xi1bODfzgtWwRGsdOLFqYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7538,20 +7538,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>211</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>100</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>175</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>19</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>22</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>23</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>187</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>188</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>192</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>194</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>195</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>165</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>196</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>202</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>203</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8233,7 +8233,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>114</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>173</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
         <v>184</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
         <v>185</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
         <v>2</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>190</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>191</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>193</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8605,7 +8605,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>90</v>
       </c>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>180</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>181</v>
@@ -8742,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>182</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>183</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8846,7 +8846,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>210</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>178</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>179</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>186</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>189</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>197</v>
@@ -9114,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>198</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>199</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>200</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>201</v>
       </c>
@@ -9291,7 +9291,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nooXvYYgv9tAbhxZFeSvcL3aWQwGg4mwUkvy2t6fhtEucB56XXOK1jyHS+3s2jTcXut0Ak3XdZDZvSZrz/p8ug==" saltValue="XZzldb2h23co+pnAMlV9Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wJMcu0wsFh8IZCuKH5uO3YFb9JUS54iiWAu2AJnuphujYsz9Hz6PvXOjPoDndPEkluRa+ICewTDDglCwIKkq3g==" saltValue="IwGQPHh8q52C8/ESQtSALg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9307,22 +9307,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -9374,7 +9374,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -9391,7 +9391,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -9408,7 +9408,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -9425,7 +9425,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -9463,7 +9463,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -9482,7 +9482,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -9501,7 +9501,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -9518,7 +9518,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -9535,7 +9535,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -9552,7 +9552,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
         <v>184</v>
       </c>
@@ -9588,7 +9588,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
         <v>185</v>
       </c>
@@ -9607,7 +9607,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9628,7 +9628,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -9645,7 +9645,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -9664,7 +9664,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -9683,7 +9683,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -9702,7 +9702,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -9721,7 +9721,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -9742,7 +9742,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -9761,7 +9761,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -9778,7 +9778,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -9795,7 +9795,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -9812,7 +9812,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -9831,7 +9831,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -9848,7 +9848,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -9867,7 +9867,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>165</v>
       </c>
@@ -9884,7 +9884,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -9903,7 +9903,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -9922,7 +9922,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -9941,7 +9941,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -9960,7 +9960,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -9979,7 +9979,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -9998,7 +9998,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -10015,7 +10015,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -10037,7 +10037,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lxznM4YMJMftUPrpCio/Zfd93bcIfgZh2kO5WjQH+pRqPSTjqfLurQuMvIL7GrhPUvzzxdAWs3Go07dLKPXoSQ==" saltValue="19eX64ic9QESNfbJNzqNGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U0xK+Or4T2COSmHHtiQPQ2uD/Njc5dKMOj8kHoNRVsrHQO0UCvRTAQADisNiyyckTQ6DElYCmPPQHd+gbA7naA==" saltValue="GXArFsgrZuUaIgKM0dDCvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10053,22 +10053,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>123</v>
       </c>
@@ -10132,7 +10132,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>110</v>
       </c>
@@ -10161,7 +10161,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>111</v>
       </c>
@@ -10190,7 +10190,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>112</v>
       </c>
@@ -10219,7 +10219,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>113</v>
       </c>
@@ -10248,7 +10248,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>136</v>
       </c>
@@ -10269,7 +10269,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>137</v>
       </c>
@@ -10290,7 +10290,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>138</v>
       </c>
@@ -10311,7 +10311,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>139</v>
       </c>
@@ -10332,7 +10332,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>84</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>85</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>86</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>87</v>
       </c>
@@ -10411,7 +10411,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="085pgYrR9MnUHOhLV/MEWt6LNC7kwBBIa7ln35XV72t00yYw66rrlnVS4j1N2o2fT6ghs7pe7PK/yzAXXPZ5jw==" saltValue="/tvkPnHVLAmEvbTB7cKVsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fxTIROx/A7uQtRYAnHt11ejQFaW25u38mW+MG81VFeG8LLXXFRCcTRsCVRfBx2Na3um3oomGw04q1iP2SSp5JQ==" saltValue="jbY4X7f4SaeNfnKd4J7Jdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10427,15 +10427,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>221</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>222</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="139"/>
       <c r="C3" s="35" t="s">
         <v>161</v>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="139"/>
       <c r="C4" s="35" t="s">
         <v>162</v>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="139" t="s">
         <v>123</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="139"/>
       <c r="C6" s="35" t="s">
         <v>161</v>
@@ -10576,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="139"/>
       <c r="C7" s="35" t="s">
         <v>162</v>
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="139" t="s">
         <v>110</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="139"/>
       <c r="C9" s="35" t="s">
         <v>161</v>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="139"/>
       <c r="C10" s="35" t="s">
         <v>162</v>
@@ -10662,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="139" t="s">
         <v>111</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="139"/>
       <c r="C12" s="35" t="s">
         <v>161</v>
@@ -10706,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="139"/>
       <c r="C13" s="35" t="s">
         <v>162</v>
@@ -10727,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="139" t="s">
         <v>112</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="139"/>
       <c r="C15" s="35" t="s">
         <v>161</v>
@@ -10771,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="139"/>
       <c r="C16" s="35" t="s">
         <v>162</v>
@@ -10792,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
         <v>163</v>
       </c>
@@ -10815,14 +10815,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>223</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="139"/>
       <c r="C20" s="35" t="s">
         <v>161</v>
@@ -10869,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="139"/>
       <c r="C21" s="35" t="s">
         <v>162</v>
@@ -10890,7 +10890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="139" t="s">
         <v>123</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="139"/>
       <c r="C23" s="35" t="s">
         <v>161</v>
@@ -10934,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="139"/>
       <c r="C24" s="35" t="s">
         <v>162</v>
@@ -10955,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="139" t="s">
         <v>110</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="139"/>
       <c r="C26" s="35" t="s">
         <v>161</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="139"/>
       <c r="C27" s="35" t="s">
         <v>162</v>
@@ -11020,7 +11020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="139" t="s">
         <v>111</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="139"/>
       <c r="C29" s="35" t="s">
         <v>161</v>
@@ -11064,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="139"/>
       <c r="C30" s="35" t="s">
         <v>162</v>
@@ -11085,7 +11085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="139" t="s">
         <v>112</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="139"/>
       <c r="C32" s="35" t="s">
         <v>161</v>
@@ -11129,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="139"/>
       <c r="C33" s="35" t="s">
         <v>162</v>
@@ -11150,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
         <v>163</v>
       </c>
@@ -11173,14 +11173,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
         <v>224</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="139"/>
       <c r="C37" s="35" t="s">
         <v>161</v>
@@ -11227,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="139"/>
       <c r="C38" s="35" t="s">
         <v>162</v>
@@ -11248,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="139" t="s">
         <v>123</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="139"/>
       <c r="C40" s="35" t="s">
         <v>161</v>
@@ -11292,7 +11292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="139"/>
       <c r="C41" s="35" t="s">
         <v>162</v>
@@ -11313,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="139" t="s">
         <v>110</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="139"/>
       <c r="C43" s="35" t="s">
         <v>161</v>
@@ -11357,7 +11357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="139"/>
       <c r="C44" s="35" t="s">
         <v>162</v>
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="139" t="s">
         <v>111</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="139"/>
       <c r="C46" s="35" t="s">
         <v>161</v>
@@ -11422,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="139"/>
       <c r="C47" s="35" t="s">
         <v>162</v>
@@ -11443,7 +11443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="139" t="s">
         <v>112</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="139"/>
       <c r="C49" s="35" t="s">
         <v>161</v>
@@ -11487,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="139"/>
       <c r="C50" s="35" t="s">
         <v>162</v>
@@ -11508,7 +11508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
         <v>163</v>
       </c>
@@ -11532,7 +11532,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9CN7+0bNX2BI9mEru/GoURkBCa4p7SNibzz+6P35c76m482VB+429Cy8eheMEKqOC8QbtKd+Sl/y9rBJcPL2xg==" saltValue="HGUK2jsXlEuQs1OIaUqdGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yem4gaY+zlls2BuhHQmUpkaXZ3tTv5HYrwI7OQvtN1XUNzXZoJbZPTFuzJOpBvH8ypEGhbSee45hypqLXMQiPw==" saltValue="hT1fq5Dn+mcZp71a6gNCTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -11566,14 +11566,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>82</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11635,7 +11635,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11668,7 +11668,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11701,7 +11701,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11734,7 +11734,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11767,7 +11767,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11800,7 +11800,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11833,7 +11833,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11866,7 +11866,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11899,7 +11899,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11932,7 +11932,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11965,7 +11965,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -11998,7 +11998,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12031,7 +12031,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12064,7 +12064,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12087,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12156,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12225,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12248,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12455,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12478,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12547,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12570,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12593,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12616,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12640,7 +12640,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MTJwfThQRVTK0llKK584wRjigbpBpDyoPZVMOgDNL7xZROW3FQIrulgPxUw/XFn93soBBcQn2IMumH0czw5l9Q==" saltValue="XzaEgz9HywWiaabL8ZsFQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rUr7h8K7P8wPqBtIevLJzn54KLnPftq8WXcHawOBTpP+4wJP3ANSKCZjtBlVwDWxr+E+vTMxnrsoNMAQzzuBog==" saltValue="AK1RI9Gt1oi+bNONyei8Hw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12662,22 +12662,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>70</v>
@@ -12692,7 +12692,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>226</v>
       </c>
@@ -12702,7 +12702,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
         <v>53</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
         <v>54</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
         <v>55</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
         <v>56</v>
       </c>
@@ -12770,13 +12770,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>233</v>
       </c>
@@ -12794,14 +12794,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
         <v>227</v>
       </c>
@@ -12811,7 +12811,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>228</v>
       </c>
@@ -12821,7 +12821,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
         <v>229</v>
       </c>
@@ -12839,7 +12839,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
         <v>230</v>
       </c>
@@ -12857,7 +12857,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
         <v>231</v>
       </c>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12884,7 +12884,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>232</v>
       </c>
@@ -12895,7 +12895,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
         <v>92</v>
       </c>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
         <v>93</v>
       </c>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
         <v>94</v>
       </c>
@@ -12949,7 +12949,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
         <v>95</v>
       </c>
@@ -12967,7 +12967,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
         <v>96</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
         <v>97</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
         <v>98</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
         <v>99</v>
       </c>
@@ -13035,14 +13035,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X5Mc0VY2I5KtL098ADfCik7CD0Z7Bj7rabe/MS16JTmO0xLfZKHoCJs9sInghXssSn4vav98zl1p5GxYaGJJaA==" saltValue="AeY4CZAEHo5XlAv/Tug2ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GrISyH8XZ9Dk/XwoX23Enft/dh0WSSuDSp2btpMi4dKeQJdekSBCp9D5ywjdfElx87GHbIQmqDtP1tStL1uX4Q==" saltValue="iU9c89XPXrtA5JmoiEiO4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13059,23 +13059,23 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
         <v>216</v>
       </c>
@@ -13109,7 +13109,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>101</v>
@@ -13141,7 +13141,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>237</v>
       </c>
@@ -13169,7 +13169,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>238</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>239</v>
       </c>
@@ -13225,7 +13225,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>102</v>
       </c>
@@ -13256,7 +13256,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>237</v>
       </c>
@@ -13284,7 +13284,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>238</v>
       </c>
@@ -13312,7 +13312,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>239</v>
       </c>
@@ -13340,7 +13340,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>104</v>
       </c>
@@ -13371,7 +13371,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>237</v>
       </c>
@@ -13399,7 +13399,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>238</v>
       </c>
@@ -13427,7 +13427,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>239</v>
       </c>
@@ -13455,7 +13455,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>105</v>
       </c>
@@ -13486,7 +13486,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>237</v>
       </c>
@@ -13514,7 +13514,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>238</v>
       </c>
@@ -13542,7 +13542,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>239</v>
       </c>
@@ -13570,7 +13570,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>103</v>
       </c>
@@ -13601,7 +13601,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>237</v>
       </c>
@@ -13629,7 +13629,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>238</v>
       </c>
@@ -13657,7 +13657,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>239</v>
       </c>
@@ -13685,7 +13685,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>109</v>
       </c>
@@ -13716,7 +13716,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>237</v>
       </c>
@@ -13744,7 +13744,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>238</v>
       </c>
@@ -13772,7 +13772,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>239</v>
       </c>
@@ -13800,12 +13800,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
         <v>26</v>
       </c>
@@ -13839,7 +13839,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>101</v>
@@ -13871,7 +13871,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>237</v>
       </c>
@@ -13899,7 +13899,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>209</v>
       </c>
@@ -13927,7 +13927,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>208</v>
       </c>
@@ -13955,7 +13955,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>102</v>
       </c>
@@ -13986,7 +13986,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>237</v>
       </c>
@@ -14014,7 +14014,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>209</v>
       </c>
@@ -14042,7 +14042,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>208</v>
       </c>
@@ -14070,7 +14070,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>104</v>
       </c>
@@ -14101,7 +14101,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>237</v>
       </c>
@@ -14129,7 +14129,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>209</v>
       </c>
@@ -14157,7 +14157,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>208</v>
       </c>
@@ -14185,7 +14185,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>105</v>
       </c>
@@ -14216,7 +14216,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>237</v>
       </c>
@@ -14244,7 +14244,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>209</v>
       </c>
@@ -14272,7 +14272,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>208</v>
       </c>
@@ -14300,7 +14300,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>103</v>
       </c>
@@ -14331,7 +14331,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>237</v>
       </c>
@@ -14359,7 +14359,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>209</v>
       </c>
@@ -14387,7 +14387,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>208</v>
       </c>
@@ -14415,7 +14415,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>109</v>
       </c>
@@ -14446,7 +14446,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>237</v>
       </c>
@@ -14474,7 +14474,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>209</v>
       </c>
@@ -14502,7 +14502,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>208</v>
       </c>
@@ -14530,16 +14530,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
         <v>135</v>
       </c>
@@ -14567,7 +14567,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>115</v>
@@ -14593,7 +14593,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14615,7 +14615,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>116</v>
       </c>
@@ -14640,7 +14640,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14662,7 +14662,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>117</v>
       </c>
@@ -14687,7 +14687,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14709,16 +14709,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
         <v>142</v>
       </c>
@@ -14752,7 +14752,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>92</v>
@@ -14784,7 +14784,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>144</v>
       </c>
@@ -14812,7 +14812,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>145</v>
       </c>
@@ -14840,7 +14840,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>146</v>
       </c>
@@ -14868,7 +14868,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>93</v>
       </c>
@@ -14899,7 +14899,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>144</v>
       </c>
@@ -14927,7 +14927,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>145</v>
       </c>
@@ -14955,7 +14955,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>146</v>
       </c>
@@ -14983,7 +14983,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>94</v>
       </c>
@@ -15014,7 +15014,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>144</v>
       </c>
@@ -15042,7 +15042,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>145</v>
       </c>
@@ -15070,7 +15070,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>146</v>
       </c>
@@ -15098,7 +15098,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>96</v>
       </c>
@@ -15129,7 +15129,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>144</v>
       </c>
@@ -15157,7 +15157,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>145</v>
       </c>
@@ -15185,7 +15185,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>146</v>
       </c>
@@ -15213,7 +15213,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>101</v>
       </c>
@@ -15244,7 +15244,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>144</v>
       </c>
@@ -15272,7 +15272,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>145</v>
       </c>
@@ -15300,7 +15300,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>146</v>
       </c>
@@ -15328,7 +15328,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>102</v>
       </c>
@@ -15359,7 +15359,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>144</v>
       </c>
@@ -15387,7 +15387,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>145</v>
       </c>
@@ -15415,7 +15415,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>146</v>
       </c>
@@ -15443,7 +15443,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>104</v>
       </c>
@@ -15474,7 +15474,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>144</v>
       </c>
@@ -15502,7 +15502,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>145</v>
       </c>
@@ -15530,7 +15530,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>146</v>
       </c>
@@ -15558,7 +15558,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>103</v>
       </c>
@@ -15589,7 +15589,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>144</v>
       </c>
@@ -15617,7 +15617,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>145</v>
       </c>
@@ -15645,7 +15645,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>146</v>
       </c>
@@ -15673,7 +15673,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>106</v>
       </c>
@@ -15704,7 +15704,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>144</v>
       </c>
@@ -15732,7 +15732,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>145</v>
       </c>
@@ -15760,7 +15760,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>146</v>
       </c>
@@ -15788,12 +15788,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
         <v>101</v>
       </c>
@@ -15827,7 +15827,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15857,7 +15857,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>144</v>
       </c>
@@ -15885,7 +15885,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>145</v>
       </c>
@@ -15913,7 +15913,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>146</v>
       </c>
@@ -15941,11 +15941,11 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZTGIB3hxZdpE7om3epX/6Nd5StXsq2TFjeu9J9Bx3WkXdogzPRljy+oXWma7vSYtOe7KAQ+n1V70xviTUwwe2g==" saltValue="R6i2PgKeM2rEYJrP23/N5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sOIkkKo2oPbo1kHu2lWry3aKYctoaaVs/L2OZUhDHyYDTmdUYWYsFNQ09fEPFL+wuHNRo5HIaG3BfpR/885tPw==" saltValue="06+eO0NU5xkAMjH3UcThKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15962,24 +15962,24 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
         <v>249</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16041,12 +16041,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
         <v>195</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
         <v>188</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
         <v>203</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16114,12 +16114,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>187</v>
@@ -16140,16 +16140,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
         <v>26</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16193,7 +16193,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
         <v>135</v>
       </c>
@@ -16216,13 +16216,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>84</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
         <v>176</v>
       </c>
@@ -16254,7 +16254,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GQg0UN3cAOjH6hsppxxVRf8mohZU60edPTGHj9nqUpJeLdhggxOrotPb/8Lv9WvQQ+CcHE71b3kDNBzqneYRpw==" saltValue="iKubGnQJCkYsRIX4dI7WVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w8lAiT+ZUx083eXNoEKmq8inrsMhpkkXzyePlruwgvAbiCa+Pe+26zLhXvWKJNU22rtTuN9XRtQCGgXIh4FEig==" saltValue="qubCFrr3bPqB3r2jW6nR+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16272,16 +16272,16 @@
       <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>164</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
         <v>172</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>258</v>
@@ -16337,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
         <v>184</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>258</v>
@@ -16375,7 +16375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
         <v>185</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>258</v>
@@ -16413,7 +16413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
         <v>2</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>258</v>
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
         <v>189</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>258</v>
@@ -16489,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
         <v>193</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>258</v>
@@ -16527,14 +16527,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1tMKX/aA6OPATkl/++WcwEV3gH4kkvTMIHortqBHR286CzyA0yKdac8zhYD1Bco9IxW+W/QsdHsrW9O4BwZnsA==" saltValue="Zd5K5n2Vt1XRH77V1zRtqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OY4EdvUp17FiPq5QD488a9b+8IeuWeFiiAPMzdmZUvhoEUt4cDNptzmOnEsWLgiUz/jlpKIgAglpa8fr8+tzmQ==" saltValue="t2ZA3Okks8/ftJkemgPzYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16551,15 +16551,15 @@
       <selection activeCell="E19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16602,12 +16602,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>175</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>180</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>181</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>182</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>183</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
         <v>184</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
         <v>185</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
         <v>188</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>189</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>192</v>
       </c>
@@ -17091,7 +17091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>193</v>
       </c>
@@ -17135,13 +17135,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>260</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
         <v>177</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
         <v>178</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
         <v>179</v>
       </c>
@@ -17273,7 +17273,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
         <v>186</v>
       </c>
@@ -17317,20 +17317,20 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8fSO+Lnur6BS2sDyNaL6/AoROzSfc7WYDImOVlPvEuQxC7iE69I4EoWp57pQmfutlApW7VqmdBe6B3CK7UXB0g==" saltValue="d/zMD56iUoLzRK0Wy3fpWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="akMdI4IzqA3ZGXmO3k709bfyXryk1suCkfP4NnTquLP2S2y9mmh/HwWEJBhcA6b0BOvL53KCwed8e+oOVAHYZw==" saltValue="GyTzIP545H8lRFNXY33Z/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17347,15 +17347,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17374,12 +17374,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>165</v>
       </c>
@@ -17399,7 +17399,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>262</v>
       </c>
@@ -17410,7 +17410,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
         <v>169</v>
       </c>
@@ -17431,7 +17431,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GBkwgx59f7wzsU0I2xDbWu8y9yFSY6h5VKj4I6LUZzUZai/vDUX198gtyq+Ert8j4G55LreUi/cGoXLponGEiQ==" saltValue="UWwf5D6qbyR+gqjK0ldSpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z+t/abNAprKFgFMQYdPY0X04Q3cQ7U1h41fsG10oIwpuyHsqMXVb8G1aKB+bLYdHE1LQoFyXIdP09VPH3dgp8g==" saltValue="/Qzv2sJz8NxjxL1cFjMxDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17448,20 +17448,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>196</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>264</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>265</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>195</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>265</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>209</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>265</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>188</v>
       </c>
@@ -17668,7 +17668,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>265</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>209</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>265</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>174</v>
       </c>
@@ -17757,7 +17757,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>265</v>
       </c>
@@ -17778,7 +17778,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>209</v>
       </c>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>265</v>
       </c>
@@ -17823,7 +17823,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>179</v>
       </c>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>264</v>
       </c>
@@ -17871,7 +17871,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>177</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>264</v>
       </c>
@@ -17917,7 +17917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>178</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>264</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>200</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>264</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>265</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>201</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>264</v>
       </c>
@@ -18075,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>265</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>199</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>264</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>265</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>198</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>264</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>265</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>197</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>264</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>265</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>264</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>265</v>
       </c>
@@ -18359,7 +18359,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>102</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>264</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>265</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>194</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>264</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>202</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>264</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>187</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>264</v>
       </c>
@@ -18561,7 +18561,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U2DOCwUHAlLjRVudkopU/se8WSlL/2tQhy2MgCWNiYZwyyY2cziRMEvH3aOk9xcOLvg+k7QwGTGpX1yEHcH5fQ==" saltValue="prF40cczeb/Mt/uv4sqR3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vLaq+TGk1dkYCYf2SlIBxTDaCUWZdOv2mFleIr3G2OI8cuHEHn+WxkN+a8eFkN9PEiRPH8zYLkaGFOvaC05wwQ==" saltValue="9l6Gi1wL/T6tKKWubG+TZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18578,16 +18578,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>164</v>
       </c>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>173</v>
       </c>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>264</v>
       </c>
@@ -18651,7 +18651,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>191</v>
       </c>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>264</v>
@@ -18694,7 +18694,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>190</v>
       </c>
@@ -18718,7 +18718,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>264</v>
@@ -18738,7 +18738,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a8CgnnJ2MluuB2CsUPTqtEdQgXI/nhDETA7d1RIDZ/3kSPe2niP4tUNhTptgpOJNMu9DZI+J8TxfjL3hR7esTg==" saltValue="6AC8DVEEnPG09sElXJLWDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mVat8z1Zj6Ug94voNeJ7Ch9z9c66mZkjISwBejhIFLc/cyc3JPW5AzFdD3/F8KoqUukGRIxLiaX3gLMhx6WYyg==" saltValue="AzQ0SYfsBkxWY0XfrPks3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18754,14 +18754,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18772,7 +18772,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -18787,7 +18787,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>92</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>93</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>94</v>
       </c>
@@ -18811,7 +18811,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>95</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>96</v>
       </c>
@@ -18827,7 +18827,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>97</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>98</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>99</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>57</v>
       </c>
@@ -18862,7 +18862,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18871,7 +18871,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>100</v>
       </c>
@@ -18892,7 +18892,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>101</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>102</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>103</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>104</v>
       </c>
@@ -18960,7 +18960,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>105</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>106</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>107</v>
       </c>
@@ -19011,7 +19011,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>108</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>109</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>57</v>
       </c>
@@ -19068,7 +19068,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19077,7 +19077,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -19093,7 +19093,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>115</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>116</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>117</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>118</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>119</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>120</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>121</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>122</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>57</v>
       </c>
@@ -19175,7 +19175,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6IHpuS1dSAfXZie1oTR2/5ZNAEWEqyqIWdKptnH/Yd+bLO253fZsubefBNDgsDcO2NhM7J1Czuuq2zHaOpsr/w==" saltValue="NOzGFOOIbYhsxHCQJQbZNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="APdp2ddetfPIoWEM+xtI1w2TVJNHBOMYHN3Z92F9m0eGN4TSENd2Jfi4ve7tHvrRsoIL7eDeXSi9mB6wiWK44A==" saltValue="ODtLIuhsfxRbcIyHNN8SPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19193,13 +19193,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19223,7 +19223,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>125</v>
       </c>
@@ -19251,7 +19251,7 @@
         <v>0.18417555450115231</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>127</v>
@@ -19277,7 +19277,7 @@
         <v>0.35582444549884773</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>128</v>
@@ -19298,7 +19298,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>129</v>
@@ -19320,7 +19320,7 @@
       </c>
       <c r="H5" s="137"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19328,7 +19328,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19336,7 +19336,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>132</v>
       </c>
@@ -19389,7 +19389,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>133</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>134</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19443,7 +19443,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>135</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>140</v>
       </c>
@@ -19531,7 +19531,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>141</v>
       </c>
@@ -19588,14 +19588,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19603,7 +19603,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dnGpdG8TOnGcYIeZOKZpGdjaH0p/bkXsg+7zLZl5DBCPjIA4ukBgYV5B3xAq24lwcecD9JNL9R7d1qwHpBzwVw==" saltValue="ELP9zcJ1Nw3bsUobC4CrKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ti9bVcQPc6QErXziOqWYZbyBqp/jcdUQCYkljAxjJofHfJ/gvEYNtEyOOWxehPfxifFwn2vdcD2qFjSQxE5y1A==" saltValue="0GEdQM328rO36rjyg7FgWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19621,13 +19621,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19651,7 +19651,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>142</v>
       </c>
@@ -19674,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>144</v>
       </c>
@@ -19694,7 +19694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>145</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>146</v>
       </c>
@@ -19740,7 +19740,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hcMdBcPpq+nBKEYENGFelm+6+MQpe312DdU5UPrK11eZBuclqHfH1BHyQ6UYzMdMNUUsRiVPeAqzuV086PXyQQ==" saltValue="JwvNux9m0s3Nxs04lHHG1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dDVXdGtPGiqFkbNTsF7xLAJNjbtBCN8RRtPuk7ntQidM/qbsloYiRvUH14o+p7olZN8TJFrdKqu5OmeAs0k04A==" saltValue="IihzfY01BdZE2UoxyFZAzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19757,13 +19757,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -19813,7 +19813,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -19840,10 +19840,10 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -19870,10 +19870,10 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>114</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>154</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>156</v>
       </c>
@@ -20053,7 +20053,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BzI7eMH7zCGk+kJD2NEk627Z4euTEKGE1Rorn9HfXVJWgZP2Kp/uNZ8mjjV1YND58uYEzRCc+aSVDj2IhUsFnQ==" saltValue="HwSXAq3fFn1Y7xgYVANJew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vlfPrIaw8vN+KjQizTUWcu6HHdx2m9ANmmDG87ProIKiZa7+KLNZZ5UwgXVBz6qlEmknL0dKzFJEuDhZ6w8Wmw==" saltValue="+p7Xuty1pT0DDhEKCDmG5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20070,15 +20070,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>158</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>19</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>123</v>
@@ -20123,7 +20123,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>110</v>
@@ -20137,7 +20137,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>111</v>
@@ -20151,7 +20151,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>112</v>
@@ -20165,7 +20165,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>163</v>
@@ -20174,7 +20174,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>22</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>123</v>
@@ -20200,7 +20200,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>110</v>
@@ -20212,7 +20212,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>111</v>
@@ -20224,7 +20224,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>112</v>
@@ -20236,7 +20236,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>163</v>
@@ -20247,7 +20247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>23</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>123</v>
@@ -20277,7 +20277,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>110</v>
@@ -20291,7 +20291,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>111</v>
@@ -20305,7 +20305,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>112</v>
@@ -20319,7 +20319,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>163</v>
@@ -20329,7 +20329,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AgcteIp0PjEv7Iq2DDluZf76Gvukr8GEycyR4+a4KHV4G+kIHNPTfUaUceplhdniBYUkoXOmPZgsywtisa8oNw==" saltValue="gxa4xPzUVRm6QEW349y61Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x5HyAQU7L5SWmtPvqirj9KHrkkfpNNM4q/xrTw+IvdoYC2odrGVI85HZrPokzlgbxR4yoYRLSvwyoErcAyWXaw==" saltValue="O+GrkXEfvDAeH2NP8HZrHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20346,15 +20346,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>164</v>
       </c>
@@ -20380,7 +20380,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>168</v>
       </c>
@@ -20393,7 +20393,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jR68Aop4YW9d8iCjYtA3it3xQyhtqLxJKP9qYw5mRBYXN8yiC/gKcn6AziO5lAfOrfe7bU6aaVnMng0py4ozmA==" saltValue="N2f9CVZ/p3omyb+Gh9U/Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z8V+Zs3XvaGNcoE7HrDWem+dh4x9KLJYJX7Wvh2ylUGtddATuiPlhOtrlI+mLjnSAwWSCrq56k0XkQ7pmj50yQ==" saltValue="XfCuqJbSxpqXf9VK60mNSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20409,17 +20409,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>164</v>
       </c>
@@ -20437,7 +20437,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -20539,7 +20539,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -20573,7 +20573,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -20607,7 +20607,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>184</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>185</v>
       </c>
@@ -20675,7 +20675,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -20777,7 +20777,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -20862,7 +20862,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -20879,7 +20879,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -20913,7 +20913,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>165</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -20947,7 +20947,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -21015,7 +21015,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -21033,7 +21033,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -21067,11 +21067,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JbN4yoa0GTgnnA0+cqvnaiTmLn9RaEVO5+Ab9u38QHhyTMngSrHjUv2LS0nf2hsv/GsPWASWlTP4u76eugBn0Q==" saltValue="TU0IZr7on+dxdBpoIYfCZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sgHfYyLwNyS444jJAvmswSA8zFvo4LmIdKxI6aE5gY3oTIJ4A81p0GchUQbMMiiFQvXRlOm72eXYHmirM+xoFA==" saltValue="zcxhQ8tE4xPSuQMUmy0S/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{672B2193-32F1-4BA3-807F-4B014666911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02AB5568-EF6B-4920-BE45-FAA4BC1E043D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
     <t>Modéré</t>
   </si>
   <si>
-    <t>Elevé</t>
+    <t>Élevé</t>
   </si>
   <si>
     <t>Niveau WHZ</t>
@@ -5195,7 +5195,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vjig9JM+k8YEVEQthkwAPFgKyNST2UZ/ejjzalQMWc7woVRx+mf5ie98tXsZYo8375154RbDIi2k93EtyP70hg==" saltValue="2VxYnkbIdBmlOvIMYlRPuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sTH+SwWixLJ0/U0o5C47FBE++q7ZIWGNT8yFeJI1NQJqLSiLitEcWLmsGc+vYLKxH8xTLARnnDaOD0ZvxNKbpA==" saltValue="v58XqruByro5JK0r7xrSJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5343,7 +5343,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nU/arkZ+OnqAUWekBh2X7b//XUujYlgMyjdwwl4fCvEwqMJkXXBVIuXomncrpINvD+xi2mS5qA2luKshiPO+MQ==" saltValue="+tdzrTFXxjMSrfRJr26NOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3od4n7l/CJapp7jlRJPuHGRj/oSOaibtmjgN6qRnwUEYzpOk0EM+GsTB/SmcI/BfkDcQ+YbhkWil7s/IvRiYnQ==" saltValue="hMotoX0FgEY3g2exDLu9fg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5443,7 +5443,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UPrmdSpr5kKYiBIAnr6TE9xL3mFzH0ntEUr7rTR0PiT8wFSVpUyw84PyfNLcKfdy29ByehMh6mjHYF/PEwLxSg==" saltValue="ARcfnfs1xHrGPB//n2f2dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z0b6k9Ol+teFJ31BJ9SRbmVEMyQR4vaEVOHWyhSYJt4qFcnfdTJF0zLzO9SkPL/ii2qDV0zqtR41ycT939OEXg==" saltValue="0XK3ZReVCq1EQ92v2dlXSA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5558,7 +5558,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aO9LVn2rSZoWRrWDapmZDXf8hjBUtX6Qk6R/V0YUimpRo62mLdWJzmHasnDlVLbdRAkPbgHHFGrk1d10B1B2fA==" saltValue="bcSD71lfxXimQgNsMoJttw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f0o9u1oCZkV05OKPeXegePXOdu2UTabX57OlZ62xKNZiOefa9oAZmJ8xr8oDHr20p99ZIX8H1jEUoTykvPo4XQ==" saltValue="h+ffYMFLugt/DL2+C+tQHA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7274,7 +7274,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Yb40EkxwSWGq3QHUfd6Hf/w4uN+pRkW/odG23TmifmI+nQyHglknBbLc3+D7K1vhURpCf5KJMbM7yhb3W5CefQ==" saltValue="HYv1jKi+KIOR3TOCVVRZAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WKZHBOVwzpA7pjAuy1dh/4gsAzxlO5lnyWUdupgS2evPsq4zdP9kKJHYCfmGA9/+eWkd/t479jXuHLtbX70poQ==" saltValue="HpeEG5vZH7OyR35nHcv0Vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7312,7 +7312,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t3mExjuYqa53cZsG9IxEmMUyg9MkfvEl8eQj0OSvQz5gdOFVMfdK3l1NuNVkaFGuHjY/pTREHgN/ekjoDZu/iQ==" saltValue="xr5HW0GFs2nJcb+npycgjg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7LVRDDTeOVvRSfpWa+prV5520ZpKHsgjvXUwJTU2MKWrYLv6eAfsSahk4QvNayHJliQ1DUCQqgag0chI4Bpsqw==" saltValue="N4Uih3MZDfVBVBevCLM4rQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7520,7 +7520,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="li/CJTpSlXbeiylh5A/HWIq+u3Lw6Dky7OAqL82zuJfcg3bpvptevwRSuBNS2GKhhX/Xsad5QUz7v+mh2YP15Q==" saltValue="Xi1bODfzgtWwRGsdOLFqYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0gBK0jofAtxfe4pIArO9gS0sY4ti5deaDTYMrpNLjAAkWUfL36kJz+rb8FdF7dJvgpSiIfZy0UPSp95FOZuqdA==" saltValue="pEFmMAdJXTRs4mZPk1dBzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9291,7 +9291,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wJMcu0wsFh8IZCuKH5uO3YFb9JUS54iiWAu2AJnuphujYsz9Hz6PvXOjPoDndPEkluRa+ICewTDDglCwIKkq3g==" saltValue="IwGQPHh8q52C8/ESQtSALg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z08l2nnUL5gngneI8y3Zn37XUlVCVOo7xjbBAAQagaXiXpqmFvA1Sf6BRUXyvVVa3OJUedwVRnlYP3fcw1gO2A==" saltValue="VbJZbzunvvxFYcDAYP7/EA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10037,7 +10037,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U0xK+Or4T2COSmHHtiQPQ2uD/Njc5dKMOj8kHoNRVsrHQO0UCvRTAQADisNiyyckTQ6DElYCmPPQHd+gbA7naA==" saltValue="GXArFsgrZuUaIgKM0dDCvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="21N28eVmBSOmDNRytU4Xb+ApPHMYtLieeK3LY5qQg5ypcL21ufCF17ca0lqGNymWLPTq+f3itg8vQGxi2UYerw==" saltValue="pt5ofEDZ0R+9qnnZvyaduw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10411,7 +10411,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fxTIROx/A7uQtRYAnHt11ejQFaW25u38mW+MG81VFeG8LLXXFRCcTRsCVRfBx2Na3um3oomGw04q1iP2SSp5JQ==" saltValue="jbY4X7f4SaeNfnKd4J7Jdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/Ho2gDc0Xejey4++KBZhsnGxvhZsgSXAWSSHzZK+qr171tlwpnLfsVEu+JQqfukA2+RMeMuHRjZ4QRtA4YiEIQ==" saltValue="cSCkQAE+WWx7VefH58EA/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11532,7 +11532,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yem4gaY+zlls2BuhHQmUpkaXZ3tTv5HYrwI7OQvtN1XUNzXZoJbZPTFuzJOpBvH8ypEGhbSee45hypqLXMQiPw==" saltValue="hT1fq5Dn+mcZp71a6gNCTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W7Ur3bc4b2T5xJb1A2LlTocdVXPVuoPH/2YD7gxkXPYkLLspFysM3OG0KrEeCB8jtxfD4/kRur8HdtXw89WDVA==" saltValue="4oBtuYHZt3KLrnRYJP6SAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -12640,7 +12640,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rUr7h8K7P8wPqBtIevLJzn54KLnPftq8WXcHawOBTpP+4wJP3ANSKCZjtBlVwDWxr+E+vTMxnrsoNMAQzzuBog==" saltValue="AK1RI9Gt1oi+bNONyei8Hw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eG2HujlCBXkVC4ml55A1HnAhvncIobLZmKqXoLoUrOjXyXU7fYHw6w4ytZ2WonHRU4RJTd2vA8mRJ/Mg/pIRDQ==" saltValue="GgA0BxpttWx8JFL3gRESgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13042,7 +13042,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GrISyH8XZ9Dk/XwoX23Enft/dh0WSSuDSp2btpMi4dKeQJdekSBCp9D5ywjdfElx87GHbIQmqDtP1tStL1uX4Q==" saltValue="iU9c89XPXrtA5JmoiEiO4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zm31pBgrrU+fQyH3dGULhHZqEiOtniIGnif3MeRjbGscoEEORI2u7shfNW1hp/QaPUNtSZuOlphAxoFl9NKEQA==" saltValue="tDmTWgpR2jurjUHg27t/UQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15945,7 +15945,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sOIkkKo2oPbo1kHu2lWry3aKYctoaaVs/L2OZUhDHyYDTmdUYWYsFNQ09fEPFL+wuHNRo5HIaG3BfpR/885tPw==" saltValue="06+eO0NU5xkAMjH3UcThKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DW5pw7uViN4B7UXDWrItsUWYngTpIHlbDVb9TskUTSkyHcMH3uVeFX19Mpb2+kGqFQM5ijq+TUQ3BjeUKwoeVw==" saltValue="A4HrvtKSIMbA+iH5WZ1+Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16254,7 +16254,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="w8lAiT+ZUx083eXNoEKmq8inrsMhpkkXzyePlruwgvAbiCa+Pe+26zLhXvWKJNU22rtTuN9XRtQCGgXIh4FEig==" saltValue="qubCFrr3bPqB3r2jW6nR+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ch4rP8pMHCTDItvHVNCwu5jjssO4Zx+CIP+M4IjJsrep18z4OfjkEglFd4+eFRbBPb46JMCpwvG+ARZvQOMEQg==" saltValue="+Q215zV873Y1bg0rInittg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16534,7 +16534,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OY4EdvUp17FiPq5QD488a9b+8IeuWeFiiAPMzdmZUvhoEUt4cDNptzmOnEsWLgiUz/jlpKIgAglpa8fr8+tzmQ==" saltValue="t2ZA3Okks8/ftJkemgPzYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UXoQhXfRRi8g/FbvTx+F08iBoNc7Hejcwm+9aEu6Xnk6hWWa3A7dAO6qdrGA/rlnonAAiR2VMDaXM4Lpt8aPgg==" saltValue="w9+mw4bT1WAM23iDrJaQRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17330,7 +17330,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="akMdI4IzqA3ZGXmO3k709bfyXryk1suCkfP4NnTquLP2S2y9mmh/HwWEJBhcA6b0BOvL53KCwed8e+oOVAHYZw==" saltValue="GyTzIP545H8lRFNXY33Z/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o9DuiOUrgYjBT5apL2ZLTdUGduFOWdBtTKoRu6OCNTr/+PI0889Evj+6gmPVq5J73JVqbcrPv04QgkHlMxEmjw==" saltValue="Vr/8p/dIfQZkCEIywMZwgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17431,7 +17431,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z+t/abNAprKFgFMQYdPY0X04Q3cQ7U1h41fsG10oIwpuyHsqMXVb8G1aKB+bLYdHE1LQoFyXIdP09VPH3dgp8g==" saltValue="/Qzv2sJz8NxjxL1cFjMxDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AdHhjgfdERtEqs/UdpqLsrvV+Gksmo+UP0HQ11SSZK5CgO0eF6j/+Orm9pTgyFXDvG+0rJzC7evMW6nUnA/jNQ==" saltValue="8k9OyUKeHXWMvKGjg7803g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18561,7 +18561,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vLaq+TGk1dkYCYf2SlIBxTDaCUWZdOv2mFleIr3G2OI8cuHEHn+WxkN+a8eFkN9PEiRPH8zYLkaGFOvaC05wwQ==" saltValue="9l6Gi1wL/T6tKKWubG+TZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zcyjS92/t7vNTijDP4wJe2IpChrkenGLjDElhi7gowpcf0Bi2hxBWi9Jo3CW2y/6ELbwjCpdrKSpY2yVOCnz7g==" saltValue="AjzbXip62Ka2z3E9tyJBRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18738,7 +18738,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mVat8z1Zj6Ug94voNeJ7Ch9z9c66mZkjISwBejhIFLc/cyc3JPW5AzFdD3/F8KoqUukGRIxLiaX3gLMhx6WYyg==" saltValue="AzQ0SYfsBkxWY0XfrPks3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7Db3hT1kcRruqc4kiLXMashH3f3s/AfF30L7Lc96TR/7olHGuStIUlJUxMb8LxmnS5uaIxIpzO0co8T5fLQPeg==" saltValue="Lz9jDJRYAq0XbHBkVwtk9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19175,7 +19175,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="APdp2ddetfPIoWEM+xtI1w2TVJNHBOMYHN3Z92F9m0eGN4TSENd2Jfi4ve7tHvrRsoIL7eDeXSi9mB6wiWK44A==" saltValue="ODtLIuhsfxRbcIyHNN8SPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2mfYvSzEG8HZgzqJX9llw0xzDIc6JWWpj6iDNAooOUOp0Iq6XTRAcIGXOwH/uKMu2hohqEs5k41xNRVwc9syNQ==" saltValue="PKivBK/79V+nYkjyXYXRCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19603,7 +19603,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ti9bVcQPc6QErXziOqWYZbyBqp/jcdUQCYkljAxjJofHfJ/gvEYNtEyOOWxehPfxifFwn2vdcD2qFjSQxE5y1A==" saltValue="0GEdQM328rO36rjyg7FgWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="T0XX5MVM6RD2hPa1gld0B25yv7LRrBp4G6EaytpMnvC0NDA2J0FMMOnBTPuhxQnMBlPLEe5f6BBx3RE3tOzfpA==" saltValue="/QO0m7VmzMtLCi80jgRusg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19740,7 +19740,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dDVXdGtPGiqFkbNTsF7xLAJNjbtBCN8RRtPuk7ntQidM/qbsloYiRvUH14o+p7olZN8TJFrdKqu5OmeAs0k04A==" saltValue="IihzfY01BdZE2UoxyFZAzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5HX5GiKhZaxAETZdeZzSGjK+7OopZv9oaXkrHwQmAHb0yy6mU6G9rZeBe5/9jFeS3yHMHbnUnp4mITJlXmeolw==" saltValue="BVK7E2V/1NWzeLVDyxkKrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20053,7 +20053,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vlfPrIaw8vN+KjQizTUWcu6HHdx2m9ANmmDG87ProIKiZa7+KLNZZ5UwgXVBz6qlEmknL0dKzFJEuDhZ6w8Wmw==" saltValue="+p7Xuty1pT0DDhEKCDmG5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TSaVYOXii26VSDe4p8J9krRDsHQ487FDoerq8/bgKNVuBUCNACyYQsWclDvqPYBvR9fcVDFrF5QzwV0gJ/4gXg==" saltValue="oTveTRC5Prt6A4RPqO5dKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20329,7 +20329,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x5HyAQU7L5SWmtPvqirj9KHrkkfpNNM4q/xrTw+IvdoYC2odrGVI85HZrPokzlgbxR4yoYRLSvwyoErcAyWXaw==" saltValue="O+GrkXEfvDAeH2NP8HZrHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k+bhZTdXIhjXqyucNsHf5ZuSkttJx82QwE0xTG9nCby1iZSN3ij5f0q5Dk0GDxwoJm8bFo2a+7l4bRukfv87rA==" saltValue="2rCgBXoSgua+HRIoLlUlZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20393,7 +20393,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z8V+Zs3XvaGNcoE7HrDWem+dh4x9KLJYJX7Wvh2ylUGtddATuiPlhOtrlI+mLjnSAwWSCrq56k0XkQ7pmj50yQ==" saltValue="XfCuqJbSxpqXf9VK60mNSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="psN0tXb0ZJf/aHwggEy8FgZnIqdurwHYqGwV8/nUQkRVqEzqO9ejbgH1zh8SSrsRm2PHzfkXTIoDjfgNZI3NvQ==" saltValue="VAx4XBrB5wRY7BuHN1p8Kg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21071,7 +21071,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sgHfYyLwNyS444jJAvmswSA8zFvo4LmIdKxI6aE5gY3oTIJ4A81p0GchUQbMMiiFQvXRlOm72eXYHmirM+xoFA==" saltValue="zcxhQ8tE4xPSuQMUmy0S/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VMUTlIFy6OYp5ydVkyawW3beEVbpeSpOFc5ibZ8jM5kHLzKnkgYtjfI/oXVW7AarxTYa23xgfB3LdPz7yTsz9A==" saltValue="XcvUOfRhNQFWrjzv2CEjpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02AB5568-EF6B-4920-BE45-FAA4BC1E043D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE443DC8-82A0-474E-A665-17860F465043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="268">
   <si>
     <t>Condition</t>
   </si>
@@ -486,9 +486,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Wasting</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -648,30 +645,180 @@
     <t>Pourcentage de l'anémie qui est ferriprive</t>
   </si>
   <si>
+    <t>FAP : 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP : 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP : 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Néonatal</t>
+  </si>
+  <si>
+    <t>Diarrhée néonatale</t>
+  </si>
+  <si>
+    <t>Sepsis néonatal</t>
+  </si>
+  <si>
+    <t>Pneumonie néonatale</t>
+  </si>
+  <si>
+    <t>Asphyxie néonatale</t>
+  </si>
+  <si>
+    <t>Prématurité néonatale</t>
+  </si>
+  <si>
+    <t>Tétanos néonatal</t>
+  </si>
+  <si>
+    <t>Anomalies congénitales néonatales</t>
+  </si>
+  <si>
+    <t>Autres pathologies néonatales</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Pneumonie</t>
+  </si>
+  <si>
+    <t>Méningite</t>
+  </si>
+  <si>
+    <t>Rougeole</t>
+  </si>
+  <si>
+    <t>Paludisme</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>SIDA</t>
+  </si>
+  <si>
+    <t>Blessure</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>1-5 mois</t>
+  </si>
+  <si>
+    <t>6-11 mois</t>
+  </si>
+  <si>
+    <t>12-23 mois</t>
+  </si>
+  <si>
+    <t>24-59 mois</t>
+  </si>
+  <si>
+    <t>Femmes enceintes</t>
+  </si>
+  <si>
+    <t>Hémorragie antepartum</t>
+  </si>
+  <si>
+    <t>Hémorragie intra-partum</t>
+  </si>
+  <si>
+    <t>Hémorragie du post-partum</t>
+  </si>
+  <si>
+    <t>Troubles hypertensifs</t>
+  </si>
+  <si>
+    <t>Avortement</t>
+  </si>
+  <si>
+    <t>Embolie</t>
+  </si>
+  <si>
+    <t>Autres causes directes</t>
+  </si>
+  <si>
+    <t>Causes indirectes</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>&lt;1 mois</t>
+  </si>
+  <si>
+    <t>Retard de croissance (taille pour l'âge)</t>
+  </si>
+  <si>
+    <t>Normal (score HAZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score HAZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ entre &lt; -3)</t>
+  </si>
+  <si>
+    <t>Amaigrissement (poids-pour-taille)</t>
+  </si>
+  <si>
+    <t>Normal (score WHZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score WHZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>MM (score WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>MAS (score WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Anémie</t>
+  </si>
+  <si>
+    <t>FE : 15-19 ans</t>
+  </si>
+  <si>
+    <t>FE : 20-29 ans</t>
+  </si>
+  <si>
+    <t>FE : 30-39 ans</t>
+  </si>
+  <si>
+    <t>FE : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie ferriprive</t>
+  </si>
+  <si>
     <t>Prévalence de la pré-éclampsie</t>
   </si>
   <si>
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
-    <t>Année</t>
-  </si>
-  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
-    <t>FAP : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FAP : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FAP : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FAP : 40-49 ans</t>
-  </si>
-  <si>
     <t>Total FAP</t>
   </si>
   <si>
@@ -681,157 +828,7 @@
     <t>FAP non enceintes</t>
   </si>
   <si>
-    <t>Néonatal</t>
-  </si>
-  <si>
-    <t>Diarrhée néonatale</t>
-  </si>
-  <si>
-    <t>Sepsis néonatal</t>
-  </si>
-  <si>
-    <t>Pneumonie néonatale</t>
-  </si>
-  <si>
-    <t>Asphyxie néonatale</t>
-  </si>
-  <si>
-    <t>Prématurité néonatale</t>
-  </si>
-  <si>
-    <t>Tétanos néonatal</t>
-  </si>
-  <si>
-    <t>Anomalies congénitales néonatales</t>
-  </si>
-  <si>
-    <t>Autres pathologies néonatales</t>
-  </si>
-  <si>
-    <t>Enfants</t>
-  </si>
-  <si>
-    <t>Diarrhée</t>
-  </si>
-  <si>
-    <t>Pneumonie</t>
-  </si>
-  <si>
-    <t>Méningite</t>
-  </si>
-  <si>
-    <t>Rougeole</t>
-  </si>
-  <si>
-    <t>Paludisme</t>
-  </si>
-  <si>
-    <t>Coqueluche</t>
-  </si>
-  <si>
-    <t>SIDA</t>
-  </si>
-  <si>
-    <t>Blessure</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>1-5 mois</t>
-  </si>
-  <si>
-    <t>6-11 mois</t>
-  </si>
-  <si>
-    <t>12-23 mois</t>
-  </si>
-  <si>
-    <t>24-59 mois</t>
-  </si>
-  <si>
-    <t>Femmes enceintes</t>
-  </si>
-  <si>
-    <t>Hémorragie antepartum</t>
-  </si>
-  <si>
-    <t>Hémorragie intra-partum</t>
-  </si>
-  <si>
-    <t>Hémorragie du post-partum</t>
-  </si>
-  <si>
-    <t>Troubles hypertensifs</t>
-  </si>
-  <si>
-    <t>Avortement</t>
-  </si>
-  <si>
-    <t>Embolie</t>
-  </si>
-  <si>
-    <t>Autres causes directes</t>
-  </si>
-  <si>
-    <t>Causes indirectes</t>
-  </si>
-  <si>
-    <t>&lt;1 mois</t>
-  </si>
-  <si>
-    <t>Etat</t>
-  </si>
-  <si>
-    <t>Retard de croissance (taille pour l'âge)</t>
-  </si>
-  <si>
-    <t>Normal (score HAZ &gt; -1)</t>
-  </si>
-  <si>
-    <t>Léger (score HAZ entre -2 et -1)</t>
-  </si>
-  <si>
-    <t>Modéré (score HAZ entre -3 et -2)</t>
-  </si>
-  <si>
-    <t>Élevé (score HAZ entre &lt; -3)</t>
-  </si>
-  <si>
-    <t>Amaigrissement (poids-pour-taille)</t>
-  </si>
-  <si>
-    <t>Normal (score WHZ &gt; -1)</t>
-  </si>
-  <si>
-    <t>Léger (score WHZ entre -2 et -1)</t>
-  </si>
-  <si>
-    <t>MM (score WHZ entre -3 et -2)</t>
-  </si>
-  <si>
-    <t>MAS (score WHZ &lt; -3)</t>
-  </si>
-  <si>
-    <t>Anémie</t>
-  </si>
-  <si>
-    <t>FE : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FE : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FE : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FE : 40-49 ans</t>
-  </si>
-  <si>
-    <t>Prévalence de l'anémie</t>
-  </si>
-  <si>
-    <t>Prévalence de l'anémie ferriprive</t>
+    <t>année</t>
   </si>
   <si>
     <t>Allaitement maternel</t>
@@ -1053,135 +1050,141 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
+    <t>Efficacité</t>
+  </si>
+  <si>
+    <t>Retard de croissance</t>
+  </si>
+  <si>
+    <t>Prévention de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Traitement de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Résultats des naissances</t>
+  </si>
+  <si>
+    <t>Tranche d'âge</t>
+  </si>
+  <si>
+    <t>Comportement</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour le retard de croissance</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'alimentation complémetaire</t>
+  </si>
+  <si>
+    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
+  </si>
+  <si>
+    <t>Risque relatif par espacement des naissances</t>
+  </si>
+  <si>
+    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
+  </si>
+  <si>
+    <t>Rapport des cote pour des conditions</t>
+  </si>
+  <si>
+    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+  </si>
+  <si>
+    <t>MM (Score-WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>MAS (Score-WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Risques relatifs des causes du décès néonatales</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+  </si>
+  <si>
+    <t>Cause du décès</t>
+  </si>
+  <si>
+    <t>Niveau HAZ</t>
+  </si>
+  <si>
+    <t>Léger</t>
+  </si>
+  <si>
+    <t>Modéré</t>
+  </si>
+  <si>
+    <t>Élevé</t>
+  </si>
+  <si>
+    <t>Niveau WHZ</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par condition anémique</t>
+  </si>
+  <si>
+    <t>Condition anémique</t>
+  </si>
+  <si>
+    <t>Pas anémique</t>
+  </si>
+  <si>
+    <t>Anémique</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+  </si>
+  <si>
+    <t>Amaigrissement</t>
+  </si>
+  <si>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
+  </si>
+  <si>
+    <t>Diarrhée (par épisode supplémentaire)</t>
+  </si>
+  <si>
+    <t>Par programme</t>
+  </si>
+  <si>
+    <t>Rapports des cotes supplémentaires</t>
+  </si>
+  <si>
+    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
+  </si>
+  <si>
+    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
+  </si>
+  <si>
     <t>efficacité</t>
   </si>
   <si>
-    <t>Retard de croissance</t>
-  </si>
-  <si>
-    <t>Prévention de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Traitement de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Résultats des naissances</t>
-  </si>
-  <si>
-    <t>Tranche d'âge</t>
-  </si>
-  <si>
-    <t>Comportement</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour le retard de croissance</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'alimentation complémetaire</t>
-  </si>
-  <si>
-    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
-  </si>
-  <si>
-    <t>Risque relatif par espacement des naissances</t>
-  </si>
-  <si>
-    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
-  </si>
-  <si>
-    <t>Rapport des cote pour des conditions</t>
-  </si>
-  <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
-  </si>
-  <si>
-    <t>MM (Score-WHZ entre -3 et -2)</t>
-  </si>
-  <si>
-    <t>MAS (Score-WHZ &lt; -3)</t>
-  </si>
-  <si>
-    <t>Risques relatifs des causes du décès néonatales</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
-  </si>
-  <si>
-    <t>Cause du décès</t>
-  </si>
-  <si>
-    <t>Niveau HAZ</t>
-  </si>
-  <si>
-    <t>Léger</t>
-  </si>
-  <si>
-    <t>Modéré</t>
-  </si>
-  <si>
-    <t>Élevé</t>
-  </si>
-  <si>
-    <t>Niveau WHZ</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par condition anémique</t>
-  </si>
-  <si>
-    <t>Condition anémique</t>
-  </si>
-  <si>
-    <t>Pas anémique</t>
-  </si>
-  <si>
-    <t>Anémique</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
-  </si>
-  <si>
-    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
-  </si>
-  <si>
-    <t>Diarrhée (par épisode supplémentaire)</t>
-  </si>
-  <si>
-    <t>Par programme</t>
-  </si>
-  <si>
-    <t>Rapports des cotes supplémentaires</t>
-  </si>
-  <si>
-    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
-  </si>
-  <si>
-    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
-  </si>
-  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1198,6 +1201,9 @@
   </si>
   <si>
     <t>Condition ciblée</t>
+  </si>
+  <si>
+    <t>Fraction touchée</t>
   </si>
   <si>
     <t>Efficacité à prévenir une mort</t>
@@ -4748,7 +4754,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
@@ -4759,7 +4765,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4767,7 +4773,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4776,7 +4782,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4789,12 +4795,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4802,7 +4808,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4810,7 +4816,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4818,7 +4824,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4826,7 +4832,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4834,7 +4840,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4842,7 +4848,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4853,14 +4859,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4868,7 +4874,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4876,7 +4882,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4884,7 +4890,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4892,7 +4898,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4904,12 +4910,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4917,7 +4923,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4925,7 +4931,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4933,7 +4939,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4945,14 +4951,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4960,7 +4966,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4968,7 +4974,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4976,7 +4982,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4984,7 +4990,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4994,19 +5000,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5014,7 +5020,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5024,7 +5030,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5034,7 +5040,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5042,7 +5048,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5050,7 +5056,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5061,13 +5067,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5076,7 +5082,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5085,7 +5091,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5095,7 +5101,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5109,13 +5115,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5124,7 +5130,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5132,7 +5138,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5140,7 +5146,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5148,7 +5154,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5156,12 +5162,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5169,7 +5175,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5177,7 +5183,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5185,7 +5191,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5195,7 +5201,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sTH+SwWixLJ0/U0o5C47FBE++q7ZIWGNT8yFeJI1NQJqLSiLitEcWLmsGc+vYLKxH8xTLARnnDaOD0ZvxNKbpA==" saltValue="v58XqruByro5JK0r7xrSJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JBZ6/1nWVKKkJbG2RUytg8lT70Jluy8TotcZOpZPDzzT1IlQMOQsYQD+oo+POEmOtt3Cu4Zg8xqDcCTWfDonKQ==" saltValue="OvwxE6bGpNVRIIbjeJqOCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5222,48 +5228,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5343,7 +5349,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3od4n7l/CJapp7jlRJPuHGRj/oSOaibtmjgN6qRnwUEYzpOk0EM+GsTB/SmcI/BfkDcQ+YbhkWil7s/IvRiYnQ==" saltValue="hMotoX0FgEY3g2exDLu9fg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MlmW17KvcZyim8eJ8jsISBfhs8WrK+8inpxvTKI2+LRe3zyq94k51TXWiw4QqwUi395zOX465TR482CRcXr6GQ==" saltValue="w0OqHMMSu5SxxMRtOyQLyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5369,12 +5375,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -5384,32 +5390,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5443,7 +5449,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z0b6k9Ol+teFJ31BJ9SRbmVEMyQR4vaEVOHWyhSYJt4qFcnfdTJF0zLzO9SkPL/ii2qDV0zqtR41ycT939OEXg==" saltValue="0XK3ZReVCq1EQ92v2dlXSA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MqW88hkBpfqDaz+8b3shSSlF/zrbBk8IE7kG/6nKlzwqNX9QyGV67WjXw7bW4Y3yzSs3UEggTR16ZhPvPBA1Nw==" saltValue="ww38EKihnHriqWQvJVah+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5467,24 +5473,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5509,7 +5515,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5534,7 +5540,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5558,7 +5564,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f0o9u1oCZkV05OKPeXegePXOdu2UTabX57OlZ62xKNZiOefa9oAZmJ8xr8oDHr20p99ZIX8H1jEUoTykvPo4XQ==" saltValue="h+ffYMFLugt/DL2+C+tQHA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u1lQHgXQY4G5+7S2kuFIVgjvEkrA6iDKCn0MZyMsWWiMgOvmiV32kslObZ97l2y40OOF5z8s5olVmYbmbn24YQ==" saltValue="SH6y099b7/dozgQEgvllXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5589,57 +5595,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5687,7 +5693,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5731,7 +5737,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5775,7 +5781,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5821,7 +5827,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5868,7 +5874,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5917,7 +5923,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5963,7 +5969,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6011,7 +6017,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6055,7 +6061,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6104,7 +6110,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6151,10 +6157,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6203,7 +6209,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6248,7 +6254,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6297,7 +6303,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6393,7 +6399,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6437,7 +6443,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6481,7 +6487,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6532,10 +6538,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6583,7 +6589,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6631,7 +6637,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6679,7 +6685,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6727,7 +6733,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6782,10 +6788,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6840,7 +6846,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6895,7 +6901,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6950,7 +6956,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -6994,7 +7000,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7051,7 +7057,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7096,7 +7102,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7140,7 +7146,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7184,7 +7190,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7228,7 +7234,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7274,7 +7280,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WKZHBOVwzpA7pjAuy1dh/4gsAzxlO5lnyWUdupgS2evPsq4zdP9kKJHYCfmGA9/+eWkd/t479jXuHLtbX70poQ==" saltValue="HpeEG5vZH7OyR35nHcv0Vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k/N3mLkFVigiJI0er2Dz99UAfIQhuKvNuYvS1CC+/BSwyiydskd+sCLWuzqdoitreVpBoNcYyUzWzG2JUtq4EA==" saltValue="g4r4yysnclmZbyEcnVhF7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7293,26 +7299,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7LVRDDTeOVvRSfpWa+prV5520ZpKHsgjvXUwJTU2MKWrYLv6eAfsSahk4QvNayHJliQ1DUCQqgag0chI4Bpsqw==" saltValue="N4Uih3MZDfVBVBevCLM4rQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/UIYaP/ULOhoVZK7V3MS+kNXrt9kA2CsodmAHTjfrJDj7xtWfG4XbtbKrKY7pybfDSudI1KEvZGuXNIuqUjxUg==" saltValue="n3kRijLGJpso4xmTDN/kSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7342,7 +7348,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>15</v>
@@ -7520,7 +7526,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0gBK0jofAtxfe4pIArO9gS0sY4ti5deaDTYMrpNLjAAkWUfL36kJz+rb8FdF7dJvgpSiIfZy0UPSp95FOZuqdA==" saltValue="pEFmMAdJXTRs4mZPk1dBzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RIRuz9Hd1/9uYaKhV8uOtxfM38LOxeht+pXRe7VwjK8UUUODJ3HRE9QqlmfjE0+Kc8aaeEnePzUqrXaMop+Dmg==" saltValue="7hVPJumCMKOZvA4eiwDdag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7553,57 +7559,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="90">
         <v>0</v>
@@ -7647,7 +7653,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="90">
         <v>1</v>
@@ -7823,7 +7829,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="90">
         <v>1</v>
@@ -7867,7 +7873,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="90">
         <v>0</v>
@@ -7911,7 +7917,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="90">
         <v>0</v>
@@ -7955,7 +7961,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="90">
         <v>1</v>
@@ -7999,7 +8005,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="90">
         <v>0</v>
@@ -8043,7 +8049,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
@@ -8087,7 +8093,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="90">
         <v>0</v>
@@ -8131,7 +8137,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="90">
         <v>1</v>
@@ -8175,7 +8181,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="90">
         <v>0</v>
@@ -8235,10 +8241,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="90">
         <v>0</v>
@@ -8283,7 +8289,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="90">
         <v>0</v>
@@ -8327,7 +8333,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="90">
         <v>0</v>
@@ -8371,7 +8377,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="90">
         <v>0</v>
@@ -8459,7 +8465,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="90">
         <v>0</v>
@@ -8503,7 +8509,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="90">
         <v>0</v>
@@ -8547,7 +8553,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="90">
         <v>0</v>
@@ -8607,10 +8613,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="90">
         <v>0</v>
@@ -8655,7 +8661,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="90">
         <v>0</v>
@@ -8700,7 +8706,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="90">
         <v>0</v>
@@ -8744,7 +8750,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="90">
         <v>0</v>
@@ -8788,7 +8794,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="90">
         <v>0</v>
@@ -8848,10 +8854,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="90">
         <v>1</v>
@@ -8895,7 +8901,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" s="90">
         <v>1</v>
@@ -8939,7 +8945,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" s="90">
         <v>1</v>
@@ -8983,7 +8989,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="90">
         <v>1</v>
@@ -9027,7 +9033,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="90">
         <v>1</v>
@@ -9072,7 +9078,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="90">
         <v>1</v>
@@ -9116,7 +9122,7 @@
     </row>
     <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="90">
         <v>1</v>
@@ -9160,7 +9166,7 @@
     </row>
     <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="90">
         <v>1</v>
@@ -9204,7 +9210,7 @@
     </row>
     <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="90">
         <v>1</v>
@@ -9248,7 +9254,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="90">
         <v>1</v>
@@ -9291,7 +9297,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z08l2nnUL5gngneI8y3Zn37XUlVCVOo7xjbBAAQagaXiXpqmFvA1Sf6BRUXyvVVa3OJUedwVRnlYP3fcw1gO2A==" saltValue="VbJZbzunvvxFYcDAYP7/EA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="An8ei22fmkVGtTWRL5iW/psxFP0VHDael3o8gse5tdTzlXC9mDTSrJNBB9yM/RvLa6yLhAFznnZuB5cX2SK9PA==" saltValue="f+oHS6SANJuXGLC0CAJY2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9324,42 +9330,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -9376,7 +9382,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -9393,7 +9399,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -9410,7 +9416,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
@@ -9427,7 +9433,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
@@ -9446,7 +9452,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
@@ -9465,7 +9471,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
@@ -9484,7 +9490,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
@@ -9503,7 +9509,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
@@ -9520,7 +9526,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
@@ -9537,7 +9543,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
@@ -9554,7 +9560,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
@@ -9571,7 +9577,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
@@ -9590,7 +9596,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
@@ -9630,7 +9636,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
@@ -9704,7 +9710,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -9723,7 +9729,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="90" t="s">
         <v>21</v>
@@ -9744,7 +9750,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
@@ -9763,7 +9769,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -9780,7 +9786,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -9797,7 +9803,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
@@ -9814,7 +9820,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
@@ -9833,7 +9839,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -9850,7 +9856,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="90" t="s">
         <v>21</v>
@@ -9869,7 +9875,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
@@ -9886,7 +9892,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
@@ -9905,7 +9911,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -9924,7 +9930,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -9943,7 +9949,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -9962,7 +9968,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -9981,7 +9987,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -10000,7 +10006,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -10017,7 +10023,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="90" t="s">
         <v>21</v>
@@ -10037,7 +10043,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="21N28eVmBSOmDNRytU4Xb+ApPHMYtLieeK3LY5qQg5ypcL21ufCF17ca0lqGNymWLPTq+f3itg8vQGxi2UYerw==" saltValue="pt5ofEDZ0R+9qnnZvyaduw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TZlgDkIVhHeIdJmNrVmkvjMjS1om0e65ms+psm6R4hVvgxWofVMzGhmPQkAiTO52lIgtoJbbPOKgIu4UZa/1Hg==" saltValue="3yTtivIpFGiCJXvzHExWrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10070,42 +10076,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>21</v>
@@ -10134,7 +10140,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>21</v>
@@ -10163,7 +10169,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>21</v>
@@ -10192,7 +10198,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B5" s="90" t="s">
         <v>21</v>
@@ -10221,7 +10227,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>21</v>
@@ -10250,7 +10256,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
@@ -10271,7 +10277,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
@@ -10292,7 +10298,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
@@ -10313,7 +10319,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
@@ -10334,7 +10340,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
@@ -10355,7 +10361,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
@@ -10374,7 +10380,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
@@ -10393,7 +10399,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
@@ -10411,7 +10417,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/Ho2gDc0Xejey4++KBZhsnGxvhZsgSXAWSSHzZK+qr171tlwpnLfsVEu+JQqfukA2+RMeMuHRjZ4QRtA4YiEIQ==" saltValue="cSCkQAE+WWx7VefH58EA/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ipKsQat5yS6RoVbpNwwSePWVxOjHK2U7Md+sDeh5XLLZkBLbPXF9kJxJX2taA+YcVy9cUfmLyyY60jZs1FNGbA==" saltValue="VtfCEhn++FY57on4XPNwIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10437,39 +10443,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H1" s="98" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="139" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="99">
         <v>1</v>
@@ -10490,7 +10496,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="139"/>
       <c r="C3" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="99">
         <v>1</v>
@@ -10512,7 +10518,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="139"/>
       <c r="C4" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="99">
         <v>1</v>
@@ -10533,10 +10539,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="139" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="99">
         <f>5.16</f>
@@ -10558,7 +10564,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="139"/>
       <c r="C6" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="99">
         <v>5.16</v>
@@ -10579,7 +10585,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="139"/>
       <c r="C7" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="99">
         <v>1</v>
@@ -10599,10 +10605,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="139" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="99">
         <v>1</v>
@@ -10623,7 +10629,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="139"/>
       <c r="C9" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="99">
         <v>1</v>
@@ -10644,7 +10650,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="139"/>
       <c r="C10" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="99">
         <v>1</v>
@@ -10664,10 +10670,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="139" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="99">
         <v>1</v>
@@ -10688,7 +10694,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="139"/>
       <c r="C12" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="99">
         <v>1</v>
@@ -10709,7 +10715,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="139"/>
       <c r="C13" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="99">
         <v>1</v>
@@ -10729,10 +10735,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="139" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="99">
         <v>1</v>
@@ -10753,7 +10759,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="139"/>
       <c r="C15" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="99">
         <v>1</v>
@@ -10774,7 +10780,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="139"/>
       <c r="C16" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="99">
         <v>1</v>
@@ -10794,10 +10800,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="99">
         <v>1.05</v>
@@ -10824,13 +10830,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="99">
         <v>1</v>
@@ -10851,7 +10857,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="139"/>
       <c r="C20" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="99">
         <v>1</v>
@@ -10872,7 +10878,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="139"/>
       <c r="C21" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="99">
         <v>1</v>
@@ -10892,10 +10898,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="139" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="99">
         <v>1</v>
@@ -10916,7 +10922,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="139"/>
       <c r="C23" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="99">
         <v>1</v>
@@ -10937,7 +10943,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="139"/>
       <c r="C24" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="99">
         <v>1</v>
@@ -10957,10 +10963,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="139" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="99">
         <v>1</v>
@@ -10981,7 +10987,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="139"/>
       <c r="C26" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="99">
         <v>1</v>
@@ -11002,7 +11008,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="139"/>
       <c r="C27" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="99">
         <v>1</v>
@@ -11022,10 +11028,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="139" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="99">
         <v>1</v>
@@ -11046,7 +11052,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="139"/>
       <c r="C29" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="99">
         <v>1</v>
@@ -11067,7 +11073,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="139"/>
       <c r="C30" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="99">
         <v>1</v>
@@ -11087,10 +11093,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="139" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="99">
         <v>1</v>
@@ -11111,7 +11117,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="139"/>
       <c r="C32" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="99">
         <v>1</v>
@@ -11132,7 +11138,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="139"/>
       <c r="C33" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="99">
         <v>1</v>
@@ -11152,10 +11158,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" s="99">
         <v>1</v>
@@ -11182,13 +11188,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="139" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="99">
         <v>1</v>
@@ -11209,7 +11215,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="139"/>
       <c r="C37" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" s="99">
         <v>1</v>
@@ -11230,7 +11236,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="139"/>
       <c r="C38" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" s="99">
         <v>1</v>
@@ -11250,10 +11256,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="139" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" s="99">
         <v>1</v>
@@ -11274,7 +11280,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="139"/>
       <c r="C40" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="99">
         <v>1</v>
@@ -11295,7 +11301,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="139"/>
       <c r="C41" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" s="99">
         <v>1</v>
@@ -11315,10 +11321,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="139" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="99">
         <v>1</v>
@@ -11339,7 +11345,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="139"/>
       <c r="C43" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="99">
         <v>1</v>
@@ -11360,7 +11366,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="139"/>
       <c r="C44" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="99">
         <v>1</v>
@@ -11380,10 +11386,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="139" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45" s="99">
         <v>1</v>
@@ -11404,7 +11410,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="139"/>
       <c r="C46" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="99">
         <v>1</v>
@@ -11425,7 +11431,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="139"/>
       <c r="C47" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="99">
         <v>1</v>
@@ -11445,10 +11451,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="139" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="99">
         <v>1</v>
@@ -11469,7 +11475,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="139"/>
       <c r="C49" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="99">
         <v>1</v>
@@ -11490,7 +11496,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="139"/>
       <c r="C50" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="99">
         <v>1</v>
@@ -11510,10 +11516,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="99">
         <v>1.05</v>
@@ -11532,7 +11538,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="W7Ur3bc4b2T5xJb1A2LlTocdVXPVuoPH/2YD7gxkXPYkLLspFysM3OG0KrEeCB8jtxfD4/kRur8HdtXw89WDVA==" saltValue="4oBtuYHZt3KLrnRYJP6SAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NGrLn3zMM6TCE079MHYIinuwMH8TMgZMdfX1jrOqNjNCjG9ykezjQEg2IXe/cz49c2Q6D4H1G3lhOqJ78sQCwg==" saltValue="jGcZthTFgWAehtFvxC9dmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -11575,31 +11581,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>87</v>
-      </c>
       <c r="G1" s="23" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12640,7 +12646,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eG2HujlCBXkVC4ml55A1HnAhvncIobLZmKqXoLoUrOjXyXU7fYHw6w4ytZ2WonHRU4RJTd2vA8mRJ/Mg/pIRDQ==" saltValue="GgA0BxpttWx8JFL3gRESgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WN8IoBCEWHTycIR2E5bbhK8V25ea654mrwRqO2ohxwU64cmaPD9eeEVECLO+4mgPstjbJ0wyu06N0CDHcCd3sw==" saltValue="NjdD5Y95DZHx3jduGQb0Aw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12674,27 +12680,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -12704,7 +12710,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12721,7 +12727,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12738,7 +12744,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12755,7 +12761,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12778,7 +12784,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -12803,7 +12809,7 @@
     </row>
     <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="119"/>
@@ -12813,7 +12819,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="100"/>
@@ -12823,7 +12829,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -12841,7 +12847,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -12859,7 +12865,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -12886,7 +12892,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="110"/>
       <c r="C17" s="123"/>
@@ -12897,7 +12903,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -12915,7 +12921,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -12933,7 +12939,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -12951,7 +12957,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -12969,7 +12975,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -12986,7 +12992,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13003,7 +13009,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -13020,7 +13026,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -13042,7 +13048,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zm31pBgrrU+fQyH3dGULhHZqEiOtniIGnif3MeRjbGscoEEORI2u7shfNW1hp/QaPUNtSZuOlphAxoFl9NKEQA==" saltValue="tDmTWgpR2jurjUHg27t/UQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="I6Yuzh2Ha9YZt3/f/0Qfez7HZr70joZUB10RFmwkEEgL2thXPBwz/Bp8T0m/iesk+pWl2+Hyf1h5GJPihB5Ewg==" saltValue="aVy5f5BobEPxB6DLbpenfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13072,33 +13078,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="127" t="s">
-        <v>236</v>
-      </c>
       <c r="D2" s="109" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G2" s="109" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H2" s="109" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I2" s="128"/>
       <c r="J2" s="128"/>
@@ -13112,7 +13118,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>25</v>
@@ -13143,7 +13149,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -13171,7 +13177,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
@@ -13199,7 +13205,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -13227,7 +13233,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>25</v>
@@ -13258,7 +13264,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
@@ -13286,7 +13292,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="115">
         <v>1</v>
@@ -13314,7 +13320,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="115">
         <v>1</v>
@@ -13342,7 +13348,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>25</v>
@@ -13373,7 +13379,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
@@ -13401,7 +13407,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="115">
         <v>1</v>
@@ -13429,7 +13435,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="115">
         <v>1</v>
@@ -13457,7 +13463,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>25</v>
@@ -13488,7 +13494,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
@@ -13516,7 +13522,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
@@ -13544,7 +13550,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D18" s="115">
         <v>1</v>
@@ -13572,7 +13578,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>25</v>
@@ -13603,7 +13609,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" s="115">
         <v>1</v>
@@ -13631,7 +13637,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="115">
         <v>1</v>
@@ -13659,7 +13665,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="115">
         <v>1</v>
@@ -13687,7 +13693,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>25</v>
@@ -13718,7 +13724,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -13746,7 +13752,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -13774,7 +13780,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -13802,33 +13808,33 @@
     </row>
     <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G29" s="109" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H29" s="109" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I29" s="128"/>
       <c r="J29" s="128"/>
@@ -13842,7 +13848,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>25</v>
@@ -13873,7 +13879,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" s="115">
         <v>1</v>
@@ -13901,7 +13907,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -13929,7 +13935,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="115">
         <v>1</v>
@@ -13957,7 +13963,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>25</v>
@@ -13988,7 +13994,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -14016,7 +14022,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D36" s="115">
         <v>1</v>
@@ -14044,7 +14050,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D37" s="115">
         <v>1</v>
@@ -14072,7 +14078,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>25</v>
@@ -14103,7 +14109,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D39" s="115">
         <v>1</v>
@@ -14131,7 +14137,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D40" s="115">
         <v>1</v>
@@ -14159,7 +14165,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="115">
         <v>1</v>
@@ -14187,7 +14193,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>25</v>
@@ -14218,7 +14224,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D43" s="115">
         <v>1</v>
@@ -14246,7 +14252,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D44" s="115">
         <v>1</v>
@@ -14274,7 +14280,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="115">
         <v>1</v>
@@ -14302,7 +14308,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>25</v>
@@ -14333,7 +14339,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="115">
         <v>1</v>
@@ -14361,7 +14367,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D48" s="115">
         <v>1</v>
@@ -14389,7 +14395,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D49" s="115">
         <v>1</v>
@@ -14417,7 +14423,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>25</v>
@@ -14448,7 +14454,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D51" s="115">
         <v>1</v>
@@ -14476,7 +14482,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D52" s="115">
         <v>1</v>
@@ -14504,7 +14510,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" s="115">
         <v>1</v>
@@ -14536,30 +14542,30 @@
     </row>
     <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D56" s="109" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E56" s="109" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F56" s="109" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G56" s="109" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H56" s="128"/>
       <c r="M56" s="128"/>
@@ -14570,10 +14576,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="114">
         <v>1</v>
@@ -14595,7 +14601,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="115">
         <v>10.675000000000001</v>
@@ -14617,10 +14623,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="114">
         <v>1</v>
@@ -14642,7 +14648,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" s="115">
         <v>10.675000000000001</v>
@@ -14664,10 +14670,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="114">
         <v>1</v>
@@ -14689,7 +14695,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="115">
         <v>10.675000000000001</v>
@@ -14715,33 +14721,33 @@
     </row>
     <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="109" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E65" s="109" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F65" s="109" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G65" s="109" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H65" s="132" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I65" s="128"/>
       <c r="J65" s="128"/>
@@ -14755,10 +14761,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="114">
         <v>1</v>
@@ -14786,7 +14792,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="115">
         <v>1.35</v>
@@ -14814,7 +14820,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="115">
         <v>1.35</v>
@@ -14842,7 +14848,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="115">
         <v>5.4</v>
@@ -14870,10 +14876,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D70" s="114">
         <v>1</v>
@@ -14901,7 +14907,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" s="115">
         <v>1.35</v>
@@ -14929,7 +14935,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="115">
         <v>1.35</v>
@@ -14957,7 +14963,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="115">
         <v>5.4</v>
@@ -14985,10 +14991,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="114">
         <v>1</v>
@@ -15016,7 +15022,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="115">
         <v>1.35</v>
@@ -15044,7 +15050,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="115">
         <v>1.35</v>
@@ -15072,7 +15078,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="115">
         <v>5.4</v>
@@ -15100,10 +15106,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="114">
         <v>1</v>
@@ -15131,7 +15137,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" s="115">
         <v>1</v>
@@ -15159,7 +15165,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" s="115">
         <v>1</v>
@@ -15187,7 +15193,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D81" s="115">
         <v>1</v>
@@ -15215,10 +15221,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D82" s="114">
         <v>1</v>
@@ -15246,7 +15252,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D83" s="115">
         <v>1</v>
@@ -15274,7 +15280,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" s="115">
         <v>1</v>
@@ -15302,7 +15308,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D85" s="115">
         <v>1</v>
@@ -15330,10 +15336,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="114">
         <v>1</v>
@@ -15361,7 +15367,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="115">
         <v>1</v>
@@ -15389,7 +15395,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" s="115">
         <v>1</v>
@@ -15417,7 +15423,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" s="115">
         <v>1</v>
@@ -15445,10 +15451,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" s="114">
         <v>1</v>
@@ -15476,7 +15482,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D91" s="115">
         <v>1</v>
@@ -15504,7 +15510,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D92" s="115">
         <v>1</v>
@@ -15532,7 +15538,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D93" s="115">
         <v>1</v>
@@ -15560,10 +15566,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="114">
         <v>1</v>
@@ -15591,7 +15597,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" s="115">
         <v>1</v>
@@ -15619,7 +15625,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" s="115">
         <v>1</v>
@@ -15647,7 +15653,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D97" s="115">
         <v>1</v>
@@ -15675,10 +15681,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D98" s="114">
         <v>1</v>
@@ -15706,7 +15712,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D99" s="115">
         <v>1</v>
@@ -15734,7 +15740,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D100" s="115">
         <v>1</v>
@@ -15762,7 +15768,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D101" s="115">
         <v>1</v>
@@ -15790,33 +15796,33 @@
     </row>
     <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B104" s="134" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D104" s="109" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E104" s="109" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F104" s="109" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G104" s="109" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H104" s="132" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I104" s="128"/>
       <c r="J104" s="128"/>
@@ -15831,7 +15837,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D105" s="114">
         <v>1</v>
@@ -15859,7 +15865,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D106" s="115">
         <v>1.26</v>
@@ -15887,7 +15893,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" s="115">
         <v>1.68</v>
@@ -15915,7 +15921,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D108" s="115">
         <v>2.65</v>
@@ -15945,7 +15951,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DW5pw7uViN4B7UXDWrItsUWYngTpIHlbDVb9TskUTSkyHcMH3uVeFX19Mpb2+kGqFQM5ijq+TUQ3BjeUKwoeVw==" saltValue="A4HrvtKSIMbA+iH5WZ1+Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0swQ2FTJMaALd4EHuAQSv2IKG4dR02QQk/92tNa3W9+E/AAK97VAA77aiH131UbmkjNsVgpoAGamcG9kZ/xXdA==" saltValue="XIcRVkIPjp3X2oXLAB8xFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15976,7 +15982,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15985,19 +15991,19 @@
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="40" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16005,7 +16011,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16048,7 +16054,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16068,7 +16074,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16088,7 +16094,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16122,7 +16128,7 @@
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="115">
         <v>1.5</v>
@@ -16151,7 +16157,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B14" s="125" t="s">
         <v>253</v>
@@ -16195,7 +16201,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B16" s="121" t="s">
         <v>254</v>
@@ -16224,21 +16230,21 @@
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="115">
         <v>1.52</v>
@@ -16254,7 +16260,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ch4rP8pMHCTDItvHVNCwu5jjssO4Zx+CIP+M4IjJsrep18z4OfjkEglFd4+eFRbBPb46JMCpwvG+ARZvQOMEQg==" saltValue="+Q215zV873Y1bg0rInittg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="By4kffB8IYzHGuysAnlxy6SvcwygX/FgGzXIzwUkouAKd4kdtMIr+cJcDsuevA7tiNV4U4oRM+vO+tb6iFbmPw==" saltValue="W16zhc9cSOdHTKTRv8/STA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16283,28 +16289,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="127" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="127" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C2" s="115">
         <v>0.21</v>
@@ -16322,7 +16328,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -16339,10 +16345,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C4" s="115">
         <v>0</v>
@@ -16360,7 +16366,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16377,10 +16383,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C6" s="115">
         <v>0</v>
@@ -16398,7 +16404,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16418,7 +16424,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C8" s="115">
         <v>0.35</v>
@@ -16436,7 +16442,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16453,10 +16459,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C10" s="115">
         <v>0.35</v>
@@ -16474,7 +16480,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -16491,10 +16497,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C12" s="115">
         <v>0.08</v>
@@ -16512,7 +16518,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -16534,7 +16540,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UXoQhXfRRi8g/FbvTx+F08iBoNc7Hejcwm+9aEu6Xnk6hWWa3A7dAO6qdrGA/rlnonAAiR2VMDaXM4Lpt8aPgg==" saltValue="w9+mw4bT1WAM23iDrJaQRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZWDgn/ayfbfrWHvA+Snu/yOo0i86y4F8JIS1eEsW4onhqanJgQJivhpzmYSj7arg7o/4cXw+Z8CSF355amA5fw==" saltValue="zWgOelQkXKAdjzB4km6N3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16563,53 +16569,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D1" s="109" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E1" s="109" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F1" s="109" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G1" s="109" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H1" s="109" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I1" s="109" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J1" s="109" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K1" s="109" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L1" s="109" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="M1" s="109" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="N1" s="109" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O1" s="109" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="115">
         <v>0.53</v>
@@ -16653,7 +16659,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="115">
         <v>1</v>
@@ -16697,7 +16703,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16741,7 +16747,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16785,7 +16791,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16829,7 +16835,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16873,7 +16879,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16961,7 +16967,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -17005,7 +17011,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="115">
         <v>0.83</v>
@@ -17049,7 +17055,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -17093,7 +17099,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="115">
         <v>1</v>
@@ -17137,13 +17143,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="115">
         <v>1</v>
@@ -17187,7 +17193,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="115">
         <v>1</v>
@@ -17231,7 +17237,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="115">
         <v>1</v>
@@ -17275,7 +17281,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="115">
         <v>1</v>
@@ -17330,7 +17336,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o9DuiOUrgYjBT5apL2ZLTdUGduFOWdBtTKoRu6OCNTr/+PI0889Evj+6gmPVq5J73JVqbcrPv04QgkHlMxEmjw==" saltValue="Vr/8p/dIfQZkCEIywMZwgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xg70p8TMbIyyIT9QE1z9vnf8VjXfL14/3UXzDCHxdMTD53hMaaFzgWJJ71za9LOPWxwZOYhLqC5hRv09i/SDRQ==" saltValue="AzRSIyZ4uH04+X0PbzjJsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17359,29 +17365,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -17401,7 +17407,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="135"/>
@@ -17412,7 +17418,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -17431,7 +17437,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AdHhjgfdERtEqs/UdpqLsrvV+Gksmo+UP0HQ11SSZK5CgO0eF6j/+Orm9pTgyFXDvG+0rJzC7evMW6nUnA/jNQ==" saltValue="8k9OyUKeHXWMvKGjg7803g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s4HyTj5ejlAMrr7xaLcaiY73Jls1bOQ03J4+0VL1wOyM1rYBGtiANKIzhiKitOZp49yPWi19+TiLi8i/9jC/BA==" saltValue="aprYNdFKtWjSHc6h+JMwdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17463,39 +17469,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="115">
         <v>0</v>
@@ -17515,7 +17521,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="115">
         <v>0</v>
@@ -17535,7 +17541,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D4" s="115">
         <v>0</v>
@@ -17555,13 +17561,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D5" s="115">
         <v>0</v>
@@ -17581,7 +17587,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D6" s="115">
         <v>0</v>
@@ -17601,10 +17607,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D7" s="115">
         <v>0</v>
@@ -17624,7 +17630,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D8" s="115">
         <v>0</v>
@@ -17644,13 +17650,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D9" s="115">
         <v>0</v>
@@ -17670,7 +17676,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D10" s="115">
         <v>0</v>
@@ -17690,10 +17696,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D11" s="115">
         <v>0</v>
@@ -17713,7 +17719,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D12" s="115">
         <v>0</v>
@@ -17733,13 +17739,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D13" s="115">
         <v>0</v>
@@ -17759,7 +17765,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D14" s="115">
         <v>0</v>
@@ -17780,10 +17786,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D15" s="115">
         <v>0</v>
@@ -17804,7 +17810,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D16" s="115">
         <v>0</v>
@@ -17825,13 +17831,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D17" s="115">
         <v>0.7</v>
@@ -17852,7 +17858,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D18" s="115">
         <v>0.19</v>
@@ -17873,13 +17879,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D19" s="115">
         <v>0.7</v>
@@ -17899,7 +17905,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D20" s="115">
         <v>0.19</v>
@@ -17919,13 +17925,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D21" s="115">
         <v>0.7</v>
@@ -17945,7 +17951,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D22" s="115">
         <v>0.19</v>
@@ -17965,13 +17971,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D23" s="115">
         <v>1</v>
@@ -17991,7 +17997,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D24" s="115">
         <v>0</v>
@@ -18011,7 +18017,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D25" s="115">
         <v>0</v>
@@ -18031,13 +18037,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -18057,7 +18063,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D27" s="115">
         <v>0</v>
@@ -18077,7 +18083,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D28" s="115">
         <v>0</v>
@@ -18097,13 +18103,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D29" s="115">
         <v>1</v>
@@ -18123,7 +18129,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D30" s="115">
         <v>0</v>
@@ -18143,7 +18149,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -18163,13 +18169,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -18189,7 +18195,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D33" s="115">
         <v>0</v>
@@ -18209,7 +18215,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D34" s="115">
         <v>0</v>
@@ -18229,13 +18235,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -18255,7 +18261,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -18275,7 +18281,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D37" s="115">
         <v>0</v>
@@ -18295,13 +18301,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D38" s="115">
         <v>0.3</v>
@@ -18321,7 +18327,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D39" s="115">
         <v>0.5</v>
@@ -18341,7 +18347,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D40" s="115">
         <v>0.65</v>
@@ -18361,10 +18367,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D41" s="115">
         <v>0.3</v>
@@ -18384,7 +18390,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D42" s="115">
         <v>0.5</v>
@@ -18404,7 +18410,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D43" s="115">
         <v>0.63</v>
@@ -18424,13 +18430,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D44" s="115">
         <v>0.88</v>
@@ -18450,7 +18456,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D45" s="115">
         <v>0.8</v>
@@ -18470,13 +18476,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D46" s="115">
         <v>1</v>
@@ -18496,7 +18502,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D47" s="115">
         <v>0.76</v>
@@ -18516,13 +18522,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D48" s="115">
         <v>0.57999999999999996</v>
@@ -18542,7 +18548,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D49" s="115">
         <v>0.88</v>
@@ -18561,7 +18567,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zcyjS92/t7vNTijDP4wJe2IpChrkenGLjDElhi7gowpcf0Bi2hxBWi9Jo3CW2y/6ELbwjCpdrKSpY2yVOCnz7g==" saltValue="AjzbXip62Ka2z3E9tyJBRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YPC4oLUvT/77xjfMWbcVguekw2+k5X3ekXGDRHOQehbt+vkINu+oK/BV0OhVYzFAxjGtjzH9rME/Yh38gBHf2A==" saltValue="Yo9oLM9pa1owGzHq1xNZrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18589,35 +18595,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="115">
         <v>1</v>
@@ -18635,7 +18641,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="115">
         <v>0.2</v>
@@ -18653,13 +18659,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -18678,7 +18684,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D5" s="115">
         <v>0.59</v>
@@ -18696,13 +18702,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -18721,7 +18727,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D7" s="115">
         <v>0.59</v>
@@ -18738,7 +18744,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7Db3hT1kcRruqc4kiLXMashH3f3s/AfF30L7Lc96TR/7olHGuStIUlJUxMb8LxmnS5uaIxIpzO0co8T5fLQPeg==" saltValue="Lz9jDJRYAq0XbHBkVwtk9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NwobbM6c4xp5Zdg7qyWHmFmvG5hI7l7j2VeoDtcj2SpCL7wwmEojihxtKf1RoG+NFWaqvgI7IWQKvyrk/ueOpQ==" saltValue="XY6Wc6j9pGdqxj59CJGzgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18774,13 +18780,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18789,7 +18795,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18797,7 +18803,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18805,7 +18811,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18813,7 +18819,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18821,7 +18827,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18829,7 +18835,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18837,7 +18843,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18845,7 +18851,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18853,7 +18859,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18873,28 +18879,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18911,7 +18917,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18928,7 +18934,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18945,7 +18951,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18962,7 +18968,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18979,7 +18985,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -18996,7 +19002,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19013,7 +19019,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19030,7 +19036,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19047,7 +19053,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19079,13 +19085,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19095,7 +19101,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19103,7 +19109,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19111,7 +19117,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19119,7 +19125,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19135,7 +19141,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19143,7 +19149,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19151,7 +19157,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19159,7 +19165,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19167,7 +19173,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19175,7 +19181,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2mfYvSzEG8HZgzqJX9llw0xzDIc6JWWpj6iDNAooOUOp0Iq6XTRAcIGXOwH/uKMu2hohqEs5k41xNRVwc9syNQ==" saltValue="PKivBK/79V+nYkjyXYXRCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hK5G9tAFiXoWKvDZJW88ZI1ZISeffAGQC+ImLErcoHHP+FY0nXZQ2+CPDT3aI5Q9ug16fXIUqOMy53yiROYRbg==" saltValue="GOjnSeh73uRPSLMTmrJHFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19205,30 +19211,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19254,7 +19260,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19280,7 +19286,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C4" s="77">
         <v>0.1</v>
@@ -19301,7 +19307,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C5" s="77">
         <v>0.05</v>
@@ -19338,10 +19344,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19366,7 +19372,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19391,7 +19397,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19411,7 +19417,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19445,51 +19451,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19533,7 +19539,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19603,7 +19609,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T0XX5MVM6RD2hPa1gld0B25yv7LRrBp4G6EaytpMnvC0NDA2J0FMMOnBTPuhxQnMBlPLEe5f6BBx3RE3tOzfpA==" saltValue="/QO0m7VmzMtLCi80jgRusg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zi5gmbCwch7zQH3yWP2C1sYV0YDOF4bQA0tH8eY3PawSX1Lu5l7nW0v0yl1UutHvvPq1AhqY0RPzLjO9eDpz2A==" saltValue="vnxIarlVkpgEQ7POKS170w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19633,30 +19639,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>142</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>143</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19676,7 +19682,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19696,7 +19702,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19716,7 +19722,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19740,7 +19746,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5HX5GiKhZaxAETZdeZzSGjK+7OopZv9oaXkrHwQmAHb0yy6mU6G9rZeBe5/9jFeS3yHMHbnUnp4mITJlXmeolw==" saltValue="BVK7E2V/1NWzeLVDyxkKrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MBpIur5eV4cBKvrPqAumqyN0y1FPe9Bf7isu+vE0bNDt32cacHOUm0xv2zH0vIx/cTVYDU25UCI4FjTj3+ljfA==" saltValue="0aCStWKXo5JgMrvISKlRXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19765,7 +19771,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -19815,10 +19821,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="28">
         <f>(('Dist. de l''état nutritionnel'!C4+'Dist. de l''état nutritionnel'!C5)*(1/60)+('Dist. de l''état nutritionnel'!D4+'Dist. de l''état nutritionnel'!D5)*(5/60)+('Dist. de l''état nutritionnel'!E4+'Dist. de l''état nutritionnel'!E5)*(6/60)+('Dist. de l''état nutritionnel'!F4+'Dist. de l''état nutritionnel'!F5)*(12/60)+('Dist. de l''état nutritionnel'!G4+'Dist. de l''état nutritionnel'!G5)*(36/60))</f>
@@ -19845,10 +19851,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="28">
         <f>(('Dist. de l''état nutritionnel'!C10+'Dist. de l''état nutritionnel'!C11)*(1/60)+('Dist. de l''état nutritionnel'!D10+'Dist. de l''état nutritionnel'!D11)*(5/60)+('Dist. de l''état nutritionnel'!E10+'Dist. de l''état nutritionnel'!E11)*(6/60)+('Dist. de l''état nutritionnel'!F10+'Dist. de l''état nutritionnel'!F11)*(12/60)+('Dist. de l''état nutritionnel'!G10+'Dist. de l''état nutritionnel'!G11)*(36/60))</f>
@@ -19875,10 +19881,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="28">
         <f>'Dist. de l''état nutritionnel'!C15*(1/60)+'Dist. de l''état nutritionnel'!D15*(5/60)+'Dist. de l''état nutritionnel'!E15*(6/60)+'Dist. de l''état nutritionnel'!F15*(12/60)+'Dist. de l''état nutritionnel'!G15*(36/60)</f>
@@ -19902,7 +19908,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C7" s="28">
         <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19926,7 +19932,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="28">
         <f>('Dist. de l''état nutritionnel'!L15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!M15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!N15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!O15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19950,10 +19956,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="C10" s="28">
         <f>('Dist. l''allaitement maternel'!C2*(1/6)+'Dist. l''allaitement maternel'!D2*(5/6))</f>
@@ -19979,7 +19985,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="28">
         <f>(('Dist. l''allaitement maternel'!E2+'Dist. l''allaitement maternel'!E3+'Dist. l''allaitement maternel'!E4)*(6/18)+('Dist. l''allaitement maternel'!F2+'Dist. l''allaitement maternel'!F3+'Dist. l''allaitement maternel'!F4)*(12/18))</f>
@@ -20003,10 +20009,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="28">
         <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
@@ -20032,7 +20038,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20053,7 +20059,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TSaVYOXii26VSDe4p8J9krRDsHQ487FDoerq8/bgKNVuBUCNACyYQsWclDvqPYBvR9fcVDFrF5QzwV0gJ/4gXg==" saltValue="oTveTRC5Prt6A4RPqO5dKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2ahkfj9lulhaXQjTiC12dZbBvdpey2VvmBwGkw4xaD1TNNZEDXPSeLx/w7mFfr24Qt2mm3QWCY5ZOGdZgdsXHA==" saltValue="b0FgaZhnNuoCwZh6Xu8GgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20080,19 +20086,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -20100,7 +20106,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20112,7 +20118,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C3" s="80" t="s">
         <v>21</v>
@@ -20126,7 +20132,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C4" s="80" t="s">
         <v>21</v>
@@ -20140,7 +20146,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>21</v>
@@ -20154,7 +20160,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C6" s="80" t="s">
         <v>21</v>
@@ -20168,7 +20174,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20179,7 +20185,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
@@ -20191,7 +20197,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20203,7 +20209,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20215,7 +20221,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20227,7 +20233,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20239,7 +20245,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
@@ -20252,7 +20258,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
@@ -20266,7 +20272,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
@@ -20280,7 +20286,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
@@ -20294,7 +20300,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
@@ -20308,7 +20314,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
@@ -20322,14 +20328,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k+bhZTdXIhjXqyucNsHf5ZuSkttJx82QwE0xTG9nCby1iZSN3ij5f0q5Dk0GDxwoJm8bFo2a+7l4bRukfv87rA==" saltValue="2rCgBXoSgua+HRIoLlUlZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kiGaxYBcRfQOFGthE/TGHRCiADXdYh1DdHc+4IlVF0VtjzCyJtXOfHtW/qcuM/h3yECy4Qp6/ih5PrYKsh3DKQ==" saltValue="mHdtWyX8W+q8AfatAgj76A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20359,41 +20365,41 @@
         <v>17</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>165</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>161</v>
-      </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="psN0tXb0ZJf/aHwggEy8FgZnIqdurwHYqGwV8/nUQkRVqEzqO9ejbgH1zh8SSrsRm2PHzfkXTIoDjfgNZI3NvQ==" saltValue="VAx4XBrB5wRY7BuHN1p8Kg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EIye6dJORPcXxiUsYPCDky9AG78yZ9/B6bx0zCFkiMVaghlTDE7Kn23TuudpkmxIZijUUKUG/CBusiYLfivFPw==" saltValue="IgypFZ9bu46jtJh+YxRwAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20421,25 +20427,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="62" t="str">
-        <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>Baseline (2017) coverage</v>
+        <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
+        <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>170</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20451,12 +20457,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20468,12 +20474,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20485,12 +20491,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20502,12 +20508,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20519,12 +20525,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20536,12 +20542,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20553,12 +20559,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20570,12 +20576,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20587,12 +20593,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20604,12 +20610,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20621,12 +20627,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20638,12 +20644,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20655,12 +20661,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20672,7 +20678,7 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20689,12 +20695,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20706,7 +20712,7 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20723,7 +20729,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20740,7 +20746,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20757,12 +20763,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20774,12 +20780,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20791,12 +20797,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20808,12 +20814,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20825,12 +20831,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20842,12 +20848,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20859,12 +20865,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20876,12 +20882,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20893,12 +20899,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20910,12 +20916,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20927,12 +20933,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20944,12 +20950,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20961,12 +20967,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20978,12 +20984,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -20995,12 +21001,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21012,12 +21018,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21029,13 +21035,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21047,12 +21053,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21064,14 +21070,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VMUTlIFy6OYp5ydVkyawW3beEVbpeSpOFc5ibZ8jM5kHLzKnkgYtjfI/oXVW7AarxTYa23xgfB3LdPz7yTsz9A==" saltValue="XcvUOfRhNQFWrjzv2CEjpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="N9H9GcpkRMnA1UpHXJVzB/bH6xNTN8LxhwMaQxLonnMvQgKtRGs4Jn+d15SrotaeOkZJTL1yH7LnrIPJXV/HOQ==" saltValue="puC5oawkz7myIzjzOmAZdA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE443DC8-82A0-474E-A665-17860F465043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F72B4A59-B9C5-4C6C-8EB3-8CFFAD716054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="0" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="Incidence des conditions" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="Population cible programmes" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
@@ -36,7 +36,7 @@
     <sheet name="Risques relatifs" sheetId="67" state="hidden" r:id="rId21"/>
     <sheet name="Rapports des cotes" sheetId="68" state="hidden" r:id="rId22"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" state="hidden" r:id="rId23"/>
-    <sheet name="Programs anemia" sheetId="70" state="hidden" r:id="rId24"/>
+    <sheet name="Programmes-anémie" sheetId="70" state="hidden" r:id="rId24"/>
     <sheet name="Programmes-amaigrissement" sheetId="71" state="hidden" r:id="rId25"/>
     <sheet name="Programmes pour les enfants" sheetId="72" state="hidden" r:id="rId26"/>
     <sheet name="Programmes pour les FE" sheetId="73" state="hidden" r:id="rId27"/>
@@ -462,9 +462,6 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>IYCF 1</t>
   </si>
   <si>
@@ -621,19 +618,19 @@
     <t>Incidence de la diarrhée</t>
   </si>
   <si>
-    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 1-5 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+    <t>Nombre moyen d'épisodes par an: &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 24-59 mois</t>
   </si>
   <si>
     <t>Autres risques</t>
@@ -645,16 +642,16 @@
     <t>Pourcentage de l'anémie qui est ferriprive</t>
   </si>
   <si>
-    <t>FAP : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FAP : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FAP : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FAP : 40-49 ans</t>
+    <t>FAP: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP: 40-49 ans</t>
   </si>
   <si>
     <t>Néonatal</t>
@@ -792,16 +789,16 @@
     <t>Anémie</t>
   </si>
   <si>
-    <t>FE : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FE : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FE : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FE : 40-49 ans</t>
+    <t>FE: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FE: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FE: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FE: 40-49 ans</t>
   </si>
   <si>
     <t>Prévalence de l'anémie</t>
@@ -816,6 +813,9 @@
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
+    <t>Données</t>
+  </si>
+  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
@@ -996,19 +996,19 @@
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>WASH : lavage des mains</t>
-  </si>
-  <si>
-    <t>WASH : Élimination hygiénique</t>
-  </si>
-  <si>
-    <t>WASH : Amélioration de l'assainissement</t>
-  </si>
-  <si>
-    <t>WASH : Source d'eau améliorée</t>
-  </si>
-  <si>
-    <t>WASH : Eau courante</t>
+    <t>WASH: lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH: Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH: Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH: Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH: Eau courante</t>
   </si>
   <si>
     <t>Zinc pour le traitement + SRO</t>
@@ -4754,18 +4754,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4773,7 +4773,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4782,7 +4782,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4795,12 +4795,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4859,14 +4859,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4910,12 +4910,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4951,14 +4951,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5000,19 +5000,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5067,13 +5067,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5115,13 +5115,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5162,12 +5162,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5201,7 +5201,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JBZ6/1nWVKKkJbG2RUytg8lT70Jluy8TotcZOpZPDzzT1IlQMOQsYQD+oo+POEmOtt3Cu4Zg8xqDcCTWfDonKQ==" saltValue="OvwxE6bGpNVRIIbjeJqOCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2nRyvt0CsdJrSVn3ol4jnVNuYn7L815xJLJl2CHu16LOFMBHIk0hozpPn0+KSof0M3s1X2BjwY5/NfVDmSIxsA==" saltValue="eIjGNwT2o2I0ukiHUQ4WxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5349,7 +5349,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MlmW17KvcZyim8eJ8jsISBfhs8WrK+8inpxvTKI2+LRe3zyq94k51TXWiw4QqwUi395zOX465TR482CRcXr6GQ==" saltValue="w0OqHMMSu5SxxMRtOyQLyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dqqzC8AjS2rTeJiXhoLnoSOJyLTyQkBzIzR2etgl7cT+F5hBFvYCpVxa1SE9+sj110RjOchz6Mgeyyis8iKtgw==" saltValue="kCTJHKDZGMQN3qzF+IE3Tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5449,7 +5449,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MqW88hkBpfqDaz+8b3shSSlF/zrbBk8IE7kG/6nKlzwqNX9QyGV67WjXw7bW4Y3yzSs3UEggTR16ZhPvPBA1Nw==" saltValue="ww38EKihnHriqWQvJVah+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2LqxUcNRZxF4asWAEuPfsyb/zwqaweeoaATFsWVw5mUQqEYCd5ZY25DEGmEoHasl9HhsKjZX6iZF3vGjVguxew==" saltValue="SDiEQN8i5Qr3SpdapQAdsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5473,24 +5473,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>104</v>
-      </c>
-      <c r="F1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5564,7 +5564,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u1lQHgXQY4G5+7S2kuFIVgjvEkrA6iDKCn0MZyMsWWiMgOvmiV32kslObZ97l2y40OOF5z8s5olVmYbmbn24YQ==" saltValue="SH6y099b7/dozgQEgvllXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FumyQ6dVgjDvYk1EPt9+a2QhtzZf7QrdEJc5appIY8l/Hn4mJGX8El/Z+NmN/5RM4g4azOqUDTSr3HyzGUVmWQ==" saltValue="4ibt+zWWbqfa7ULvEXZ20A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5601,48 +5601,48 @@
         <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>173</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>171</v>
@@ -7280,7 +7280,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k/N3mLkFVigiJI0er2Dz99UAfIQhuKvNuYvS1CC+/BSwyiydskd+sCLWuzqdoitreVpBoNcYyUzWzG2JUtq4EA==" saltValue="g4r4yysnclmZbyEcnVhF7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bkjoJDEpU6j/n34EdgO51s1Y+QIGu3jiJI3F1NnaiKZboEThBezBJZ5QJpU0WFWFCjnZPAq4ElBpwDpxtrbrVg==" saltValue="a9bVuqvbWv1/qwdbT3PQdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7318,7 +7318,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/UIYaP/ULOhoVZK7V3MS+kNXrt9kA2CsodmAHTjfrJDj7xtWfG4XbtbKrKY7pybfDSudI1KEvZGuXNIuqUjxUg==" saltValue="n3kRijLGJpso4xmTDN/kSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f6GwsdDyUt9WW4zlQbUy1gx6JA0RxGr8g6aP2sERQA0SUrbsfMbOn/CeoAdzYQ3iVRjWCycr9Q9v1UhxThCJhQ==" saltValue="nt8t7LpwZWkyvkEyABU0dw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7526,7 +7526,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RIRuz9Hd1/9uYaKhV8uOtxfM38LOxeht+pXRe7VwjK8UUUODJ3HRE9QqlmfjE0+Kc8aaeEnePzUqrXaMop+Dmg==" saltValue="7hVPJumCMKOZvA4eiwDdag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wAp4cd6qeMvhwMOrHtrmBFdu8wkuD/548q6zqHYep75ksYJiJ5mSiQWsGZOZ5hbOyAsj5l5V4TFnNU+IokUaDQ==" saltValue="alGiuWomP6ne38w8hjd7Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7565,48 +7565,48 @@
         <v>163</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="56" t="s">
-        <v>105</v>
-      </c>
       <c r="H1" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>131</v>
-      </c>
       <c r="L1" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>81</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>173</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="90">
         <v>1</v>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="90">
         <v>1</v>
@@ -8241,7 +8241,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>171</v>
@@ -9297,7 +9297,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="An8ei22fmkVGtTWRL5iW/psxFP0VHDael3o8gse5tdTzlXC9mDTSrJNBB9yM/RvLa6yLhAFznnZuB5cX2SK9PA==" saltValue="f+oHS6SANJuXGLC0CAJY2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="agIRg4RHH0YqtbWczcK0onfJI9AihiZxMNZuibR4VmYaaoKX5mXalkCYqjuP+0sxsmE5WtIgPXoUidnbd1N3Jg==" saltValue="aJiIt9FNC/yf7wB6MMexpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9336,7 +9336,7 @@
         <v>215</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>216</v>
@@ -9348,16 +9348,16 @@
         <v>141</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>136</v>
@@ -9375,7 +9375,7 @@
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
@@ -9391,7 +9391,7 @@
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
       <c r="H3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -9404,7 +9404,7 @@
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -9444,10 +9444,10 @@
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
       <c r="J6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -9456,14 +9456,14 @@
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -9475,14 +9475,14 @@
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
@@ -9494,14 +9494,14 @@
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
@@ -9530,7 +9530,7 @@
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -9589,7 +9589,7 @@
       <c r="G14" s="90"/>
       <c r="H14" s="90"/>
       <c r="I14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
@@ -9600,7 +9600,7 @@
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="90"/>
       <c r="E15" s="90"/>
@@ -9608,7 +9608,7 @@
       <c r="G15" s="90"/>
       <c r="H15" s="90"/>
       <c r="I15" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
@@ -9619,17 +9619,17 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
       <c r="H16" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
@@ -9653,16 +9653,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="90"/>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="90"/>
       <c r="H18" s="90"/>
@@ -9672,16 +9672,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -9691,16 +9691,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="90"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="90"/>
       <c r="H20" s="90"/>
@@ -9719,10 +9719,10 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
       <c r="H21" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
@@ -9732,13 +9732,13 @@
         <v>187</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
@@ -9754,7 +9754,7 @@
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -9762,7 +9762,7 @@
       <c r="G23" s="90"/>
       <c r="H23" s="90"/>
       <c r="I23" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
@@ -9778,7 +9778,7 @@
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
       <c r="H24" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="90"/>
       <c r="J24" s="90"/>
@@ -9795,7 +9795,7 @@
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
       <c r="H25" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="90"/>
       <c r="J25" s="90"/>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
@@ -9832,7 +9832,7 @@
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
       <c r="I27" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
@@ -9848,7 +9848,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
       <c r="H28" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
@@ -9859,11 +9859,11 @@
         <v>194</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
@@ -9881,7 +9881,7 @@
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
@@ -9900,10 +9900,10 @@
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
       <c r="G31" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -9919,10 +9919,10 @@
       <c r="E32" s="90"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
@@ -9938,10 +9938,10 @@
       <c r="E33" s="90"/>
       <c r="F33" s="90"/>
       <c r="G33" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -9957,10 +9957,10 @@
       <c r="E34" s="90"/>
       <c r="F34" s="90"/>
       <c r="G34" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -9976,10 +9976,10 @@
       <c r="E35" s="90"/>
       <c r="F35" s="90"/>
       <c r="G35" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -9995,10 +9995,10 @@
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
       <c r="G36" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -10015,7 +10015,7 @@
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
@@ -10026,24 +10026,24 @@
         <v>202</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="90"/>
       <c r="D38" s="90"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
       <c r="G38" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" s="90"/>
       <c r="J38" s="90"/>
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TZlgDkIVhHeIdJmNrVmkvjMjS1om0e65ms+psm6R4hVvgxWofVMzGhmPQkAiTO52lIgtoJbbPOKgIu4UZa/1Hg==" saltValue="3yTtivIpFGiCJXvzHExWrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BJ/ecEznLO2vh8pbC+LvQCMkuRMe+AJjPi3UOWptzZ17+m7kvSaj1H35wN07H/VrHL0iOAsxk2qY1i04RpfUag==" saltValue="mlzd1MnzHMcmhwZhRGon7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10082,7 +10082,7 @@
         <v>215</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>216</v>
@@ -10094,16 +10094,16 @@
         <v>141</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>136</v>
@@ -10111,28 +10111,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -10140,28 +10140,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -10169,28 +10169,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90"/>
@@ -10198,28 +10198,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
@@ -10227,28 +10227,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="90"/>
@@ -10256,95 +10256,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -10353,19 +10353,19 @@
       <c r="H11" s="90"/>
       <c r="I11" s="90"/>
       <c r="J11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -10375,16 +10375,16 @@
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
       <c r="K12" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -10394,16 +10394,16 @@
       <c r="I13" s="90"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -10413,11 +10413,11 @@
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ipKsQat5yS6RoVbpNwwSePWVxOjHK2U7Md+sDeh5XLLZkBLbPXF9kJxJX2taA+YcVy9cUfmLyyY60jZs1FNGbA==" saltValue="VtfCEhn++FY57on4XPNwIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y/aYszSqm9m80sk31ooxKUOb1FPfzBRUGDE5Eseb3KjlztSBpGjpEhiRqoQQUHxOhknu9rFdwcOaIXOVdmhyMA==" saltValue="07bZTT7vTIF08iiWVJn3RQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10452,19 +10452,19 @@
         <v>167</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="98" t="s">
         <v>104</v>
-      </c>
-      <c r="H1" s="98" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -10472,7 +10472,7 @@
         <v>221</v>
       </c>
       <c r="B2" s="139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>159</v>
@@ -10539,7 +10539,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>159</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="139" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>159</v>
@@ -10670,7 +10670,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="139" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>159</v>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>159</v>
@@ -10833,7 +10833,7 @@
         <v>222</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>159</v>
@@ -10898,7 +10898,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>159</v>
@@ -10963,7 +10963,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="139" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>159</v>
@@ -11028,7 +11028,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="139" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>159</v>
@@ -11093,7 +11093,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>159</v>
@@ -11191,7 +11191,7 @@
         <v>223</v>
       </c>
       <c r="B36" s="139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>159</v>
@@ -11256,7 +11256,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>159</v>
@@ -11321,7 +11321,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="139" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>159</v>
@@ -11386,7 +11386,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="139" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>159</v>
@@ -11451,7 +11451,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>159</v>
@@ -11538,7 +11538,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NGrLn3zMM6TCE079MHYIinuwMH8TMgZMdfX1jrOqNjNCjG9ykezjQEg2IXe/cz49c2Q6D4H1G3lhOqJ78sQCwg==" saltValue="jGcZthTFgWAehtFvxC9dmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mrN2Fcpt/ICfnzpKfbSlf4+EYe297IZydsQrBU6D5OdSF4ajvKI0s4J5/cUxVbBnCuX07n10ybUzoOi9HBL1mQ==" saltValue="EUamlM+r0GjEII2hI3a4nQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -11587,16 +11587,16 @@
         <v>136</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>137</v>
@@ -12646,7 +12646,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WN8IoBCEWHTycIR2E5bbhK8V25ea654mrwRqO2ohxwU64cmaPD9eeEVECLO+4mgPstjbJ0wyu06N0CDHcCd3sw==" saltValue="NjdD5Y95DZHx3jduGQb0Aw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rGYbZu65PrW6AUvjmQuwUVJmgtFF7D7VaNN86rxcu2wh7cXEIzC3VtzAp24bMWM/0dS0Z4W+QW+oD9TiDFT4qQ==" saltValue="BoQMl1quyX1pyFKNxlyuvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12686,16 +12686,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12710,7 +12710,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12744,7 +12744,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -12921,7 +12921,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -12939,7 +12939,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -12957,7 +12957,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -12975,7 +12975,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -12992,7 +12992,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13009,7 +13009,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -13026,7 +13026,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -13048,7 +13048,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="I6Yuzh2Ha9YZt3/f/0Qfez7HZr70joZUB10RFmwkEEgL2thXPBwz/Bp8T0m/iesk+pWl2+Hyf1h5GJPihB5Ewg==" saltValue="aVy5f5BobEPxB6DLbpenfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rd7lB/jX5+kX93WYGuE9uBAsKJn/ipNPYOfL1VXHlz73W8kVXHFpd1InGh53HoB2U8K2fhau5LTvcwAG76Rk+Q==" saltValue="drYyGgpKqU1A5QdPG7LzSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13092,19 +13092,19 @@
         <v>235</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="G2" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="H2" s="109" t="s">
         <v>104</v>
-      </c>
-      <c r="H2" s="109" t="s">
-        <v>105</v>
       </c>
       <c r="I2" s="128"/>
       <c r="J2" s="128"/>
@@ -13118,10 +13118,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="114">
         <v>1</v>
@@ -13233,10 +13233,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="114">
         <v>1</v>
@@ -13348,10 +13348,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="114">
         <v>1</v>
@@ -13463,10 +13463,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="114">
         <v>1</v>
@@ -13578,10 +13578,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="114">
         <v>1</v>
@@ -13693,10 +13693,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="114">
         <v>1</v>
@@ -13822,19 +13822,19 @@
         <v>239</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="109" t="s">
+      <c r="G29" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="109" t="s">
+      <c r="H29" s="109" t="s">
         <v>104</v>
-      </c>
-      <c r="H29" s="109" t="s">
-        <v>105</v>
       </c>
       <c r="I29" s="128"/>
       <c r="J29" s="128"/>
@@ -13848,10 +13848,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="114">
         <v>1</v>
@@ -13963,10 +13963,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="114">
         <v>1</v>
@@ -14078,10 +14078,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="114">
         <v>1</v>
@@ -14193,10 +14193,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="114">
         <v>1</v>
@@ -14308,10 +14308,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="114">
         <v>1</v>
@@ -14423,10 +14423,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="114">
         <v>1</v>
@@ -14547,7 +14547,7 @@
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="98" t="s">
         <v>234</v>
@@ -14556,16 +14556,16 @@
         <v>241</v>
       </c>
       <c r="D56" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="109" t="s">
+      <c r="F56" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="F56" s="109" t="s">
+      <c r="G56" s="109" t="s">
         <v>130</v>
-      </c>
-      <c r="G56" s="109" t="s">
-        <v>131</v>
       </c>
       <c r="H56" s="128"/>
       <c r="M56" s="128"/>
@@ -14576,7 +14576,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>242</v>
@@ -14623,7 +14623,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>242</v>
@@ -14670,7 +14670,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>242</v>
@@ -14735,19 +14735,19 @@
         <v>245</v>
       </c>
       <c r="D65" s="109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="F65" s="109" t="s">
+      <c r="G65" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="G65" s="109" t="s">
+      <c r="H65" s="132" t="s">
         <v>104</v>
-      </c>
-      <c r="H65" s="132" t="s">
-        <v>105</v>
       </c>
       <c r="I65" s="128"/>
       <c r="J65" s="128"/>
@@ -14761,7 +14761,7 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>142</v>
@@ -14876,7 +14876,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>142</v>
@@ -14991,7 +14991,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>142</v>
@@ -15106,7 +15106,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>142</v>
@@ -15221,7 +15221,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>142</v>
@@ -15336,7 +15336,7 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>142</v>
@@ -15451,7 +15451,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>142</v>
@@ -15566,7 +15566,7 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>142</v>
@@ -15681,7 +15681,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" s="43" t="s">
         <v>142</v>
@@ -15801,7 +15801,7 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B104" s="134" t="s">
         <v>145</v>
@@ -15810,19 +15810,19 @@
         <v>245</v>
       </c>
       <c r="D104" s="109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E104" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="F104" s="109" t="s">
+      <c r="G104" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="G104" s="109" t="s">
+      <c r="H104" s="132" t="s">
         <v>104</v>
-      </c>
-      <c r="H104" s="132" t="s">
-        <v>105</v>
       </c>
       <c r="I104" s="128"/>
       <c r="J104" s="128"/>
@@ -15951,7 +15951,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0swQ2FTJMaALd4EHuAQSv2IKG4dR02QQk/92tNa3W9+E/AAK97VAA77aiH131UbmkjNsVgpoAGamcG9kZ/xXdA==" saltValue="XIcRVkIPjp3X2oXLAB8xFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1IRa7fAq4vRTxKDeijejMyD/sDuT99d8idWC7Vb3INYPd6Ety4YmgoUh7+hnF5yzCXZ9OTOkhpEtY/Xpd2zynw==" saltValue="cH7s7DZ/ofYHgEFiVsZ2ZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15991,19 +15991,19 @@
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>104</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16011,7 +16011,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16201,7 +16201,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="121" t="s">
         <v>254</v>
@@ -16230,16 +16230,16 @@
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>81</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -16260,7 +16260,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="By4kffB8IYzHGuysAnlxy6SvcwygX/FgGzXIzwUkouAKd4kdtMIr+cJcDsuevA7tiNV4U4oRM+vO+tb6iFbmPw==" saltValue="W16zhc9cSOdHTKTRv8/STA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kj1/eQZM68AWFziKbUFjka8G8ZS+qd0T4QWX3A17R4w78DfdrKSXtPMsBzff5eptA4t2xl2x9iX9DD4DQye2bQ==" saltValue="KwZl2yZQ4p9EJZB6QZWh1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16293,16 +16293,16 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="127" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="127" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16540,7 +16540,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZWDgn/ayfbfrWHvA+Snu/yOo0i86y4F8JIS1eEsW4onhqanJgQJivhpzmYSj7arg7o/4cXw+Z8CSF355amA5fw==" saltValue="zWgOelQkXKAdjzB4km6N3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WeqgeRiVNp8yKNntAusn5FRhyPot0R0DD5QQQXDHH1qllgtWQLBTkHN5luTKsrV3fLYrz6LomVOYlWBtKhyVfA==" saltValue="g4vhvRFTH2QDbuWC63KRaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16569,43 +16569,43 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="F1" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="G1" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="109" t="s">
-        <v>105</v>
-      </c>
       <c r="H1" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="J1" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="K1" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="109" t="s">
-        <v>82</v>
-      </c>
       <c r="L1" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="N1" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="O1" s="109" t="s">
         <v>130</v>
-      </c>
-      <c r="O1" s="109" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -17336,7 +17336,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xg70p8TMbIyyIT9QE1z9vnf8VjXfL14/3UXzDCHxdMTD53hMaaFzgWJJ71za9LOPWxwZOYhLqC5hRv09i/SDRQ==" saltValue="AzRSIyZ4uH04+X0PbzjJsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/HoP9e2uv4ZSL3Y472LfoKc0UVyq/x8UrlTOZCgkm6u7vfs5n5EXShmrxFIuzgNloyMaTMBGRJmSzSc4bnmEOQ==" saltValue="NuTYyDQCUCy9Y5J5NB+C+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17365,19 +17365,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>104</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -17437,7 +17437,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s4HyTj5ejlAMrr7xaLcaiY73Jls1bOQ03J4+0VL1wOyM1rYBGtiANKIzhiKitOZp49yPWi19+TiLi8i/9jC/BA==" saltValue="aprYNdFKtWjSHc6h+JMwdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ut8ycwbHYvupNJ0dHygS+FWqRc5xbuU8oQnhqTymTj9RbPNFsAAA8T6pIAmXgFLH21a6+OOoe7Y/fuWV9ASbVw==" saltValue="OVsNJEfy3pwpkvRUEQHpQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17475,22 +17475,22 @@
         <v>264</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>104</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -17498,7 +17498,7 @@
         <v>195</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>265</v>
@@ -17834,7 +17834,7 @@
         <v>178</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>265</v>
@@ -17882,7 +17882,7 @@
         <v>176</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>265</v>
@@ -17928,7 +17928,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>265</v>
@@ -17974,7 +17974,7 @@
         <v>199</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>265</v>
@@ -18040,7 +18040,7 @@
         <v>200</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>265</v>
@@ -18106,7 +18106,7 @@
         <v>198</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>265</v>
@@ -18172,7 +18172,7 @@
         <v>197</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>265</v>
@@ -18238,7 +18238,7 @@
         <v>196</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>265</v>
@@ -18304,7 +18304,7 @@
         <v>202</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>265</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>265</v>
@@ -18433,7 +18433,7 @@
         <v>193</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="52" t="s">
         <v>265</v>
@@ -18479,7 +18479,7 @@
         <v>201</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="52" t="s">
         <v>265</v>
@@ -18525,7 +18525,7 @@
         <v>186</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>265</v>
@@ -18567,7 +18567,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YPC4oLUvT/77xjfMWbcVguekw2+k5X3ekXGDRHOQehbt+vkINu+oK/BV0OhVYzFAxjGtjzH9rME/Yh38gBHf2A==" saltValue="Yo9oLM9pa1owGzHq1xNZrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pYZm8qclHkhcIZbN+cGAZzV4hgajRc2iNqXkUDzaNP8kjhV0eKbA3PlUpE4xGRkkg8y88UraNYH7qB/kwTzyHw==" saltValue="NYhrhGbxXfLoj69mtvn+rg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18602,16 +18602,16 @@
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>130</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>131</v>
       </c>
       <c r="H1" s="98"/>
     </row>
@@ -18620,7 +18620,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>265</v>
@@ -18662,7 +18662,7 @@
         <v>190</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>265</v>
@@ -18705,7 +18705,7 @@
         <v>189</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>265</v>
@@ -18744,7 +18744,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NwobbM6c4xp5Zdg7qyWHmFmvG5hI7l7j2VeoDtcj2SpCL7wwmEojihxtKf1RoG+NFWaqvgI7IWQKvyrk/ueOpQ==" saltValue="XY6Wc6j9pGdqxj59CJGzgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1KS0WfzTNgOqWqaxnaP2lOJe3qY5+7Ur+GzOsKQ0XOV8rpjLShMqQ7Z9o1dLBcREkur05Krp0hcxDNmFWoMJ8g==" saltValue="e3+/tt6Slbuvo9rxvh1ghA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18780,13 +18780,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18795,7 +18795,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18803,7 +18803,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18811,7 +18811,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18819,7 +18819,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18827,7 +18827,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18835,7 +18835,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18843,7 +18843,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18851,7 +18851,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18859,7 +18859,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18879,28 +18879,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18917,7 +18917,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18934,7 +18934,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18968,7 +18968,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18985,7 +18985,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -19002,7 +19002,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19019,7 +19019,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19036,7 +19036,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19053,7 +19053,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19085,13 +19085,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19101,7 +19101,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19109,7 +19109,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19117,7 +19117,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19125,7 +19125,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19141,7 +19141,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19149,7 +19149,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19157,7 +19157,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19165,7 +19165,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19173,7 +19173,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19181,7 +19181,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hK5G9tAFiXoWKvDZJW88ZI1ZISeffAGQC+ImLErcoHHP+FY0nXZQ2+CPDT3aI5Q9ug16fXIUqOMy53yiROYRbg==" saltValue="GOjnSeh73uRPSLMTmrJHFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9ipDixxsY+FryiK6t9uxcJFGnyv6y97akr+qKBmmdEMu/RlxZviEr/ETxmL8TTpTh+OgQoXVV/J95O1EMdXuAQ==" saltValue="0YreFPezPkpghGtrA5khjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19211,30 +19211,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="D1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19260,7 +19260,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19286,7 +19286,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="77">
         <v>0.1</v>
@@ -19307,7 +19307,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="77">
         <v>0.05</v>
@@ -19344,10 +19344,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19372,7 +19372,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19397,7 +19397,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19417,7 +19417,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19451,51 +19451,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="I13" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>131</v>
-      </c>
       <c r="L13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19539,7 +19539,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19609,7 +19609,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zi5gmbCwch7zQH3yWP2C1sYV0YDOF4bQA0tH8eY3PawSX1Lu5l7nW0v0yl1UutHvvPq1AhqY0RPzLjO9eDpz2A==" saltValue="vnxIarlVkpgEQ7POKS170w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aSeprDgboRM1iSfaS8k1W7s86PO7qA/9lck2l49ESxmaRM7yEJ5C/XUGjwakHw9C0L2yiH7DFnZR0kIouhDwHw==" saltValue="+ZjyPgAMRrESx6r3R1ZECA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19639,22 +19639,22 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="D1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -19746,7 +19746,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MBpIur5eV4cBKvrPqAumqyN0y1FPe9Bf7isu+vE0bNDt32cacHOUm0xv2zH0vIx/cTVYDU25UCI4FjTj3+ljfA==" saltValue="0aCStWKXo5JgMrvISKlRXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zH58Ta73O9Cx74sB/JOLmGBevP9/QHX0DG43ARpsxIfHsWQvPa64uyoSv6BW/lrkmIA9dzRaCaEaeAR4I6fHow==" saltValue="6ipyz/pu9cRqHuItOCi+7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19908,7 +19908,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="28">
         <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -20009,7 +20009,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>154</v>
@@ -20059,7 +20059,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2ahkfj9lulhaXQjTiC12dZbBvdpey2VvmBwGkw4xaD1TNNZEDXPSeLx/w7mFfr24Qt2mm3QWCY5ZOGdZgdsXHA==" saltValue="b0FgaZhnNuoCwZh6Xu8GgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tx9iWJXLHKB0NyaJuTCLHGF9bzu50lLxSgnsYvhZBidBZQkgkM/BLkLiTplyBhIrQHVAg4QrUMHroYz6TbIh+g==" saltValue="iBhbuBed2gN1l3J1gxuf2g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20103,10 +20103,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20118,10 +20118,10 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="57" t="str">
@@ -20132,10 +20132,10 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="57" t="str">
@@ -20146,10 +20146,10 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="57" t="str">
@@ -20160,10 +20160,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="57" t="str">
@@ -20182,10 +20182,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
@@ -20197,7 +20197,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20209,7 +20209,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20221,7 +20221,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20233,7 +20233,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20250,19 +20250,19 @@
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20272,11 +20272,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20286,11 +20286,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20300,11 +20300,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20314,11 +20314,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20335,7 +20335,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kiGaxYBcRfQOFGthE/TGHRCiADXdYh1DdHc+4IlVF0VtjzCyJtXOfHtW/qcuM/h3yECy4Qp6/ih5PrYKsh3DKQ==" saltValue="mHdtWyX8W+q8AfatAgj76A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vmRmAhxBQfvIC1kNptf4YeUu2Yzp8/xbnKFwWo4AEcVXwYC3cAHuiV1ngAcgf71axW+N/0Qcv0JJ6tBSkLpjlQ==" saltValue="T3HWqjimtprKsY7t8tgDnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20368,7 +20368,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="61" t="s">
         <v>166</v>
@@ -20399,7 +20399,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EIye6dJORPcXxiUsYPCDky9AG78yZ9/B6bx0zCFkiMVaghlTDE7Kn23TuudpkmxIZijUUKUG/CBusiYLfivFPw==" saltValue="IgypFZ9bu46jtJh+YxRwAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c87xVSrC/9V2RZyBG1V/tSuUo2KRu2PJF0xexpxWEEdMkTYiDv3pGpCU4HKK4v7/xqxmWLXVOvA6ZwpAAiwaYw==" saltValue="97lCoJbtylt4RJ2xSP6NJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20717,7 +20717,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20734,7 +20734,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20751,7 +20751,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -21077,7 +21077,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N9H9GcpkRMnA1UpHXJVzB/bH6xNTN8LxhwMaQxLonnMvQgKtRGs4Jn+d15SrotaeOkZJTL1yH7LnrIPJXV/HOQ==" saltValue="puC5oawkz7myIzjzOmAZdA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VU894dtLl6PKQlOrFwBhtt9i1yGAJcYJm/x2Z/Ot9hg6VmXAQHg2NoPpBjUqbo0BfXxSXDh+LIrJ8CyCBG/s9A==" saltValue="hOlcTrjgIb0KPkKNhtUHDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E5DFBD-BA1B-41A5-88FF-8AF847FFA56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DCCE383-F05F-4872-82E4-A01B8AC1870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="7020" windowWidth="29265" windowHeight="12300" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4745,14 +4745,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4763,14 +4763,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>19</v>
@@ -4779,7 +4779,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -4788,17 +4788,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
@@ -4854,17 +4854,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
@@ -4905,15 +4905,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>36</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>38</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>39</v>
       </c>
@@ -4945,18 +4945,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>41</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>42</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>43</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>44</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>45</v>
       </c>
@@ -4997,20 +4997,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>48</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>49</v>
       </c>
@@ -5028,7 +5028,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>50</v>
       </c>
@@ -5038,7 +5038,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>51</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>52</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>53</v>
       </c>
@@ -5062,16 +5062,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>55</v>
       </c>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>56</v>
       </c>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>57</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>58</v>
       </c>
@@ -5110,16 +5110,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>60</v>
       </c>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>61</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>62</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>63</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>64</v>
       </c>
@@ -5160,12 +5160,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>66</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>67</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>68</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>69</v>
       </c>
@@ -5197,11 +5197,11 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WZ+FbC856iHwcwyewmSY3Ve3JCSMKP59TbZ6lOKypPyNptlzz8G62L/3/tjqVq31etDRkNsv5Fr7/FmLPnmNUg==" saltValue="Trw48FpU2jPwGKG51sehMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DJPCWMhyM+XePC+f6AGdPyEmtFfRIO6wY532NjZJFvq1WPF6r/2G6LRU2CwkKLmPc/fUlkoQ8COmFYlSeG0nhA==" saltValue="I2hHqepvm/beFr2M+dmqTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5218,15 +5218,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>173</v>
       </c>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>174</v>
       </c>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>184</v>
       </c>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>181</v>
       </c>
@@ -5273,83 +5273,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MotBgkciWrO/NDEd1pXYhzmr3GHpqxyn47neKhsSVrpxagQeaeY5LJMwOLGaI10k0BFo4sdpHoFKtbETL8OJTw==" saltValue="syxVR8K/u0aJAVOTxIGxDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9hvFtoaeT19plCNYsGwiAAjUfDZY0cr+FtyC7TqEUk4Sjd3gXJhBAE3WTu73JHNzbjGjNdya3o+WjarebMuPkQ==" saltValue="uHnPsexShQdOc5/MFHuGaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5367,89 +5367,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DqETCzKjHx9wZB2PZoUbtGnBp+NNQtFPtHcXnBKbqQV3VGjEGokhTfcYuWkAoe/Xtli0iq4qCSefMxX/xM7jGg==" saltValue="N6zx8O7OjwPEjpwPVhg3Zw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WOMLTw4UplhkEm94sYqxq+z+7OWQkfWdpfAcSizLuR5aIOj21FW/cV0Oh0OkjlI8Hi0gPUfH3GaTPshd7pdXsw==" saltValue="ofPkXrTJlca4NUdUtlmK6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5466,9 +5466,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>198</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>197</v>
       </c>
@@ -5564,7 +5564,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0Q0fPAil0JE8qKLOC2LFbeKl32u7OSOp0G+wjHNK1rU7X7zbABCKJ6EGwmroDULf/q39hgJYPV6BPlGHhO0SZw==" saltValue="h2b63/UO8mSpSybJSG3f3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vqX9slPG3YeEct4VktTUI0BKMmUSBPzmq4tkT2jo44c55LaBBwRusbu36fruyV210hm8kMvL/JW5PZpp6lq1AQ==" saltValue="W4davl+IcdMCRoX1QeT3Ag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5581,19 +5581,19 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>200</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>164</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>176</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>177</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>181</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>183</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>184</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>154</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>191</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>192</v>
       </c>
@@ -6152,10 +6152,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>103</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>173</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>174</v>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>179</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>180</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>182</v>
       </c>
@@ -6533,10 +6533,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>78</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>169</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>170</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>171</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>172</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6786,7 +6786,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>199</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>167</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>168</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>175</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>178</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>186</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>187</v>
@@ -7144,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>188</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>189</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>190</v>
       </c>
@@ -7276,11 +7276,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NhwLHMULxG964pjFyWs5CDY/tMBDOV6gkHgF5ULe8B5dIve409qyjMEgWrzs8vQ/+09o54/ZNmz4R7RA3+YZNA==" saltValue="DQ3GytW6xg5Wabmo9TBCRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uogu4yZv8Go+sdCHtMoyu1GK9i8zn6rWDKCWotFEJ9gIl4s701EBgxpKx4rovsBmdeubUF9WHxFOW6B2z7DrBg==" saltValue="FtBAXjm90UU3ZfFlji/+nw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7295,30 +7295,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/rTyw2F4r+qmNpspZBrC3Ko+EHRNTpHI2uCeytHqZMk2Tyw+cKRMXAggmL1AwuqAJ8KJ+cfu7eU0gwyzSrDTlw==" saltValue="s1aYIMS4XA4RZBUNQhGifA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="So7RwMLXDLoc9/ntdhbYWUv7UuLFQZLxi0TgQKUKuW4l4K201NPARI+BlMNMq5fQhIKpvZZAKD7HSdPbJrLkpg==" saltValue="S30VP2+9QzBzEtb+hX2BKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7334,16 +7334,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>205</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>206</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>207</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>208</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>209</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>210</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>211</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>212</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>213</v>
       </c>
@@ -7522,11 +7522,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QNqyJ4223eZJixyXQNFumTJAf1i7KHLKhbXqroyS+qMG2HBMEmFa6R9asinXo4E2GvrnVRpraXhN4j8LY5Qmlw==" saltValue="k5Q+Ftyxh18H4LIrui4YbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z9TtxwrNNRzc4TZmPhaCVDmxF4VudKlXbsqosHVhGm6nBZ5pYJLFG0Q2RFRMnf4/Ou2bEs8VFEuulKyfQK+q5w==" saltValue="QE2x93ZITxHBlWkiXDmpyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7544,20 +7544,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>200</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>89</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>164</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>8</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>12</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>176</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>177</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>181</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>183</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>184</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>154</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>185</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>191</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>192</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8239,7 +8239,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>103</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>162</v>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
         <v>173</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
         <v>174</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
         <v>2</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>179</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>180</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>182</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8611,7 +8611,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>78</v>
       </c>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>169</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>170</v>
@@ -8748,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>171</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>172</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8852,7 +8852,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>199</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>167</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>168</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>175</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>178</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>186</v>
@@ -9120,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>187</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>188</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>189</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>190</v>
       </c>
@@ -9297,7 +9297,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9UVm/0TBb5PQF4Hy9NLH2PkopUq2ygU182Vk9T6qa4Wwm5pE3+SKQFvKEVDIrhMYbm1WOrUQMyGFOoibgEiEkw==" saltValue="uZlX/I/aqI8B4YHP5/uZ9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gMzI7hYkjsg9dPDbMp3HhpGnyswpApVsGMwF8WNdCmy1CFtiFLzE+wdXtK3aDEhaImu5/WbWTKEK2Vf5jr+RpQ==" saltValue="RRsltqM/DMsdVzcMQxl7Cg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9313,22 +9313,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -9380,7 +9380,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -9397,7 +9397,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -9414,7 +9414,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -9431,7 +9431,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -9469,7 +9469,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -9488,7 +9488,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -9507,7 +9507,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -9524,7 +9524,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -9541,7 +9541,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -9558,7 +9558,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -9575,7 +9575,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
         <v>173</v>
       </c>
@@ -9594,7 +9594,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
         <v>174</v>
       </c>
@@ -9613,7 +9613,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9634,7 +9634,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -9651,7 +9651,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -9670,7 +9670,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -9689,7 +9689,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -9708,7 +9708,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -9727,7 +9727,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -9748,7 +9748,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -9767,7 +9767,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -9784,7 +9784,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -9801,7 +9801,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -9818,7 +9818,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -9837,7 +9837,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -9854,7 +9854,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -9873,7 +9873,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>154</v>
       </c>
@@ -9890,7 +9890,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -9909,7 +9909,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -9928,7 +9928,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -9947,7 +9947,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -9966,7 +9966,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -9985,7 +9985,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -10021,7 +10021,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -10043,7 +10043,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5KBcQZpfCIxAY0jf9R2+BfpcBrepc6ffvUT4bLp7rHHNDqwNNjj3Z7oIzEiIsw1wvw6a8w6LrxpHiT1lr0LKAA==" saltValue="tX1Z1iiK4R5q6pnd1/NB6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2HU4bFVz3xGIyxOzSLbu7u5sAHSLddeXjHF+P7yADrv+5G66F1jMuJrHxIqVJ+1EEqMlhiTQ5l74TvqLfZN7IA==" saltValue="UNwgROY2J4rzuTRr1xj54w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10059,22 +10059,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>219</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>112</v>
       </c>
@@ -10138,7 +10138,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>99</v>
       </c>
@@ -10167,7 +10167,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>100</v>
       </c>
@@ -10196,7 +10196,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>101</v>
       </c>
@@ -10225,7 +10225,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>102</v>
       </c>
@@ -10254,7 +10254,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>125</v>
       </c>
@@ -10275,7 +10275,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>126</v>
       </c>
@@ -10296,7 +10296,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>127</v>
       </c>
@@ -10317,7 +10317,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>128</v>
       </c>
@@ -10338,7 +10338,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>72</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>73</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>74</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>75</v>
       </c>
@@ -10417,7 +10417,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4PLd82aL7rTFnNjOJ/jRZusI7F00o74POvT2guXvZLzv3MALT9+eJKY1LhX3E7mCopCWRN2fntRNsRwVXVMr8w==" saltValue="ZeLOMYv99OSeMmaz12d/Vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TsIKt2LqmiBi0eH1eWgfxbNvfqNlAVYdb1JqfB9/NPmkFme87lR8ZwBYFGgKeCD+Ahw7qfMFWWk0KP2f7XraOw==" saltValue="H2F/+W9R0bXHJUkkfB80/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10433,15 +10433,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>221</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="139"/>
       <c r="C3" s="35" t="s">
         <v>150</v>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="139"/>
       <c r="C4" s="35" t="s">
         <v>151</v>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="139" t="s">
         <v>112</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="139"/>
       <c r="C6" s="35" t="s">
         <v>150</v>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="139"/>
       <c r="C7" s="35" t="s">
         <v>151</v>
@@ -10603,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="139" t="s">
         <v>99</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="139"/>
       <c r="C9" s="35" t="s">
         <v>150</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="139"/>
       <c r="C10" s="35" t="s">
         <v>151</v>
@@ -10668,7 +10668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="139" t="s">
         <v>100</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="139"/>
       <c r="C12" s="35" t="s">
         <v>150</v>
@@ -10712,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="139"/>
       <c r="C13" s="35" t="s">
         <v>151</v>
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="139" t="s">
         <v>101</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="139"/>
       <c r="C15" s="35" t="s">
         <v>150</v>
@@ -10777,7 +10777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="139"/>
       <c r="C16" s="35" t="s">
         <v>151</v>
@@ -10798,7 +10798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
         <v>152</v>
       </c>
@@ -10821,14 +10821,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>222</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="139"/>
       <c r="C20" s="35" t="s">
         <v>150</v>
@@ -10875,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="139"/>
       <c r="C21" s="35" t="s">
         <v>151</v>
@@ -10896,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="139" t="s">
         <v>112</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="139"/>
       <c r="C23" s="35" t="s">
         <v>150</v>
@@ -10940,7 +10940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="139"/>
       <c r="C24" s="35" t="s">
         <v>151</v>
@@ -10961,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="139" t="s">
         <v>99</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="139"/>
       <c r="C26" s="35" t="s">
         <v>150</v>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="139"/>
       <c r="C27" s="35" t="s">
         <v>151</v>
@@ -11026,7 +11026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="139" t="s">
         <v>100</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="139"/>
       <c r="C29" s="35" t="s">
         <v>150</v>
@@ -11070,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="139"/>
       <c r="C30" s="35" t="s">
         <v>151</v>
@@ -11091,7 +11091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="139" t="s">
         <v>101</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="139"/>
       <c r="C32" s="35" t="s">
         <v>150</v>
@@ -11135,7 +11135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="139"/>
       <c r="C33" s="35" t="s">
         <v>151</v>
@@ -11156,7 +11156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
         <v>152</v>
       </c>
@@ -11179,14 +11179,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
         <v>223</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="139"/>
       <c r="C37" s="35" t="s">
         <v>150</v>
@@ -11233,7 +11233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="139"/>
       <c r="C38" s="35" t="s">
         <v>151</v>
@@ -11254,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="139" t="s">
         <v>112</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="139"/>
       <c r="C40" s="35" t="s">
         <v>150</v>
@@ -11298,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="139"/>
       <c r="C41" s="35" t="s">
         <v>151</v>
@@ -11319,7 +11319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="139" t="s">
         <v>99</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="139"/>
       <c r="C43" s="35" t="s">
         <v>150</v>
@@ -11363,7 +11363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="139"/>
       <c r="C44" s="35" t="s">
         <v>151</v>
@@ -11384,7 +11384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="139" t="s">
         <v>100</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="139"/>
       <c r="C46" s="35" t="s">
         <v>150</v>
@@ -11428,7 +11428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="139"/>
       <c r="C47" s="35" t="s">
         <v>151</v>
@@ -11449,7 +11449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="139" t="s">
         <v>101</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="139"/>
       <c r="C49" s="35" t="s">
         <v>150</v>
@@ -11493,7 +11493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="139"/>
       <c r="C50" s="35" t="s">
         <v>151</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
         <v>152</v>
       </c>
@@ -11538,7 +11538,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NCT/B9WRSSayLZ+gF3Xd55eZklacTkN3b3cWVi6OjX/A1clokwl/4LO5h7Y5XGFDNMLRCsIynmQ/ilfLEUWaWw==" saltValue="Q8M5YklbZbmb/rj/cUEjiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9+CwU/Z4yaINFQQEF+YJrD5z/ICjJ50RQtOJs+2VxVIPZ6ktHR/KsD+z4AbCDMKzyO7h1cAOK2GZswR/UmxktA==" saltValue="HNwX2099GPjc9gteiuWCzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -11572,14 +11572,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>79</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11641,7 +11641,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11674,7 +11674,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11707,7 +11707,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11740,7 +11740,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11773,7 +11773,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11806,7 +11806,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11839,7 +11839,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11872,7 +11872,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11905,7 +11905,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11938,7 +11938,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11971,7 +11971,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12004,7 +12004,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12037,7 +12037,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12070,7 +12070,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12116,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12185,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12208,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12254,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12346,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12392,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12415,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12461,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12507,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12553,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12576,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12622,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12646,7 +12646,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ek6PKvxhx7lbKC5g9925lACsCNxqQ7RV1k+OmRkqlXoOkbLErvIgCQSmz/J+UUV1fXrBIlaJzKwNkhNadh4WOA==" saltValue="xKHf4bWQm8ICJmgT+pONUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y920LjdnegBFHDtFpiCVBhLrgHDBkgzo19yW8LbctH7hjs+8EltsSB87Zbx/7KVz3brAfzBaM6hqC73s7uQuoA==" saltValue="08MzY0Dd9ZlciviZgscvcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12668,22 +12668,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>58</v>
@@ -12698,7 +12698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>225</v>
       </c>
@@ -12708,7 +12708,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
         <v>41</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
         <v>42</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
         <v>43</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
         <v>44</v>
       </c>
@@ -12776,13 +12776,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>232</v>
       </c>
@@ -12800,14 +12800,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
         <v>226</v>
       </c>
@@ -12817,7 +12817,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>227</v>
       </c>
@@ -12827,7 +12827,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
         <v>228</v>
       </c>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
         <v>229</v>
       </c>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
         <v>230</v>
       </c>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12890,7 +12890,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>231</v>
       </c>
@@ -12901,7 +12901,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
         <v>81</v>
       </c>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
         <v>82</v>
       </c>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
         <v>83</v>
       </c>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
         <v>84</v>
       </c>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
         <v>85</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
         <v>86</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
         <v>87</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
         <v>88</v>
       </c>
@@ -13041,14 +13041,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mpsFVVGfb79V0h4XzBpZpZuAgirPJQF+4vzp9cNpKUuIausP4k38kGONxyCvVtdJQxecZXEoA0mgbkVJG3xiJA==" saltValue="QLwbQFg9YLikmAeP0P9keA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lP34bZTKtCnBX2kodS+nP+c1+Y/MCuzHJN/was4ZR/6NKa97IpV+kIXc+S51T/PlqZtfhyJ0hKpl8RGBgs5QHA==" saltValue="G/ZY4GDBbjwURgq1pxCmzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13065,23 +13065,23 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
         <v>215</v>
       </c>
@@ -13115,7 +13115,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>90</v>
@@ -13147,7 +13147,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>236</v>
       </c>
@@ -13175,7 +13175,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>237</v>
       </c>
@@ -13203,7 +13203,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>238</v>
       </c>
@@ -13231,7 +13231,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>91</v>
       </c>
@@ -13262,7 +13262,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>236</v>
       </c>
@@ -13290,7 +13290,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>237</v>
       </c>
@@ -13318,7 +13318,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>238</v>
       </c>
@@ -13346,7 +13346,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>93</v>
       </c>
@@ -13377,7 +13377,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>236</v>
       </c>
@@ -13405,7 +13405,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>237</v>
       </c>
@@ -13433,7 +13433,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>238</v>
       </c>
@@ -13461,7 +13461,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>94</v>
       </c>
@@ -13492,7 +13492,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>236</v>
       </c>
@@ -13520,7 +13520,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>237</v>
       </c>
@@ -13548,7 +13548,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>238</v>
       </c>
@@ -13576,7 +13576,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>92</v>
       </c>
@@ -13607,7 +13607,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>236</v>
       </c>
@@ -13635,7 +13635,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>237</v>
       </c>
@@ -13663,7 +13663,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>238</v>
       </c>
@@ -13691,7 +13691,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>98</v>
       </c>
@@ -13722,7 +13722,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>236</v>
       </c>
@@ -13750,7 +13750,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>237</v>
       </c>
@@ -13778,7 +13778,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>238</v>
       </c>
@@ -13806,12 +13806,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
         <v>248</v>
       </c>
@@ -13845,7 +13845,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>90</v>
@@ -13877,7 +13877,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>236</v>
       </c>
@@ -13905,7 +13905,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>198</v>
       </c>
@@ -13933,7 +13933,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>197</v>
       </c>
@@ -13961,7 +13961,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>91</v>
       </c>
@@ -13992,7 +13992,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>236</v>
       </c>
@@ -14020,7 +14020,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>198</v>
       </c>
@@ -14048,7 +14048,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>197</v>
       </c>
@@ -14076,7 +14076,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>93</v>
       </c>
@@ -14107,7 +14107,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>236</v>
       </c>
@@ -14135,7 +14135,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>198</v>
       </c>
@@ -14163,7 +14163,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>197</v>
       </c>
@@ -14191,7 +14191,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>94</v>
       </c>
@@ -14222,7 +14222,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>236</v>
       </c>
@@ -14250,7 +14250,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>198</v>
       </c>
@@ -14278,7 +14278,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>197</v>
       </c>
@@ -14306,7 +14306,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>92</v>
       </c>
@@ -14337,7 +14337,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>236</v>
       </c>
@@ -14365,7 +14365,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>198</v>
       </c>
@@ -14393,7 +14393,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>197</v>
       </c>
@@ -14421,7 +14421,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>98</v>
       </c>
@@ -14452,7 +14452,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>236</v>
       </c>
@@ -14480,7 +14480,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>198</v>
       </c>
@@ -14508,7 +14508,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>197</v>
       </c>
@@ -14536,16 +14536,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
         <v>124</v>
       </c>
@@ -14573,7 +14573,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>104</v>
@@ -14599,7 +14599,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14621,7 +14621,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>105</v>
       </c>
@@ -14646,7 +14646,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14668,7 +14668,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>106</v>
       </c>
@@ -14693,7 +14693,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14715,16 +14715,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
         <v>131</v>
       </c>
@@ -14758,7 +14758,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>81</v>
@@ -14790,7 +14790,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>133</v>
       </c>
@@ -14818,7 +14818,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>134</v>
       </c>
@@ -14846,7 +14846,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>135</v>
       </c>
@@ -14874,7 +14874,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>82</v>
       </c>
@@ -14905,7 +14905,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>133</v>
       </c>
@@ -14933,7 +14933,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>134</v>
       </c>
@@ -14961,7 +14961,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>135</v>
       </c>
@@ -14989,7 +14989,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>83</v>
       </c>
@@ -15020,7 +15020,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>133</v>
       </c>
@@ -15048,7 +15048,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>134</v>
       </c>
@@ -15076,7 +15076,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>135</v>
       </c>
@@ -15104,7 +15104,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>85</v>
       </c>
@@ -15135,7 +15135,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>133</v>
       </c>
@@ -15163,7 +15163,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>134</v>
       </c>
@@ -15191,7 +15191,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>135</v>
       </c>
@@ -15219,7 +15219,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>90</v>
       </c>
@@ -15250,7 +15250,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>133</v>
       </c>
@@ -15278,7 +15278,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>134</v>
       </c>
@@ -15306,7 +15306,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>135</v>
       </c>
@@ -15334,7 +15334,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>91</v>
       </c>
@@ -15365,7 +15365,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>133</v>
       </c>
@@ -15393,7 +15393,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>134</v>
       </c>
@@ -15421,7 +15421,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>135</v>
       </c>
@@ -15449,7 +15449,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>93</v>
       </c>
@@ -15480,7 +15480,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>133</v>
       </c>
@@ -15508,7 +15508,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>134</v>
       </c>
@@ -15536,7 +15536,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>135</v>
       </c>
@@ -15564,7 +15564,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>92</v>
       </c>
@@ -15595,7 +15595,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>133</v>
       </c>
@@ -15623,7 +15623,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>134</v>
       </c>
@@ -15651,7 +15651,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>135</v>
       </c>
@@ -15679,7 +15679,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>95</v>
       </c>
@@ -15710,7 +15710,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>133</v>
       </c>
@@ -15738,7 +15738,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>134</v>
       </c>
@@ -15766,7 +15766,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>135</v>
       </c>
@@ -15794,12 +15794,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
         <v>90</v>
       </c>
@@ -15833,7 +15833,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15863,7 +15863,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>133</v>
       </c>
@@ -15891,7 +15891,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>134</v>
       </c>
@@ -15919,7 +15919,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>135</v>
       </c>
@@ -15947,11 +15947,11 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9zv7YQS47FvLGX5uzF/E4ssrqk0zQ0xFuaP4zMkpZbWXdrBMZeVq2srHNh4yJVAh/dKu6tI22RRd37afd9okyQ==" saltValue="eGNQhbGMF90dUknwPLUTDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r5ZyCEMALPn9MnDAVUFifoUNvhSgsLigp8+m3zIfVe1gzsHhntF18PnPho1dWbSEi2XkkkQNr7SVnOqcegazvA==" saltValue="4jNx56Rck/0rm+gAZQDQWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15968,24 +15968,24 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
         <v>249</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16047,12 +16047,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
         <v>184</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
         <v>177</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
         <v>192</v>
       </c>
@@ -16112,7 +16112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16120,12 +16120,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>176</v>
@@ -16146,16 +16146,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
         <v>248</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16199,7 +16199,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
         <v>124</v>
       </c>
@@ -16222,13 +16222,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>72</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
         <v>165</v>
       </c>
@@ -16260,7 +16260,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+YXCVEy6zqTsE8rna2A/tZUaiOlNdGDr9X1atXEzLNH7RsE4GHRmr4rGbySoEDTIuj7kMpIWOKWRQIAQAF1mVA==" saltValue="hUOwlr2LJ+BGZ5qb4JxiLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iOkX4QA9emZL17X2dlFuWP+0P4wh0CwEbKzbC0EIrF4Y6grBvVkRZrlA2LLDNu+u5uj4D6Xsk6SUX8rhwP/EjA==" saltValue="vI+ABWLcslpjX/zwcGBN3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16278,16 +16278,16 @@
       <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>153</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
         <v>161</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>259</v>
@@ -16343,7 +16343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
         <v>173</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>259</v>
@@ -16381,7 +16381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
         <v>174</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>259</v>
@@ -16419,7 +16419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
         <v>2</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>259</v>
@@ -16457,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
         <v>178</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>259</v>
@@ -16495,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
         <v>182</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>259</v>
@@ -16533,14 +16533,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cK64ScRLcDHyMZtsSE5EEMkoAdf/YO2VOAKcOGuFgH+KdKZXSRk5tzlXdRvp/UxSiNGgpny6fJMvCNB0DRCgJA==" saltValue="6Fml21Xn/AjZQkTAONgKZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W/sxQ2zo9jmpyzImY9TJS08V3nk683Fjmdp4lyPn1sSbTy/dHF8RoyRQO6Y4LL1Di/DqkJ6UKdW2plmYOrPqdA==" saltValue="XhYzmbJENTiuLUZOxwWViQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16557,15 +16557,15 @@
       <selection activeCell="E19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16608,12 +16608,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>164</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>169</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>170</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>171</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>172</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
         <v>173</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
         <v>174</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
         <v>177</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>178</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>181</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>182</v>
       </c>
@@ -17141,13 +17141,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
         <v>166</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
         <v>167</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
         <v>168</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
         <v>175</v>
       </c>
@@ -17323,20 +17323,20 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8bK+zDRcZup5PohO8L6X7VGmdd3xiKYrhxGMHzPx9yexLU/n3/REl0Bq8qw0WkBUllow3rGO2AlWnBD2Luv7Gw==" saltValue="93Uy7IOT5X1XeMjZeBPrKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nwI0LlM5JOOyEa0Sb1x9YC5gtdsSkdJB04JxXN8j6+T5FNv/2YtDp8+ibnICnTJPVNNj+1Ldv3EbjNX3mYbXzw==" saltValue="8wk2thph30G72PuvTjK9Eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17353,15 +17353,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17380,12 +17380,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>154</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17416,7 +17416,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
         <v>158</v>
       </c>
@@ -17437,7 +17437,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R02koGK79l2XvfxTxlJj/AAIWZHcrsEnts8IZgKxqv+gBUFmG2Ghioi28nVl/RulY24bal0OeSJA5A5ZiRG6vg==" saltValue="EZ8fnXbggZikLVOz5MFHKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HD+M2Im4TH0ooTsp1iKTTF4vweeL0bpXoD2o7Icljpw7o52WgwWgGe1d7U/AjrfcZX4YdGeS2/NtpDaOltDKTA==" saltValue="lBuJyCJ8gdeGM10vP2GCTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17454,20 +17454,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>185</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>266</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>267</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>184</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>267</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>198</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>267</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>177</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>267</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>198</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>267</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>163</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>267</v>
       </c>
@@ -17784,7 +17784,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>198</v>
       </c>
@@ -17808,7 +17808,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>267</v>
       </c>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>168</v>
       </c>
@@ -17856,7 +17856,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>266</v>
       </c>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>166</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>266</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>167</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>266</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>266</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>267</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>190</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>266</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>267</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>188</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>266</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>267</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>187</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>266</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>267</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>186</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>266</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>267</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>266</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>267</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>91</v>
       </c>
@@ -18388,7 +18388,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>266</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>267</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>183</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>266</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>191</v>
       </c>
@@ -18500,7 +18500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>266</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>176</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>266</v>
       </c>
@@ -18567,7 +18567,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Eu+lrpMXXQIE0IFdfhmZ1qR6TbYXqYhWjPOwTIoWQYMUE4gBx9C3SfKcPJo34WF+Mf2LLkg0M7GXnpOJJt+IJw==" saltValue="OLxcDV7tNDRD+Wv31vZdMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lh1HTT0/aarnokx/y2p4tn+9hwR24Cn+UjlYlzPSU/g11QQz2mqVD5qUwOoBgspZVSsmdQvK/5+gRtBk6tbObw==" saltValue="d3JoeLmMh2u6/Ug7v1V9mA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18584,16 +18584,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>153</v>
       </c>
@@ -18615,7 +18615,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>162</v>
       </c>
@@ -18639,7 +18639,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>266</v>
       </c>
@@ -18657,7 +18657,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>180</v>
       </c>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>266</v>
@@ -18700,7 +18700,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>179</v>
       </c>
@@ -18724,7 +18724,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>266</v>
@@ -18744,7 +18744,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LY1Vd7JPPQKTkoGwVV/sLJE5DpqE7TgTFUQ50eZ1N2qdtBAb2LBastVx1Fem7Z3iZsuKRQ8GeVxevLNmVSLjaw==" saltValue="w7ZUZRA3BukKA+XwTSXdZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h/SppjNpcO+6SklzLYNGd4P4pAUYSqseGMyiS8tMoUTuX3kTgrs7hahu4Rd7zjJFv6U24+nLJBmO9uy9uHfRoQ==" saltValue="naQmFLnYxFBVq/EHtHcFhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18760,14 +18760,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18778,7 +18778,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -18793,7 +18793,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>81</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>82</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>83</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>84</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>85</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>86</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>87</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>88</v>
       </c>
@@ -18857,7 +18857,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>45</v>
       </c>
@@ -18868,7 +18868,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18877,7 +18877,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>89</v>
       </c>
@@ -18898,7 +18898,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>90</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>91</v>
       </c>
@@ -18932,7 +18932,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>92</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>93</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>94</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>95</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>96</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>97</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>98</v>
       </c>
@@ -19051,7 +19051,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>45</v>
       </c>
@@ -19074,7 +19074,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19083,7 +19083,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -19099,7 +19099,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>104</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>105</v>
       </c>
@@ -19115,7 +19115,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>106</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>107</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>108</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>109</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>110</v>
       </c>
@@ -19163,7 +19163,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>111</v>
       </c>
@@ -19171,7 +19171,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>45</v>
       </c>
@@ -19181,7 +19181,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WNyTA2P8ArX9ftpzTlx2jFA2F6MYEfPh8FVTN/G2o9EBA8q0qyxcmrWs0XvCL9Uh5o0BruCQvoAsyvi9Y/JvtA==" saltValue="7D2DkorZ8hzOPZ7jYyFagw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="E8myk1Y9ct47BUSFY80UDlDVRIPYETQvR6zrML+NLDWrNTgO5pT1SDpTmuDrdksqMbY3VA/le9D9k62ikVSANw==" saltValue="8qVZuYf8l9vLEWA99c3OtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19199,13 +19199,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19229,7 +19229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>114</v>
       </c>
@@ -19257,7 +19257,7 @@
         <v>0.18417555450115231</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>116</v>
@@ -19283,7 +19283,7 @@
         <v>0.35582444549884773</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>117</v>
@@ -19304,7 +19304,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>118</v>
@@ -19326,7 +19326,7 @@
       </c>
       <c r="H5" s="137"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19334,7 +19334,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19342,7 +19342,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -19370,7 +19370,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19435,7 +19435,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19449,7 +19449,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>124</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>129</v>
       </c>
@@ -19537,7 +19537,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>130</v>
       </c>
@@ -19594,14 +19594,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19609,7 +19609,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sIMiid+qc6fS22BsD382gnhRcBBVpkLuq96mO0xthHxCMus0QvPAnrwZ5ABztt7Lsft+ZsTP49Yal55CBuw1QA==" saltValue="XR3e31OFXh0QwhWZ5eTCMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jLx7Zz55737Emn8AR80cTdKUtxeA0aYd1KpNxYL7d/4zYLMHWidMdYhXCeWLkwS8HUNjWCSTLLbdlDymegEQyA==" saltValue="dbzbZYTw/eBPIgrzME3LqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19627,13 +19627,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19657,7 +19657,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>133</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>134</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>135</v>
       </c>
@@ -19746,7 +19746,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jbHuxtxMcbIDIH1/Tjr/zi1OfABySDK8ZX/SBhR3VEVq1vQJwWtVvWqO8Wqa+3T/htwSY5z7Hu1I/Ayqb0hi/w==" saltValue="LF5IsV9ZardpB/XuGKMD7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F9dZ0w7Szya8tmHif1HysjVzcbJQEZl59+zCR857oAEEzBvyPjpjfXW7Uh/DXLE9lqSnV9vk7EXQaD3H2d4JKg==" saltValue="o4+oNgqRBBKnOWjVtwa9uw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19763,13 +19763,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -19846,10 +19846,10 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -19876,10 +19876,10 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>103</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>140</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>143</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>47</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>145</v>
       </c>
@@ -20059,7 +20059,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AdHFP0aw+EocVn/xjNKawrOVg+adE5ipA1pn261PjMlMmCqiB+thAlDvZatTfp8RPI1A6boKqrEZ53NwRF60oA==" saltValue="cJoBX3KUGmESdMFiUNP5XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z6r8qbjiWIod1Dn7iKXer/1fvEBwsNrur36AZT/ylH8mxh/O1Nbz2pV2T9Y8q5IlDEna/mtvRr6cmdxRdDoJHA==" saltValue="CgCPdkzgBglpoRbCEfJs9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20076,15 +20076,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>147</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>112</v>
@@ -20129,7 +20129,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>99</v>
@@ -20143,7 +20143,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>100</v>
@@ -20157,7 +20157,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>101</v>
@@ -20171,7 +20171,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>152</v>
@@ -20180,7 +20180,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>112</v>
@@ -20206,7 +20206,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>99</v>
@@ -20218,7 +20218,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>100</v>
@@ -20230,7 +20230,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>101</v>
@@ -20242,7 +20242,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>152</v>
@@ -20253,7 +20253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>12</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>112</v>
@@ -20283,7 +20283,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>99</v>
@@ -20297,7 +20297,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>100</v>
@@ -20311,7 +20311,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>101</v>
@@ -20325,7 +20325,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>152</v>
@@ -20335,7 +20335,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D+rDyYtwxY5UmkF3NdvjIkDrr0NC2jVNDifmID8oRnPhXnmj8rFo48Y4b5g8oOPj3k7CBWwpDDB9L5P/iL6Dxw==" saltValue="DgtTMovLekz5iFCTZ8rykg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q6ZFQQx206ORq2QR000O5WTrY7PYRjw7BumPBRTzc+InK9vaoYtoOmee6HHyuq+DlNZSMwCNG5C/ttYW5sJGrA==" saltValue="untT0zx8D9A0cvVUOVYO2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20352,15 +20352,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>153</v>
       </c>
@@ -20386,7 +20386,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>157</v>
       </c>
@@ -20399,7 +20399,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1aw8cUABuPq1qKXQc5EBlthIk2Nq2OvcZ9WX9MyuGHaquMMfx88i2DLFpHEv3BL3cyOsPDZTUTioffUTeG9d7g==" saltValue="tMOAD9cXw90wZj+Xxa8ewA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eBBWFccVNbDmi8OX8LkANiDt9xXoixBQiWLRdWOp4aifuIrB0SffNgXD0uc8/L3RwgBoQNe2xniFD44yPJ9DdA==" saltValue="9orzKpKoXL097CUAloh97Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20415,17 +20415,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>153</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -20460,7 +20460,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -20477,7 +20477,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -20562,7 +20562,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -20596,7 +20596,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>173</v>
       </c>
@@ -20664,7 +20664,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>174</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20698,7 +20698,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -20749,7 +20749,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -20817,7 +20817,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -20851,7 +20851,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -20902,7 +20902,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>154</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -20987,7 +20987,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -21021,7 +21021,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -21039,7 +21039,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -21073,11 +21073,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="//SmiEjK7CAwDG1V87PwBEvQ5dqmtpWr4Id1sX2eAaI3uo9Ts0INrzsB5gz6wzG3VBadg1QOUzR1pmhV07WK9Q==" saltValue="ooTtsG1P+OxqsAx6mKakLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Og+LWl0lpAWp//S3yFloZEnHMrStbPo/wS1D7MePOc5x9hqhJ3s8dHLTQeR9M63p4nXbg+/gb7jBvK7ZQLwzkQ==" saltValue="fsfIX6QTxFfAi5SF8rDWMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02EA5C40-6D43-47FF-8F43-370DF71596AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B26240EC-8A93-4602-81A1-16A408BCF0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8520" yWindow="6315" windowWidth="29130" windowHeight="12660" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,9 +609,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>High (HAZ-score &lt; -3)</t>
-  </si>
-  <si>
     <t>Données de l'année de référence</t>
   </si>
   <si>
@@ -913,6 +910,9 @@
   </si>
   <si>
     <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
     <t>Amaigrissement (poids-pour-taille)</t>
@@ -5123,18 +5123,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5142,7 +5142,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5151,7 +5151,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5164,12 +5164,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5228,14 +5228,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5279,12 +5279,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5320,14 +5320,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5369,19 +5369,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5436,13 +5436,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5484,13 +5484,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5531,12 +5531,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5570,7 +5570,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mUCijW0rtOFHy83s67ndkG3PmZ5TFLF/ZDWgw5bwY7LZkTGmpB0004CQ3pf+5KnGOl0f4uERS3H7n8mzUfyX2g==" saltValue="WJgwxVROu2p4atSALo2JRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="teosn6g+gVR0f+GiPSMa/AvvMX/Y2kqhN2kfkKGUnJRUCdfUUMIkNhW8HBzumB+CmlRBKeh4rDLDMwrGMfbFlA==" saltValue="RisLHaBFupDWqiaTt6v8kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -6478,7 +6478,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XM+ualb4TraseV7uSNwr9F77/vOdOzrYlbDl6PeeU/xKHuVn7kPGXuQHBbeZU4fdOUL0OV5PvYlNPpL9CeKAJg==" saltValue="GySWdppnH1m0e9Fq3qZ14A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s/jUN5A66NPS2OHDbUKywC4PKWUjFRDbf2xJT1qNcd3d2R+4/BXdzM+NfcObjdLCD/FfNdwiFlBnQJM4wfFX/w==" saltValue="koa5U7I+kUvvRZKEFPDVjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -6642,7 +6642,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XQsOQFuSdRdzWbsohZxiNAiDvfkjaDyfnuv6QyAvp/apMS8yIVFSS3mCaA0otmKVySikWY66nddICH59jiXQog==" saltValue="8ExC6YfayFH6uIGm3D53DQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="58HiltKc7Oj5EZsjWOK4nwMyUJxRbB5NLVTCiiywzmX55FDyzndNUysGuAyep2FUtckqjcuP1tHSrrbejDezVA==" saltValue="te8oFWtAte86V+uY6ocUew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6742,7 +6742,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8p0bTUQMe9kcGsQJi5ysop8wsf5l2f6Z6idwvuXhDtUVrzzDxLANa8QVkOvjADSC+hWNnfP6st/zwJbvx++P9A==" saltValue="reJWtFMWjSzUuWNKksXe2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qlehiLZKa5DAWMvq5QgcMOwI4oVLEw1GYJLZFGFDLLp1mZYS3rw7zHjM4DVdFdFC3maPzPmFtyzuYn/lzXsVIw==" saltValue="1WcxiG1PW6T8xR224ayJYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6766,24 +6766,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6857,7 +6857,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="058IQuMh+lvUtNtl47x2NxUoh0n84E1QNTBxTXLyhyjix6v9dkDu+Bk7tlGb/EL2r76xZMUwQNHPe6G81fgiqA==" saltValue="e9teZLbSXFRoUZNeco5fDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rHCieJJYi9+x6MeNaNouJ77opbX37nzzq/c3gV8FK/0WVtFubhASznFsn0ZRJvAgMP2FkhMazQ0e86uJm97uwA==" saltValue="6YSqb1gerd3ywQVzhq1rQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6894,19 +6894,19 @@
         <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>125</v>
@@ -6921,21 +6921,21 @@
         <v>128</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>170</v>
@@ -7450,7 +7450,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>168</v>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="59" t="s">
         <v>172</v>
@@ -8573,7 +8573,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KYTmIRF4XhHVI320U0kI8Osao9EiuOSzbX4SbrMcGA59fChfpo1XH19jLj8W5Rvj91L+7NI2fvX4bSG4NdPwVQ==" saltValue="0qph/P93jFWCYjI17iS67g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/s6kWq3Pg7wIBZNKcttt5c92woywFZKR5tGberPVn2YgqCrr/aXe4C7eIpwu5ZpqKBjVTIP/qhNqKMkrqcOZwA==" saltValue="2AD5NUBYvP0SLMavNDV1wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -8611,7 +8611,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9HPM4Ws7l5Cd/+6x+HnpF0bec1vRRWCW9gEzKKqFRdR7YGQlNvNtqtaKGUaFAyBxBzL9I9k1wJmNThy2DXRMWw==" saltValue="laJ8D1L8CJ6xlPSkkHdzFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0OB1HYD+i8As6NpjRbLAJ2LtEeJeijYN9hG+AbAqvH+ORRVCW9skgRpuqGclpzg6qBU838VEtsPvSgmGeFhjeQ==" saltValue="DRYUDPh/o5H7UqAozGI8bQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8819,7 +8819,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ue5dLUGh8iaiaskePH+vhgTyfECPBOKY4dSCX9FOz5NdiYRwbqQVIKZRzA/ALbdpgcQf0Jc+ewhJC5OZo2p6OQ==" saltValue="il2PKnLyMn8NLb/mk2OvQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="geIuzGSgyvZRm5cdGeUiUV8LOPz/2zzZhIpb889NhB4W+AO9Vd6gibGBNzC3otOvHmyH7AxXed3s6D9qFCDFkQ==" saltValue="tMuNXolWgjnicRHDPmRYEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8858,19 +8858,19 @@
         <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>125</v>
@@ -8885,21 +8885,21 @@
         <v>128</v>
       </c>
       <c r="L1" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>170</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>168</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="52" t="s">
         <v>172</v>
@@ -10590,7 +10590,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="npH01ROFZlphBjzwwtmo4GyFL45tmTmoKgnT6zHZbMRjAOVWS10n7KvWdZS70d3KDAuZ3LMuDQ+C/relY/QdIA==" saltValue="mo9F6HKGZNeGOw1EZo0jiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a6D5sTf+BB8xHi5ba+1AvhHoFJ+FXD+oVeJwn+dExPw0sYupKkl1CgYImRZaESFGe0XpQadH0e+SISPnUDDi4g==" saltValue="aAUVj5xsDrOESl9FkuBZLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10641,19 +10641,19 @@
         <v>131</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>227</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11336,7 +11336,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EPr3ft6q6Cj5gPAmqER+fKvpvD10yq5tLwurWO2AJc3owjm1X7dYShu8pcz7dYg0rzPCAtCfd7bzMDLEKkvH9A==" saltValue="z6oHn7hmt5BMFFe/xRDMEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="agxz5QjTFRb4bF/4EDptNOGrhpryLwsQ0G4gCjO/V3DyJCWPzNbor0oj6AQHxRcQy1Z0ER1DQa3laUOCo6cQuA==" saltValue="fTksVWztE8iwVge/TzczyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11387,24 +11387,24 @@
         <v>131</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>227</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="133" t="s">
         <v>9</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="133" t="s">
         <v>9</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="133" t="s">
         <v>9</v>
@@ -11491,7 +11491,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="133" t="s">
         <v>9</v>
@@ -11520,7 +11520,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="133" t="s">
         <v>9</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -11654,7 +11654,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
@@ -11673,7 +11673,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
@@ -11692,7 +11692,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
@@ -11710,7 +11710,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nqrV+B5pnW6ej4pg5mYtfc87BuQQK6ooUzyA1aKbtk7wW5cCiy6vDJnn6xz/2Z0OP/2G1hcPrx82hmAZP31u6w==" saltValue="GRz6ToX/zTV/j8zUOa3d5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bEF8JGkUI2J28zHO7xyAiRpERdM6/r3Xa3KHUxxNUUN2QTBtkQfA5kSOlefBkccrMX3/SMSMfe7JDnWN5j0+yQ==" saltValue="I6A4Tlanyw8YZHnxcQdenQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11735,31 +11735,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12799,7 +12799,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qCj1jpATKlYyehKEF7ltZl25K7JORkfYnFtUDaqFKvtPSkTL/MbV879Cn2D3uI7D8XZk6cy93Mt7jKV1IHXNsQ==" saltValue="GlUf4iJAvsdGdcEp9cbpjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aUl4wVc89gh/njulyjyrSRd0/JALFhCUWIV+RPa74mBOoh+Ovr63neqcqQQgDIQno79XoGmtreeJFK9hxlfrgQ==" saltValue="pJBXoMXBULRYisWMjU2qUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12840,19 +12840,19 @@
         <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -12860,7 +12860,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>156</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>156</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>156</v>
@@ -13058,7 +13058,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>156</v>
@@ -13123,7 +13123,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>156</v>
@@ -13221,7 +13221,7 @@
         <v>231</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>156</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>156</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>156</v>
@@ -13416,7 +13416,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>156</v>
@@ -13481,7 +13481,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>156</v>
@@ -13579,7 +13579,7 @@
         <v>232</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>156</v>
@@ -13644,7 +13644,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>156</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>156</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>156</v>
@@ -13839,7 +13839,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>156</v>
@@ -13948,19 +13948,19 @@
         <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="G54" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="H54" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H54" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -13968,7 +13968,7 @@
         <v>234</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>156</v>
@@ -14048,7 +14048,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>156</v>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>156</v>
@@ -14208,7 +14208,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>156</v>
@@ -14288,7 +14288,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>156</v>
@@ -14406,7 +14406,7 @@
         <v>235</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>156</v>
@@ -14486,7 +14486,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>156</v>
@@ -14566,7 +14566,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>156</v>
@@ -14646,7 +14646,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>156</v>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>156</v>
@@ -14844,7 +14844,7 @@
         <v>236</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="35" t="s">
         <v>156</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="35" t="s">
         <v>156</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="35" t="s">
         <v>156</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="35" t="s">
         <v>156</v>
@@ -15164,7 +15164,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" s="35" t="s">
         <v>156</v>
@@ -15293,19 +15293,19 @@
         <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F107" s="40" t="s">
+      <c r="G107" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G107" s="40" t="s">
+      <c r="H107" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H107" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15313,7 +15313,7 @@
         <v>238</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="35" t="s">
         <v>156</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>156</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C114" s="35" t="s">
         <v>156</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C117" s="35" t="s">
         <v>156</v>
@@ -15633,7 +15633,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C120" s="35" t="s">
         <v>156</v>
@@ -15751,7 +15751,7 @@
         <v>239</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C125" s="35" t="s">
         <v>156</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C128" s="35" t="s">
         <v>156</v>
@@ -15911,7 +15911,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" s="35" t="s">
         <v>156</v>
@@ -15991,7 +15991,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C134" s="35" t="s">
         <v>156</v>
@@ -16071,7 +16071,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C137" s="35" t="s">
         <v>156</v>
@@ -16189,7 +16189,7 @@
         <v>240</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C142" s="35" t="s">
         <v>156</v>
@@ -16269,7 +16269,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C145" s="35" t="s">
         <v>156</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>156</v>
@@ -16429,7 +16429,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C151" s="35" t="s">
         <v>156</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C154" s="35" t="s">
         <v>156</v>
@@ -16616,7 +16616,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1PT0x/d4ZQwKtehNLzLoe6aPQlYBxn5fkYKKN9MEDnj+TUnAEewmFy9YhrA+KepAtK0Ho9H5s1cH1LdFFx3Fsg==" saltValue="7YUxxPEpvL9HP9AHCTI3hw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ra3btADXQPfR7EcqQ95hGgtxuC1yFkN7F35yRolQz8RrmfDVgwDAEN/qK3Mw/35bDR80XAMw60LuEq0mC58PaA==" saltValue="21CJmDbxIaZliGH7LQo39w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16701,16 +16701,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16725,7 +16725,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16742,7 +16742,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16776,7 +16776,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -16918,7 +16918,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -16936,7 +16936,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -16990,7 +16990,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17007,7 +17007,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17024,7 +17024,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17041,7 +17041,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17077,16 +17077,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17101,7 +17101,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17122,7 +17122,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17164,7 +17164,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17312,7 +17312,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17333,7 +17333,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17354,7 +17354,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17417,7 +17417,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17438,7 +17438,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17459,7 +17459,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17496,16 +17496,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17520,7 +17520,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17541,7 +17541,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17562,7 +17562,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17731,7 +17731,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17752,7 +17752,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17794,7 +17794,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -17836,7 +17836,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -17857,7 +17857,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -17878,7 +17878,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -17898,7 +17898,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VoqIdKgK9cNJEgF0Z5dav69gXTdA5q2773YGrDNFRMQGE7SKC/vVzOjlu+p7I+oB2bFdaKzRxm4w4pnZeiNZUQ==" saltValue="XGFBL7FyExNDoWGTVaV8Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6iSUcu2i23jAjFrd+MwveS/qPgtRsPpWc9jovcepaak4I/9m5ccH6pGTZYu0T/SNLIXULJoiZdddsVmm8J+yTg==" saltValue="G52fxz5acS8h1uthpPuCAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -17945,19 +17945,19 @@
         <v>264</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="G2" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="H2" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H2" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -17971,7 +17971,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>13</v>
@@ -18086,7 +18086,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>13</v>
@@ -18201,7 +18201,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>13</v>
@@ -18316,7 +18316,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>13</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>13</v>
@@ -18546,7 +18546,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>13</v>
@@ -18675,19 +18675,19 @@
         <v>268</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="G29" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="H29" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H29" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18701,7 +18701,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>13</v>
@@ -18816,7 +18816,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>13</v>
@@ -18931,7 +18931,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>13</v>
@@ -19046,7 +19046,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>13</v>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>13</v>
@@ -19276,7 +19276,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>13</v>
@@ -19429,7 +19429,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>271</v>
@@ -19476,7 +19476,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>271</v>
@@ -19523,7 +19523,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>271</v>
@@ -19588,19 +19588,19 @@
         <v>274</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E65" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="103" t="s">
+      <c r="G65" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G65" s="103" t="s">
+      <c r="H65" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H65" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19614,7 +19614,7 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>132</v>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>132</v>
@@ -19844,7 +19844,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>132</v>
@@ -19959,7 +19959,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>132</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>132</v>
@@ -20189,7 +20189,7 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>132</v>
@@ -20304,7 +20304,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>132</v>
@@ -20419,7 +20419,7 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>132</v>
@@ -20534,7 +20534,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="43" t="s">
         <v>132</v>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="126" t="s">
         <v>135</v>
@@ -20663,19 +20663,19 @@
         <v>274</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E104" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F104" s="103" t="s">
+      <c r="G104" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G104" s="103" t="s">
+      <c r="H104" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H104" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20829,25 +20829,25 @@
         <v>264</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E112" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F112" s="103" t="s">
+      <c r="G112" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G112" s="103" t="s">
+      <c r="H112" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H112" s="103" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>13</v>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117" s="43" t="s">
         <v>13</v>
@@ -21053,7 +21053,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C121" s="43" t="s">
         <v>13</v>
@@ -21156,7 +21156,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" s="43" t="s">
         <v>13</v>
@@ -21259,7 +21259,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C129" s="43" t="s">
         <v>13</v>
@@ -21362,7 +21362,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C133" s="43" t="s">
         <v>13</v>
@@ -21486,25 +21486,25 @@
         <v>268</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E139" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F139" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F139" s="103" t="s">
+      <c r="G139" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G139" s="103" t="s">
+      <c r="H139" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H139" s="103" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>13</v>
@@ -21607,7 +21607,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C144" s="43" t="s">
         <v>13</v>
@@ -21710,7 +21710,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>13</v>
@@ -21813,7 +21813,7 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C152" s="43" t="s">
         <v>13</v>
@@ -21916,7 +21916,7 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C156" s="43" t="s">
         <v>13</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C160" s="43" t="s">
         <v>13</v>
@@ -22163,7 +22163,7 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>271</v>
@@ -22210,7 +22210,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>271</v>
@@ -22257,7 +22257,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>271</v>
@@ -22329,25 +22329,25 @@
         <v>274</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E175" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F175" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F175" s="103" t="s">
+      <c r="G175" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G175" s="103" t="s">
+      <c r="H175" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H175" s="124" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C176" s="43" t="s">
         <v>132</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C180" s="43" t="s">
         <v>132</v>
@@ -22545,7 +22545,7 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C184" s="43" t="s">
         <v>132</v>
@@ -22644,7 +22644,7 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C188" s="43" t="s">
         <v>132</v>
@@ -22743,7 +22743,7 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C192" s="43" t="s">
         <v>132</v>
@@ -22842,7 +22842,7 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C196" s="43" t="s">
         <v>132</v>
@@ -22941,7 +22941,7 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C200" s="43" t="s">
         <v>132</v>
@@ -23040,7 +23040,7 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C204" s="43" t="s">
         <v>132</v>
@@ -23139,7 +23139,7 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C208" s="43" t="s">
         <v>132</v>
@@ -23250,7 +23250,7 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B214" s="126" t="s">
         <v>135</v>
@@ -23259,19 +23259,19 @@
         <v>274</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E214" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F214" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F214" s="103" t="s">
+      <c r="G214" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G214" s="103" t="s">
+      <c r="H214" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H214" s="124" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -23402,26 +23402,26 @@
         <v>264</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E222" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F222" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F222" s="103" t="s">
+      <c r="G222" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G222" s="103" t="s">
+      <c r="H222" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H222" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C223" s="43" t="s">
         <v>13</v>
@@ -23528,7 +23528,7 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C227" s="43" t="s">
         <v>13</v>
@@ -23635,7 +23635,7 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C231" s="43" t="s">
         <v>13</v>
@@ -23742,7 +23742,7 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C235" s="43" t="s">
         <v>13</v>
@@ -23849,7 +23849,7 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C239" s="43" t="s">
         <v>13</v>
@@ -23956,7 +23956,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C243" s="43" t="s">
         <v>13</v>
@@ -24085,26 +24085,26 @@
         <v>268</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E249" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F249" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F249" s="103" t="s">
+      <c r="G249" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G249" s="103" t="s">
+      <c r="H249" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H249" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C250" s="43" t="s">
         <v>13</v>
@@ -24211,7 +24211,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C254" s="43" t="s">
         <v>13</v>
@@ -24318,7 +24318,7 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C258" s="43" t="s">
         <v>13</v>
@@ -24425,7 +24425,7 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C262" s="43" t="s">
         <v>13</v>
@@ -24532,7 +24532,7 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C266" s="43" t="s">
         <v>13</v>
@@ -24639,7 +24639,7 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C270" s="43" t="s">
         <v>13</v>
@@ -24789,7 +24789,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>271</v>
@@ -24836,7 +24836,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>271</v>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>271</v>
@@ -24956,26 +24956,26 @@
         <v>274</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E285" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F285" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F285" s="103" t="s">
+      <c r="G285" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G285" s="103" t="s">
+      <c r="H285" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H285" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C286" s="43" t="s">
         <v>132</v>
@@ -25078,7 +25078,7 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C290" s="43" t="s">
         <v>132</v>
@@ -25181,7 +25181,7 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C294" s="43" t="s">
         <v>132</v>
@@ -25284,7 +25284,7 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C298" s="43" t="s">
         <v>132</v>
@@ -25387,7 +25387,7 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C302" s="43" t="s">
         <v>132</v>
@@ -25490,7 +25490,7 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C306" s="43" t="s">
         <v>132</v>
@@ -25593,7 +25593,7 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C310" s="43" t="s">
         <v>132</v>
@@ -25696,7 +25696,7 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C314" s="43" t="s">
         <v>132</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C318" s="43" t="s">
         <v>132</v>
@@ -25915,7 +25915,7 @@
     </row>
     <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B324" s="126" t="s">
         <v>135</v>
@@ -25924,19 +25924,19 @@
         <v>274</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E324" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F324" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F324" s="103" t="s">
+      <c r="G324" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G324" s="103" t="s">
+      <c r="H324" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H324" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26043,7 +26043,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WsbYrjN2PNW3Y0LfhB0xWsOB8TDXXGD729k/6uyj2LDpNwTBFUNg3r5li02mKdJD5sRs6hYJj58zIXCNGjQ0Xw==" saltValue="m8pZNl7DSaVIaB4K6KJNuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f5zGzAS1IXdXsx2JE58xygTkkdJEIuUJitDns6NoCpLLZDccFhMWFPNO96Mbaw+5kgnajhBvN+C/eO0sAZWquA==" saltValue="T/KRtu6jRUFQ8DbxxJuYAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26086,19 +26086,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26325,16 +26325,16 @@
     </row>
     <row r="19" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -26376,19 +26376,19 @@
       </c>
       <c r="B24" s="119"/>
       <c r="C24" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="F24" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="G24" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -26675,16 +26675,16 @@
       <c r="A41" s="104"/>
       <c r="B41" s="104"/>
       <c r="C41" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="E41" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="F41" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="G41" s="104"/>
     </row>
@@ -26731,19 +26731,19 @@
       </c>
       <c r="B46" s="119"/>
       <c r="C46" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="F46" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="G46" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -27030,16 +27030,16 @@
       <c r="A63" s="104"/>
       <c r="B63" s="104"/>
       <c r="C63" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="E63" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="56" t="s">
+      <c r="F63" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F63" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="G63" s="104"/>
     </row>
@@ -27065,7 +27065,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yfGJlixnstAHMEf/xsyShnnSwTp3+xeMT7Fa2+bDFw5Jiywj0UPnQTCPvaDXdD1NwVCOKSzqm6Sek44DxlAH9w==" saltValue="AJHm3+D9pzsyMTE34L90JQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="698vdzryon6ooeWDuIY8CGndBmaZ1tvBZ+Ucor9v4zvqHUsMy95bSmcLfutunOdn6O2VuxBNSqsG8J42TkjEYg==" saltValue="yX0ZUY0H3JnVOGa/asFIWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27101,16 +27101,16 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27352,16 +27352,16 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="F16" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27651,16 +27651,16 @@
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="F31" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27940,7 +27940,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5BYJDiqVfBemxq1Wdhlp7s2vWKIUS6X6P5BdAiXTgTo5XLmdz7cRf4mmMr0CMkxv7LKwibU8QQEUN23zbzzXpQ==" saltValue="hOymzVCotcbfBWsl6eBv8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1RphzfFXvBFtLdcECxQXAiDYeHWglm6wgw908Ak/QjO0BpaErOsdD5ZkR+tcOoHVe7DFs/hOB7iUeBGNbizEMA==" saltValue="HT7fRq1EDjWe0PLI1mYHpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27972,31 +27972,31 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H1" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K1" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L1" s="103" t="s">
         <v>125</v>
@@ -28735,31 +28735,31 @@
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="F23" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="103" t="s">
+      <c r="G23" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H23" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="103" t="s">
+      <c r="J23" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="K23" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K23" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L23" s="103" t="s">
         <v>125</v>
@@ -29706,31 +29706,31 @@
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="F45" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="G45" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H45" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="103" t="s">
+      <c r="J45" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J45" s="103" t="s">
+      <c r="K45" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K45" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L45" s="103" t="s">
         <v>125</v>
@@ -30669,7 +30669,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wP3OOMK9j0rTIc4HCK9MT9rnpJg/AHlCJ54cwhSpa5NQ2qDM3LtlPfc92q7CFnNifMdrxZkyIUdlK3lamf+4og==" saltValue="WQh64wN50Kg8YCDu9YXkrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c5TFLkuiP6lGntj5VxB9fHhfYsp918FWf9OSZn/OmuiG4q2vr8TWSNZLIwfB2Sy4gXo8ty1UVXwa3zvsHkp8Lg==" saltValue="hdxLKUD5O4CROoRweEkQMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -30701,19 +30701,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -30781,19 +30781,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="F8" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="G8" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -30871,19 +30871,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="F15" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -30953,7 +30953,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7k2nzZyFg59e+sV/Y6oNwmf2kHjpbpUiEI6+rzCzMI4MsjVj/jA8STFOWMSZ7Ob2e2w0v7q084Oyb6/ijUJFkw==" saltValue="AtXHR3AV5yE9kvCwgGEyZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bmlKDsNuxeeNBwCuhbIBsroMWk+FiCTZL0rDRtYCDOlO7CVBPgIXdsoGAg982yedGJHQf8I5hZHDHzLs3jbJNA==" saltValue="DVQ+Snz8nIqtyl8RU8N1YQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -30997,19 +30997,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -31017,7 +31017,7 @@
         <v>192</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>330</v>
@@ -31353,7 +31353,7 @@
         <v>175</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>330</v>
@@ -31401,7 +31401,7 @@
         <v>173</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>330</v>
@@ -31447,7 +31447,7 @@
         <v>174</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>330</v>
@@ -31493,7 +31493,7 @@
         <v>196</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>330</v>
@@ -31559,7 +31559,7 @@
         <v>197</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>330</v>
@@ -31625,7 +31625,7 @@
         <v>195</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>330</v>
@@ -31691,7 +31691,7 @@
         <v>194</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>330</v>
@@ -31757,7 +31757,7 @@
         <v>193</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>330</v>
@@ -31823,7 +31823,7 @@
         <v>199</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>330</v>
@@ -31886,7 +31886,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>330</v>
@@ -31952,7 +31952,7 @@
         <v>190</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="52" t="s">
         <v>330</v>
@@ -31998,7 +31998,7 @@
         <v>198</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="52" t="s">
         <v>330</v>
@@ -32044,7 +32044,7 @@
         <v>183</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>330</v>
@@ -32103,19 +32103,19 @@
         <v>15</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="G52" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="H52" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -32123,7 +32123,7 @@
         <v>192</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="52" t="s">
         <v>330</v>
@@ -32531,7 +32531,7 @@
         <v>175</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>330</v>
@@ -32587,7 +32587,7 @@
         <v>173</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>330</v>
@@ -32643,7 +32643,7 @@
         <v>174</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>330</v>
@@ -32699,7 +32699,7 @@
         <v>196</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>330</v>
@@ -32780,7 +32780,7 @@
         <v>197</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="52" t="s">
         <v>330</v>
@@ -32861,7 +32861,7 @@
         <v>195</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>330</v>
@@ -32942,7 +32942,7 @@
         <v>194</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" s="52" t="s">
         <v>330</v>
@@ -33023,7 +33023,7 @@
         <v>193</v>
       </c>
       <c r="B86" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="52" t="s">
         <v>330</v>
@@ -33104,7 +33104,7 @@
         <v>199</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="52" t="s">
         <v>330</v>
@@ -33182,7 +33182,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="52" t="s">
         <v>330</v>
@@ -33263,7 +33263,7 @@
         <v>190</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="52" t="s">
         <v>330</v>
@@ -33319,7 +33319,7 @@
         <v>198</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>330</v>
@@ -33375,7 +33375,7 @@
         <v>183</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="52" t="s">
         <v>330</v>
@@ -33444,19 +33444,19 @@
         <v>15</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E103" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F103" s="40" t="s">
+      <c r="G103" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G103" s="40" t="s">
+      <c r="H103" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H103" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -33464,7 +33464,7 @@
         <v>192</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="52" t="s">
         <v>330</v>
@@ -33872,7 +33872,7 @@
         <v>175</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>330</v>
@@ -33928,7 +33928,7 @@
         <v>173</v>
       </c>
       <c r="B121" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>330</v>
@@ -33984,7 +33984,7 @@
         <v>174</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>330</v>
@@ -34040,7 +34040,7 @@
         <v>196</v>
       </c>
       <c r="B125" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>330</v>
@@ -34121,7 +34121,7 @@
         <v>197</v>
       </c>
       <c r="B128" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C128" s="52" t="s">
         <v>330</v>
@@ -34202,7 +34202,7 @@
         <v>195</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>330</v>
@@ -34283,7 +34283,7 @@
         <v>194</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C134" s="52" t="s">
         <v>330</v>
@@ -34364,7 +34364,7 @@
         <v>193</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>330</v>
@@ -34445,7 +34445,7 @@
         <v>199</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>330</v>
@@ -34523,7 +34523,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>330</v>
@@ -34604,7 +34604,7 @@
         <v>190</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>330</v>
@@ -34660,7 +34660,7 @@
         <v>198</v>
       </c>
       <c r="B148" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C148" s="52" t="s">
         <v>330</v>
@@ -34716,7 +34716,7 @@
         <v>183</v>
       </c>
       <c r="B150" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C150" s="52" t="s">
         <v>330</v>
@@ -34768,7 +34768,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i2+3zOKc6i86+ynW4nk2/EbWQcNWFIS7Jz8qdQqVSBC4ZK0DNmwVKTQWOuWNAkkMpLtkKfVPbW4lW5yyOGa6ag==" saltValue="Uwfo7CXCu+MNSo6HxjcpJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iHCOanwGWrplM34vcl0j11FaSUHFCB1Y6+UcLokntPYDoF6ZZfrq94U9XIsiHvdgpUDZuYFdTd0z0AtDMKTuHw==" saltValue="lVF1lHtnI4e/XAQb6ZqdOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -34824,7 +34824,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>330</v>
@@ -34866,7 +34866,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>330</v>
@@ -34909,7 +34909,7 @@
         <v>186</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>330</v>
@@ -34978,7 +34978,7 @@
         <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>330</v>
@@ -35026,7 +35026,7 @@
         <v>187</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>330</v>
@@ -35075,7 +35075,7 @@
         <v>186</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>330</v>
@@ -35150,7 +35150,7 @@
         <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>330</v>
@@ -35198,7 +35198,7 @@
         <v>187</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>330</v>
@@ -35247,7 +35247,7 @@
         <v>186</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>330</v>
@@ -35292,7 +35292,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RwSuutiwlSLekiCd5O3g5IushaU79Z/Sv3Ct6km1708FWKGCw/CStWQVimkzTRFKNNSrbvplCZ3F4ca/Kirp7g==" saltValue="nbkGzV8+lwkzQtnujp9AAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H299/N06PcLt0e4IGyeVYuk6Ro9UkSlrpRyly2VgWn8CHBsaV4gyDbfKHTsKKqr1Rmok1YTwcpiita9NKBLvKA==" saltValue="oVcmr9xgoFutG2xWL8SI+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -35331,13 +35331,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -35346,7 +35346,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -35354,7 +35354,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -35362,7 +35362,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -35370,7 +35370,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -35378,7 +35378,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -35386,7 +35386,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -35394,7 +35394,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -35402,7 +35402,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -35410,7 +35410,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -35430,28 +35430,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -35468,7 +35468,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -35485,7 +35485,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -35502,7 +35502,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -35519,7 +35519,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -35536,7 +35536,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -35553,7 +35553,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -35570,7 +35570,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -35587,7 +35587,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -35604,7 +35604,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -35636,13 +35636,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -35652,7 +35652,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -35660,7 +35660,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -35668,7 +35668,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -35676,7 +35676,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -35692,7 +35692,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -35700,7 +35700,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -35708,7 +35708,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -35716,7 +35716,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -35724,7 +35724,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -35732,7 +35732,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lR+bBVM1d1yyKGgEbdv0Ikig7uLARuLdACwyCBK4Hi8X8R+R52MunfKNQEG9xo5o4Uasu6eeG1AeRwjbwVIZDA==" saltValue="j3SNLUEBCvKSSbTrUnzvTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oyFfgAJ90g5/U6+WPDG45buO5bSUBc4U4KK6LEFh0iysxCZDbiR/EGBCOBGP0PB0b3hMOhVtRjlKNCaQvKuWDg==" saltValue="cC/2a65b+iImn1URZGdpGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -35762,30 +35762,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -35811,7 +35811,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -35837,7 +35837,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -35858,7 +35858,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36004,19 +36004,19 @@
         <v>124</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>125</v>
@@ -36031,16 +36031,16 @@
         <v>128</v>
       </c>
       <c r="L13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36159,7 +36159,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nnDPehHtzhk/m8IDFv/M3sYZXGfsLB/e14zm66DQ3SPYZajxPv/8GQFamAm8sbt2yQWqJkHDckBRfv1Ejtu0/g==" saltValue="KUG126rDjuzB0H8tbwtu3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oWGbROWWx8o2edXohoq7rFd0Yvcpzc8V/XGoQHPZgjVOIJxx7OwCq1iYi88jwwj1F0xCfCa3JnTTYhH5pozvdQ==" saltValue="vkfNwicYQczju69bHByCgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36189,22 +36189,22 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -36296,7 +36296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LiATquMjMiYuFl+GtBDvQ48Zp6VFwW7ElMNYtZRko15fuNfMPUJ3XivuLo42e6RTOx/9WYBQKdmu1XQqgIF+Rw==" saltValue="WV0Iq5XedXAZlLwdJaXRGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NUE3g7y9+37lzjFqs6jngaNxzxg+3owk6CE4CsPi+DDLGJ4ZbqTsRYKnkBoIMKbThQ/KVxtIcSOmHxp2Yz1mHA==" saltValue="LY1hsDPu1ii7/STGBa2mSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36413,7 +36413,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -36472,7 +36472,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>144</v>
@@ -36502,7 +36502,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="InuOji0f0/4R5XpRNjaBEDaVznMsphVSDpfa8qJsHJVBGpMHP2Rk2MXUpGXMIehxGEmgnaXafu6iEvm3CN2Dsg==" saltValue="IVC/XZSyYYzwbAXy9HJV9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vbGW/ytlx4nbgCP1CDSrgGDhgSwUXUC9erwkcOvluqSFp8AMDHY/H/WhulGiJujd2GFAcz/tCFXBi2/VLmKlCw==" saltValue="ilyFLCqs9MUqA8Cvv9lskQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36580,7 +36580,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UgkId0YqiIgWaWX6M46dlOcu9QSUhI+SAM/eDtbHH/ouEBrWzdhpj3N3ZFlq2gPPjXh7ben70R6GUgOH1g9IDA==" saltValue="v2k8OT9HZzixWs2VE39+2g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rplDCi7nISd6SgYyv73iNujlSOStehhMkO59vE6uVQoUPumjIC8WkNoSi9PRpcblpQZkCEnj7JVVToYaHrF/cw==" saltValue="vd80DaxU92WhPBfoLeC97g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36626,7 +36626,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -36638,7 +36638,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -36652,7 +36652,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -36666,7 +36666,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -36680,7 +36680,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -36705,7 +36705,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -36719,7 +36719,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -36731,7 +36731,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -36743,7 +36743,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -36755,7 +36755,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -36780,7 +36780,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
@@ -36794,7 +36794,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
@@ -36808,7 +36808,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
@@ -36822,7 +36822,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
@@ -36836,7 +36836,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
@@ -36857,7 +36857,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LxTImLwYP5Aq9Zez8S4fqUhE/P+Qt6M5YFdqpiWV3eUvQJrbHL/ZmNJznxzY4s3Y47u1lYlr6Jwqlm/EGUeR4g==" saltValue="/TDFe6SGxGdqOt66Lcfg8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7o9npcbBO9ve6d8CvTKS1uyDpREFTm5pENcwAp71m42P1sd5tzf+iPcEQ/hk67s5k7HYEazMzzUJfjuEyUbhlA==" saltValue="pyYRNfTFbqMDFbpr8Ocf3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -36921,7 +36921,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="utuwVE73HAXzAGAd0cPBVbr/Q30EaoO0G6/zk7UfGHg/hIoM1D1xrBnIvDjvY14mABOqImBBJ9NtL2tl8XYGhw==" saltValue="m94phsRuhro9hpuPHsqDrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8w2POVSMqXeVcRxLlx3E8yMG3g3wwV1/iRD0iUXljHqpBNwL68D8fkhrP0+OvaIOZNIMWvnCPeD2tkA5CZxljg==" saltValue="szrS7JhYzxJur5FbBo5QKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41957765-8BD8-453D-9C07-22C36836B557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21662E86-8CFF-46AA-8F5D-23BD2B857CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="3555" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
     <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
-    <sheet name="Paquets IYCF" sheetId="55" r:id="rId8"/>
+    <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
@@ -32,13 +32,13 @@
     <sheet name="Programmes - population touchée" sheetId="62" state="hidden" r:id="rId17"/>
     <sheet name="Programme - secteurs à risque" sheetId="63" r:id="rId18"/>
     <sheet name="Population des sect. à risque" sheetId="64" state="hidden" r:id="rId19"/>
-    <sheet name="Rapport des cotes IYCF" sheetId="65" r:id="rId20"/>
+    <sheet name="Rapport des cotes ANJE" sheetId="65" r:id="rId20"/>
     <sheet name="Risques des rés. des naissances" sheetId="66" r:id="rId21"/>
     <sheet name="Risques relatifs" sheetId="67" r:id="rId22"/>
     <sheet name="Rapports des cotes" sheetId="68" r:id="rId23"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" r:id="rId24"/>
     <sheet name="Programmes-anémie" sheetId="70" r:id="rId25"/>
-    <sheet name="Programmes-amaigrissement" sheetId="71" r:id="rId26"/>
+    <sheet name="Programmes-émaciation" sheetId="71" r:id="rId26"/>
     <sheet name="Programmes pour les enfants" sheetId="72" r:id="rId27"/>
     <sheet name="Programmes pour les FE" sheetId="73" r:id="rId28"/>
   </sheets>
@@ -598,9 +598,6 @@
     <t>Sepsis</t>
   </si>
   <si>
-    <t>IPTp</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -613,19 +610,10 @@
     <t>Field</t>
   </si>
   <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
-    <t>IYCF 3</t>
   </si>
   <si>
     <t>Causes</t>
@@ -937,7 +925,7 @@
     <t>État</t>
   </si>
   <si>
-    <t>Retard de croissance (taille-pour-l'âge)</t>
+    <t>Retard de croissance (taille-pour-âge)</t>
   </si>
   <si>
     <t>Normal (score HAZ &gt; -1)</t>
@@ -952,7 +940,7 @@
     <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
-    <t>Amaigrissement (poids-pour-taille)</t>
+    <t>Émaciation (poids-pour-taille)</t>
   </si>
   <si>
     <t>Normal (score WHZ &gt; -1)</t>
@@ -1009,7 +997,7 @@
     <t>Prévalence du retard de croissance (%)</t>
   </si>
   <si>
-    <t>Prévalence de l'amaigrissement (%)</t>
+    <t>Prévalence de l'émaciation (%)</t>
   </si>
   <si>
     <t>Prévalence de l'anémie (%)</t>
@@ -1039,7 +1027,7 @@
     <t>Coût</t>
   </si>
   <si>
-    <t>Épisode d'amaigrissement d'un enfant</t>
+    <t>Épisode d'émaciation d'un enfant</t>
   </si>
   <si>
     <t>Décès d'enfant</t>
@@ -1057,7 +1045,7 @@
     <t>Enfant souffrant d'un retard de croissance qui aura 5 ans (au cours de sa vie)</t>
   </si>
   <si>
-    <t>Paquet IYCF</t>
+    <t>Paquet ANJE</t>
   </si>
   <si>
     <t>Population cible</t>
@@ -1073,6 +1061,15 @@
   </si>
   <si>
     <t>Tous</t>
+  </si>
+  <si>
+    <t>ANJE 1</t>
+  </si>
+  <si>
+    <t>ANJE 2</t>
+  </si>
+  <si>
+    <t>ANJE 3</t>
   </si>
   <si>
     <t>Programme</t>
@@ -1141,10 +1138,13 @@
     <t>SFAF pour les femmes enceintes (établissement de santé)</t>
   </si>
   <si>
+    <t>TPIg</t>
+  </si>
+  <si>
     <t>Enrichissement du sel en fer et en iode</t>
   </si>
   <si>
-    <t>Méthode mère kangourou</t>
+    <t>Soins maternals kangourou</t>
   </si>
   <si>
     <t>Supplémentation en nutriments à base de lipides</t>
@@ -1189,7 +1189,7 @@
     <t>WASH: Eau courante</t>
   </si>
   <si>
-    <t>Zinc pour le traitement + SRO</t>
+    <t>SRO+Zn pour le traitement de la diarrhée</t>
   </si>
   <si>
     <t>Supplémentation en zinc</t>
@@ -1273,10 +1273,10 @@
     <t>Retard de croissance</t>
   </si>
   <si>
-    <t>Prévention de l'amaigrissement</t>
+    <t>Prévention de l'émaciation</t>
   </si>
   <si>
-    <t>Traitement de l'amaigrissement</t>
+    <t>Traitement de l'émaciation</t>
   </si>
   <si>
     <t>Résultats des naissances</t>
@@ -1333,7 +1333,7 @@
     <t>Rapport des cote pour des conditions</t>
   </si>
   <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+    <t>Émaciation (score-HAZ &lt; -2)</t>
   </si>
   <si>
     <t>Risques relatifs des causes du décès néonatales</t>
@@ -1384,7 +1384,7 @@
     <t>Rapports des cotes pour les femmes avec l'anémie maternelle - supérieur</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-âge (retard de croissance)</t>
   </si>
   <si>
     <t>Cause du décès</t>
@@ -1426,10 +1426,10 @@
     <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (émaciation)</t>
   </si>
   <si>
-    <t>Amaigrissement</t>
+    <t>Émaciation</t>
   </si>
   <si>
     <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
@@ -1480,7 +1480,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - inférieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - inférieur</t>
+    <t>Soins maternals kangourou - inférieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - inférieur</t>
@@ -1519,7 +1519,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - supérieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - supérieur</t>
+    <t>Soins maternals kangourou - supérieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - supérieur</t>
@@ -5169,18 +5169,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5188,7 +5188,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5197,7 +5197,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5210,12 +5210,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5274,14 +5274,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5325,12 +5325,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5366,14 +5366,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5415,19 +5415,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5482,13 +5482,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5577,12 +5577,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="66">
         <v>0.02</v>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XUSyGoAeNELk5MyoPB5CcjaFmVcwJqiS9He6oav5pZ3/kCV0mxuSacEUNtB+wcDS6z4wMyPmOKP5tmkXpBT6pw==" saltValue="BYGQ2lRwiYWp887yyAP8cw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HWwpr1tErfGtbhMUxp/QJbKaRUFHKsl/GBOLCyTF7BCKSvjbVKTXxoIh62+2wXcZkbGD0Sw9rbi0p0C9p+WjzQ==" saltValue="UQjhXKJRjQ5yeBIbppiIGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5656,20 +5656,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>203</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
         <v>204</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="81">
         <v>0.9</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SXligFKqddLwosV9JSYbBbP+/Kz8ktcMV2j4/+ortFHnE7VN5/tZL57qUI/WV5KyTnUt3WarIWEI7yhOrOKLnQ==" saltValue="eSGXgT3Oamk55JIoJAwPfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NJ/P+Xp3PaX/TeEtSpkJNlRC0e5DIKScNsVovtYvdpkfwFn5qc7iJzVPGinJsSmLC66ooh+9eb2EGtLdI5ilvw==" saltValue="1y13DJozERGK4d1jtW4rCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6599,7 +6599,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>207</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>190</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>190</v>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XsuvgYUYwSsYQsIatAntL6I2Bhk3/ORee6tBL43lcwog6FA/yZKfzVLhQ7Nfeh1YBP1R37Lkam+snytgxP3o+w==" saltValue="U5cVdilpofn6Vxvh0ZWMbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zvm9EOn9QmL5hS2AhYRLYhyUbWyN2yrqrO4t/Vb2GLEbMsHkrrjTfsiuIqNxuxyQL8k1BO+6j0NfA5CISPMpog==" saltValue="17+s9hh0+P0jOqrnyurldA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6746,17 +6746,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6ccuGR2h5mgKh0bt3/NOd87DKhXHl/OcFEA/ajCIoLqFT/9g/sU2J24J9QdaJ7Tlwy6udWTvEyXBIAlxrgfukQ==" saltValue="7rClVwnINdbYdQCGQ0yQJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t7tE+IbxYnB5t2K20qkkQUU0J017IrGCe8VLFDP1URNC7Ni+wZ2rlppWMfpBgrQbPiAKWOMYcVisXKN47q8Nrg==" saltValue="hY2pFNOU1kFyny7KeaBbjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6844,24 +6844,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O/Ld+tHG1Hud6ry2FraMXczagDAC3+5GlZ6CkeAaHOS3hKyb+GDDHqcqma24F0b7Jkaby1yxSyClhvjAUCKXrw==" saltValue="mxBfxEEkTjJQhWHBcFqniA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yyxpLZU/BzuSodYtsZzubi7qgcj/FZCKL37ugIjHfqFrKMitsx+zJ0/bB4Cn3DmTEv7PBdQ0z2ogljkUBVZFUQ==" saltValue="uasnPjvh19Bk1Kff7hJEDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6969,54 +6969,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -7626,7 +7626,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -7671,7 +7671,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -7720,7 +7720,7 @@
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -7955,10 +7955,10 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="88">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>211</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X4oM0bTHnfLC9M4acKWHie989luWuZGuMi6kDpbpYEQ565PLFVzvHtxlK6kJcft5GPt/Qh9foZLac9iEYslowQ==" saltValue="hmpzSzf3pY7jLUqFmTESQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rfkaqL/mIKDYCebW1WnWa4wV8LCidLY+ujUmG8WQrVvQ389+s33Or+aGdjhZCsa89kHsE2KcK+VJKAUlcDh9MA==" saltValue="UJUCWxSXLxP+XZBfw/ddGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qLfj6frTNqE2pzlboXaacz19SVQpYbPRd7nM3qaKrhoXeC1th0R8SXbj6FwfVvjBlWm+3Sp8OBCx07MJl92+TQ==" saltValue="yqW26VyAcF6C2pfp5b+kZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dRn6cT6bEkZuIyJ7s9xKbsys//+xjuTYSjF9yE2GT58D+pPgSlTHRnW8X9uQ4LSC2sVreug1KzmCrhG4IFDUlg==" saltValue="DCFyUQtUSLt/tpa5tN+XpA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8768,10 +8768,10 @@
         <v>215</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>225</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bIDK0BkdcILPorvdlNtbIuJccuhk5dLpNrvw4J5mNH1rWJQRoThaZ4fVMGw09WSOm9KSRLbge5GHJnSOup0+RA==" saltValue="dxsHKni/ACc1qm9vGVWamA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B1GmHuhWJRXfpfnGqN0NwtvvwH3UoU4JAzGOfk3f7vv8H+8P8UMZ1r1XNsBbydyIThT8CnOq7F8XVIwb6jObDg==" saltValue="ylJFDM791aBgEFQzx01Nag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8979,54 +8979,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -9702,10 +9702,10 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -9750,7 +9750,7 @@
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="91" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -10074,10 +10074,10 @@
     </row>
     <row r="27" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -10167,7 +10167,7 @@
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="133">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>211</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0LmXW3/Ycxve7gUutFI+00vd9IzUwNRVw1b6A/RNksznRfJ0qNDCIGLLx8kb0Ay5CdzAMRyQZjCAGN8yQ/QVGg==" saltValue="hhEfSTD/CYTH9R4mlsQ8xg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Pq1OVb4vwv6f819cDizgtv+6ggwYTQ05j8jPZHN/KlL6Ki9tPSUd37U+kIlgf+UqOZxVByv68NoCMsTssK1OKQ==" saltValue="G7woRSOqDwrt4toACEFmiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10791,13 +10791,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -10806,27 +10806,27 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -10836,14 +10836,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -10852,7 +10852,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10860,12 +10860,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -10877,11 +10877,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -10905,26 +10905,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -10932,18 +10932,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -10951,18 +10951,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -10970,11 +10970,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -10987,11 +10987,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11004,11 +11004,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11021,11 +11021,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11038,11 +11038,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11050,18 +11050,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -11069,28 +11069,28 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -11114,16 +11114,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="133" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" s="133" t="s">
-        <v>9</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -11133,16 +11133,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -11152,16 +11152,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -11180,10 +11180,10 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
@@ -11193,13 +11193,13 @@
         <v>185</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -11223,7 +11223,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -11239,7 +11239,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -11256,7 +11256,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -11293,7 +11293,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -11309,7 +11309,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -11320,11 +11320,11 @@
         <v>192</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -11339,13 +11339,13 @@
         <v>206</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
@@ -11357,13 +11357,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
       <c r="D31" s="133"/>
       <c r="E31" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="133"/>
       <c r="G31" s="133"/>
@@ -11382,10 +11382,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -11401,10 +11401,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -11420,10 +11420,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -11439,10 +11439,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -11458,10 +11458,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -11477,10 +11477,10 @@
       <c r="E37" s="133"/>
       <c r="F37" s="133"/>
       <c r="G37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -11497,7 +11497,7 @@
       <c r="F38" s="133"/>
       <c r="G38" s="133"/>
       <c r="H38" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
@@ -11508,24 +11508,24 @@
         <v>200</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="133"/>
       <c r="D39" s="133"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
       <c r="G39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I39" s="133"/>
       <c r="J39" s="133"/>
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kOk4Ebsut5Nx8d3wQFuuwawaQh6xmcAQp8GEx+sFmLdaDNb5vJbZLuW866AT0yCbQWr8roWPW10NbZs2ytf+UA==" saltValue="teWhM9aWuyVVsK/du0uCdA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bXZdDuHCr25MlooBtXue/6yB9igcOUk+z3ZYLctZfSABBgRF6oVW7AzhIAS9UyQheyUVrlO80je0OhZbY3Q7GQ==" saltValue="iGaLjt74W5FC95ETBhowXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11564,7 +11564,7 @@
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -11573,48 +11573,48 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -11622,28 +11622,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -11651,28 +11651,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -11680,28 +11680,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -11709,28 +11709,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -11738,95 +11738,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11835,19 +11835,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11857,16 +11857,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11876,16 +11876,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11895,11 +11895,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZYyOBtIVyc7aFUY7LLOp+Zk4qUWCXf8NObhcPQZMigiHAGiqWs2GSoSJrIe75sfrg5HntjHR9OhimaYpA3qmww==" saltValue="cYBGXBhZgyIMq+yeYl/kSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QuYx1N8e4bPEhQ24Lm9g7BSNtky/OXRKOLTAv1eoy4cot8NB+o/ul/I0wthMmDYHFue8EF+ZKTBpY/mbLExR2g==" saltValue="brcDpfek1JAFdBp6Vy4usw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11924,31 +11924,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C3h50ZT4dyHvydX+VnLcaYHtK8vx6hDQQMtGqwnT04E69/On1GAljdf1sx6cysIwBnJQ/i2aQTXa1Yh4LvSa+Q==" saltValue="qXxMKSggy1fSZ0VETQC4Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EOW/Pp2o6Q0O2SAeoJnysHaPbuLJwQ/PtoBM1LEnmIX2s65unU9ViPYTJoUwzJMCVSAfpLQoTM6PQxZELE8gkw==" saltValue="V8aHAcyWMkgghWlg06pjpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13023,25 +13023,25 @@
         <v>231</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -13049,10 +13049,10 @@
         <v>232</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -13073,7 +13073,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -13095,7 +13095,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -13141,7 +13141,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -13162,7 +13162,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -13182,10 +13182,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -13206,7 +13206,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -13227,7 +13227,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -13247,10 +13247,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -13271,7 +13271,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -13292,7 +13292,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -13336,7 +13336,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -13357,7 +13357,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -13377,10 +13377,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -13410,10 +13410,10 @@
         <v>233</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -13434,7 +13434,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -13455,7 +13455,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -13475,10 +13475,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -13499,7 +13499,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -13520,7 +13520,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -13540,10 +13540,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -13564,7 +13564,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -13585,7 +13585,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -13605,10 +13605,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -13629,7 +13629,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -13650,7 +13650,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -13670,10 +13670,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -13694,7 +13694,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -13715,7 +13715,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -13735,10 +13735,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -13768,10 +13768,10 @@
         <v>234</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -13792,7 +13792,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -13813,7 +13813,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -13833,10 +13833,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -13857,7 +13857,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -13878,7 +13878,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -13922,7 +13922,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -13943,7 +13943,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -13963,10 +13963,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -13987,7 +13987,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -14008,7 +14008,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -14028,10 +14028,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -14052,7 +14052,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -14073,7 +14073,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -14093,10 +14093,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -14131,25 +14131,25 @@
         <v>231</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H54" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -14157,10 +14157,10 @@
         <v>236</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D55" s="134">
         <f>D2*0.9</f>
@@ -14186,7 +14186,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D56" s="134">
         <f t="shared" ref="D56:H56" si="1">D3*0.9</f>
@@ -14212,7 +14212,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D57" s="134">
         <f t="shared" ref="D57:H57" si="2">D4*0.9</f>
@@ -14237,10 +14237,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D58" s="134">
         <f t="shared" ref="D58:H58" si="3">D5*0.9</f>
@@ -14266,7 +14266,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D59" s="134">
         <f t="shared" ref="D59:H59" si="4">D6*0.9</f>
@@ -14292,7 +14292,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D60" s="134">
         <f t="shared" ref="D60:H60" si="5">D7*0.9</f>
@@ -14317,10 +14317,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D61" s="134">
         <f t="shared" ref="D61:H61" si="6">D8*0.9</f>
@@ -14346,7 +14346,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D62" s="134">
         <f t="shared" ref="D62:H62" si="7">D9*0.9</f>
@@ -14372,7 +14372,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D63" s="134">
         <f t="shared" ref="D63:H63" si="8">D10*0.9</f>
@@ -14397,10 +14397,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D64" s="134">
         <f t="shared" ref="D64:H64" si="9">D11*0.9</f>
@@ -14426,7 +14426,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D65" s="134">
         <f t="shared" ref="D65:H65" si="10">D12*0.9</f>
@@ -14452,7 +14452,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D66" s="134">
         <f t="shared" ref="D66:H66" si="11">D13*0.9</f>
@@ -14477,10 +14477,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D67" s="134">
         <f t="shared" ref="D67:H67" si="12">D14*0.9</f>
@@ -14506,7 +14506,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D68" s="134">
         <f t="shared" ref="D68:H68" si="13">D15*0.9</f>
@@ -14532,7 +14532,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D69" s="134">
         <f t="shared" ref="D69:H69" si="14">D16*0.9</f>
@@ -14557,10 +14557,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D70" s="134">
         <f t="shared" ref="D70:H70" si="15">D17*0.9</f>
@@ -14595,10 +14595,10 @@
         <v>237</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D72" s="134">
         <f>D19*0.9</f>
@@ -14624,7 +14624,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D73" s="134">
         <f t="shared" ref="D73:D87" si="17">D20*0.9</f>
@@ -14650,7 +14650,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D74" s="134">
         <f t="shared" si="17"/>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D75" s="134">
         <f t="shared" si="17"/>
@@ -14704,7 +14704,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D76" s="134">
         <f t="shared" si="17"/>
@@ -14730,7 +14730,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D77" s="134">
         <f t="shared" si="17"/>
@@ -14755,10 +14755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D78" s="134">
         <f t="shared" si="17"/>
@@ -14784,7 +14784,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" s="134">
         <f t="shared" si="17"/>
@@ -14810,7 +14810,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D80" s="134">
         <f t="shared" si="17"/>
@@ -14835,10 +14835,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D81" s="134">
         <f t="shared" si="17"/>
@@ -14864,7 +14864,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D82" s="134">
         <f t="shared" si="17"/>
@@ -14890,7 +14890,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D83" s="134">
         <f t="shared" si="17"/>
@@ -14915,10 +14915,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D84" s="134">
         <f t="shared" si="17"/>
@@ -14944,7 +14944,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D85" s="134">
         <f t="shared" si="17"/>
@@ -14970,7 +14970,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D86" s="134">
         <f t="shared" si="17"/>
@@ -14995,10 +14995,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D87" s="134">
         <f t="shared" si="17"/>
@@ -15033,10 +15033,10 @@
         <v>238</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D89" s="134">
         <f>D36*0.9</f>
@@ -15062,7 +15062,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D90" s="134">
         <f t="shared" ref="D90:D104" si="34">D37*0.9</f>
@@ -15088,7 +15088,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D91" s="134">
         <f t="shared" si="34"/>
@@ -15113,10 +15113,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D92" s="134">
         <f t="shared" si="34"/>
@@ -15142,7 +15142,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D93" s="134">
         <f t="shared" si="34"/>
@@ -15168,7 +15168,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D94" s="134">
         <f t="shared" si="34"/>
@@ -15193,10 +15193,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D95" s="134">
         <f t="shared" si="34"/>
@@ -15222,7 +15222,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D96" s="134">
         <f t="shared" si="34"/>
@@ -15248,7 +15248,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D97" s="134">
         <f t="shared" si="34"/>
@@ -15273,10 +15273,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D98" s="134">
         <f t="shared" si="34"/>
@@ -15302,7 +15302,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" s="148"/>
       <c r="C99" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D99" s="134">
         <f t="shared" si="34"/>
@@ -15328,7 +15328,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="148"/>
       <c r="C100" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D100" s="134">
         <f t="shared" si="34"/>
@@ -15353,10 +15353,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D101" s="134">
         <f t="shared" si="34"/>
@@ -15382,7 +15382,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" s="148"/>
       <c r="C102" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D102" s="134">
         <f t="shared" si="34"/>
@@ -15408,7 +15408,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" s="148"/>
       <c r="C103" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D103" s="134">
         <f t="shared" si="34"/>
@@ -15433,10 +15433,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D104" s="134">
         <f t="shared" si="34"/>
@@ -15476,25 +15476,25 @@
         <v>231</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F107" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G107" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H107" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15502,10 +15502,10 @@
         <v>240</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D108" s="134">
         <f>D2*1.05</f>
@@ -15531,7 +15531,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" s="148"/>
       <c r="C109" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D109" s="134">
         <f t="shared" ref="D109:D112" si="51">D3*1.05</f>
@@ -15557,7 +15557,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="148"/>
       <c r="C110" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D110" s="134">
         <f t="shared" si="51"/>
@@ -15582,10 +15582,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D111" s="134">
         <f t="shared" si="51"/>
@@ -15611,7 +15611,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" s="148"/>
       <c r="C112" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D112" s="134">
         <f t="shared" si="51"/>
@@ -15637,7 +15637,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" s="148"/>
       <c r="C113" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D113" s="134">
         <f t="shared" ref="D113:H113" si="56">D7*1.05</f>
@@ -15662,10 +15662,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D114" s="134">
         <f t="shared" ref="D114:H114" si="57">D8*1.05</f>
@@ -15691,7 +15691,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" s="148"/>
       <c r="C115" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D115" s="134">
         <f t="shared" ref="D115:H115" si="58">D9*1.05</f>
@@ -15717,7 +15717,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" s="148"/>
       <c r="C116" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D116" s="134">
         <f t="shared" ref="D116:H116" si="59">D10*1.05</f>
@@ -15742,10 +15742,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D117" s="134">
         <f t="shared" ref="D117:H117" si="60">D11*1.05</f>
@@ -15771,7 +15771,7 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B118" s="148"/>
       <c r="C118" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D118" s="134">
         <f t="shared" ref="D118:H118" si="61">D12*1.05</f>
@@ -15797,7 +15797,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" s="148"/>
       <c r="C119" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D119" s="134">
         <f t="shared" ref="D119:H119" si="62">D13*1.05</f>
@@ -15822,10 +15822,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D120" s="134">
         <f t="shared" ref="D120:H120" si="63">D14*1.05</f>
@@ -15851,7 +15851,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="148"/>
       <c r="C121" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D121" s="134">
         <f t="shared" ref="D121:H121" si="64">D15*1.05</f>
@@ -15877,7 +15877,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" s="148"/>
       <c r="C122" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D122" s="134">
         <f t="shared" ref="D122:H122" si="65">D16*1.05</f>
@@ -15902,10 +15902,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D123" s="134">
         <f t="shared" ref="D123:H123" si="66">D17*1.05</f>
@@ -15940,10 +15940,10 @@
         <v>241</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D125" s="134">
         <f>D19*1.05</f>
@@ -15969,7 +15969,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="148"/>
       <c r="C126" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D126" s="134">
         <f t="shared" ref="D126:H126" si="68">D20*1.05</f>
@@ -15995,7 +15995,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="148"/>
       <c r="C127" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D127" s="134">
         <f t="shared" ref="D127:H127" si="69">D21*1.05</f>
@@ -16020,10 +16020,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D128" s="134">
         <f t="shared" ref="D128:H128" si="70">D22*1.05</f>
@@ -16049,7 +16049,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="148"/>
       <c r="C129" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D129" s="134">
         <f t="shared" ref="D129:H129" si="71">D23*1.05</f>
@@ -16075,7 +16075,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" s="148"/>
       <c r="C130" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D130" s="134">
         <f t="shared" ref="D130:H130" si="72">D24*1.05</f>
@@ -16100,10 +16100,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D131" s="134">
         <f t="shared" ref="D131:H131" si="73">D25*1.05</f>
@@ -16129,7 +16129,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" s="148"/>
       <c r="C132" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D132" s="134">
         <f t="shared" ref="D132:H132" si="74">D26*1.05</f>
@@ -16155,7 +16155,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="148"/>
       <c r="C133" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D133" s="134">
         <f t="shared" ref="D133:H133" si="75">D27*1.05</f>
@@ -16180,10 +16180,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D134" s="134">
         <f t="shared" ref="D134:H134" si="76">D28*1.05</f>
@@ -16209,7 +16209,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" s="148"/>
       <c r="C135" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D135" s="134">
         <f t="shared" ref="D135:H135" si="77">D29*1.05</f>
@@ -16235,7 +16235,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" s="148"/>
       <c r="C136" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D136" s="134">
         <f t="shared" ref="D136:H136" si="78">D30*1.05</f>
@@ -16260,10 +16260,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D137" s="134">
         <f t="shared" ref="D137:H137" si="79">D31*1.05</f>
@@ -16289,7 +16289,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" s="148"/>
       <c r="C138" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D138" s="134">
         <f t="shared" ref="D138:H138" si="80">D32*1.05</f>
@@ -16315,7 +16315,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" s="148"/>
       <c r="C139" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D139" s="134">
         <f t="shared" ref="D139:H139" si="81">D33*1.05</f>
@@ -16340,10 +16340,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B140" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D140" s="134">
         <f t="shared" ref="D140:H140" si="82">D34*1.05</f>
@@ -16378,10 +16378,10 @@
         <v>242</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D142" s="134">
         <f>D36*1.05</f>
@@ -16407,7 +16407,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="148"/>
       <c r="C143" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D143" s="134">
         <f t="shared" ref="D143:H143" si="84">D37*1.05</f>
@@ -16433,7 +16433,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="148"/>
       <c r="C144" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D144" s="134">
         <f t="shared" ref="D144:H144" si="85">D38*1.05</f>
@@ -16458,10 +16458,10 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D145" s="134">
         <f t="shared" ref="D145:H145" si="86">D39*1.05</f>
@@ -16487,7 +16487,7 @@
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="148"/>
       <c r="C146" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D146" s="134">
         <f t="shared" ref="D146:H146" si="87">D40*1.05</f>
@@ -16513,7 +16513,7 @@
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="148"/>
       <c r="C147" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D147" s="134">
         <f t="shared" ref="D147:H147" si="88">D41*1.05</f>
@@ -16538,10 +16538,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D148" s="134">
         <f t="shared" ref="D148:H148" si="89">D42*1.05</f>
@@ -16567,7 +16567,7 @@
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="148"/>
       <c r="C149" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D149" s="134">
         <f t="shared" ref="D149:H149" si="90">D43*1.05</f>
@@ -16593,7 +16593,7 @@
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="148"/>
       <c r="C150" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D150" s="134">
         <f t="shared" ref="D150:H150" si="91">D44*1.05</f>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D151" s="134">
         <f t="shared" ref="D151:H151" si="92">D45*1.05</f>
@@ -16647,7 +16647,7 @@
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="148"/>
       <c r="C152" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D152" s="134">
         <f t="shared" ref="D152:H152" si="93">D46*1.05</f>
@@ -16673,7 +16673,7 @@
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="148"/>
       <c r="C153" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D153" s="134">
         <f t="shared" ref="D153:H153" si="94">D47*1.05</f>
@@ -16698,10 +16698,10 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D154" s="134">
         <f t="shared" ref="D154:H154" si="95">D48*1.05</f>
@@ -16727,7 +16727,7 @@
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="148"/>
       <c r="C155" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D155" s="134">
         <f t="shared" ref="D155:H155" si="96">D49*1.05</f>
@@ -16753,7 +16753,7 @@
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="148"/>
       <c r="C156" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D156" s="134">
         <f t="shared" ref="D156:H156" si="97">D50*1.05</f>
@@ -16778,10 +16778,10 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D157" s="134">
         <f t="shared" ref="D157:H157" si="98">D51*1.05</f>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DNdIpBlsSkswe8VvxihLlUvEKnFFF73bMRxX2X27WCFWer9mo+oz8jLZogmyXYnvMaxwHjAqE8ut1MKTLsgCrQ==" saltValue="482Yk5hm1gLH61kVvZDrpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ETKK1wjwBH3VOzaESnFAvYMCXE12WTo61JPbQaI972RNVuwiSlKZFgQYmsXmjJnKrT0BF0x+8+zx8wFPiMFeew==" saltValue="oX3ZSZMHb6p2ODwtLI5+3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16890,16 +16890,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16914,7 +16914,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16931,7 +16931,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -17051,7 +17051,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -17069,7 +17069,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17266,16 +17266,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17290,7 +17290,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17332,7 +17332,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17353,7 +17353,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17522,7 +17522,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17564,7 +17564,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17648,7 +17648,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17685,16 +17685,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17709,7 +17709,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17730,7 +17730,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17920,7 +17920,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -18004,7 +18004,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -18025,7 +18025,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -18046,7 +18046,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YFjlr3ehMcM5j7FJCsvwr+pMSGbw7BQHD6woat0uUBtT0CxqLnzHAdER9UMbQwARpRQJpDZoaZHb0B/fVDbngA==" saltValue="j20YB31nLfRrDJDEkVll7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SzvXPhTZxyYOrymwdFru6ahQltJrpk3dOa8sU0ay4zNKP1QjDdn2rihnHAR46FLz89xwYVf20cZ9tmu9YU9A3g==" saltValue="PPNf96oJ2iNyEDoGj70hLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18134,19 +18134,19 @@
         <v>266</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H2" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -18160,10 +18160,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -18275,10 +18275,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -18390,10 +18390,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -18505,10 +18505,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -18620,10 +18620,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -18735,10 +18735,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -18864,19 +18864,19 @@
         <v>270</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H29" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18890,10 +18890,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -19005,10 +19005,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -19120,10 +19120,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -19235,10 +19235,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -19350,10 +19350,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -19465,10 +19465,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B56" s="94" t="s">
         <v>265</v>
@@ -19598,16 +19598,16 @@
         <v>272</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G56" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -19618,7 +19618,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>273</v>
@@ -19665,7 +19665,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>273</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>273</v>
@@ -19768,7 +19768,7 @@
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B65" s="94" t="s">
         <v>265</v>
@@ -19777,19 +19777,19 @@
         <v>276</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E65" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F65" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H65" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19803,10 +19803,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -19834,7 +19834,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -19862,7 +19862,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -19890,7 +19890,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -19918,10 +19918,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -20005,7 +20005,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -20033,10 +20033,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -20064,7 +20064,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -20092,7 +20092,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -20148,10 +20148,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -20207,7 +20207,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -20263,10 +20263,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -20322,7 +20322,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -20350,7 +20350,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -20378,10 +20378,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -20409,7 +20409,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -20493,10 +20493,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -20552,7 +20552,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -20608,10 +20608,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -20639,7 +20639,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -20695,7 +20695,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -20723,10 +20723,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -20754,7 +20754,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -20782,7 +20782,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -20843,28 +20843,28 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C104" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E104" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F104" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H104" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20879,7 +20879,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -20907,7 +20907,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -20935,7 +20935,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -21018,28 +21018,28 @@
         <v>266</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E112" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F112" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G112" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H112" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="139">
         <f>D3*0.8</f>
@@ -21139,10 +21139,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="139">
         <f t="shared" ref="D117:H117" si="4">D7*0.8</f>
@@ -21242,10 +21242,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="139">
         <f t="shared" ref="D121:H121" si="8">D11*0.8</f>
@@ -21345,10 +21345,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="139">
         <f t="shared" ref="D125:H125" si="12">D15*0.8</f>
@@ -21448,10 +21448,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="139">
         <f t="shared" ref="D129:H129" si="16">D19*0.8</f>
@@ -21551,10 +21551,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="139">
         <f t="shared" ref="D133:H133" si="20">D23*0.8</f>
@@ -21675,28 +21675,28 @@
         <v>270</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E139" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F139" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G139" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H139" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="139">
         <f>D30*0.7</f>
@@ -21796,10 +21796,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="139">
         <f t="shared" ref="D144:H144" si="28">D34*0.7</f>
@@ -21899,10 +21899,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="139">
         <f t="shared" ref="D148:H148" si="32">D38*0.7</f>
@@ -22002,10 +22002,10 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="139">
         <f t="shared" ref="D152:H152" si="36">D42*0.7</f>
@@ -22105,10 +22105,10 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="139">
         <f t="shared" ref="D156:H156" si="40">D46*0.7</f>
@@ -22208,10 +22208,10 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C160" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="139">
         <f t="shared" ref="D160:H160" si="44">D50*0.7</f>
@@ -22327,7 +22327,7 @@
     </row>
     <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B166" s="94" t="s">
         <v>265</v>
@@ -22336,23 +22336,23 @@
         <v>272</v>
       </c>
       <c r="D166" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E166" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F166" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G166" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H166" s="120"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>273</v>
@@ -22399,7 +22399,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>273</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>273</v>
@@ -22509,7 +22509,7 @@
     </row>
     <row r="175" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B175" s="94" t="s">
         <v>265</v>
@@ -22518,28 +22518,28 @@
         <v>276</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E175" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F175" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G175" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H175" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D176" s="139">
         <f>D66*0.7</f>
@@ -22563,7 +22563,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C177" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D177" s="139">
         <f t="shared" ref="D177:G177" si="55">D67*0.7</f>
@@ -22587,7 +22587,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C178" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D178" s="139">
         <f t="shared" ref="D178:G178" si="56">D68*0.7</f>
@@ -22611,7 +22611,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C179" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D179" s="139">
         <f t="shared" ref="D179:G179" si="57">D69*0.7</f>
@@ -22635,10 +22635,10 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D180" s="139">
         <f t="shared" ref="D180:G180" si="58">D70*0.7</f>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C181" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D181" s="139">
         <f t="shared" ref="D181:G181" si="59">D71*0.7</f>
@@ -22686,7 +22686,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C182" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D182" s="139">
         <f t="shared" ref="D182:G182" si="60">D72*0.7</f>
@@ -22710,7 +22710,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C183" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D183" s="139">
         <f t="shared" ref="D183:G183" si="61">D73*0.7</f>
@@ -22734,10 +22734,10 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D184" s="139">
         <f t="shared" ref="D184:G184" si="62">D74*0.7</f>
@@ -22761,7 +22761,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C185" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D185" s="139">
         <f t="shared" ref="D185:G185" si="63">D75*0.7</f>
@@ -22785,7 +22785,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C186" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D186" s="139">
         <f t="shared" ref="D186:G186" si="64">D76*0.7</f>
@@ -22809,7 +22809,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C187" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D187" s="139">
         <f t="shared" ref="D187:G187" si="65">D77*0.7</f>
@@ -22833,10 +22833,10 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D188" s="139">
         <f t="shared" ref="D188:G188" si="66">D78*0.7</f>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C189" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D189" s="139">
         <f t="shared" ref="D189:G189" si="67">D79*0.7</f>
@@ -22884,7 +22884,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C190" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D190" s="139">
         <f t="shared" ref="D190:G190" si="68">D80*0.7</f>
@@ -22908,7 +22908,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C191" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D191" s="139">
         <f t="shared" ref="D191:G191" si="69">D81*0.7</f>
@@ -22932,10 +22932,10 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D192" s="139">
         <f t="shared" ref="D192:G192" si="70">D82*0.7</f>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C193" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D193" s="139">
         <f t="shared" ref="D193:G193" si="71">D83*0.7</f>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C194" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D194" s="139">
         <f t="shared" ref="D194:G194" si="72">D84*0.7</f>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C195" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D195" s="139">
         <f t="shared" ref="D195:G195" si="73">D85*0.7</f>
@@ -23031,10 +23031,10 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D196" s="139">
         <f t="shared" ref="D196:G196" si="74">D86*0.7</f>
@@ -23058,7 +23058,7 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C197" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D197" s="139">
         <f t="shared" ref="D197:G197" si="75">D87*0.7</f>
@@ -23082,7 +23082,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C198" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D198" s="139">
         <f t="shared" ref="D198:G198" si="76">D88*0.7</f>
@@ -23106,7 +23106,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C199" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D199" s="139">
         <f t="shared" ref="D199:G199" si="77">D89*0.7</f>
@@ -23130,10 +23130,10 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D200" s="139">
         <f t="shared" ref="D200:G200" si="78">D90*0.7</f>
@@ -23157,7 +23157,7 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C201" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D201" s="139">
         <f t="shared" ref="D201:G201" si="79">D91*0.7</f>
@@ -23181,7 +23181,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C202" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D202" s="139">
         <f t="shared" ref="D202:G202" si="80">D92*0.7</f>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C203" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D203" s="139">
         <f t="shared" ref="D203:G203" si="81">D93*0.7</f>
@@ -23229,10 +23229,10 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D204" s="139">
         <f t="shared" ref="D204:G204" si="82">D94*0.7</f>
@@ -23256,7 +23256,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C205" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D205" s="139">
         <f t="shared" ref="D205:G205" si="83">D95*0.7</f>
@@ -23280,7 +23280,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C206" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D206" s="139">
         <f t="shared" ref="D206:G206" si="84">D96*0.7</f>
@@ -23304,7 +23304,7 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C207" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D207" s="139">
         <f t="shared" ref="D207:G207" si="85">D97*0.7</f>
@@ -23328,10 +23328,10 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D208" s="139">
         <f t="shared" ref="D208:G208" si="86">D98*0.7</f>
@@ -23355,7 +23355,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C209" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D209" s="139">
         <f t="shared" ref="D209:G209" si="87">D99*0.7</f>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C210" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D210" s="139">
         <f t="shared" ref="D210:G210" si="88">D100*0.7</f>
@@ -23403,7 +23403,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C211" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D211" s="139">
         <f t="shared" ref="D211:G211" si="89">D101*0.7</f>
@@ -23439,35 +23439,35 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B214" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C214" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E214" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F214" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G214" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H214" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D215" s="139">
         <f>D105*0.7</f>
@@ -23491,7 +23491,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C216" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D216" s="139">
         <f t="shared" ref="D216:G216" si="91">D106*0.7</f>
@@ -23515,7 +23515,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C217" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D217" s="139">
         <f t="shared" ref="D217:G217" si="92">D107*0.7</f>
@@ -23539,7 +23539,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D218" s="139">
         <f t="shared" ref="D218:G218" si="93">D108*0.7</f>
@@ -23591,29 +23591,29 @@
         <v>266</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E222" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F222" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G222" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H222" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D223" s="139">
         <f>D3*1.2</f>
@@ -23717,10 +23717,10 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D227" s="139">
         <f t="shared" ref="D227:H227" si="98">D7*1.2</f>
@@ -23824,10 +23824,10 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D231" s="139">
         <f t="shared" ref="D231:H231" si="102">D11*1.2</f>
@@ -23931,10 +23931,10 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D235" s="139">
         <f t="shared" ref="D235:H235" si="106">D15*1.2</f>
@@ -24038,10 +24038,10 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D239" s="139">
         <f t="shared" ref="D239:H239" si="110">D19*1.2</f>
@@ -24145,10 +24145,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C243" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D243" s="139">
         <f t="shared" ref="D243:H243" si="114">D23*1.2</f>
@@ -24274,29 +24274,29 @@
         <v>270</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E249" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F249" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G249" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H249" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D250" s="139">
         <f>D30*1.2</f>
@@ -24400,10 +24400,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D254" s="139">
         <f t="shared" ref="D254:H254" si="122">D34*1.2</f>
@@ -24507,10 +24507,10 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D258" s="139">
         <f t="shared" ref="D258:H258" si="126">D38*1.2</f>
@@ -24614,10 +24614,10 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D262" s="139">
         <f t="shared" ref="D262:H262" si="130">D42*1.2</f>
@@ -24721,10 +24721,10 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C266" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D266" s="139">
         <f t="shared" ref="D266:H266" si="134">D46*1.2</f>
@@ -24828,10 +24828,10 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C270" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D270" s="139">
         <f t="shared" ref="D270:H270" si="138">D50*1.2</f>
@@ -24952,7 +24952,7 @@
     </row>
     <row r="276" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B276" s="94" t="s">
         <v>265</v>
@@ -24961,16 +24961,16 @@
         <v>272</v>
       </c>
       <c r="D276" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E276" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F276" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G276" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H276" s="120"/>
       <c r="I276" s="36"/>
@@ -24978,7 +24978,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>273</v>
@@ -25025,7 +25025,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>273</v>
@@ -25072,7 +25072,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>273</v>
@@ -25136,7 +25136,7 @@
     </row>
     <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B285" s="94" t="s">
         <v>265</v>
@@ -25145,29 +25145,29 @@
         <v>276</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E285" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F285" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G285" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H285" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D286" s="139">
         <f>D66*1.2</f>
@@ -25192,7 +25192,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C287" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D287" s="139">
         <f t="shared" ref="D287:G287" si="149">D67*1.2</f>
@@ -25217,7 +25217,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C288" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D288" s="139">
         <f t="shared" ref="D288:G288" si="150">D68*1.2</f>
@@ -25242,7 +25242,7 @@
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C289" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D289" s="139">
         <f t="shared" ref="D289:G289" si="151">D69*1.2</f>
@@ -25267,10 +25267,10 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D290" s="139">
         <f t="shared" ref="D290:G290" si="152">D70*1.2</f>
@@ -25295,7 +25295,7 @@
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C291" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D291" s="139">
         <f t="shared" ref="D291:G291" si="153">D71*1.2</f>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C292" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D292" s="139">
         <f t="shared" ref="D292:G292" si="154">D72*1.2</f>
@@ -25345,7 +25345,7 @@
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C293" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D293" s="139">
         <f t="shared" ref="D293:G293" si="155">D73*1.2</f>
@@ -25370,10 +25370,10 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D294" s="139">
         <f t="shared" ref="D294:G294" si="156">D74*1.2</f>
@@ -25398,7 +25398,7 @@
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C295" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D295" s="139">
         <f t="shared" ref="D295:G295" si="157">D75*1.2</f>
@@ -25423,7 +25423,7 @@
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C296" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D296" s="139">
         <f t="shared" ref="D296:G296" si="158">D76*1.2</f>
@@ -25448,7 +25448,7 @@
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C297" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D297" s="139">
         <f t="shared" ref="D297:G297" si="159">D77*1.2</f>
@@ -25473,10 +25473,10 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D298" s="139">
         <f t="shared" ref="D298:G298" si="160">D78*1.2</f>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C299" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D299" s="139">
         <f t="shared" ref="D299:G299" si="161">D79*1.2</f>
@@ -25526,7 +25526,7 @@
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C300" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D300" s="139">
         <f t="shared" ref="D300:G300" si="162">D80*1.2</f>
@@ -25551,7 +25551,7 @@
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C301" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D301" s="139">
         <f t="shared" ref="D301:G301" si="163">D81*1.2</f>
@@ -25576,10 +25576,10 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C302" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D302" s="139">
         <f t="shared" ref="D302:G302" si="164">D82*1.2</f>
@@ -25604,7 +25604,7 @@
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C303" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D303" s="139">
         <f t="shared" ref="D303:G303" si="165">D83*1.2</f>
@@ -25629,7 +25629,7 @@
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C304" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D304" s="139">
         <f t="shared" ref="D304:G304" si="166">D84*1.2</f>
@@ -25654,7 +25654,7 @@
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C305" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D305" s="139">
         <f t="shared" ref="D305:G305" si="167">D85*1.2</f>
@@ -25679,10 +25679,10 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D306" s="139">
         <f t="shared" ref="D306:G306" si="168">D86*1.2</f>
@@ -25707,7 +25707,7 @@
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C307" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D307" s="139">
         <f t="shared" ref="D307:G307" si="169">D87*1.2</f>
@@ -25732,7 +25732,7 @@
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C308" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D308" s="139">
         <f t="shared" ref="D308:G308" si="170">D88*1.2</f>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C309" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D309" s="139">
         <f t="shared" ref="D309:G309" si="171">D89*1.2</f>
@@ -25782,10 +25782,10 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D310" s="139">
         <f t="shared" ref="D310:G310" si="172">D90*1.2</f>
@@ -25810,7 +25810,7 @@
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C311" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D311" s="139">
         <f t="shared" ref="D311:G311" si="173">D91*1.2</f>
@@ -25835,7 +25835,7 @@
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C312" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D312" s="139">
         <f t="shared" ref="D312:G312" si="174">D92*1.2</f>
@@ -25860,7 +25860,7 @@
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C313" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D313" s="139">
         <f t="shared" ref="D313:G313" si="175">D93*1.2</f>
@@ -25885,10 +25885,10 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D314" s="139">
         <f t="shared" ref="D314:G314" si="176">D94*1.2</f>
@@ -25913,7 +25913,7 @@
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C315" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D315" s="139">
         <f t="shared" ref="D315:G315" si="177">D95*1.2</f>
@@ -25938,7 +25938,7 @@
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C316" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D316" s="139">
         <f t="shared" ref="D316:G316" si="178">D96*1.2</f>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C317" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D317" s="139">
         <f t="shared" ref="D317:G317" si="179">D97*1.2</f>
@@ -25988,10 +25988,10 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D318" s="139">
         <f t="shared" ref="D318:G318" si="180">D98*1.2</f>
@@ -26016,7 +26016,7 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C319" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D319" s="139">
         <f t="shared" ref="D319:G319" si="181">D99*1.2</f>
@@ -26041,7 +26041,7 @@
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C320" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D320" s="139">
         <f t="shared" ref="D320:G320" si="182">D100*1.2</f>
@@ -26066,7 +26066,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C321" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D321" s="139">
         <f t="shared" ref="D321:G321" si="183">D101*1.2</f>
@@ -26104,28 +26104,28 @@
     </row>
     <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B324" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C324" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E324" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F324" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G324" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H324" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26133,7 +26133,7 @@
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D325" s="139">
         <f>D105*1.2</f>
@@ -26158,7 +26158,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C326" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D326" s="139">
         <f t="shared" ref="D326:G326" si="185">D106*1.2</f>
@@ -26183,7 +26183,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C327" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D327" s="139">
         <f t="shared" ref="D327:G327" si="186">D107*1.2</f>
@@ -26208,7 +26208,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C328" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D328" s="139">
         <f t="shared" ref="D328:G328" si="187">D108*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nJGVjqi5ohmv6lAtDPP54U3ms14xFCuWYt0Tw2rtFrKnTi9inJlqeYGLZCgT/Q4yyUEhSvrsMBUlEmsWqefMVg==" saltValue="OhMhVr32theR+rWa1IHGqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ldt/R4NxsuORLr+2nd+5oAaR1z17bTAn9LYQ020W9p1sWG6vrWNQFS5Q8/Ypk9xMreExshxOkK6IZUYU/HSrlA==" saltValue="4JmexPWmTHbbFr/P6r5b5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26275,19 +26275,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26295,7 +26295,7 @@
         <v>280</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -26505,7 +26505,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17" s="113" t="s">
         <v>285</v>
@@ -26534,21 +26534,21 @@
     </row>
     <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="136">
         <v>1.52</v>
@@ -26585,19 +26585,19 @@
       </c>
       <c r="B25" s="119"/>
       <c r="C25" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -26605,7 +26605,7 @@
         <v>289</v>
       </c>
       <c r="C26" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="136">
         <f t="shared" ref="D26:G27" si="0">D3*0.9</f>
@@ -26868,7 +26868,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B40" s="113" t="s">
         <v>299</v>
@@ -26909,16 +26909,16 @@
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
       <c r="C43" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G43" s="104"/>
     </row>
@@ -26965,19 +26965,19 @@
       </c>
       <c r="B48" s="119"/>
       <c r="C48" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -26985,7 +26985,7 @@
         <v>302</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D49" s="136">
         <f t="shared" ref="D49:G50" si="9">D3*1.05</f>
@@ -27248,7 +27248,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B63" s="113" t="s">
         <v>312</v>
@@ -27289,16 +27289,16 @@
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
       <c r="C66" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E66" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F66" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G66" s="104"/>
     </row>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GeF1JdW4lLAWsckfDZN3nu2SqcETjJINtiyPyDglBDDMLtNC4CNQFuNINxtPBvpwqPimzZv85k/xRhE7PBik4g==" saltValue="Mc7jT6Puh5e6qZFsTqdgyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W6ytpVB8aYMllk/Nwwo/mlUyMRah7xrHOpkOBee4VjLx0R876vX0+sFbX4w6GpwNc7bwf65IjOBK6q+OyZbB1w==" saltValue="vXdz5dqyZBoiBkSoKxCGmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27356,25 +27356,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>317</v>
@@ -27412,7 +27412,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>317</v>
@@ -27450,7 +27450,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>317</v>
@@ -27488,7 +27488,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B8" s="90" t="s">
         <v>317</v>
@@ -27607,25 +27607,25 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="90" t="s">
         <v>317</v>
@@ -27671,7 +27671,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="90" t="s">
         <v>317</v>
@@ -27717,7 +27717,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="90" t="s">
         <v>317</v>
@@ -27763,7 +27763,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B23" s="90" t="s">
         <v>317</v>
@@ -27906,25 +27906,25 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="90" t="s">
         <v>317</v>
@@ -27970,7 +27970,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="90" t="s">
         <v>317</v>
@@ -28016,7 +28016,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="90" t="s">
         <v>317</v>
@@ -28062,7 +28062,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B38" s="90" t="s">
         <v>317</v>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K14zsXaJ05CyUT6ixVFbV9ygy4g26bl463kj6tc9ha0m6+xreFIdD/MMFWlbeG332zz5kgLjB4z2PCb0EQnCFA==" saltValue="04TKR44uhBXtc2f4gy6VDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zt0wBz75p5WpqjDIXYlhJdkeMnsAQJC2WJ+0c1IGJbloTe72uol1chigwQwMTjwuM2Q+/gZ21fi2mt7FxarEqA==" saltValue="xr4CJnYFMgOypVq6LphFww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28231,43 +28231,43 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -28277,7 +28277,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -28321,7 +28321,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -28409,7 +28409,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -28453,7 +28453,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -28497,7 +28497,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -28541,7 +28541,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -28585,7 +28585,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -28899,7 +28899,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -28943,7 +28943,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -29038,43 +29038,43 @@
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G24" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L24" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M24" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N24" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O24" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -29084,7 +29084,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="136">
         <f>C3*0.9</f>
@@ -29141,7 +29141,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="136">
         <f t="shared" ref="C27:O27" si="1">C4*0.9</f>
@@ -29198,7 +29198,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="136">
         <f t="shared" ref="C28:O28" si="2">C5*0.9</f>
@@ -29255,7 +29255,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="136">
         <f t="shared" ref="C29:O29" si="3">C6*0.9</f>
@@ -29312,7 +29312,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="136">
         <f t="shared" ref="C30:O30" si="4">C7*0.9</f>
@@ -29369,7 +29369,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="136">
         <f t="shared" ref="C31:O31" si="5">C8*0.9</f>
@@ -29426,7 +29426,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="136">
         <f t="shared" ref="C32:O32" si="6">C9*0.9</f>
@@ -29483,7 +29483,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C33" s="136">
         <f t="shared" ref="C33:O33" si="7">C10*0.9</f>
@@ -29831,7 +29831,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="136">
         <f>C18*0.9</f>
@@ -29888,7 +29888,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="136">
         <f t="shared" ref="C42:O42" si="13">C19*0.9</f>
@@ -29945,7 +29945,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="136">
         <f t="shared" ref="C43:O43" si="14">C20*0.9</f>
@@ -30066,43 +30066,43 @@
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D47" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E47" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F47" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G47" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H47" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I47" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J47" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K47" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L47" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M47" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N47" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O47" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -30112,7 +30112,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" s="136">
         <f>C3*1.05</f>
@@ -30169,7 +30169,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" s="136">
         <f t="shared" ref="C50:O50" si="17">C4*1.05</f>
@@ -30226,7 +30226,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" s="136">
         <f t="shared" ref="C51:O51" si="18">C5*1.05</f>
@@ -30283,7 +30283,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="136">
         <f t="shared" ref="C52:O52" si="19">C6*1.05</f>
@@ -30340,7 +30340,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="136">
         <f t="shared" ref="C53:O53" si="20">C7*1.05</f>
@@ -30397,7 +30397,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B54" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="136">
         <f t="shared" ref="C54:O54" si="21">C8*1.05</f>
@@ -30454,7 +30454,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="136">
         <f t="shared" ref="C55:O55" si="22">C9*1.05</f>
@@ -30511,7 +30511,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C56" s="136">
         <f t="shared" ref="C56:O56" si="23">C10*1.05</f>
@@ -30859,7 +30859,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B64" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="136">
         <f>C18*1.05</f>
@@ -30916,7 +30916,7 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="136">
         <f t="shared" ref="C65:O65" si="29">C19*1.05</f>
@@ -30973,7 +30973,7 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C66" s="136">
         <f t="shared" ref="C66:O66" si="30">C20*1.05</f>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iASxdc1WKKN3w3G7XE3QKJ5S2ef2DGsfM2iesquXP7lL1cfGhR7zuSnT30mxYpDKiHyzS5LYfIoUGlED3dmzFQ==" saltValue="Wc7h4JWXAKXQr2KfcGw6tQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NqPMFXDRwZDhqnaUmRtjV+QDc2/shze50yE1yCjdrUv/wxSephsUxCjLdLdLVMp3UAZwGpTd63aVVQcRklBINQ==" saltValue="YuL5P0Lwb8NrBA+/yCtxzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31118,19 +31118,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -31140,7 +31140,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -31171,7 +31171,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -31198,19 +31198,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -31220,7 +31220,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="136">
         <f>C3*0.9</f>
@@ -31256,7 +31256,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="136">
         <f>C5*0.9</f>
@@ -31288,19 +31288,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -31310,7 +31310,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="136">
         <f>C3*1.05</f>
@@ -31346,7 +31346,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="136">
         <f>C5*1.05</f>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vnHSGDWJJKfquW0RoHb5Fivebt5ZpeIbdNmG/LSyGI9hpn9VajRq7wQhNjsuLAH4ffMV937WJUHloSCrjr6MLw==" saltValue="i1HsjswMQsO2RrExK5RDIg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D7HwLa1Km/yWObz7e2eSYsHN7stpPeyDAOD3IgoLB0NojbJ4iNBM2Hhd7RGUyDpC10j+a6aKJTJTVQygbAOUsQ==" saltValue="oC+A3mKIZM+s6u85hhKa0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31405,28 +31405,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -31434,7 +31434,7 @@
         <v>193</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>334</v>
@@ -31764,7 +31764,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>209</v>
@@ -31856,10 +31856,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>334</v>
@@ -31904,10 +31904,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>334</v>
@@ -31950,10 +31950,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>334</v>
@@ -31999,7 +31999,7 @@
         <v>197</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>334</v>
@@ -32065,7 +32065,7 @@
         <v>198</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>334</v>
@@ -32131,7 +32131,7 @@
         <v>196</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>334</v>
@@ -32197,7 +32197,7 @@
         <v>195</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="52" t="s">
         <v>334</v>
@@ -32263,7 +32263,7 @@
         <v>194</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>334</v>
@@ -32329,7 +32329,7 @@
         <v>200</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="52" t="s">
         <v>334</v>
@@ -32392,7 +32392,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C45" s="52" t="s">
         <v>334</v>
@@ -32458,7 +32458,7 @@
         <v>191</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>334</v>
@@ -32504,7 +32504,7 @@
         <v>199</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>334</v>
@@ -32550,7 +32550,7 @@
         <v>184</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>334</v>
@@ -32600,28 +32600,28 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -32629,7 +32629,7 @@
         <v>193</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>334</v>
@@ -33034,7 +33034,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
         <v>209</v>
@@ -33143,10 +33143,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C76" s="52" t="s">
         <v>334</v>
@@ -33199,10 +33199,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="52" t="s">
         <v>334</v>
@@ -33255,10 +33255,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>334</v>
@@ -33314,7 +33314,7 @@
         <v>197</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="52" t="s">
         <v>334</v>
@@ -33395,7 +33395,7 @@
         <v>198</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C85" s="52" t="s">
         <v>334</v>
@@ -33476,7 +33476,7 @@
         <v>196</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C88" s="52" t="s">
         <v>334</v>
@@ -33557,7 +33557,7 @@
         <v>195</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C91" s="52" t="s">
         <v>334</v>
@@ -33638,7 +33638,7 @@
         <v>194</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C94" s="52" t="s">
         <v>334</v>
@@ -33719,7 +33719,7 @@
         <v>200</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>334</v>
@@ -33797,7 +33797,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="52" t="s">
         <v>334</v>
@@ -33878,7 +33878,7 @@
         <v>191</v>
       </c>
       <c r="B103" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C103" s="52" t="s">
         <v>334</v>
@@ -33934,7 +33934,7 @@
         <v>199</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C105" s="52" t="s">
         <v>334</v>
@@ -33990,7 +33990,7 @@
         <v>184</v>
       </c>
       <c r="B107" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C107" s="52" t="s">
         <v>334</v>
@@ -34050,28 +34050,28 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B111" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C111" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E111" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F111" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G111" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -34079,7 +34079,7 @@
         <v>193</v>
       </c>
       <c r="B112" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C112" s="52" t="s">
         <v>334</v>
@@ -34484,7 +34484,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
         <v>209</v>
@@ -34593,10 +34593,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>334</v>
@@ -34649,10 +34649,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C133" s="52" t="s">
         <v>334</v>
@@ -34705,10 +34705,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C135" s="52" t="s">
         <v>334</v>
@@ -34764,7 +34764,7 @@
         <v>197</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>334</v>
@@ -34845,7 +34845,7 @@
         <v>198</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>334</v>
@@ -34926,7 +34926,7 @@
         <v>196</v>
       </c>
       <c r="B143" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>334</v>
@@ -35007,7 +35007,7 @@
         <v>195</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>334</v>
@@ -35088,7 +35088,7 @@
         <v>194</v>
       </c>
       <c r="B149" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C149" s="52" t="s">
         <v>334</v>
@@ -35169,7 +35169,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C152" s="52" t="s">
         <v>334</v>
@@ -35247,7 +35247,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B155" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C155" s="52" t="s">
         <v>334</v>
@@ -35328,7 +35328,7 @@
         <v>191</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C158" s="52" t="s">
         <v>334</v>
@@ -35384,7 +35384,7 @@
         <v>199</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C160" s="52" t="s">
         <v>334</v>
@@ -35440,7 +35440,7 @@
         <v>184</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C162" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oJVEeeDP+lEqZShqmsM3ah5F3m38mfzpuuNDJ8qeB8z2eCru4nyzTLVcU2WXn5IlhXSQTKQaS55NnHJKlLwfKg==" saltValue="IdydXqeTBIeFD600SA8sPA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3+j8nwpK3IQrD8OTGMlXJlklqvGCI7f+tBM7m2nijJjHjdjrmICEpvPvMx2gWagwFbXpH1/01dFZU7THPWAPqA==" saltValue="YEj+/ZrLDEeO1vEyOP3R5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35523,32 +35523,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>334</v>
@@ -35590,7 +35590,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>334</v>
@@ -35633,7 +35633,7 @@
         <v>187</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>334</v>
@@ -35678,31 +35678,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>334</v>
@@ -35750,7 +35750,7 @@
         <v>188</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>334</v>
@@ -35799,7 +35799,7 @@
         <v>187</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>334</v>
@@ -35850,31 +35850,31 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>334</v>
@@ -35922,7 +35922,7 @@
         <v>188</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>334</v>
@@ -35971,7 +35971,7 @@
         <v>187</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>334</v>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mafVFY6Cc7br4w9qD2nkXZ9qEuecne2gt57ZiOS96wYoQszhvbNSdcWrWmUxVvN6DoyYmt9wwNAcdSTBYVW5Kg==" saltValue="yqvVXOCECabMu8o5GCBrxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pxLooSjyw+/hU1Ysk6et6SHdQ1riwXmJIolyA1DYQUoo2Nd9wvtjL9Sbfvl2spx5w7utyk5TNmE0A7yKyYKD7Q==" saltValue="PF/P9FhqbCwpwitcQrYcvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36055,13 +36055,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -36070,7 +36070,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -36078,7 +36078,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -36086,7 +36086,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -36094,7 +36094,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -36102,7 +36102,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -36110,7 +36110,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -36118,7 +36118,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -36126,7 +36126,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -36134,7 +36134,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -36154,28 +36154,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -36192,7 +36192,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -36209,7 +36209,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -36226,7 +36226,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -36243,7 +36243,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -36260,7 +36260,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -36277,7 +36277,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -36294,7 +36294,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -36311,7 +36311,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -36328,7 +36328,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -36360,13 +36360,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -36376,7 +36376,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -36384,7 +36384,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -36392,7 +36392,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -36400,7 +36400,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -36416,7 +36416,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -36424,7 +36424,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -36432,7 +36432,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -36440,7 +36440,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -36448,7 +36448,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gcbipiBCQgUIrL/vxnxJZfacbD5uWhmnQy/SHvhdl6he3OqGsXY47kwrn1dhY+IckkOlCZDRddIsAj1vyLbMNw==" saltValue="MBRn6x5mth9v8E22SwTh2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iwP1QUZo1r9vVlf7dEgSHsdnzexNFnYyPUZHCqn7gsMqB7geueOtz/cc8+2jl9JMS47gq4gInreFABYkn8k4DA==" saltValue="PQkV4JVocax8kTF51uDKCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36486,30 +36486,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36535,7 +36535,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -36561,7 +36561,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -36582,7 +36582,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36618,10 +36618,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36646,7 +36646,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -36671,7 +36671,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -36691,7 +36691,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -36725,51 +36725,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="L13" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -36813,7 +36813,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vn7GeF64vmoiD7EtAyy+3CTz9AR3ZCVkRl88bqDldaluHUndXshaG/kQZPI6n1dYgI3l8cC9z0aey8Ecea39oA==" saltValue="mjoyuHxbQR2gBpkZGjnKFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8OFWfBtBLq9CYQZWb0JwsjCOJjqNNYHGiDtGqk1l18wAxv6cEUKdL2WUQyqj3pgCAWFpum8z8k/edigSRuCdIw==" saltValue="rTYx0eFWhvGB5GrN7Ml1EA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36913,30 +36913,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -36956,7 +36956,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -36976,7 +36976,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -36996,7 +36996,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CTXDFhBKrxBYPQVsg22cbOm/wk9enzEBKk402IbBHbg1Unbw6dDYdhqQDegz6Uh2abz8JkbrwROG8g16Gfiukw==" saltValue="TM5d2m2Hod49k/KqYabi4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yeaMC1F1n1PBmIeRgYwLtqPkJyE7L2Ufdt0LcY3Tq5FY2UpliAr9jCsmvLFdp2Qzu6XUJA3c8QS157CCcvQHBA==" saltValue="cUmyN8ckq0sqmM535DxMyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37045,10 +37045,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -37080,10 +37080,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -37100,10 +37100,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -37120,10 +37120,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -37137,7 +37137,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -37151,7 +37151,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -37165,10 +37165,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -37182,7 +37182,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -37196,10 +37196,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -37213,7 +37213,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pTIiScgOZiuPKpaDNDN88UK3euI/c13zCjoh78d87DKappY21RKVcVYYwPPt58e3c1RJ/oBB88DwJF+WtY0oXw==" saltValue="2Dxbl7QpYwEZEpVivUbquQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WIyKrqOxRIrytetf4zQDe4yLUsNwOI0Va8PZ8leBmhzmNdNAbZF0bnBVl2ci+3tp0cIa3HsOWastpqar7YESsA==" saltValue="jy762ASpRQ7mkR5WD9Ndjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37249,15 +37249,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -37265,7 +37265,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -37273,7 +37273,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="147">
         <v>50</v>
@@ -37281,7 +37281,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="146" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -37289,7 +37289,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="146" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -37297,14 +37297,14 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="146" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y+V8Obg+0QQM5A+O3vR31XnVvmRGlp0KZzX2L1RJa0kkI9TYcktRvuB10S4Pi0mvLvUUvxmIGFfBz0XCuH9Akg==" saltValue="Cevu/Kzx6eRF2iUh7suXdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tg70FOHja5iVkPksK33t0KDb38eZWZ7lQWvAqsKT1rPfj8nG3nUuNEpwar99L1aEGA2rFfK20zJu6CwuPe891A==" saltValue="KJIBWfUCzVrFqK7D8L6t0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37330,27 +37330,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -37362,7 +37362,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -37376,7 +37376,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -37390,7 +37390,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -37404,7 +37404,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -37418,7 +37418,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -37426,10 +37426,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -37443,7 +37443,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -37455,7 +37455,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -37467,7 +37467,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -37479,7 +37479,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -37491,24 +37491,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37518,11 +37518,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37532,11 +37532,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37546,11 +37546,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37560,11 +37560,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37574,14 +37574,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Jm2M7lh9B8O3TD+mW3X45VhIZjaBduS5Yw0T3YnfLv8k0zLuV9Q7+Po9AgkZbxGJ128oupS/4yHjPQgo59ozTg==" saltValue="NPpBEvRumtwPNu6pJClkKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZK0reM/wMhxRu2JFZNfG8YCQ5WBgS7affjhI7rJlJO/VOreNfPPdrlkeieDhfZJN6nMVBr2/lp818YTK/rkFzg==" saltValue="QEzVIA23ZPZ/zZttC+tprw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37608,44 +37608,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="D1" s="61" t="s">
         <v>163</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QK2d0TZz2/WqHPsjPQrSnF45fNMVg0F9dZ2nraQ6l1SA/qsB6vn6v869gnWiBXhlYeMm/J0C8uu+Aogh+XoCHA==" saltValue="MNjbSBbD8bNDjTQ9yo3bmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WNH/xMH1ZRGx9DKRZnontcAxxHy0CAp28WAnQ1jfoSQMI0JKooXFDqEKbByyo08PhLvpWPZhORHqnIQcsJRXBg==" saltValue="OjLjS5WA0ONSRlXvVPZk9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21662E86-8CFF-46AA-8F5D-23BD2B857CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{550E636B-692F-4106-B426-3EF0A1EC530E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="8970" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
-    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
+    <sheet name="Coûts et couvertures des prgms" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId12"/>
     <sheet name="Incidence des conditions" sheetId="7" r:id="rId13"/>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HWwpr1tErfGtbhMUxp/QJbKaRUFHKsl/GBOLCyTF7BCKSvjbVKTXxoIh62+2wXcZkbGD0Sw9rbi0p0C9p+WjzQ==" saltValue="UQjhXKJRjQ5yeBIbppiIGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vynEbpNqp4NG3bkJ5va5IA+Qbh9U21sdLhIU8k5sV7GF2FhA/blGzrutGSNn40EYmgdozKu5a/wBHWWQ33CARg==" saltValue="W/Of8V/qQ1IqkraAfbpJcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NJ/P+Xp3PaX/TeEtSpkJNlRC0e5DIKScNsVovtYvdpkfwFn5qc7iJzVPGinJsSmLC66ooh+9eb2EGtLdI5ilvw==" saltValue="1y13DJozERGK4d1jtW4rCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V8rbgTvAbGp0h2bjAWpzD6c/lXRKZlzM5nAZpFN7Ab653mwoRUEp1jHE7V/W0zBCbBy/PdMayegxrk/n5ZmRWA==" saltValue="NKdGiNIQgq2m3r5kiUBmWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Zvm9EOn9QmL5hS2AhYRLYhyUbWyN2yrqrO4t/Vb2GLEbMsHkrrjTfsiuIqNxuxyQL8k1BO+6j0NfA5CISPMpog==" saltValue="17+s9hh0+P0jOqrnyurldA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KRu9J9xxn5E0shyYJcUhP4LZlma3eSTDgBsiFax8ykU2zgcw/lYdKIyZ6BnbKK7njVUYcNKPhtgT6ZaV4Cz/3w==" saltValue="eb2Nh6NzhD+N9iqf3rCTDg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t7tE+IbxYnB5t2K20qkkQUU0J017IrGCe8VLFDP1URNC7Ni+wZ2rlppWMfpBgrQbPiAKWOMYcVisXKN47q8Nrg==" saltValue="hY2pFNOU1kFyny7KeaBbjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Rgq+uK+n3jqJuiTUsqZqE1MUVpqfbsQMtBbZuvcd/60rHe6pSsm4KnwNDR5ehl1BWgC4LlE3kvdpc9w0uH0wyQ==" saltValue="AblHwbzbJWYc2pk8l3u4rA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yyxpLZU/BzuSodYtsZzubi7qgcj/FZCKL37ugIjHfqFrKMitsx+zJ0/bB4Cn3DmTEv7PBdQ0z2ogljkUBVZFUQ==" saltValue="uasnPjvh19Bk1Kff7hJEDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mBMQ252OL/s6rVU+CBeF8jIsvAhkeBdTHClxC0ajSVfkkGV/eOuu3gWGDXQe2Quz8ddn1aGdd10OwrlTz2eCVQ==" saltValue="XjRy3e+OpFRTUlsEDpyiow==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rfkaqL/mIKDYCebW1WnWa4wV8LCidLY+ujUmG8WQrVvQ389+s33Or+aGdjhZCsa89kHsE2KcK+VJKAUlcDh9MA==" saltValue="UJUCWxSXLxP+XZBfw/ddGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k5CKSb5viQvWmsrAA7WmoibtwqN/XIJZqqGTqU0SFbCF3MGDN+sb/iN4qaKtbZM1IwHE/lvxR4iChhQLp9u/uw==" saltValue="FszhBBxqltdg9EWy+nSkkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dRn6cT6bEkZuIyJ7s9xKbsys//+xjuTYSjF9yE2GT58D+pPgSlTHRnW8X9uQ4LSC2sVreug1KzmCrhG4IFDUlg==" saltValue="DCFyUQtUSLt/tpa5tN+XpA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VIsQEkhTGIJJ7feKLCVmGKa0kEJRCZwULxrTqP1tPrJN0nZmO4QJP7nw+taZgR1tpud7/LZDTaUm9LNfV/Tufg==" saltValue="vj7Tr7z2QM8wXaJMSEzlVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B1GmHuhWJRXfpfnGqN0NwtvvwH3UoU4JAzGOfk3f7vv8H+8P8UMZ1r1XNsBbydyIThT8CnOq7F8XVIwb6jObDg==" saltValue="ylJFDM791aBgEFQzx01Nag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xI0oBN2/5Hz74evpYSFyLPan0ZfLC/CY7oFIG36pLu1y7DiYEwmfDqltN/8ZWw5pkzuE8kXQ8n6k0REmMrnTkQ==" saltValue="GyKvw950yu/A0+zmhT12pg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Pq1OVb4vwv6f819cDizgtv+6ggwYTQ05j8jPZHN/KlL6Ki9tPSUd37U+kIlgf+UqOZxVByv68NoCMsTssK1OKQ==" saltValue="G7woRSOqDwrt4toACEFmiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LNyNQkglHjU1SoawHlOBhoi5tUQSV/hi2FzFc4IgEgYUMm0Tbc+38cWH9OR2+zCs6vPBtI/2iZkeYaDm4Yol+w==" saltValue="p0QDGHyNEdyZr0EdGM3a8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bXZdDuHCr25MlooBtXue/6yB9igcOUk+z3ZYLctZfSABBgRF6oVW7AzhIAS9UyQheyUVrlO80je0OhZbY3Q7GQ==" saltValue="iGaLjt74W5FC95ETBhowXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JsvzhcgGBgtvHwAk5xa72ZNlQ9w5ZVNvJk6qm3XFt0E3ntVnks1pNcHLGMX40xBeH3GZtrf7jIPutjz4hjOFcQ==" saltValue="V2vpgw5VnXMo9ZJBHpi2EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QuYx1N8e4bPEhQ24Lm9g7BSNtky/OXRKOLTAv1eoy4cot8NB+o/ul/I0wthMmDYHFue8EF+ZKTBpY/mbLExR2g==" saltValue="brcDpfek1JAFdBp6Vy4usw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7t6ufB/Pko18rclSKGKrE0SrijBOy7IG/1lmCuwR2ZK3pHhuOFLsPTCn3QLO8utnhUYu+/OOugtRrFMAlCDBlg==" saltValue="2lCAOddbI1OFu+orsEBpjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EOW/Pp2o6Q0O2SAeoJnysHaPbuLJwQ/PtoBM1LEnmIX2s65unU9ViPYTJoUwzJMCVSAfpLQoTM6PQxZELE8gkw==" saltValue="V8aHAcyWMkgghWlg06pjpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f6tqLVgv/CZUxbFVmC/46g2oKOskF1dLbyKSogljyFb1hKg9WMn/v2diUPKDH8K3ydw8cNPvGsuK5dcVg6Ys5Q==" saltValue="be/eLdFLUWBRURaopPY7hQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ETKK1wjwBH3VOzaESnFAvYMCXE12WTo61JPbQaI972RNVuwiSlKZFgQYmsXmjJnKrT0BF0x+8+zx8wFPiMFeew==" saltValue="oX3ZSZMHb6p2ODwtLI5+3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9NVTfQ52xzXcMEkGvDaJF7w3juCcHQ4F4ziQTJnz5gkTSmoKGpUKJjhHP6CULh9JpTTRg6kF0NcEGXt9mSxUWA==" saltValue="vfUy0vIeAb+ln/KYh9qN7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SzvXPhTZxyYOrymwdFru6ahQltJrpk3dOa8sU0ay4zNKP1QjDdn2rihnHAR46FLz89xwYVf20cZ9tmu9YU9A3g==" saltValue="PPNf96oJ2iNyEDoGj70hLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u9v7YeUZcIGUb2fzO9UDiFrw0PsueFfn5sgrMPw+TKU1VJZ63VhVG86DT9OvuDxTXCdwF08mEsCd7G2u813jow==" saltValue="gaNGS2l4e7+JDkwEuPVfgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -25134,7 +25134,7 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
         <v>128</v>
       </c>
@@ -26102,7 +26102,7 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
         <v>87</v>
       </c>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ldt/R4NxsuORLr+2nd+5oAaR1z17bTAn9LYQ020W9p1sWG6vrWNQFS5Q8/Ypk9xMreExshxOkK6IZUYU/HSrlA==" saltValue="4JmexPWmTHbbFr/P6r5b5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P45VBO9YcEnuJh/xRS8fc8ewB4aDZVR+2e8ZkREWlwEjQhostN5N2KvWIurf5SGVYCJj3k0vpsRgXae5tkmsfg==" saltValue="pIjBVXLHsqLiOzcBaabGiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="W6ytpVB8aYMllk/Nwwo/mlUyMRah7xrHOpkOBee4VjLx0R876vX0+sFbX4w6GpwNc7bwf65IjOBK6q+OyZbB1w==" saltValue="vXdz5dqyZBoiBkSoKxCGmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uVh336PxhrPDR6HSe1RwGRHhLda6z2E52D/eniLQL2W5JOyBOxcdBtQ8lDbkvGcrg4lkoLEjXGygVt1n9Vmqag==" saltValue="8DONFfK6xQyrDeI1hHxqmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zt0wBz75p5WpqjDIXYlhJdkeMnsAQJC2WJ+0c1IGJbloTe72uol1chigwQwMTjwuM2Q+/gZ21fi2mt7FxarEqA==" saltValue="xr4CJnYFMgOypVq6LphFww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VrBp3kv/C62XiheSbBIZZoOcHA3wx1jhzGpE0W/SND6x0pCqCZEqczH+kYxCq9fWDvhQst21An15O3HE7U5dqw==" saltValue="9T8rzreWGXUSWPCZs+J5aQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NqPMFXDRwZDhqnaUmRtjV+QDc2/shze50yE1yCjdrUv/wxSephsUxCjLdLdLVMp3UAZwGpTd63aVVQcRklBINQ==" saltValue="YuL5P0Lwb8NrBA+/yCtxzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f8XGFO0xfK9gdj7Bv4AbULfInlImUgcAbJykro1Vk5wOxmIAQADQZG7667UNeQdCtQS3m2VCtt65ulcuaaQ4wA==" saltValue="QagCOYvuJEP5e+rvpafYGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D7HwLa1Km/yWObz7e2eSYsHN7stpPeyDAOD3IgoLB0NojbJ4iNBM2Hhd7RGUyDpC10j+a6aKJTJTVQygbAOUsQ==" saltValue="oC+A3mKIZM+s6u85hhKa0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8fOdxzpAn4Z8PTlP/XeluNEX0RqbkbZYDTGPWoD7ljYVgmcYq5T2YKJ4Eajyaivdk87UJOz9fkl/SjiYsHJuqw==" saltValue="4HQuJ9kKbo7jaatTXxM9+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3+j8nwpK3IQrD8OTGMlXJlklqvGCI7f+tBM7m2nijJjHjdjrmICEpvPvMx2gWagwFbXpH1/01dFZU7THPWAPqA==" saltValue="YEj+/ZrLDEeO1vEyOP3R5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OpiPiRinVdlc+1C7J5XjuQH+XLagerpcJ6XkFaHS66i3KVJx0weRNp7h9pHCHsYs+fqU8D2s71W+aBoqr0rd3g==" saltValue="g1VaFEczzou/HuSEIFhNqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pxLooSjyw+/hU1Ysk6et6SHdQ1riwXmJIolyA1DYQUoo2Nd9wvtjL9Sbfvl2spx5w7utyk5TNmE0A7yKyYKD7Q==" saltValue="PF/P9FhqbCwpwitcQrYcvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tOvbYfIe0Q69vGd9uUQ89ZOCD9oLy5J3oZEyB9vDVUtg5gLsj0ZyvF52eYSxF48wDaKc8vjQrwdAzJRAhpPvEg==" saltValue="R9KvoXlij7ofArf0/7R9+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iwP1QUZo1r9vVlf7dEgSHsdnzexNFnYyPUZHCqn7gsMqB7geueOtz/cc8+2jl9JMS47gq4gInreFABYkn8k4DA==" saltValue="PQkV4JVocax8kTF51uDKCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ONVWEWwuOb95lBILy8Tew8qBlU59fx68MOLlpvIhNxK/ULNvLCxELzuoCzckwFIu+AowkZUOrE1w/Rv3NEeWpg==" saltValue="utY7GCrwXjfnHZ/RGRpFMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8OFWfBtBLq9CYQZWb0JwsjCOJjqNNYHGiDtGqk1l18wAxv6cEUKdL2WUQyqj3pgCAWFpum8z8k/edigSRuCdIw==" saltValue="rTYx0eFWhvGB5GrN7Ml1EA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UefVo4k2eGxxbxBIlfXzLVrCGUgamQUxwYy99neQfQSVi4qc6FvPd9ovq9ZopzQyw7mu8XFGoW11ASQDyDt1SQ==" saltValue="AdlY+Q1MNNnYZ3hQvUA9eQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yeaMC1F1n1PBmIeRgYwLtqPkJyE7L2Ufdt0LcY3Tq5FY2UpliAr9jCsmvLFdp2Qzu6XUJA3c8QS157CCcvQHBA==" saltValue="cUmyN8ckq0sqmM535DxMyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v2y1qT2riW+PfxFeq1N3NtyhLYg6B1PEbCOyHxObXsnDGSLPCymic8/i7m+fDUZ8eRNHP89SuLPts+5LSK56xw==" saltValue="EDWRkbulSbHga/mE2uV4Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WIyKrqOxRIrytetf4zQDe4yLUsNwOI0Va8PZ8leBmhzmNdNAbZF0bnBVl2ci+3tp0cIa3HsOWastpqar7YESsA==" saltValue="jy762ASpRQ7mkR5WD9Ndjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GkGupN+abwO6/RmFMNXVpfKBiyo/3jtlCOONKzC5yw6A1zZN23EFhgcRw8BN0ghgG3pKCWCITXra5d9fk6hKRQ==" saltValue="aPUfkYFYY6qzlumpR3EyVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tg70FOHja5iVkPksK33t0KDb38eZWZ7lQWvAqsKT1rPfj8nG3nUuNEpwar99L1aEGA2rFfK20zJu6CwuPe891A==" saltValue="KJIBWfUCzVrFqK7D8L6t0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GIiDNchTtRd9pPZdBweVR3GlmqYTkor7Z4IA/AW8OLnKZdLptVc9bAhwQySsFiMGWjYiy2xtGx0gtZmkxLDjVQ==" saltValue="CGHFdBAHfU1V/4ZxuhREhg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZK0reM/wMhxRu2JFZNfG8YCQ5WBgS7affjhI7rJlJO/VOreNfPPdrlkeieDhfZJN6nMVBr2/lp818YTK/rkFzg==" saltValue="QEzVIA23ZPZ/zZttC+tprw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IVJKiKCEECMGBp3IH25+of6+ZNQDt69GztuE2cLI4Xi05k8rbpmUXgbeAP0gg7db98gKzq1UgpNDM2lDRTybvA==" saltValue="nvTV8Qs7bgO+G8K4824K5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WNH/xMH1ZRGx9DKRZnontcAxxHy0CAp28WAnQ1jfoSQMI0JKooXFDqEKbByyo08PhLvpWPZhORHqnIQcsJRXBg==" saltValue="OjLjS5WA0ONSRlXvVPZk9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NZBR4pgf2EJNa+npybED4JR6AT0bCSRisP/FpPnQex+eD9CszDd3x84XDsUCw+RyHlGCVJII+qBLsU0dJYyfvA==" saltValue="WtscQ5B3UewKp86IRpWloA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DFC2C4-11FD-496F-8DE4-114946E0FA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF758F8-7F88-44E7-BAD1-7C77924105D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1198,9 +1198,6 @@
     <t>Linéaire (coût marginal constant) [par défaut].</t>
   </si>
   <si>
-    <t>Courbe avec coût marginal croissant</t>
-  </si>
-  <si>
     <t>Coût à l'unité (US$)</t>
   </si>
   <si>
@@ -1229,6 +1226,9 @@
   </si>
   <si>
     <t>Groupe général de la population</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
   </si>
   <si>
     <t>Courbe avec coût marginal décroissant</t>
@@ -5156,14 +5156,14 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8o5YnY4nqS4JPpZHHpqk8hanFpokKS+s01qHOp0x0sYzpl96EUjCdmRRiNgiD3DJ0sT/JKUhUbirChV9Kk9rSg==" saltValue="sFHb3ljlcIzcc8vrlXTBuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rLWjDe/FeQWfehHggRBIjEco5Z1+BLYqLjcsX3pvsQhLql7dvUxyQjC4o6s0E4uW6EMYczVyWAU7SIptbzC/sQ==" saltValue="UPZI44n8DBiBiTmCJHakmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5638,7 +5638,7 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
@@ -5648,13 +5648,13 @@
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>160</v>
       </c>
@@ -5666,16 +5666,16 @@
         <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>204</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6324,7 +6324,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gQunI7kOlwK3PURZDbY4cYWWktmaAjDoflmKQOOSlf+xyEgp3/OTpsyTw0erH3ADuYPYvKMppMpwtSBtDkUyOg==" saltValue="bk/dbva3QSaLfGl3HDRHiw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/VQGfD4wJ/SAukhRz1ZIzAVV5JFN8jvVs52gJ+PHjHDHcEwsFMCGseY0v8VigttBHTjDR9M07fhDpwEcnBEcSg==" saltValue="NGnaR0TsYdp35uYO9bX8Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6602,10 +6602,10 @@
         <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AnLbvzQa2SxLZIq6qCqbxC/h8EWWRQDfJi8yIZbe9JPDkVkvbv3QZeyZ6rObaB72o6WN+RBquS6sTJ2Xxu4xww==" saltValue="dCpnqRp1Ff8+wVL+YGRrQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8TNv/cNi9c1NlhMv6QJZDElwzPBKt+f6SAjwUm00hcXNFY7l1M6ohTI7npgHa+2dSk8wwiodN4jkf986gOFjJw==" saltValue="uRyMpFUTC32T6h7sFt12Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Kh5oOFIGzJzqMHhCubpSlb/KrBUsZqv42zhx9QX9qNH5v4Tg27hHEiXt8CtR1XLvXV8yQPM/mVqyOw4PGJBRGw==" saltValue="rFEWZPEms2nI1wmd3YobBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DWW4rEPPRBGdwD171h0tZqZXsi7h7p3ctUtmZnVcAvVfu1GP7ZyK3PycbKYhq2iK+68dMTvcSkZW6XSJ692fSA==" saltValue="86TIu3UjuTyUYRmqH2BD8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EOv6E1GyHUmbAyLbcN+c75EJTvL0cGD0O0KNtmmKVRJXn6az+0/LPy9USeZLRvS3q1wU3ppbKqWRQXAAMNV2YA==" saltValue="QCaOB169jl7/axychDeYDA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Nd2ArLvMd7O1+F8+5BcY20MFNQ1tzcirOlAqRmxxnQ1kKHmd9mLx6eJd50wEzitiBYfHl/FgD7fXpOdHEfcQtg==" saltValue="ov2GLuBW6cb8Ulhr13VSHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6966,7 +6966,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>160</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>173</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NobNx4wLaxwPWEsSPhTMkSo5f+pOGDHsDRSm9cbz+7sXJoxgbFJNlyNgP+HUnz0j0lfW5AIWZFXSiqiI4Yu5aQ==" saltValue="HdBHfrmin7DmRD2u0Hic3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="083eFozmC/y3ykWTBbQ5DwVTauoDhPO0Hkf/FtVDUYP/LpjcChA49cHSMKDKNF05Al+KHf6/sQ0rJ4zcf3snQQ==" saltValue="EIKcMAmVUyLVq9SGmfjBmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P60w/UHi42UmtLj2GOYVyZAKl9sJUT+dT/LEfN//2unOmetmEZC5zvp33gK5EORtNZ8fds5BUuwj9phetmZ3gA==" saltValue="AZ/r9radBm0vm35Fy03R2w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2iJIlWXVIPZGcHOrNLsJBUwx3Qu0fi+Woaij/qiFkpuh8d/qX3tx+4U0wcRgRuq7CTbr1Iu0L21LCLBbXnlcKw==" saltValue="O7Zzsx7EXv0swGUCuYLhFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8753,7 +8753,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
     <col min="3" max="4" width="11.44140625" style="35"/>
     <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a8mHg9SojoSCHIB2MlGbUVd/vJe+yzyW1VUaoPtaZq69LLw4FchxgwkX6uJ+Z4k18cz1Bha7i+iHNnZ4JTU89A==" saltValue="zPsl2W8sR8nJ91TLWtPdJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8yXJjXY6sR8HWiXEIQIbMmzsb2/taSVZs8m1+Mw1xkQJux/eumYCE9ATZe0alok8XpskffQ31IyOLcMgBz19LQ==" saltValue="P960Gs0DIwOuodynkp4XCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8963,20 +8963,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>160</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -10072,7 +10072,7 @@
       <c r="N26" s="129"/>
       <c r="O26" s="129"/>
     </row>
-    <row r="27" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>75</v>
       </c>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>173</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wj3KsFe/cZ6ug420VDbff56gXfhuvDvgz8JSKF8YjIUl2KtPM684eh1OuQCGLHuH30wRMcLqbq/E3b0w0VqU3g==" saltValue="vjlUiJ2KVQXUUaLJO8V+VQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G8QO/f2KauSCFmP7LiNP8diztLXToWJeopMTd70Y6O3vpjCXAaRUIiv8mwL3RK+y0NN00S9eQl6DVT8NLfuQ2g==" saltValue="DApvqQs+QLf/8JAzACGDQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10774,19 +10774,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="133" t="s">
         <v>7</v>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X4EDYRgjMPGZm8lpEY6YFJK6ykbGXjr4V7DxIxT1JO4GKKtYpPAO6xymZVMwEBmGSJZZt7buGRTVNUAyZW/RjQ==" saltValue="7LrBPS1xrT2oLT8aoM14dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="K4GDx5BAtAaadZNXVxLo88hBiUu3ydQ6+U0oof415x1aMP7OlLpZ4g0ce/VNze6fafTea0yi3ytZcB3t9P7P5A==" saltValue="JyiF34nAH/mXSxiyxlC6FA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11541,19 +11541,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Sm6YWs77c7JdkNVvfI6fARDD9KPWlQNj8cIv6R+etpYSjhpGJDdUxcrs4QXZsyrKrznsikdA50gw5ieFedfhfg==" saltValue="rz6v8P00mgpP7DSSn9FOqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C2sDpWuUr6EVRfSoGGSXgReuBw7AkXvKOB55AyG2Lv9tKFT8JZ+bE3e0NKFQofqYGmhjTt5mchkXv/qveLaVLA==" saltValue="CmuDDcLJyFOdvyKAoCmiew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="15XW9WKlEuct8GuhuhjzL9vQx6b90oM3/pGfu0hWrNUtAJNY0vm09nwc2dZjJOfaOh7UQ0IDJHmHUHCFf936tQ==" saltValue="dWTyFkZ7XOGmdRNoor2Wqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4fzrEnQ4abuaLo9kmL30euLx4J2azG2hrqZx7rCFFUA+pA+r75P3XkT09P9KiPPL4btyC6yFMTd1JeFnkhlEVA==" saltValue="Np2y0SYYHw9GBwgMikeBBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13010,12 +13010,12 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4VmXcDCS9L0oc7anJdZ8ZJ3Df1YVojku7Ndckv4FkxyOYphhyCcFvYBcxPmpUt7S9UULQf8hHeDr+bx/HYSDgg==" saltValue="rYA7ncZUZG0Qe2XB9J48DQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qVhd29/Sc+qYA0dt/EmQ0Ea2f11mWtGXBgFVkayQygYwWbA/PcfNydDB43j012LmWE6lH7+wLYw2w7CTIMZOiA==" saltValue="vLsuVG3OnCT2z7IebJ6Htw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -16876,7 +16876,7 @@
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
     <col min="7" max="16384" width="16.109375" style="35"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MopDewmcRwKTaRmhdHd9DkYQQ2ipnB7Rdrb0xL1azto91xhlkkPTXhigV+EcgDKiEXJJJM1NM9llu9UB8YPLoA==" saltValue="qb6KTjkYWfPwg/M1mXCrNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MZV7giYxB+jc1/7c42yBlbmllwWUIiwnBI91WihRkrYs8TU2tFs5rh4dVHJF2biKSfCZ+8UM2Z5LOlP6jzMI2Q==" saltValue="3+PVrarO39fYh2p7DRyN/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18107,15 +18107,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.88671875" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.88671875" style="35"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
@@ -18590,7 +18590,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>269</v>
       </c>
@@ -18949,7 +18949,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -19179,7 +19179,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -19294,7 +19294,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -19437,7 +19437,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -19524,7 +19524,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -19552,7 +19552,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -21746,7 +21746,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D142" s="139">
         <f t="shared" ref="D142:H142" si="26">D32*0.7</f>
@@ -21771,7 +21771,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C143" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D143" s="139">
         <f t="shared" ref="D143:H143" si="27">D33*0.7</f>
@@ -21849,7 +21849,7 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C146" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D146" s="139">
         <f t="shared" ref="D146:H146" si="30">D36*0.7</f>
@@ -21874,7 +21874,7 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C147" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D147" s="139">
         <f t="shared" ref="D147:H147" si="31">D37*0.7</f>
@@ -21952,7 +21952,7 @@
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C150" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D150" s="139">
         <f t="shared" ref="D150:H150" si="34">D40*0.7</f>
@@ -21977,7 +21977,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C151" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="139">
         <f t="shared" ref="D151:H151" si="35">D41*0.7</f>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C154" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D154" s="139">
         <f t="shared" ref="D154:H154" si="38">D44*0.7</f>
@@ -22080,7 +22080,7 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C155" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D155" s="139">
         <f t="shared" ref="D155:H155" si="39">D45*0.7</f>
@@ -22158,7 +22158,7 @@
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C158" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D158" s="139">
         <f t="shared" ref="D158:H158" si="42">D48*0.7</f>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C159" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D159" s="139">
         <f t="shared" ref="D159:H159" si="43">D49*0.7</f>
@@ -22261,7 +22261,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C162" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D162" s="139">
         <f t="shared" ref="D162:H162" si="46">D52*0.7</f>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D163" s="139">
         <f t="shared" ref="D163:H163" si="47">D53*0.7</f>
@@ -24348,7 +24348,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C252" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D252" s="139">
         <f t="shared" ref="D252:H252" si="120">D32*1.2</f>
@@ -24374,7 +24374,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C253" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D253" s="139">
         <f t="shared" ref="D253:H253" si="121">D33*1.2</f>
@@ -24455,7 +24455,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C256" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D256" s="139">
         <f t="shared" ref="D256:H256" si="124">D36*1.2</f>
@@ -24481,7 +24481,7 @@
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C257" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D257" s="139">
         <f t="shared" ref="D257:H257" si="125">D37*1.2</f>
@@ -24562,7 +24562,7 @@
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C260" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D260" s="139">
         <f t="shared" ref="D260:H260" si="128">D40*1.2</f>
@@ -24588,7 +24588,7 @@
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C261" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D261" s="139">
         <f t="shared" ref="D261:H261" si="129">D41*1.2</f>
@@ -24669,7 +24669,7 @@
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C264" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D264" s="139">
         <f t="shared" ref="D264:H264" si="132">D44*1.2</f>
@@ -24695,7 +24695,7 @@
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C265" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D265" s="139">
         <f t="shared" ref="D265:H265" si="133">D45*1.2</f>
@@ -24776,7 +24776,7 @@
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C268" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D268" s="139">
         <f t="shared" ref="D268:H268" si="136">D48*1.2</f>
@@ -24802,7 +24802,7 @@
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C269" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D269" s="139">
         <f t="shared" ref="D269:H269" si="137">D49*1.2</f>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C272" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D272" s="139">
         <f t="shared" ref="D272:H272" si="140">D52*1.2</f>
@@ -24909,7 +24909,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C273" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D273" s="139">
         <f t="shared" ref="D273:H273" si="141">D53*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gQB4ATfoZ08jIjwjCXk/Mw/mWhXzPsZl0jIbcN6PWIEG5xVwEnZzzk81NXYstrhlJ1rGshXgK1BbL4ntuhP4HA==" saltValue="mNcsfRpvhtDjbqa7974Hbw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5J9QUR3dEPZoymTZV6+G+uQc6/ENM6lpsQPS523XCIWU8DHIxpID+r0mVUTEMqr7FwhxheD9oDzkGUlDBryV+A==" saltValue="Q8u+gdQbDVp/PodhpyhRJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26252,16 +26252,16 @@
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26378,7 +26378,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eGn6r+2USxDI0KVK8Yn9s9uWSlJjQHTzz4hX/+h1tyyF8WMQMH1RcZhWWI1XIfDAuocNOoB5OgrfbFYYPRIXqQ==" saltValue="TCaGOdKrbWt2grg5+b6pMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+Lz59RqPDujHxouZo+vk3jQTKFEkdhfuIoV1pweAEm+ygi0Uh9pNazo1WbysdFDsr2eGrnxiF8kSqFI+ZBRRtQ==" saltValue="WYp+2eZiGPUeE+JjGdhL3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27347,9 +27347,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
     <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="I/c+TjUcSpSmFgypF7luHkWVNX9fkagxuB9uqfz0m7x0uIhIEOqC2vzi+mixGM1DH+uSZSPzHIC2v3u5nnVpKQ==" saltValue="aW/m15jJb7/FEs1Ae2beoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v1/g30YpXszrzGF/26H0wK1iCYGoTLpzX+/lSSDmcWx5aFWjwtQV5vzf34bHe2f05exYzMlvEZ1Svfl9qhj4Iw==" saltValue="jl/nco2nn+sTEV4nSipIiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28219,12 +28219,12 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.88671875" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28715,7 +28715,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>189</v>
       </c>
@@ -28805,7 +28805,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="136">
         <v>1</v>
@@ -29034,7 +29034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
@@ -29768,7 +29768,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" s="136">
         <f t="shared" si="11"/>
@@ -30062,7 +30062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
@@ -30796,7 +30796,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="136">
         <f t="shared" si="27"/>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BFW+9xBHr4558/nuqvL++mH/XC0xTqmdqehccfrx25+LNGqxyigHxZnZHh/TV6KE3UZXoNcyYzjy4QPy2J7gwQ==" saltValue="GaOq204F4hqH5VZOk8S6VA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sfMubl730x9fQIzLqMi9U03Sdu7tIha6Xbc9CvYAf7KAvC8ANr9pGpqO6Wke0F97vrsV+Y9QLX3Chjgfavx9dw==" saltValue="shKfdlDtlMFmahvySDrmRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31106,12 +31106,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="35" customWidth="1"/>
     <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="touGN0yrwI9f9SY51b15nhh8nMI349tAz2fiD/nmQRZ7ycBG1gVVyqi6CjukT5n6JrQD9adX2EZO6Ng2VVXqVA==" saltValue="R4BsaaIoHlA3zgvqAoRKzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Vly6aiqW49sv8vu+FCcRMfmQABCsl2wLEFuFh42XAfGB3g0L15We85u9Q/YIEYm9FbWA3Vpy/h2eLwJhS9igYg==" saltValue="tU2L5CcjouYyl+9leEVhRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31390,17 +31390,17 @@
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
     <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -31500,7 +31500,7 @@
         <v>192</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>334</v>
@@ -31543,7 +31543,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>334</v>
@@ -31589,7 +31589,7 @@
         <v>185</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>334</v>
@@ -31632,7 +31632,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>334</v>
@@ -31675,10 +31675,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>334</v>
@@ -31721,7 +31721,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>334</v>
@@ -31767,7 +31767,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>334</v>
@@ -31811,7 +31811,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>334</v>
@@ -32710,7 +32710,7 @@
         <v>192</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>334</v>
@@ -32763,7 +32763,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>334</v>
@@ -32819,7 +32819,7 @@
         <v>185</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C64" s="52" t="s">
         <v>334</v>
@@ -32872,7 +32872,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>334</v>
@@ -32925,10 +32925,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>334</v>
@@ -32981,7 +32981,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>334</v>
@@ -33037,7 +33037,7 @@
         <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>334</v>
@@ -33090,7 +33090,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>334</v>
@@ -34160,7 +34160,7 @@
         <v>192</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" s="52" t="s">
         <v>334</v>
@@ -34213,7 +34213,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C117" s="52" t="s">
         <v>334</v>
@@ -34269,7 +34269,7 @@
         <v>185</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>334</v>
@@ -34322,7 +34322,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>334</v>
@@ -34375,10 +34375,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>334</v>
@@ -34431,7 +34431,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>334</v>
@@ -34487,7 +34487,7 @@
         <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C127" s="52" t="s">
         <v>334</v>
@@ -34540,7 +34540,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C129" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YDYLUDola8fYp9MeLAYFnf250deb2hhIfbNbFAHJ5x2ULleX87R/pyzEYdo3vbnDJxiuOIe2iiW9hw3guuTcvQ==" saltValue="rWFMsQ78uBzd5NQH47luMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5imcTVj62KS3FN8npnid9V+plG9aynovcPqoSB1FPPFtXY12GiZuIlrCCf3rYAtANEPYblZE+avjbHFGF5Pr5Q==" saltValue="tISd9UkZxixdA5/i86ijuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35512,13 +35512,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.109375" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZPny6XHz0bM46u4egsN/gNzLx/XcOMHFqwoOvx5L/Y2msF8ftJ4gxjdsIzDTCn0417T8JD3fYM0mtSR2EJ0MpA==" saltValue="tgpxwSlcROHpfr1utRTr4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WaTOtDQddGm4s4Efp42IflzE2O8MDBogIUpYiNYSY0NHnj2G+TgJnE5i1bRD05r7id0Hyxj8dTlNpfgOXzAffQ==" saltValue="mNQtPf1O6FKPHo8CxIvLUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36038,7 +36038,7 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rF5vPJKC1NvBYyKf/fSWyn+lJ6lemp+jn/CJyjA6EvsM5gqHPJUcd7NiB+1ifhSLoH0gSmJGiOrl8gcyb859cg==" saltValue="C17KmOMsvrqyZu/JHkGcRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MZRstdnyqTmSWlTdMQMLoIigY0fDkqknoUdkqKjJEBxgqxX/h7OryYCZAwGkfbqr9T5TDwGWytKyf6JdVprNYQ==" saltValue="MOpn7uwt5R5WGDA3i1Ddlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kVNAYHRHfj2QLLCE7W5lgHV5eQYqoQlLu6yqKpgofDWL5yBKbJJBfyD/lnqmJVTWKiAGwyIoyLeyMD4BX4sJhg==" saltValue="/6QFElV1vdAGSmNili+mFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SB+ZNfiAJynRacu0QXa7vNbB3nV55EBC5wYzHFHlpSDyvwMGRyI5x0pU32qZJiAk82awu3Jg6ZVp3TXdPTX2Kw==" saltValue="kD4iEkuevQHkTdsmf+oycg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZFYvjRBS8F/Ys6us9FxNDenQizK59RZpVn/W/zNFPFQyOKbZrdLP2lK3xk8mMHrkQqBhV8ZfkEM/CrzODKVolQ==" saltValue="UcUPZrqkIFmLhnGMbl3aPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="laLQYxqh+Z7LFWaeg+d1//kXWPguRkluY3wb7TecTwL+VsbS1euKiNGbGm9NOFy/2ZVYgKjpShC+9p+sEg9jjQ==" saltValue="lYk2zHb+f6ONUqKgrk7sTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O4JrK+iPRmIi3oX9bceULMThEh5s4WOyGbW9m+F4/huag/9AuT5ejKeVJlf1d/SH9bZ14ywFyj+rSuxJR0Zw5g==" saltValue="8bK2wPvzSREu7NAY6chH+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z57IKJoDTxhb5zrjDwcvQn4xWLyzBDO1YrBrK5qVEwZmC0CQ0ONjDxhPkBZD72Vu56mjT6d5qIIzMsdLd+xSbw==" saltValue="91WUbJPPms3Rel0L5LJsPA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37244,7 +37244,7 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2Jq5urv1kd6TJFYVAftcqDxleIP+vygvSHJw6r8E44pN5m1/6wQwO09RBcF2KF5IHATFTY2BpZ6Jzi0fCGjltg==" saltValue="XipECMuDvPxownttaDhxYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HUdnDGUpFNVmpgfGB7eHjyj5yX3+ikgaZ4Gq/0u8Y2SI8LrEhO9njAKyQQgH7C0uRtsJPlpwt4u+fEI3stFlXg==" saltValue="2DSe0KXw5cstIjaSqXggwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="I11ttgjRfXz8hJJOeZkbbkU+B35OMQHgrUw78uQVxBNUnXIdv5LRmbIwZlPFMoSkepNIAzJvopwGUQ67+0QOfA==" saltValue="iIzNOVSE+jtpNMra0HtGpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QHq47BdqCsnmeqn2ARH842RB3cQqL8KNTJ1+vHfKe5s7FfNvCixaSZ0aBdo+31g70QQh2TsGDowQ+9sKqu8b7Q==" saltValue="lU+9gMl1rEett5OFT4OmTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37600,7 +37600,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T/HgQW+rcllUcCejO6hfSRKbQslyUUxPzjjznrCsys/sGpRjYIaT0yH3KYjcS1mJxP46evp/zMLBdKK18Xyo2A==" saltValue="Yw6ztkdr1jy4/p6X4OelyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YZNghAK4Qf87Oz1cmKR3mk/TWwgZaOmsIXk3hxQnCbVv79rTPM62PH8+qU8+W7Ev3gLoQvBaxoXB9rnCbZlVmQ==" saltValue="wGBPzdr6nMwKyoW5fSFsJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF758F8-7F88-44E7-BAD1-7C77924105D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AEDEC14-5B06-48EB-B353-7A525DBC413A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rLWjDe/FeQWfehHggRBIjEco5Z1+BLYqLjcsX3pvsQhLql7dvUxyQjC4o6s0E4uW6EMYczVyWAU7SIptbzC/sQ==" saltValue="UPZI44n8DBiBiTmCJHakmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3XyoPUFHAn3/kFEEntoZ2rWg+WRWULygjwi2gcpz7hORJ3Dem5T27drstQ09q7smar99ieFiMRSwhN7LZk7RBg==" saltValue="o8ig2wwRogSvHrLz3J27CQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/VQGfD4wJ/SAukhRz1ZIzAVV5JFN8jvVs52gJ+PHjHDHcEwsFMCGseY0v8VigttBHTjDR9M07fhDpwEcnBEcSg==" saltValue="NGnaR0TsYdp35uYO9bX8Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0zihiw+NJjn1hO5jGk3W7QkAMmxihk8jVO26nYhoxBFJILv8KWRyboz+DEH+GYTV+YBbe+PLqWDUmoA2y9FAjA==" saltValue="gk8v3whWX5aF8SkbXnLMAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8TNv/cNi9c1NlhMv6QJZDElwzPBKt+f6SAjwUm00hcXNFY7l1M6ohTI7npgHa+2dSk8wwiodN4jkf986gOFjJw==" saltValue="uRyMpFUTC32T6h7sFt12Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X16GaIMy7N4QxfynVuyBSptMNUTdc1FrbAbicJSw+UXOzq+cF8Q3TGxgKyQeEIulhkioG/Qg//Yj9Zt6m4b9mQ==" saltValue="ntgs9ITrFT/uIDCO75wTDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DWW4rEPPRBGdwD171h0tZqZXsi7h7p3ctUtmZnVcAvVfu1GP7ZyK3PycbKYhq2iK+68dMTvcSkZW6XSJ692fSA==" saltValue="86TIu3UjuTyUYRmqH2BD8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c+QPzdt85NKB27ovcOvZqjYxzSYbfpmy/DQ9UJu49mwgqR01I2S5pymAIp3rkL6BV+mQPW/r1cFgR9ipwczO8w==" saltValue="AJe4VXgFDM+OXTpaqgTEOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Nd2ArLvMd7O1+F8+5BcY20MFNQ1tzcirOlAqRmxxnQ1kKHmd9mLx6eJd50wEzitiBYfHl/FgD7fXpOdHEfcQtg==" saltValue="ov2GLuBW6cb8Ulhr13VSHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1GQaWq3nRE5I465NyUnV+ChbnMk3KSHdDETzmbWl/DNgzYJ31HIbXXh9qEza8kV4iA0WNkX6Ju+XI4+ERS8a4Q==" saltValue="q6ONlyQ/Ip37hHKSPs2rdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="083eFozmC/y3ykWTBbQ5DwVTauoDhPO0Hkf/FtVDUYP/LpjcChA49cHSMKDKNF05Al+KHf6/sQ0rJ4zcf3snQQ==" saltValue="EIKcMAmVUyLVq9SGmfjBmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d0Sl0NRFSvqjMeCteh/Q30pnPVKVueFABMvadlEGWUJFi43OoZbShjMHl98e5anGNTOLJrprShYQONkDUq9SWQ==" saltValue="D17HlQQa9yu394t+VDn1Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2iJIlWXVIPZGcHOrNLsJBUwx3Qu0fi+Woaij/qiFkpuh8d/qX3tx+4U0wcRgRuq7CTbr1Iu0L21LCLBbXnlcKw==" saltValue="O7Zzsx7EXv0swGUCuYLhFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="N3Iu66xPXHUhu0dmUjX0Wpuz77g1S4cWd+i+Xth1cR/KzB7ks7+dORt0MFwfmAqMmsLy/yjiSPxUgoLxgVIPMw==" saltValue="gNkAKIKs+vbdms162NhiNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8yXJjXY6sR8HWiXEIQIbMmzsb2/taSVZs8m1+Mw1xkQJux/eumYCE9ATZe0alok8XpskffQ31IyOLcMgBz19LQ==" saltValue="P960Gs0DIwOuodynkp4XCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XdWDOBCss9VCqBGNWKFI+u/hUT2xFBxqK8eH1qza9pt9hCdhRoc43kmbUiiqIMAdM82Lry4UnjHd3QIL/HTMjA==" saltValue="USLsoiIb+X6FrQdeyz0zoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="G8QO/f2KauSCFmP7LiNP8diztLXToWJeopMTd70Y6O3vpjCXAaRUIiv8mwL3RK+y0NN00S9eQl6DVT8NLfuQ2g==" saltValue="DApvqQs+QLf/8JAzACGDQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ktf1wmzy9COsOJfVVOlLrxoao7CbWp3upMftXVTwkITb61aig18KlQyb3mqMrENKvzgjs2NG+pFrwoQnwwfBeA==" saltValue="yXrlrGHEukzlhkOSygAsQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K4GDx5BAtAaadZNXVxLo88hBiUu3ydQ6+U0oof415x1aMP7OlLpZ4g0ce/VNze6fafTea0yi3ytZcB3t9P7P5A==" saltValue="JyiF34nAH/mXSxiyxlC6FA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EbPnF0xR96EeIMA182KH7Yfk/f7T32NGzpAH5hpnKHjoU6cyOd16uvTzQCm2KYo0zkVXRSVZ/8ziAPjuz6Bh/A==" saltValue="kZwfZ1TB2G5QVLNlrALSpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C2sDpWuUr6EVRfSoGGSXgReuBw7AkXvKOB55AyG2Lv9tKFT8JZ+bE3e0NKFQofqYGmhjTt5mchkXv/qveLaVLA==" saltValue="CmuDDcLJyFOdvyKAoCmiew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tHLH4T3en9FI660YboL56SzJYy6L69QsLX/SpXOx6L5jUeA3lVOlqK7jPlSLYKrs7a3ZLkzQ/1JpSbQ8r32aSw==" saltValue="OHat6ED+a7Rd6G4URJT4TA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4fzrEnQ4abuaLo9kmL30euLx4J2azG2hrqZx7rCFFUA+pA+r75P3XkT09P9KiPPL4btyC6yFMTd1JeFnkhlEVA==" saltValue="Np2y0SYYHw9GBwgMikeBBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JuqZew8KzzdJgHQ1B6TbVHmhsvN2npSMVeQKpQk2j4pv7eS1c6/WZuBOOMSlTIl7sghYInS2ku9nq1unHs4mOA==" saltValue="JOWKSBxFUlhEWju1KWtA8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qVhd29/Sc+qYA0dt/EmQ0Ea2f11mWtGXBgFVkayQygYwWbA/PcfNydDB43j012LmWE6lH7+wLYw2w7CTIMZOiA==" saltValue="vLsuVG3OnCT2z7IebJ6Htw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oCrcjdEEW+/j9P5wwYKx3LugzyjRwzdLdI4KvEOktq5wSPnyAHvc2kWVyj9YvrQ7HX1+nWI2jYAkE5/CIiEC3A==" saltValue="2HxdWzcg7z7lrECR0HLoXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MZV7giYxB+jc1/7c42yBlbmllwWUIiwnBI91WihRkrYs8TU2tFs5rh4dVHJF2biKSfCZ+8UM2Z5LOlP6jzMI2Q==" saltValue="3+PVrarO39fYh2p7DRyN/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BidziV7LGBxHHiimccg8UXdVjFaL7tzTEhL8ccxJ8NoR+qPEOS5+AJFoX/tG/wKX2ojckvxjVoI52oWbYvJuTw==" saltValue="THbk/JUW0oIY6f5+TngevA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5J9QUR3dEPZoymTZV6+G+uQc6/ENM6lpsQPS523XCIWU8DHIxpID+r0mVUTEMqr7FwhxheD9oDzkGUlDBryV+A==" saltValue="Q8u+gdQbDVp/PodhpyhRJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DOlgGuqdQAKL4oq/Rl/xefAkgUgj3iPauKHg2/Iw+TVFMa2MOS9BC9EW46XNo+UdHgVJ5DxtF7hputyWM7DklQ==" saltValue="UxUU+3yCcLJlJFnp50MEtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+Lz59RqPDujHxouZo+vk3jQTKFEkdhfuIoV1pweAEm+ygi0Uh9pNazo1WbysdFDsr2eGrnxiF8kSqFI+ZBRRtQ==" saltValue="WYp+2eZiGPUeE+JjGdhL3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wjCqFacyhAlxLXoZYWHIn79ld2H2Cm93/nm+EfutBiuWi/yMbN3YbPoI6OA1HzVCDQlS0cBYWfW3e1AGp3N+yA==" saltValue="kpAwFGArJO02VargAaeSpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v1/g30YpXszrzGF/26H0wK1iCYGoTLpzX+/lSSDmcWx5aFWjwtQV5vzf34bHe2f05exYzMlvEZ1Svfl9qhj4Iw==" saltValue="jl/nco2nn+sTEV4nSipIiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rNKOD0CzrWJfx4eW5yt4BzNVjwr9jxtllgQGszKNCoFO9eBIPeUtd3/65dHzwVNHNljiAlpp2WHKw5tX7phvSA==" saltValue="Cnfk80ej2fCqzWNcAttTiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sfMubl730x9fQIzLqMi9U03Sdu7tIha6Xbc9CvYAf7KAvC8ANr9pGpqO6Wke0F97vrsV+Y9QLX3Chjgfavx9dw==" saltValue="shKfdlDtlMFmahvySDrmRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/18aHw7TxoBN/4Z5olgEHsUf953vQ9equX6oZ0+twLGS0ThD6xX5uhbhRHeTsEEkQ2at3EQMYoHatqETKxyI8Q==" saltValue="FYNtoulyUNUUcNXOAbDxHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vly6aiqW49sv8vu+FCcRMfmQABCsl2wLEFuFh42XAfGB3g0L15We85u9Q/YIEYm9FbWA3Vpy/h2eLwJhS9igYg==" saltValue="tU2L5CcjouYyl+9leEVhRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lPKXuVtMBSI35+pDXhJV5CXfkExdhgrKOS7+plpgpWxLLgbx4WFPc7mY1tgLzG2AqvAO1WgntZk+Q7wVaUuLUA==" saltValue="j1EVD4x9MekRmEw80Uj1LQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5imcTVj62KS3FN8npnid9V+plG9aynovcPqoSB1FPPFtXY12GiZuIlrCCf3rYAtANEPYblZE+avjbHFGF5Pr5Q==" saltValue="tISd9UkZxixdA5/i86ijuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZYVLYksJOB+lckgjNxvSPs+snvfFWoJZLIN1fAKG/sD2LB5M6lyW/xukbnqPd2HT+3cxLeREF9JhH6iFFcb9cQ==" saltValue="zH2R7DoLZ1Ox99mKRpe5WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WaTOtDQddGm4s4Efp42IflzE2O8MDBogIUpYiNYSY0NHnj2G+TgJnE5i1bRD05r7id0Hyxj8dTlNpfgOXzAffQ==" saltValue="mNQtPf1O6FKPHo8CxIvLUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7NuTo9GnxZtf3Sjo1HstKeOfyB/wVIpdCi3IusR0Fxpzep6dnmwHWbnZ5QfsGo6AfZQGhj8o8Z2ZGVmOM/zbgA==" saltValue="/r35Lh+JT3YC6gP+BIAgzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MZRstdnyqTmSWlTdMQMLoIigY0fDkqknoUdkqKjJEBxgqxX/h7OryYCZAwGkfbqr9T5TDwGWytKyf6JdVprNYQ==" saltValue="MOpn7uwt5R5WGDA3i1Ddlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B+npC/Rfo18pMk7QsExw3JfCa3zSrO/Tn8hoXDiNjoK6Xn82kESF+hhnO6TEpltNJQfFBD7RzMPGDxt80kvc0Q==" saltValue="7om+9jWzZSjsjvf0+JwlvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SB+ZNfiAJynRacu0QXa7vNbB3nV55EBC5wYzHFHlpSDyvwMGRyI5x0pU32qZJiAk82awu3Jg6ZVp3TXdPTX2Kw==" saltValue="kD4iEkuevQHkTdsmf+oycg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OaUn+pJDjjHW0HpdlDcps3u8uj3UGBPVZunRQtSKAhPs6wCgLTtsyv4/DtmejgyPABy51dZbmgn1154U5wzyBA==" saltValue="aL2vMZ3XEzXV2qgF2iJLag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="laLQYxqh+Z7LFWaeg+d1//kXWPguRkluY3wb7TecTwL+VsbS1euKiNGbGm9NOFy/2ZVYgKjpShC+9p+sEg9jjQ==" saltValue="lYk2zHb+f6ONUqKgrk7sTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wEKKKl6JFptkI8MwK6Ek5+1GWUPo0yQ/iit374if+alF057ujthWwHA0hwRi7eCHqT+kMAR050XnMjA6OSJOGA==" saltValue="KaEbooW2OoVS9ufTa+aurA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z57IKJoDTxhb5zrjDwcvQn4xWLyzBDO1YrBrK5qVEwZmC0CQ0ONjDxhPkBZD72Vu56mjT6d5qIIzMsdLd+xSbw==" saltValue="91WUbJPPms3Rel0L5LJsPA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fFUwkz9moKuA12FSaLsk54vE7BZHeMVgEYK6aymuKgA+rdr58VfHyhLb3hFloy4d0SoZsZfyc13+RBrEIocBWg==" saltValue="9PtWGVl4pJqp9+fZiYC6Zg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HUdnDGUpFNVmpgfGB7eHjyj5yX3+ikgaZ4Gq/0u8Y2SI8LrEhO9njAKyQQgH7C0uRtsJPlpwt4u+fEI3stFlXg==" saltValue="2DSe0KXw5cstIjaSqXggwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3Oi7vRevrZfK1XYYqBfSaSOG6fDWOX8ZdlxwQM2gaQysdHENbuZxWrwekbaxlDT7lfubxoGC7Fj5jwmDK+wy5Q==" saltValue="0YAfyO8q4aB6yHe4YrB0sA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QHq47BdqCsnmeqn2ARH842RB3cQqL8KNTJ1+vHfKe5s7FfNvCixaSZ0aBdo+31g70QQh2TsGDowQ+9sKqu8b7Q==" saltValue="lU+9gMl1rEett5OFT4OmTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="itCxnxKh7zH8T8yAAIRhcuS/ZkbuYBAaAXcPjVU6pDiIfEoKAZNd00vjdaWCP4+N9swcV8S9bPSB2i1mDzTpWg==" saltValue="U5cmk8h8vTwXV7PNmmiN2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YZNghAK4Qf87Oz1cmKR3mk/TWwgZaOmsIXk3hxQnCbVv79rTPM62PH8+qU8+W7Ev3gLoQvBaxoXB9rnCbZlVmQ==" saltValue="wGBPzdr6nMwKyoW5fSFsJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kjvjEni3WqRlKc3lkU4RImZxV81Sr0i5yOp6x9adpJQuHcaA2yYhdHjQoJoPLr+sVauIy8aBX9eAMQGHfQ72MA==" saltValue="Vd+a1J51bIdxOHknHVwYWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5A27C4-6C6A-402D-A7E8-68562AC56F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EEE46C-B0EE-4E20-9C83-46D66EB19905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causes du décès" sheetId="4" r:id="rId3"/>
     <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
-    <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
+    <sheet name="Tendances temporelles" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
   <si>
     <t>Condition</t>
   </si>
@@ -2909,15 +2909,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5093,18 +5093,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5115,14 +5115,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -5131,7 +5131,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -5140,7 +5140,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5209,7 +5209,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="115">
+      <c r="C20" s="114">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5340,17 +5340,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="116">
+      <c r="C33" s="115">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5454,7 +5454,7 @@
       <c r="B48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="115">
+      <c r="C48" s="114">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5578,19 +5578,19 @@
       <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>157</v>
       </c>
@@ -6518,19 +6518,19 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6671,13 +6671,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.21875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6770,7 +6770,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6885,19 +6885,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
@@ -7505,7 +7505,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>169</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>180</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>181</v>
@@ -7886,7 +7886,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>210</v>
       </c>
@@ -8644,7 +8644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8683,16 +8683,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>216</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>217</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>218</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>219</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>220</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>221</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>222</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>223</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>224</v>
       </c>
@@ -8890,20 +8890,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.1796875" style="43"/>
+    <col min="6" max="7" width="13.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>211</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>86</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>171</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>157</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>158</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>159</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>184</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>185</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>189</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>191</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>192</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>205</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>161</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>193</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>199</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
         <v>200</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
@@ -9629,7 +9629,7 @@
       <c r="N17" s="99"/>
       <c r="O17" s="99"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>100</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="40" t="s">
         <v>169</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
         <v>180</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
         <v>181</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="74" t="s">
         <v>182</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>187</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>188</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40" t="s">
         <v>190</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
@@ -10001,7 +10001,7 @@
       <c r="N26" s="99"/>
       <c r="O26" s="99"/>
     </row>
-    <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>75</v>
       </c>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="P27" s="75"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>176</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="46" t="s">
         <v>177</v>
@@ -10138,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>178</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46" t="s">
         <v>179</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
@@ -10242,7 +10242,7 @@
       <c r="N32" s="99"/>
       <c r="O32" s="99"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>210</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>174</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>175</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>183</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>186</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>194</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>195</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>196</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>197</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>198</v>
       </c>
@@ -10702,22 +10702,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -11469,22 +11468,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>230</v>
       </c>
@@ -11843,14 +11841,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>76</v>
       </c>
@@ -12938,15 +12936,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.7265625" style="28"/>
+    <col min="3" max="3" width="14.77734375" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>231</v>
       </c>
@@ -12972,11 +12970,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12999,7 +12997,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="114"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="28" t="s">
         <v>154</v>
       </c>
@@ -13021,7 +13019,7 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13043,7 +13041,7 @@
       <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13067,7 +13065,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="28" t="s">
         <v>154</v>
       </c>
@@ -13088,7 +13086,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13109,7 +13107,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13132,7 +13130,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
@@ -13153,7 +13151,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13174,7 +13172,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13197,7 +13195,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="28" t="s">
         <v>154</v>
       </c>
@@ -13218,7 +13216,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13239,7 +13237,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13262,7 +13260,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="28" t="s">
         <v>154</v>
       </c>
@@ -13283,7 +13281,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13303,7 +13301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="77" t="s">
         <v>156</v>
       </c>
@@ -13333,11 +13331,11 @@
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13360,7 +13358,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="114"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="28" t="s">
         <v>154</v>
       </c>
@@ -13381,7 +13379,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="114"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13402,7 +13400,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13425,7 +13423,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="28" t="s">
         <v>154</v>
       </c>
@@ -13446,7 +13444,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13467,7 +13465,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13490,7 +13488,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="114"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="28" t="s">
         <v>154</v>
       </c>
@@ -13511,7 +13509,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13532,7 +13530,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13555,7 +13553,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="28" t="s">
         <v>154</v>
       </c>
@@ -13576,7 +13574,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13597,7 +13595,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13620,7 +13618,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="114"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="28" t="s">
         <v>154</v>
       </c>
@@ -13641,7 +13639,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="114"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13661,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="77" t="s">
         <v>156</v>
       </c>
@@ -13691,11 +13689,11 @@
       <c r="G35" s="101"/>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13718,7 +13716,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="28" t="s">
         <v>154</v>
       </c>
@@ -13739,7 +13737,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13760,7 +13758,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13783,7 +13781,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="28" t="s">
         <v>154</v>
       </c>
@@ -13804,7 +13802,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="114"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13825,7 +13823,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13848,7 +13846,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="28" t="s">
         <v>154</v>
       </c>
@@ -13869,7 +13867,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13890,7 +13888,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13913,7 +13911,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="28" t="s">
         <v>154</v>
       </c>
@@ -13934,7 +13932,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13955,7 +13953,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13978,7 +13976,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="28" t="s">
         <v>154</v>
       </c>
@@ -13999,7 +13997,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14019,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="77" t="s">
         <v>156</v>
       </c>
@@ -14042,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="107" t="s">
         <v>235</v>
       </c>
@@ -14054,7 +14052,7 @@
       <c r="G53" s="107"/>
       <c r="H53" s="107"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>231</v>
       </c>
@@ -14080,11 +14078,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14112,7 +14110,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="28" t="s">
         <v>154</v>
       </c>
@@ -14138,7 +14136,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14164,7 +14162,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14192,7 +14190,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="28" t="s">
         <v>154</v>
       </c>
@@ -14218,7 +14216,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14244,7 +14242,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14272,7 +14270,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="28" t="s">
         <v>154</v>
       </c>
@@ -14298,7 +14296,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14324,7 +14322,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14352,7 +14350,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="28" t="s">
         <v>154</v>
       </c>
@@ -14378,7 +14376,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14404,7 +14402,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14432,7 +14430,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="114"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="28" t="s">
         <v>154</v>
       </c>
@@ -14458,7 +14456,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="114"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14483,7 +14481,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="77" t="s">
         <v>156</v>
       </c>
@@ -14518,11 +14516,11 @@
       <c r="G71" s="101"/>
       <c r="H71" s="101"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14550,7 +14548,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="114"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="28" t="s">
         <v>154</v>
       </c>
@@ -14576,7 +14574,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14602,7 +14600,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="114" t="s">
+      <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14630,7 +14628,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="114"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="28" t="s">
         <v>154</v>
       </c>
@@ -14656,7 +14654,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="114"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14682,7 +14680,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14710,7 +14708,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="28" t="s">
         <v>154</v>
       </c>
@@ -14736,7 +14734,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="114"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14762,7 +14760,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14790,7 +14788,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="114"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="28" t="s">
         <v>154</v>
       </c>
@@ -14816,7 +14814,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="114"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14842,7 +14840,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="114" t="s">
+      <c r="B84" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14870,7 +14868,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="114"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="28" t="s">
         <v>154</v>
       </c>
@@ -14896,7 +14894,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="114"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14921,7 +14919,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="77" t="s">
         <v>156</v>
       </c>
@@ -14956,11 +14954,11 @@
       <c r="G88" s="101"/>
       <c r="H88" s="101"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="114" t="s">
+      <c r="B89" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14988,7 +14986,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="114"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="28" t="s">
         <v>154</v>
       </c>
@@ -15014,7 +15012,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="114"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15040,7 +15038,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="114" t="s">
+      <c r="B92" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15068,7 +15066,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="28" t="s">
         <v>154</v>
       </c>
@@ -15094,7 +15092,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="114"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15120,7 +15118,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15148,7 +15146,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="114"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="28" t="s">
         <v>154</v>
       </c>
@@ -15174,7 +15172,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="114"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15200,7 +15198,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="114" t="s">
+      <c r="B98" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15228,7 +15226,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="114"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="28" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15252,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="114"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15280,7 +15278,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15308,7 +15306,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="114"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="28" t="s">
         <v>154</v>
       </c>
@@ -15334,7 +15332,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="114"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15359,7 +15357,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="77" t="s">
         <v>156</v>
       </c>
@@ -15387,7 +15385,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="107" t="s">
         <v>239</v>
       </c>
@@ -15399,7 +15397,7 @@
       <c r="G106" s="107"/>
       <c r="H106" s="107"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>231</v>
       </c>
@@ -15425,11 +15423,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15457,7 +15455,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="114"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="28" t="s">
         <v>154</v>
       </c>
@@ -15483,7 +15481,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="114"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15509,7 +15507,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="114" t="s">
+      <c r="B111" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15537,7 +15535,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="114"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="28" t="s">
         <v>154</v>
       </c>
@@ -15563,7 +15561,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="114"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15589,7 +15587,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="114" t="s">
+      <c r="B114" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15617,7 +15615,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="114"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="28" t="s">
         <v>154</v>
       </c>
@@ -15643,7 +15641,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="114"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15669,7 +15667,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="114" t="s">
+      <c r="B117" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15697,7 +15695,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="114"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="28" t="s">
         <v>154</v>
       </c>
@@ -15723,7 +15721,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="114"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15749,7 +15747,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="114" t="s">
+      <c r="B120" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15777,7 +15775,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="114"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="28" t="s">
         <v>154</v>
       </c>
@@ -15803,7 +15801,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="114"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15828,7 +15826,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="77" t="s">
         <v>156</v>
       </c>
@@ -15863,11 +15861,11 @@
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="114" t="s">
+      <c r="B125" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15895,7 +15893,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="114"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="28" t="s">
         <v>154</v>
       </c>
@@ -15921,7 +15919,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="114"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15947,7 +15945,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="114" t="s">
+      <c r="B128" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15975,7 +15973,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="114"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="28" t="s">
         <v>154</v>
       </c>
@@ -16001,7 +15999,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="114"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16027,7 +16025,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="114" t="s">
+      <c r="B131" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16055,7 +16053,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="28" t="s">
         <v>154</v>
       </c>
@@ -16081,7 +16079,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="114"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16107,7 +16105,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="114" t="s">
+      <c r="B134" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16135,7 +16133,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="114"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="28" t="s">
         <v>154</v>
       </c>
@@ -16161,7 +16159,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="114"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16187,7 +16185,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="114" t="s">
+      <c r="B137" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16215,7 +16213,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="114"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="28" t="s">
         <v>154</v>
       </c>
@@ -16241,7 +16239,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="114"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16266,7 +16264,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="77" t="s">
         <v>156</v>
       </c>
@@ -16301,11 +16299,11 @@
       <c r="G141" s="101"/>
       <c r="H141" s="101"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="114" t="s">
+      <c r="B142" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16333,7 +16331,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="114"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="28" t="s">
         <v>154</v>
       </c>
@@ -16359,7 +16357,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="114"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16385,7 +16383,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="114" t="s">
+      <c r="B145" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16413,7 +16411,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="114"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="28" t="s">
         <v>154</v>
       </c>
@@ -16439,7 +16437,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="114"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16465,7 +16463,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="114" t="s">
+      <c r="B148" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16493,7 +16491,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="114"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="28" t="s">
         <v>154</v>
       </c>
@@ -16519,7 +16517,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="114"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16545,7 +16543,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="114" t="s">
+      <c r="B151" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16573,7 +16571,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="114"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="28" t="s">
         <v>154</v>
       </c>
@@ -16599,7 +16597,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="114"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16625,7 +16623,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="114" t="s">
+      <c r="B154" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16653,7 +16651,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="114"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="28" t="s">
         <v>154</v>
       </c>
@@ -16679,7 +16677,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="114"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -16704,7 +16702,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="77" t="s">
         <v>156</v>
       </c>
@@ -16735,6 +16733,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bmYrsM0SGro+R2mSZ3Xt2koRuET3d3N0YVjAPeyw0DdQUXq2freP+W1Wqg0CXnoKPniJY2bhYjWFbAI6F5/5Cg==" saltValue="VokvcnGmBUa5kvehQJbgxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16744,42 +16778,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16800,22 +16798,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.1796875" style="28"/>
+    <col min="7" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
         <v>54</v>
@@ -16830,7 +16828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>244</v>
       </c>
@@ -16914,7 +16912,7 @@
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>249</v>
       </c>
@@ -16937,7 +16935,7 @@
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>245</v>
       </c>
@@ -16946,7 +16944,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>246</v>
       </c>
@@ -17006,7 +17004,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="90"/>
@@ -17014,7 +17012,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>248</v>
       </c>
@@ -17163,7 +17161,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>235</v>
       </c>
@@ -17173,12 +17171,12 @@
       <c r="E27" s="110"/>
       <c r="F27" s="110"/>
     </row>
-    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="81"/>
       <c r="C29" s="82" t="s">
         <v>54</v>
@@ -17193,7 +17191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>250</v>
       </c>
@@ -17293,7 +17291,7 @@
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>262</v>
       </c>
@@ -17314,7 +17312,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>245</v>
       </c>
@@ -17324,7 +17322,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>251</v>
       </c>
@@ -17396,7 +17394,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="90"/>
@@ -17404,7 +17402,7 @@
       <c r="E43" s="76"/>
       <c r="F43" s="76"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>252</v>
       </c>
@@ -17582,7 +17580,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="107" t="s">
         <v>239</v>
       </c>
@@ -17592,12 +17590,12 @@
       <c r="E54" s="110"/>
       <c r="F54" s="110"/>
     </row>
-    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="81"/>
       <c r="C56" s="82" t="s">
         <v>54</v>
@@ -17612,7 +17610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>253</v>
       </c>
@@ -17712,7 +17710,7 @@
       <c r="E62" s="76"/>
       <c r="F62" s="76"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>263</v>
       </c>
@@ -17733,7 +17731,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>245</v>
       </c>
@@ -17743,7 +17741,7 @@
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>254</v>
       </c>
@@ -17815,7 +17813,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="90"/>
@@ -17823,7 +17821,7 @@
       <c r="E70" s="76"/>
       <c r="F70" s="76"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>255</v>
       </c>
@@ -18022,23 +18020,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.7265625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>226</v>
       </c>
@@ -18072,7 +18070,7 @@
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>87</v>
@@ -18505,7 +18503,7 @@
       <c r="O17" s="93"/>
       <c r="P17" s="93"/>
     </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>269</v>
       </c>
@@ -18763,12 +18761,12 @@
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
     </row>
-    <row r="28" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
         <v>279</v>
       </c>
@@ -18802,7 +18800,7 @@
       <c r="O29" s="94"/>
       <c r="P29" s="94"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>87</v>
@@ -19497,12 +19495,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="s">
         <v>121</v>
       </c>
@@ -19530,7 +19528,7 @@
       <c r="O56" s="94"/>
       <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>101</v>
@@ -19676,12 +19674,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="s">
         <v>128</v>
       </c>
@@ -19715,7 +19713,7 @@
       <c r="O65" s="94"/>
       <c r="P65" s="94"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="97"/>
       <c r="B66" s="28" t="s">
         <v>78</v>
@@ -20751,12 +20749,12 @@
       <c r="O101" s="93"/>
       <c r="P101" s="93"/>
     </row>
-    <row r="103" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="s">
         <v>87</v>
       </c>
@@ -20790,7 +20788,7 @@
       <c r="O104" s="94"/>
       <c r="P104" s="94"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>129</v>
@@ -20903,13 +20901,13 @@
       <c r="O108" s="93"/>
       <c r="P108" s="93"/>
     </row>
-    <row r="110" spans="1:16" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="107" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="107"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
         <v>264</v>
       </c>
@@ -20921,7 +20919,7 @@
       <c r="G111" s="80"/>
       <c r="H111" s="80"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="s">
         <v>226</v>
       </c>
@@ -20947,7 +20945,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>87</v>
@@ -21566,7 +21564,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
         <v>278</v>
       </c>
@@ -21578,7 +21576,7 @@
       <c r="G138" s="80"/>
       <c r="H138" s="80"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="s">
         <v>279</v>
       </c>
@@ -21604,7 +21602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>87</v>
@@ -22227,7 +22225,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="79" t="s">
         <v>271</v>
       </c>
@@ -22239,7 +22237,7 @@
       <c r="G165" s="80"/>
       <c r="H165" s="80"/>
     </row>
-    <row r="166" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="s">
         <v>121</v>
       </c>
@@ -22263,7 +22261,7 @@
       </c>
       <c r="H166" s="94"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>101</v>
@@ -22409,7 +22407,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="79" t="s">
         <v>275</v>
       </c>
@@ -22421,7 +22419,7 @@
       <c r="G174" s="80"/>
       <c r="H174" s="80"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="93" t="s">
         <v>128</v>
       </c>
@@ -22447,7 +22445,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="97"/>
       <c r="B176" s="28" t="s">
         <v>78</v>
@@ -23339,7 +23337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="79" t="s">
         <v>277</v>
       </c>
@@ -23351,7 +23349,7 @@
       <c r="G213" s="80"/>
       <c r="H213" s="80"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="93" t="s">
         <v>87</v>
       </c>
@@ -23377,7 +23375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>129</v>
@@ -23474,13 +23472,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="107" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="107"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="79" t="s">
         <v>264</v>
       </c>
@@ -23493,7 +23491,7 @@
       <c r="H221" s="80"/>
       <c r="I221" s="80"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="93" t="s">
         <v>226</v>
       </c>
@@ -23520,7 +23518,7 @@
       </c>
       <c r="I222" s="94"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>87</v>
@@ -24163,7 +24161,7 @@
       </c>
       <c r="I246" s="93"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="79" t="s">
         <v>278</v>
       </c>
@@ -24176,7 +24174,7 @@
       <c r="H248" s="80"/>
       <c r="I248" s="80"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="93" t="s">
         <v>279</v>
       </c>
@@ -24203,7 +24201,7 @@
       </c>
       <c r="I249" s="94"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>87</v>
@@ -24850,7 +24848,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="79" t="s">
         <v>271</v>
       </c>
@@ -24863,7 +24861,7 @@
       <c r="H275" s="80"/>
       <c r="I275" s="80"/>
     </row>
-    <row r="276" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="93" t="s">
         <v>121</v>
       </c>
@@ -24887,7 +24885,7 @@
       </c>
       <c r="H276" s="94"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>101</v>
@@ -25033,7 +25031,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="79" t="s">
         <v>275</v>
       </c>
@@ -25046,7 +25044,7 @@
       <c r="H284" s="80"/>
       <c r="I284" s="80"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="93" t="s">
         <v>128</v>
       </c>
@@ -25073,7 +25071,7 @@
       </c>
       <c r="I285" s="94"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="97"/>
       <c r="B286" s="28" t="s">
         <v>78</v>
@@ -26001,7 +25999,7 @@
       </c>
       <c r="I321" s="93"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="79" t="s">
         <v>277</v>
       </c>
@@ -26014,7 +26012,7 @@
       <c r="H323" s="80"/>
       <c r="I323" s="80"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="93" t="s">
         <v>87</v>
       </c>
@@ -26041,7 +26039,7 @@
       </c>
       <c r="I324" s="94"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>129</v>
@@ -26163,24 +26161,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="7" max="7" width="13.77734375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
@@ -26221,7 +26219,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="73" t="s">
         <v>281</v>
@@ -26242,7 +26240,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>282</v>
       </c>
@@ -26335,12 +26333,12 @@
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
       <c r="B12" s="46" t="s">
         <v>184</v>
@@ -26361,16 +26359,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>279</v>
       </c>
@@ -26393,7 +26391,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="73" t="s">
         <v>287</v>
@@ -26414,7 +26412,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
         <v>121</v>
       </c>
@@ -26438,12 +26436,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>69</v>
       </c>
@@ -26474,12 +26472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>233</v>
       </c>
@@ -26490,7 +26488,7 @@
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
         <v>0</v>
       </c>
@@ -26535,7 +26533,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="73" t="s">
         <v>290</v>
@@ -26561,7 +26559,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>291</v>
       </c>
@@ -26674,7 +26672,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
         <v>295</v>
       </c>
@@ -26685,7 +26683,7 @@
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="84"/>
       <c r="B35" s="46" t="s">
         <v>296</v>
@@ -26708,11 +26706,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
       <c r="B36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>283</v>
       </c>
@@ -26723,7 +26721,7 @@
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="97" t="s">
         <v>279</v>
       </c>
@@ -26751,7 +26749,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="73" t="s">
         <v>298</v>
@@ -26777,7 +26775,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="s">
         <v>121</v>
       </c>
@@ -26805,7 +26803,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>300</v>
       </c>
@@ -26816,7 +26814,7 @@
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
       <c r="B43" s="84"/>
       <c r="C43" s="44" t="s">
@@ -26854,12 +26852,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>233</v>
       </c>
@@ -26870,7 +26868,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="s">
         <v>0</v>
       </c>
@@ -26915,7 +26913,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="73" t="s">
         <v>303</v>
@@ -26941,7 +26939,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>304</v>
       </c>
@@ -27054,7 +27052,7 @@
       <c r="F56" s="73"/>
       <c r="G56" s="73"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
         <v>308</v>
       </c>
@@ -27065,7 +27063,7 @@
       <c r="F57" s="80"/>
       <c r="G57" s="80"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
       <c r="B58" s="46" t="s">
         <v>309</v>
@@ -27088,11 +27086,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
       <c r="B59" s="46"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>283</v>
       </c>
@@ -27103,7 +27101,7 @@
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="97" t="s">
         <v>279</v>
       </c>
@@ -27131,7 +27129,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="73" t="s">
         <v>311</v>
@@ -27157,7 +27155,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="97" t="s">
         <v>121</v>
       </c>
@@ -27185,7 +27183,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>313</v>
       </c>
@@ -27196,7 +27194,7 @@
       <c r="F65" s="80"/>
       <c r="G65" s="80"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
       <c r="B66" s="84"/>
       <c r="C66" s="44" t="s">
@@ -27256,16 +27254,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.1796875" style="28"/>
-    <col min="7" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.1796875" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.21875" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -27511,12 +27509,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>160</v>
       </c>
@@ -27810,12 +27808,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>160</v>
       </c>
@@ -28130,15 +28128,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.7265625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="83" t="s">
@@ -28181,7 +28179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>319</v>
       </c>
@@ -28626,7 +28624,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>189</v>
       </c>
@@ -28758,7 +28756,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>320</v>
       </c>
@@ -28940,12 +28938,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="83" t="s">
@@ -28988,7 +28986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>321</v>
       </c>
@@ -29734,7 +29732,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>323</v>
       </c>
@@ -29968,12 +29966,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="83" t="s">
@@ -30016,7 +30014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>322</v>
       </c>
@@ -30762,7 +30760,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>324</v>
       </c>
@@ -31017,15 +31015,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="21.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -31044,7 +31042,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>325</v>
       </c>
@@ -31069,7 +31067,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>326</v>
       </c>
@@ -31100,12 +31098,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -31124,7 +31122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>327</v>
       </c>
@@ -31154,7 +31152,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>328</v>
       </c>
@@ -31190,12 +31188,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -31214,7 +31212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>329</v>
       </c>
@@ -31244,7 +31242,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>330</v>
       </c>
@@ -31301,20 +31299,20 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.7265625" style="28"/>
+    <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -32497,14 +32495,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>331</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>160</v>
       </c>
@@ -33947,14 +33945,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="111" t="s">
         <v>332</v>
       </c>
       <c r="B110" s="112"/>
       <c r="C110" s="112"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>160</v>
       </c>
@@ -35418,16 +35416,16 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -35575,12 +35573,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>160</v>
       </c>
@@ -35745,12 +35743,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>160</v>
       </c>
@@ -35935,14 +35933,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -35953,7 +35951,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -36036,7 +36034,7 @@
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="116">
+      <c r="C11" s="115">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -36052,7 +36050,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
@@ -36230,19 +36228,19 @@
       <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="116">
+      <c r="C23" s="115">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="116">
+      <c r="D23" s="115">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="116">
+      <c r="E23" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="116">
+      <c r="F23" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36258,7 +36256,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -36350,7 +36348,7 @@
       <c r="B35" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="116">
+      <c r="C35" s="115">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
@@ -36374,13 +36372,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36411,23 +36409,23 @@
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="117">
+      <c r="E2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.44982829694488635</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.24457139941017503</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.23269074767298425</v>
       </c>
@@ -36436,23 +36434,23 @@
       <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="E3" s="117">
+      <c r="E3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
@@ -36520,23 +36518,23 @@
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.68355843805440353</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.73228840888273117</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.81212055177975573</v>
       </c>
@@ -36545,23 +36543,23 @@
       <c r="B9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
@@ -36712,55 +36710,55 @@
       <c r="B15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="116">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="116">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="116">
         <f t="shared" si="0"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="116">
         <f t="shared" si="0"/>
         <v>0.30639</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="116">
         <f t="shared" si="0"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N15" s="117">
+      <c r="N15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
@@ -36798,13 +36796,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36895,23 +36893,23 @@
       <c r="B5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <f>1-SUM(C2:C4)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>2.4399366085578356E-2</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="116">
         <f t="shared" si="0"/>
         <v>1.8961838681699872E-2</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="116">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="116">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36934,13 +36932,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -37138,13 +37136,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -37214,18 +37212,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>151</v>
       </c>
@@ -37242,7 +37240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>157</v>
       </c>
@@ -37260,8 +37258,8 @@
       <c r="B3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="63" t="b">
-        <v>1</v>
+      <c r="C3" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="45" t="str">
@@ -37273,8 +37271,8 @@
       <c r="B4" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="63" t="b">
-        <v>1</v>
+      <c r="C4" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="45" t="str">
@@ -37286,8 +37284,8 @@
       <c r="B5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="63" t="b">
-        <v>1</v>
+      <c r="C5" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="45" t="str">
@@ -37299,8 +37297,8 @@
       <c r="B6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="63" t="b">
-        <v>1</v>
+      <c r="C6" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="45" t="str">
@@ -37316,7 +37314,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>158</v>
       </c>
@@ -37324,9 +37322,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="63" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="63"/>
       <c r="E9" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37337,7 +37333,9 @@
         <v>109</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="D10" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37348,7 +37346,9 @@
         <v>96</v>
       </c>
       <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37359,7 +37359,9 @@
         <v>97</v>
       </c>
       <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37370,7 +37372,9 @@
         <v>98</v>
       </c>
       <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37382,11 +37386,9 @@
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="63"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>159</v>
       </c>
@@ -37394,9 +37396,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="63"/>
-      <c r="D16" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="63"/>
       <c r="E16" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37433,9 +37433,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="63"/>
-      <c r="D19" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D19" s="63"/>
       <c r="E19" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37446,9 +37444,7 @@
         <v>98</v>
       </c>
       <c r="C20" s="63"/>
-      <c r="D20" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="63"/>
       <c r="E20" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37480,15 +37476,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
@@ -37502,7 +37498,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>160</v>
       </c>
@@ -37514,7 +37510,7 @@
       </c>
       <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>164</v>
       </c>

--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EEE46C-B0EE-4E20-9C83-46D66EB19905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54B0244-6C7F-4F35-B9FE-8B35AF02F53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -5093,7 +5093,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -6518,7 +6518,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -16733,12 +16733,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bmYrsM0SGro+R2mSZ3Xt2koRuET3d3N0YVjAPeyw0DdQUXq2freP+W1Wqg0CXnoKPniJY2bhYjWFbAI6F5/5Cg==" saltValue="VokvcnGmBUa5kvehQJbgxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16748,36 +16772,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31295,8 +31295,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31375,13 +31375,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31751,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31771,13 +31771,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31797,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31817,13 +31817,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31863,13 +31863,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31915,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31935,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31955,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31981,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32001,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32021,7 +32021,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32047,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32067,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32113,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32133,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32179,7 +32179,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32199,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32219,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32265,7 +32265,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32285,7 +32285,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32308,7 +32308,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32328,7 +32328,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32348,7 +32348,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32374,7 +32374,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32388,19 +32388,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32414,19 +32414,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32440,7 +32440,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32466,7 +32466,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32486,7 +32486,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32548,15 +32548,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32573,15 +32573,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32981,7 +32981,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33034,7 +33034,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33057,7 +33057,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="105">
         <f t="shared" si="8"/>
@@ -33090,7 +33090,7 @@
       </c>
       <c r="F77" s="105">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="105">
         <f t="shared" si="9"/>
@@ -33113,7 +33113,7 @@
       </c>
       <c r="D78" s="105">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="105">
         <f t="shared" si="10"/>
@@ -33121,7 +33121,7 @@
       </c>
       <c r="F78" s="105">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="105">
         <f t="shared" si="10"/>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F79" s="105">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="105">
         <f t="shared" si="11"/>
@@ -33169,7 +33169,7 @@
       </c>
       <c r="D80" s="105">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="105">
         <f t="shared" si="12"/>
@@ -33177,7 +33177,7 @@
       </c>
       <c r="F80" s="105">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="105">
         <f t="shared" si="12"/>
@@ -33202,7 +33202,7 @@
       </c>
       <c r="F81" s="105">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="105">
         <f t="shared" si="13"/>
@@ -33233,7 +33233,7 @@
       </c>
       <c r="F82" s="105">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="105">
         <f t="shared" si="14"/>
@@ -33258,7 +33258,7 @@
       </c>
       <c r="F83" s="105">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="105">
         <f t="shared" si="15"/>
@@ -33283,7 +33283,7 @@
       </c>
       <c r="F84" s="105">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="105">
         <f t="shared" si="16"/>
@@ -33314,7 +33314,7 @@
       </c>
       <c r="F85" s="105">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="105">
         <f t="shared" si="17"/>
@@ -33339,7 +33339,7 @@
       </c>
       <c r="F86" s="105">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="105">
         <f t="shared" si="18"/>
@@ -33364,7 +33364,7 @@
       </c>
       <c r="F87" s="105">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="105">
         <f t="shared" si="19"/>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="F88" s="105">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="105">
         <f t="shared" si="20"/>
@@ -33420,7 +33420,7 @@
       </c>
       <c r="F89" s="105">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="105">
         <f t="shared" si="21"/>
@@ -33445,7 +33445,7 @@
       </c>
       <c r="F90" s="105">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="105">
         <f t="shared" si="22"/>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="F91" s="105">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="105">
         <f t="shared" si="23"/>
@@ -33501,7 +33501,7 @@
       </c>
       <c r="F92" s="105">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="105">
         <f t="shared" si="24"/>
@@ -33526,7 +33526,7 @@
       </c>
       <c r="F93" s="105">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="105">
         <f t="shared" si="25"/>
@@ -33557,7 +33557,7 @@
       </c>
       <c r="F94" s="105">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="105">
         <f t="shared" si="26"/>
@@ -33582,7 +33582,7 @@
       </c>
       <c r="F95" s="105">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="105">
         <f t="shared" si="27"/>
@@ -33607,7 +33607,7 @@
       </c>
       <c r="F96" s="105">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="105">
         <f t="shared" si="28"/>
@@ -33638,7 +33638,7 @@
       </c>
       <c r="F97" s="105">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="105">
         <f t="shared" si="29"/>
@@ -33663,7 +33663,7 @@
       </c>
       <c r="F98" s="105">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="105">
         <f t="shared" si="30"/>
@@ -33688,7 +33688,7 @@
       </c>
       <c r="F99" s="105">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="105">
         <f t="shared" si="31"/>
@@ -33716,7 +33716,7 @@
       </c>
       <c r="F100" s="105">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="105">
         <f t="shared" si="32"/>
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F101" s="105">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="105">
         <f t="shared" si="33"/>
@@ -33766,7 +33766,7 @@
       </c>
       <c r="F102" s="105">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="105">
         <f t="shared" si="34"/>
@@ -33797,7 +33797,7 @@
       </c>
       <c r="F103" s="105">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="105">
         <f t="shared" si="35"/>
@@ -33814,23 +33814,23 @@
       </c>
       <c r="D104" s="105">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="105">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33845,23 +33845,23 @@
       </c>
       <c r="D105" s="105">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="105">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33878,7 +33878,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="105">
         <f t="shared" si="38"/>
@@ -33909,7 +33909,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="105">
         <f t="shared" si="39"/>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="105">
         <f t="shared" si="40"/>
@@ -33998,15 +33998,15 @@
       </c>
       <c r="F112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34023,15 +34023,15 @@
       </c>
       <c r="F113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34431,7 +34431,7 @@
       </c>
       <c r="F128" s="105">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="105">
         <f t="shared" si="46"/>
@@ -34484,7 +34484,7 @@
       </c>
       <c r="F130" s="105">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="105">
         <f t="shared" si="48"/>
@@ -34507,7 +34507,7 @@
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="105">
         <f t="shared" si="49"/>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="F131" s="105">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="105">
         <f t="shared" si="49"/>
@@ -34540,7 +34540,7 @@
       </c>
       <c r="F132" s="105">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="105">
         <f t="shared" si="50"/>
@@ -34563,7 +34563,7 @@
       </c>
       <c r="D133" s="105">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="105">
         <f t="shared" si="51"/>
@@ -34571,7 +34571,7 @@
       </c>
       <c r="F133" s="105">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="105">
         <f t="shared" si="51"/>
@@ -34596,7 +34596,7 @@
       </c>
       <c r="F134" s="105">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="105">
         <f t="shared" si="52"/>
@@ -34619,7 +34619,7 @@
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="105">
         <f t="shared" si="53"/>
@@ -34627,7 +34627,7 @@
       </c>
       <c r="F135" s="105">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="105">
         <f t="shared" si="53"/>
@@ -34652,7 +34652,7 @@
       </c>
       <c r="F136" s="105">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="105">
         <f t="shared" si="54"/>
@@ -34683,7 +34683,7 @@
       </c>
       <c r="F137" s="105">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="105">
         <f t="shared" si="55"/>
@@ -34708,7 +34708,7 @@
       </c>
       <c r="F138" s="105">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="105">
         <f t="shared" si="56"/>
@@ -34733,7 +34733,7 @@
       </c>
       <c r="F139" s="105">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="105">
         <f t="shared" si="57"/>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="F140" s="105">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="105">
         <f t="shared" si="58"/>
@@ -34789,7 +34789,7 @@
       </c>
       <c r="F141" s="105">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="105">
         <f t="shared" si="59"/>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="F142" s="105">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="105">
         <f t="shared" si="60"/>
@@ -34845,7 +34845,7 @@
       </c>
       <c r="F143" s="105">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="105">
         <f t="shared" si="61"/>
@@ -34870,7 +34870,7 @@
       </c>
       <c r="F144" s="105">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="105">
         <f t="shared" si="62"/>
@@ -34895,7 +34895,7 @@
       </c>
       <c r="F145" s="105">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="105">
         <f t="shared" si="63"/>
@@ -34926,7 +34926,7 @@
       </c>
       <c r="F146" s="105">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="105">
         <f t="shared" si="64"/>
@@ -34951,7 +34951,7 @@
       </c>
       <c r="F147" s="105">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="105">
         <f t="shared" si="65"/>
@@ -34976,7 +34976,7 @@
       </c>
       <c r="F148" s="105">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="105">
         <f t="shared" si="66"/>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="F149" s="105">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="105">
         <f t="shared" si="67"/>
@@ -35032,7 +35032,7 @@
       </c>
       <c r="F150" s="105">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="105">
         <f t="shared" si="68"/>
@@ -35057,7 +35057,7 @@
       </c>
       <c r="F151" s="105">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="105">
         <f t="shared" si="69"/>
@@ -35088,7 +35088,7 @@
       </c>
       <c r="F152" s="105">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="105">
         <f t="shared" si="70"/>
@@ -35113,7 +35113,7 @@
       </c>
       <c r="F153" s="105">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="105">
         <f t="shared" si="71"/>
@@ -35138,7 +35138,7 @@
       </c>
       <c r="F154" s="105">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="105">
         <f t="shared" si="72"/>
@@ -35166,7 +35166,7 @@
       </c>
       <c r="F155" s="105">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="105">
         <f t="shared" si="73"/>
@@ -35191,7 +35191,7 @@
       </c>
       <c r="F156" s="105">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="105">
         <f t="shared" si="74"/>
@@ -35216,7 +35216,7 @@
       </c>
       <c r="F157" s="105">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="105">
         <f t="shared" si="75"/>
@@ -35247,7 +35247,7 @@
       </c>
       <c r="F158" s="105">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="105">
         <f t="shared" si="76"/>
@@ -35264,23 +35264,23 @@
       </c>
       <c r="D159" s="105">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="105">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35295,23 +35295,23 @@
       </c>
       <c r="D160" s="105">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="105">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35328,7 +35328,7 @@
       </c>
       <c r="F161" s="105">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="105">
         <f t="shared" si="79"/>
@@ -35359,7 +35359,7 @@
       </c>
       <c r="F162" s="105">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="105">
         <f t="shared" si="80"/>
@@ -35384,7 +35384,7 @@
       </c>
       <c r="F163" s="105">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="105">
         <f t="shared" si="81"/>

--- a/inputs/fr/demo_region1_input.xlsx
+++ b/inputs/fr/demo_region1_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EEE46C-B0EE-4E20-9C83-46D66EB19905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E441185-7A9C-4BA4-93BE-8903FE59DDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -5093,7 +5093,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -6518,7 +6518,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -16733,12 +16733,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bmYrsM0SGro+R2mSZ3Xt2koRuET3d3N0YVjAPeyw0DdQUXq2freP+W1Wqg0CXnoKPniJY2bhYjWFbAI6F5/5Cg==" saltValue="VokvcnGmBUa5kvehQJbgxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16748,36 +16772,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31295,8 +31295,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31375,13 +31375,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31751,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31771,13 +31771,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31797,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31817,13 +31817,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31863,13 +31863,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31915,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31935,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31955,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31981,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32001,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32021,7 +32021,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32047,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32067,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32113,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32133,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32179,7 +32179,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32199,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32219,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32265,7 +32265,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32285,7 +32285,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32308,7 +32308,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32328,7 +32328,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32348,7 +32348,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32374,7 +32374,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32388,19 +32388,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32414,19 +32414,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32440,7 +32440,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32466,7 +32466,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32486,7 +32486,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32548,15 +32548,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32573,15 +32573,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32981,7 +32981,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33034,7 +33034,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33057,7 +33057,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="10